--- a/操作系统笔记.xlsx
+++ b/操作系统笔记.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="497"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="497" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="第一章" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="114">
   <si>
     <t>操作系统</t>
   </si>
@@ -297,6 +297,66 @@
   </si>
   <si>
     <t>ucos采用了内存块来管理，内存块的大小数量以及空闲等信息都放在内存控制记录块中，内存管理包括了内存分区的创建，分配，释放，使用，等待系统的调用</t>
+  </si>
+  <si>
+    <t>第二章：任务管理</t>
+  </si>
+  <si>
+    <t>前言：</t>
+  </si>
+  <si>
+    <t>这章开讲操作系统的核心内容，启动操作系统后，进行第一次初始化操作，OSInit，对操作系统重要的数据结构进行初始化</t>
+  </si>
+  <si>
+    <t>如任务控制块，时间控制块，就绪表等，然后创建两个系统任务，统计任务和空闲任务，然后创建一个Task Start任务</t>
+  </si>
+  <si>
+    <t>用于设置时钟中断服务程序，然后调用OSStart启动多任务，然后执行多任务</t>
+  </si>
+  <si>
+    <t>当操作系统执行OSinit之后，用户可以调用OSTaskCreate来创建用户任务，这函数是内核创建任务的，不能修改，叫做系统服务</t>
+  </si>
+  <si>
+    <t>用户自己写的叫用户函数，用户函数也可以调用OSTaskCreate创建任务，也可以调用OSTaskDel删除任务，</t>
+  </si>
+  <si>
+    <t>ucos是抢占式的任务调度，所以优先级特写重要，优先级是任务的唯一标志，每个任务都不能一样</t>
+  </si>
+  <si>
+    <t>任务的信息都存在任务控制块中，任务堆栈的地址，任务状态，任务等待时间指针，任务延时信息都存在任务控制块中</t>
+  </si>
+  <si>
+    <t>ucos设计了就绪组就绪表来标记就绪的任务，就绪的任务有上限，最多63个</t>
+  </si>
+  <si>
+    <t>任务调度程序（时钟中断服务程序）每几十毫秒就会调用一次，就从就绪表中找到最高优先级的任务，因为系统要求实时性很高</t>
+  </si>
+  <si>
+    <t>不可以任务多查表就慢，任务少查表就快，所以ucos的调度时间应该具体情况具体定，为了达到目的，ucos设计了巧妙的数据结构和算法</t>
+  </si>
+  <si>
+    <t>2.1任务管理数据结构</t>
+  </si>
+  <si>
+    <t>任务管理的数据结构包括任务控制块，任务空闲链表，任务就绪链表，任务优先级指针表，任务堆栈等。</t>
+  </si>
+  <si>
+    <t>2.1.1任务控制块</t>
+  </si>
+  <si>
+    <t>定义：</t>
+  </si>
+  <si>
+    <t>任务控制块是任务管理的核心数据结构，操作系统在启动的时候首先在内存中创建一定数量的任务控制块，</t>
+  </si>
+  <si>
+    <t>任务控制块的数量等于操作系统同时管理任务的数量</t>
+  </si>
+  <si>
+    <t>ucos将任务控制块划分为两个2个链表，就绪链表和空闲链表，创建任务就从空闲链表中拿一个控制块，</t>
+  </si>
+  <si>
+    <t>添加属性，把这控制块链到就绪链表上，任务就从睡眠态到了就绪态，结束任务就把控制块从就绪链表链到空闲链表上</t>
   </si>
 </sst>
 </file>
@@ -304,10 +364,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -346,15 +406,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,15 +433,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -390,24 +450,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -434,11 +487,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -450,24 +518,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -475,9 +527,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -509,31 +569,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,151 +749,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,17 +760,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -744,6 +793,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -761,27 +828,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -800,6 +851,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -808,10 +868,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -820,134 +880,134 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1491,8 +1551,8 @@
   <sheetPr/>
   <dimension ref="A1:AE128"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="E130" sqref="E130"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
@@ -1781,7 +1841,6 @@
       <c r="C31" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="9"/>
       <c r="J31" s="10"/>
     </row>
     <row r="32" s="9" customFormat="1" spans="1:10">
@@ -2304,10 +2363,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AE123"/>
+  <dimension ref="A1:AE122"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
@@ -2321,8 +2380,6 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
       <c r="H1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2400,122 +2457,167 @@
       <c r="AA2" s="8"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:10">
-      <c r="A3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:10">
       <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="B4" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="C4" s="2"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:10">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="J5" s="2"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:10">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="J6" s="2"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:10">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="J7" s="2"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:10">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="J8" s="2"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:10">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="J9" s="2"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:10">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="J10" s="2"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:10">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="J11" s="2"/>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:10">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="J12" s="2"/>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:10">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="J13" s="2"/>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:10">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="J14" s="2"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:10">
       <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="C15" s="2"/>
       <c r="J15" s="2"/>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:10">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="J16" s="2"/>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:10">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="J17" s="2"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:10">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="2"/>
+      <c r="D18" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="J18" s="2"/>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:10">
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
       <c r="C19" s="2"/>
+      <c r="E19" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="J19" s="2"/>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:10">
       <c r="A20" s="2"/>
       <c r="B20" s="3"/>
       <c r="C20" s="2"/>
+      <c r="E20" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="J20" s="2"/>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:10">
       <c r="A21" s="2"/>
       <c r="B21" s="3"/>
       <c r="C21" s="2"/>
+      <c r="E21" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="J21" s="2"/>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:10">
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
       <c r="C22" s="2"/>
+      <c r="E22" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="J22" s="2"/>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:10">
@@ -2526,13 +2628,13 @@
     </row>
     <row r="24" s="1" customFormat="1" spans="1:10">
       <c r="A24" s="2"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="3"/>
       <c r="J24" s="2"/>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:10">
       <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
+      <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="J25" s="2"/>
     </row>
@@ -2540,37 +2642,32 @@
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="1"/>
       <c r="J26" s="2"/>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:10">
       <c r="A27" s="2"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="1"/>
       <c r="J27" s="2"/>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:10">
       <c r="A28" s="2"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="1"/>
       <c r="J28" s="2"/>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:10">
       <c r="A29" s="2"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="1"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" s="1" customFormat="1" spans="1:10">
-      <c r="A30" s="2"/>
-      <c r="B30" s="3"/>
+    <row r="30" s="1" customFormat="1" spans="3:10">
+      <c r="C30" s="3"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" s="1" customFormat="1" spans="3:10">
-      <c r="C31" s="3"/>
+    <row r="31" s="1" customFormat="1" spans="1:10">
+      <c r="A31" s="2"/>
+      <c r="B31" s="4"/>
       <c r="J31" s="2"/>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:10">
@@ -2578,141 +2675,142 @@
       <c r="B32" s="4"/>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" s="1" customFormat="1" spans="1:10">
-      <c r="A33" s="2"/>
-      <c r="B33" s="4"/>
+    <row r="33" s="1" customFormat="1" spans="10:10">
       <c r="J33" s="2"/>
     </row>
-    <row r="34" s="1" customFormat="1" spans="10:10">
+    <row r="34" s="1" customFormat="1" spans="1:10">
+      <c r="A34" s="2"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="3"/>
       <c r="J34" s="2"/>
     </row>
     <row r="35" s="1" customFormat="1" spans="1:10">
       <c r="A35" s="2"/>
       <c r="B35" s="4"/>
-      <c r="C35" s="3"/>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" s="1" customFormat="1" spans="1:10">
-      <c r="A36" s="2"/>
-      <c r="B36" s="4"/>
+    <row r="36" s="1" customFormat="1" spans="10:10">
       <c r="J36" s="2"/>
     </row>
     <row r="37" s="1" customFormat="1" spans="10:10">
       <c r="J37" s="2"/>
     </row>
-    <row r="38" s="1" customFormat="1" spans="10:10">
+    <row r="38" s="1" customFormat="1" spans="1:10">
+      <c r="A38" s="2"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="3"/>
       <c r="J38" s="2"/>
     </row>
     <row r="39" s="1" customFormat="1" spans="1:10">
       <c r="A39" s="2"/>
-      <c r="B39" s="5"/>
+      <c r="B39" s="2"/>
       <c r="C39" s="3"/>
-      <c r="D39" s="1"/>
       <c r="J39" s="2"/>
     </row>
     <row r="40" s="1" customFormat="1" spans="1:10">
       <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="3"/>
+      <c r="B40" s="4"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" s="1" customFormat="1" spans="1:10">
-      <c r="A41" s="2"/>
-      <c r="B41" s="4"/>
+    <row r="41" s="1" customFormat="1" spans="10:10">
       <c r="J41" s="2"/>
     </row>
     <row r="42" s="1" customFormat="1" spans="10:10">
       <c r="J42" s="2"/>
     </row>
-    <row r="43" s="1" customFormat="1" spans="10:10">
+    <row r="43" s="1" customFormat="1" spans="3:10">
+      <c r="C43" s="3"/>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" s="1" customFormat="1" spans="3:10">
-      <c r="C44" s="3"/>
+    <row r="44" s="1" customFormat="1" spans="1:10">
+      <c r="A44" s="2"/>
       <c r="J44" s="2"/>
     </row>
     <row r="45" s="1" customFormat="1" spans="1:10">
       <c r="A45" s="2"/>
+      <c r="B45" s="4"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" s="1" customFormat="1" spans="1:10">
-      <c r="A46" s="2"/>
-      <c r="B46" s="4"/>
+    <row r="46" s="1" customFormat="1" spans="10:10">
       <c r="J46" s="2"/>
     </row>
-    <row r="47" s="1" customFormat="1" spans="10:10">
+    <row r="47" s="1" customFormat="1" spans="1:10">
+      <c r="A47" s="2"/>
+      <c r="D47" s="2"/>
       <c r="J47" s="2"/>
     </row>
     <row r="48" s="1" customFormat="1" spans="1:10">
       <c r="A48" s="2"/>
-      <c r="D48" s="2"/>
+      <c r="B48" s="2"/>
       <c r="J48" s="2"/>
     </row>
     <row r="49" s="1" customFormat="1" spans="1:10">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" s="1" customFormat="1" spans="1:10">
+    <row r="50" s="1" customFormat="1" spans="1:16">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
       <c r="J50" s="2"/>
-    </row>
-    <row r="51" s="1" customFormat="1" spans="1:16">
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="7"/>
+    </row>
+    <row r="51" s="1" customFormat="1" spans="1:10">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
       <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" s="7"/>
     </row>
     <row r="52" s="1" customFormat="1" spans="1:10">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
       <c r="J52" s="2"/>
     </row>
     <row r="53" s="1" customFormat="1" spans="1:10">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
       <c r="J53" s="2"/>
     </row>
-    <row r="54" s="1" customFormat="1" spans="1:10">
+    <row r="54" s="1" customFormat="1" spans="1:16">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
       <c r="J54" s="2"/>
-    </row>
-    <row r="55" s="1" customFormat="1" spans="1:16">
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="7"/>
+    </row>
+    <row r="55" s="1" customFormat="1" spans="1:10">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
+      <c r="D55" s="3"/>
       <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-      <c r="P55" s="7"/>
     </row>
     <row r="56" s="1" customFormat="1" spans="1:10">
       <c r="A56" s="2"/>
@@ -2725,7 +2823,6 @@
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="3"/>
       <c r="J57" s="2"/>
     </row>
     <row r="58" s="1" customFormat="1" spans="1:10">
@@ -2746,60 +2843,57 @@
       <c r="C60" s="2"/>
       <c r="J60" s="2"/>
     </row>
-    <row r="61" s="1" customFormat="1" spans="1:10">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="J61" s="2"/>
-    </row>
-    <row r="66" s="2" customFormat="1" spans="2:2">
-      <c r="B66" s="4"/>
+    <row r="65" s="2" customFormat="1" spans="2:2">
+      <c r="B65" s="4"/>
+    </row>
+    <row r="71" s="2" customFormat="1" spans="3:3">
+      <c r="C71" s="4"/>
     </row>
     <row r="72" s="2" customFormat="1" spans="3:3">
-      <c r="C72" s="4"/>
-    </row>
-    <row r="73" s="2" customFormat="1" spans="3:3">
-      <c r="C73" s="3"/>
-    </row>
-    <row r="75" s="2" customFormat="1" spans="3:3">
-      <c r="C75" s="7"/>
-    </row>
-    <row r="76" s="2" customFormat="1" spans="5:5">
-      <c r="E76" s="7"/>
-    </row>
-    <row r="77" s="2" customFormat="1" spans="4:4">
-      <c r="D77" s="7"/>
-    </row>
-    <row r="78" s="2" customFormat="1" spans="5:5">
-      <c r="E78" s="7"/>
-    </row>
-    <row r="79" s="2" customFormat="1" spans="4:4">
-      <c r="D79" s="7"/>
+      <c r="C72" s="3"/>
+    </row>
+    <row r="74" s="2" customFormat="1" spans="3:3">
+      <c r="C74" s="7"/>
+    </row>
+    <row r="75" s="2" customFormat="1" spans="5:5">
+      <c r="E75" s="7"/>
+    </row>
+    <row r="76" s="2" customFormat="1" spans="4:4">
+      <c r="D76" s="7"/>
+    </row>
+    <row r="77" s="2" customFormat="1" spans="5:5">
+      <c r="E77" s="7"/>
+    </row>
+    <row r="78" s="2" customFormat="1" spans="4:4">
+      <c r="D78" s="7"/>
+    </row>
+    <row r="79" s="2" customFormat="1" spans="3:3">
+      <c r="C79" s="7"/>
     </row>
     <row r="80" s="2" customFormat="1" spans="3:3">
       <c r="C80" s="7"/>
     </row>
     <row r="81" s="2" customFormat="1" spans="3:3">
-      <c r="C81" s="7"/>
+      <c r="C81" s="3"/>
     </row>
     <row r="82" s="2" customFormat="1" spans="3:3">
-      <c r="C82" s="3"/>
+      <c r="C82" s="7"/>
     </row>
     <row r="83" s="2" customFormat="1" spans="3:3">
       <c r="C83" s="7"/>
     </row>
     <row r="84" s="2" customFormat="1" spans="3:3">
-      <c r="C84" s="7"/>
-    </row>
-    <row r="85" s="2" customFormat="1" spans="3:3">
-      <c r="C85" s="3"/>
-    </row>
-    <row r="91" s="2" customFormat="1" spans="3:5">
-      <c r="C91" s="3"/>
-      <c r="E91" s="3"/>
-    </row>
-    <row r="92" s="2" customFormat="1" spans="3:3">
-      <c r="C92" s="4"/>
+      <c r="C84" s="3"/>
+    </row>
+    <row r="90" s="2" customFormat="1" spans="3:5">
+      <c r="C90" s="3"/>
+      <c r="E90" s="3"/>
+    </row>
+    <row r="91" s="2" customFormat="1" spans="3:3">
+      <c r="C91" s="4"/>
+    </row>
+    <row r="113" s="2" customFormat="1" spans="2:2">
+      <c r="B113" s="3"/>
     </row>
     <row r="114" s="2" customFormat="1" spans="2:2">
       <c r="B114" s="3"/>
@@ -2827,9 +2921,6 @@
     </row>
     <row r="122" s="2" customFormat="1" spans="2:2">
       <c r="B122" s="3"/>
-    </row>
-    <row r="123" s="2" customFormat="1" spans="2:2">
-      <c r="B123" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/操作系统笔记.xlsx
+++ b/操作系统笔记.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="497" activeTab="1"/>
+    <workbookView windowWidth="24225" windowHeight="12540" tabRatio="497" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="第一章" sheetId="2" r:id="rId1"/>
     <sheet name="第二章" sheetId="3" r:id="rId2"/>
+    <sheet name="任务控制块源码" sheetId="4" r:id="rId3"/>
+    <sheet name="书签" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="117">
   <si>
     <t>操作系统</t>
   </si>
@@ -357,6 +359,15 @@
   </si>
   <si>
     <t>添加属性，把这控制块链到就绪链表上，任务就从睡眠态到了就绪态，结束任务就把控制块从就绪链表链到空闲链表上</t>
+  </si>
+  <si>
+    <t>任务控制块的基本结构定义再os.h里面</t>
+  </si>
+  <si>
+    <t>任务控制块源码介绍：</t>
+  </si>
+  <si>
+    <t>上图</t>
   </si>
 </sst>
 </file>
@@ -364,10 +375,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -405,8 +416,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -419,8 +431,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -441,23 +482,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -465,7 +506,20 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
+      <name val="ＭＳ ゴシック"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -480,51 +534,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -534,10 +543,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -550,8 +559,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="ＭＳ ゴシック"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -569,7 +580,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,13 +634,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,31 +694,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,121 +748,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -796,8 +807,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -806,7 +817,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -855,8 +866,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -871,7 +882,7 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -880,139 +891,163 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
@@ -1024,6 +1059,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1037,30 +1075,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1247,6 +1261,977 @@
         <a:xfrm>
           <a:off x="1485900" y="16059150"/>
           <a:ext cx="2628900" cy="1805940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6210300" cy="11610975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5276850" y="38100"/>
+          <a:ext cx="8296275" cy="866775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>⑴OSTCBStkPtr</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>是个OS_STK类型的指针，OS_STK是个无符号整型，OS_STK是任务栈中每个数据项的类型，不同的硬件系统不同，用的时候得改</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>任务堆栈是最底层的，要用汇编写，因此这个指针放在结构体的第一位</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>结构体实体化后，控制块的0地址就存在OSTCBStkPtr指针里，方便了汇编语言的操作</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>229235</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95885</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4133850" y="1266825"/>
+          <a:ext cx="2781935" cy="657860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>⑵条件编译</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>一个条件编译，任务创建扩展功能就打开</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>操作系统要节约资源，所以条件编译很多</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>121285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>41910</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>106045</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矩形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5216525" y="3664585"/>
+          <a:ext cx="3369310" cy="670560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>⑶条件编译</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>如果使用消息队列，邮箱，信号量，那么就要有事件控制块，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>OSTCBEventPtr</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>指向事件控制块</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>244475</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>270510</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矩形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4702175" y="6781800"/>
+          <a:ext cx="3369310" cy="1762125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>⑷</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>任务状态</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>OSTCBStat</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>取</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>就是就绪态，看表👆</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>⑸</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>任务优先级</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>OSTCBPrio</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>，一共</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>0-63</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>个，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>62</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>和</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>63</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>为统计任务和空闲任务</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>⑹</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>这四项都和就绪表有关，就绪表中的内容对应了任务的优先级，这四项都是关于优先级的运算，目的是节约时间，具体含义👇</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6219825" y="5010150"/>
+          <a:ext cx="5924550" cy="1724025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>301625</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6245225" y="8616950"/>
+          <a:ext cx="6019800" cy="1209675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="13944600" cy="9639300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1551,8 +2536,822 @@
   <sheetPr/>
   <dimension ref="A1:AE128"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="AA18" sqref="AA18"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:T2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="4.875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="22.5" spans="1:31">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="3"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:27">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="8"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:10">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:10">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:10">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:10">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:10">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:10">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:10">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:10">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:10">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:10">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:10">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:10">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:10">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:10">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:10">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:10">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:10">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:10">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:10">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:10">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:10">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:10">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:10">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:10">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:10">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:10">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:10">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:10">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3"/>
+      <c r="D30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="3:10">
+      <c r="C31" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="1:10">
+      <c r="A32" s="2"/>
+      <c r="B32" s="4"/>
+      <c r="D32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="1:10">
+      <c r="A33" s="2"/>
+      <c r="B33" s="4"/>
+      <c r="D33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="4:10">
+      <c r="D34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="1:10">
+      <c r="A35" s="2"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="1:10">
+      <c r="A36" s="2"/>
+      <c r="B36" s="4"/>
+      <c r="D36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="4:10">
+      <c r="D37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="4:10">
+      <c r="D38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="1:10">
+      <c r="A39" s="2"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J39" s="2"/>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="1:10">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" s="1" customFormat="1" spans="1:10">
+      <c r="A41" s="2"/>
+      <c r="B41" s="4"/>
+      <c r="D41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J41" s="2"/>
+    </row>
+    <row r="42" s="1" customFormat="1" spans="4:10">
+      <c r="D42" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J42" s="2"/>
+    </row>
+    <row r="43" s="1" customFormat="1" spans="4:10">
+      <c r="D43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J43" s="2"/>
+    </row>
+    <row r="44" s="1" customFormat="1" spans="3:10">
+      <c r="C44" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J44" s="2"/>
+    </row>
+    <row r="45" s="1" customFormat="1" spans="1:10">
+      <c r="A45" s="2"/>
+      <c r="D45" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J45" s="2"/>
+    </row>
+    <row r="46" s="1" customFormat="1" spans="1:10">
+      <c r="A46" s="2"/>
+      <c r="B46" s="4"/>
+      <c r="D46" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J46" s="2"/>
+    </row>
+    <row r="47" s="1" customFormat="1" spans="4:10">
+      <c r="D47" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J47" s="2"/>
+    </row>
+    <row r="48" s="1" customFormat="1" spans="1:10">
+      <c r="A48" s="2"/>
+      <c r="D48" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J48" s="2"/>
+    </row>
+    <row r="49" s="1" customFormat="1" spans="1:10">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="E49" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J49" s="2"/>
+    </row>
+    <row r="50" s="1" customFormat="1" spans="1:10">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="E50" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J50" s="2"/>
+    </row>
+    <row r="51" s="1" customFormat="1" spans="1:16">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="7"/>
+    </row>
+    <row r="52" s="1" customFormat="1" spans="1:10">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="E52" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J52" s="2"/>
+    </row>
+    <row r="53" s="1" customFormat="1" spans="1:10">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J53" s="2"/>
+    </row>
+    <row r="54" s="1" customFormat="1" spans="1:10">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="E54" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J54" s="2"/>
+    </row>
+    <row r="55" s="1" customFormat="1" spans="1:16">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="7"/>
+    </row>
+    <row r="56" s="1" customFormat="1" spans="1:10">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="3"/>
+      <c r="J56" s="2"/>
+    </row>
+    <row r="57" s="1" customFormat="1" spans="1:10">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="3"/>
+      <c r="J57" s="2"/>
+    </row>
+    <row r="58" s="1" customFormat="1" spans="1:10">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="J58" s="2"/>
+    </row>
+    <row r="59" s="1" customFormat="1" spans="1:10">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="J59" s="2"/>
+    </row>
+    <row r="60" s="1" customFormat="1" spans="1:10">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="J60" s="2"/>
+    </row>
+    <row r="61" s="1" customFormat="1" spans="1:10">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="J61" s="2"/>
+    </row>
+    <row r="66" s="2" customFormat="1" spans="2:2">
+      <c r="B66" s="4"/>
+    </row>
+    <row r="69" s="2" customFormat="1" spans="5:5">
+      <c r="E69" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="70" s="2" customFormat="1" spans="5:5">
+      <c r="E70" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="71" s="2" customFormat="1" spans="5:5">
+      <c r="E71" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="72" s="2" customFormat="1" spans="3:5">
+      <c r="C72" s="4"/>
+      <c r="E72" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73" s="2" customFormat="1" spans="3:3">
+      <c r="C73" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="74" s="2" customFormat="1" spans="4:4">
+      <c r="D74" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" s="2" customFormat="1" spans="3:4">
+      <c r="C75" s="7"/>
+      <c r="D75" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="76" s="2" customFormat="1" spans="4:5">
+      <c r="D76" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E76" s="7"/>
+    </row>
+    <row r="77" s="2" customFormat="1" spans="4:4">
+      <c r="D77" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="78" s="2" customFormat="1" spans="4:5">
+      <c r="D78" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E78" s="7"/>
+    </row>
+    <row r="79" s="2" customFormat="1" spans="4:4">
+      <c r="D79" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="80" s="2" customFormat="1" spans="3:4">
+      <c r="C80" s="7"/>
+      <c r="D80" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="81" s="2" customFormat="1" spans="3:4">
+      <c r="C81" s="7"/>
+      <c r="D81" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="82" s="2" customFormat="1" spans="3:3">
+      <c r="C82" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="83" s="2" customFormat="1" spans="3:4">
+      <c r="C83" s="7"/>
+      <c r="D83" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="84" s="2" customFormat="1" spans="3:4">
+      <c r="C84" s="7"/>
+      <c r="D84" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="85" s="2" customFormat="1" spans="3:3">
+      <c r="C85" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="86" s="2" customFormat="1" spans="4:4">
+      <c r="D86" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="87" s="2" customFormat="1" spans="5:5">
+      <c r="E87" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="88" s="2" customFormat="1" spans="5:5">
+      <c r="E88" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="89" s="2" customFormat="1" spans="5:5">
+      <c r="E89" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="90" s="2" customFormat="1" spans="5:5">
+      <c r="E90" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="91" s="2" customFormat="1" spans="3:5">
+      <c r="C91" s="3"/>
+      <c r="E91" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="92" s="2" customFormat="1" spans="3:5">
+      <c r="C92" s="4"/>
+      <c r="E92" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="93" spans="5:5">
+      <c r="E93" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="105" spans="5:5">
+      <c r="E105" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="106" spans="6:6">
+      <c r="F106" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="107" spans="6:6">
+      <c r="F107" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="108" spans="6:6">
+      <c r="F108" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="109" spans="4:4">
+      <c r="D109" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="110" spans="5:5">
+      <c r="E110" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="111" spans="5:5">
+      <c r="E111" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="112" spans="5:5">
+      <c r="E112" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="113" spans="5:5">
+      <c r="E113" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3">
+      <c r="B115" s="3"/>
+      <c r="C115" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4">
+      <c r="B116" s="3"/>
+      <c r="D116" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4">
+      <c r="B117" s="3"/>
+      <c r="D117" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3">
+      <c r="B118" s="3"/>
+      <c r="C118" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4">
+      <c r="B119" s="3"/>
+      <c r="D119" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4">
+      <c r="B120" s="3"/>
+      <c r="D120" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4">
+      <c r="B121" s="3"/>
+      <c r="D121" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4">
+      <c r="B122" s="3"/>
+      <c r="D122" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4">
+      <c r="B123" s="3"/>
+      <c r="D123" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="125" spans="3:3">
+      <c r="C125" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="126" spans="3:3">
+      <c r="C126" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="127" spans="3:3">
+      <c r="C127" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="128" spans="3:3">
+      <c r="C128" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AE122"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
@@ -1569,8 +3368,8 @@
       <c r="H1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
       <c r="M1" s="10"/>
@@ -1640,156 +3439,196 @@
       <c r="X2" s="11"/>
       <c r="Y2" s="10"/>
       <c r="Z2" s="10"/>
-      <c r="AA2" s="16"/>
+      <c r="AA2" s="17"/>
     </row>
     <row r="3" s="9" customFormat="1" spans="1:10">
       <c r="A3" s="10" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
       <c r="J3" s="10"/>
     </row>
     <row r="4" s="9" customFormat="1" spans="1:10">
       <c r="A4" s="10"/>
-      <c r="B4" s="10" t="s">
-        <v>12</v>
+      <c r="B4" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="C4" s="10"/>
       <c r="J4" s="10"/>
     </row>
     <row r="5" s="9" customFormat="1" spans="1:10">
       <c r="A5" s="10"/>
-      <c r="B5" s="11">
-        <v>1.2</v>
-      </c>
-      <c r="C5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="10" t="s">
+        <v>96</v>
+      </c>
       <c r="J5" s="10"/>
     </row>
     <row r="6" s="9" customFormat="1" spans="1:10">
       <c r="A6" s="10"/>
-      <c r="B6" s="11">
-        <v>1.3</v>
-      </c>
-      <c r="C6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="10" t="s">
+        <v>97</v>
+      </c>
       <c r="J6" s="10"/>
     </row>
     <row r="7" s="9" customFormat="1" spans="1:10">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="10"/>
+      <c r="C7" s="10" t="s">
+        <v>98</v>
+      </c>
       <c r="J7" s="10"/>
     </row>
     <row r="8" s="9" customFormat="1" spans="1:10">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
-      <c r="C8" s="10"/>
+      <c r="C8" s="10" t="s">
+        <v>99</v>
+      </c>
       <c r="J8" s="10"/>
     </row>
     <row r="9" s="9" customFormat="1" spans="1:10">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
-      <c r="C9" s="10"/>
+      <c r="C9" s="10" t="s">
+        <v>100</v>
+      </c>
       <c r="J9" s="10"/>
     </row>
     <row r="10" s="9" customFormat="1" spans="1:10">
       <c r="A10" s="10"/>
       <c r="B10" s="11"/>
-      <c r="C10" s="10"/>
+      <c r="C10" s="10" t="s">
+        <v>101</v>
+      </c>
       <c r="J10" s="10"/>
     </row>
     <row r="11" s="9" customFormat="1" spans="1:10">
       <c r="A11" s="10"/>
       <c r="B11" s="11"/>
-      <c r="C11" s="10"/>
+      <c r="C11" s="10" t="s">
+        <v>102</v>
+      </c>
       <c r="J11" s="10"/>
     </row>
     <row r="12" s="9" customFormat="1" spans="1:10">
       <c r="A12" s="10"/>
       <c r="B12" s="11"/>
-      <c r="C12" s="10"/>
+      <c r="C12" s="10" t="s">
+        <v>103</v>
+      </c>
       <c r="J12" s="10"/>
     </row>
     <row r="13" s="9" customFormat="1" spans="1:10">
       <c r="A13" s="10"/>
       <c r="B13" s="11"/>
-      <c r="C13" s="10"/>
+      <c r="C13" s="10" t="s">
+        <v>104</v>
+      </c>
       <c r="J13" s="10"/>
     </row>
     <row r="14" s="9" customFormat="1" spans="1:10">
       <c r="A14" s="10"/>
       <c r="B14" s="11"/>
-      <c r="C14" s="10"/>
+      <c r="C14" s="10" t="s">
+        <v>105</v>
+      </c>
       <c r="J14" s="10"/>
     </row>
     <row r="15" s="9" customFormat="1" spans="1:10">
       <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
+      <c r="B15" s="11" t="s">
+        <v>106</v>
+      </c>
       <c r="C15" s="10"/>
       <c r="J15" s="10"/>
     </row>
     <row r="16" s="9" customFormat="1" spans="1:10">
       <c r="A16" s="10"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="10"/>
+      <c r="C16" s="10" t="s">
+        <v>107</v>
+      </c>
       <c r="J16" s="10"/>
     </row>
     <row r="17" s="9" customFormat="1" spans="1:10">
       <c r="A17" s="10"/>
       <c r="B17" s="11"/>
-      <c r="C17" s="10"/>
+      <c r="C17" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="J17" s="10"/>
     </row>
     <row r="18" s="9" customFormat="1" spans="1:10">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
-      <c r="C18" s="10"/>
+      <c r="D18" s="9" t="s">
+        <v>109</v>
+      </c>
       <c r="J18" s="10"/>
     </row>
     <row r="19" s="9" customFormat="1" spans="1:10">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="10"/>
+      <c r="E19" s="9" t="s">
+        <v>110</v>
+      </c>
       <c r="J19" s="10"/>
     </row>
     <row r="20" s="9" customFormat="1" spans="1:10">
       <c r="A20" s="10"/>
       <c r="B20" s="11"/>
       <c r="C20" s="10"/>
+      <c r="E20" s="9" t="s">
+        <v>111</v>
+      </c>
       <c r="J20" s="10"/>
     </row>
     <row r="21" s="9" customFormat="1" spans="1:10">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="10"/>
+      <c r="E21" s="9" t="s">
+        <v>112</v>
+      </c>
       <c r="J21" s="10"/>
     </row>
     <row r="22" s="9" customFormat="1" spans="1:10">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="10"/>
+      <c r="E22" s="9" t="s">
+        <v>113</v>
+      </c>
       <c r="J22" s="10"/>
     </row>
     <row r="23" s="9" customFormat="1" spans="1:10">
       <c r="A23" s="10"/>
-      <c r="B23" s="11">
-        <v>1.4</v>
-      </c>
+      <c r="B23" s="11"/>
       <c r="C23" s="10"/>
+      <c r="E23" s="9" t="s">
+        <v>114</v>
+      </c>
       <c r="J23" s="10"/>
     </row>
     <row r="24" s="9" customFormat="1" spans="1:10">
       <c r="A24" s="10"/>
-      <c r="B24" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="9" t="s">
+        <v>115</v>
+      </c>
       <c r="J24" s="10"/>
     </row>
     <row r="25" s="9" customFormat="1" spans="1:10">
       <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="11" t="s">
-        <v>14</v>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="E25" s="12" t="s">
+        <v>116</v>
       </c>
       <c r="J25" s="10"/>
     </row>
@@ -1797,256 +3636,175 @@
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
-      <c r="D26" s="9" t="s">
-        <v>15</v>
-      </c>
       <c r="J26" s="10"/>
     </row>
     <row r="27" s="9" customFormat="1" spans="1:10">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
-      <c r="D27" s="9" t="s">
-        <v>16</v>
-      </c>
       <c r="J27" s="10"/>
     </row>
     <row r="28" s="9" customFormat="1" spans="1:10">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
-      <c r="D28" s="9" t="s">
-        <v>17</v>
-      </c>
       <c r="J28" s="10"/>
     </row>
     <row r="29" s="9" customFormat="1" spans="1:10">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="9" t="s">
-        <v>18</v>
-      </c>
       <c r="J29" s="10"/>
     </row>
-    <row r="30" s="9" customFormat="1" spans="1:10">
-      <c r="A30" s="10"/>
-      <c r="B30" s="11"/>
-      <c r="D30" s="9" t="s">
-        <v>19</v>
-      </c>
+    <row r="30" s="9" customFormat="1" spans="3:10">
+      <c r="C30" s="11"/>
       <c r="J30" s="10"/>
     </row>
-    <row r="31" s="9" customFormat="1" spans="3:10">
-      <c r="C31" s="11" t="s">
-        <v>20</v>
-      </c>
+    <row r="31" s="9" customFormat="1" spans="1:10">
+      <c r="A31" s="10"/>
+      <c r="B31" s="13"/>
       <c r="J31" s="10"/>
     </row>
     <row r="32" s="9" customFormat="1" spans="1:10">
       <c r="A32" s="10"/>
-      <c r="B32" s="12"/>
-      <c r="D32" s="9" t="s">
-        <v>21</v>
-      </c>
+      <c r="B32" s="13"/>
       <c r="J32" s="10"/>
     </row>
-    <row r="33" s="9" customFormat="1" spans="1:10">
-      <c r="A33" s="10"/>
-      <c r="B33" s="12"/>
-      <c r="D33" s="9" t="s">
-        <v>22</v>
-      </c>
+    <row r="33" s="9" customFormat="1" spans="10:10">
       <c r="J33" s="10"/>
     </row>
-    <row r="34" s="9" customFormat="1" spans="4:10">
-      <c r="D34" s="9" t="s">
-        <v>23</v>
-      </c>
+    <row r="34" s="9" customFormat="1" spans="1:10">
+      <c r="A34" s="10"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="11"/>
       <c r="J34" s="10"/>
     </row>
     <row r="35" s="9" customFormat="1" spans="1:10">
       <c r="A35" s="10"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="11" t="s">
-        <v>24</v>
-      </c>
+      <c r="B35" s="13"/>
       <c r="J35" s="10"/>
     </row>
-    <row r="36" s="9" customFormat="1" spans="1:10">
-      <c r="A36" s="10"/>
-      <c r="B36" s="12"/>
-      <c r="D36" s="9" t="s">
-        <v>25</v>
-      </c>
+    <row r="36" s="9" customFormat="1" spans="10:10">
       <c r="J36" s="10"/>
     </row>
-    <row r="37" s="9" customFormat="1" spans="4:10">
-      <c r="D37" s="9" t="s">
-        <v>26</v>
-      </c>
+    <row r="37" s="9" customFormat="1" spans="10:10">
       <c r="J37" s="10"/>
     </row>
-    <row r="38" s="9" customFormat="1" spans="4:10">
-      <c r="D38" s="9" t="s">
-        <v>27</v>
-      </c>
+    <row r="38" s="9" customFormat="1" spans="1:10">
+      <c r="A38" s="10"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="11"/>
       <c r="J38" s="10"/>
     </row>
     <row r="39" s="9" customFormat="1" spans="1:10">
       <c r="A39" s="10"/>
-      <c r="B39" s="13"/>
+      <c r="B39" s="10"/>
       <c r="C39" s="11"/>
-      <c r="D39" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="J39" s="10"/>
     </row>
     <row r="40" s="9" customFormat="1" spans="1:10">
       <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="11" t="s">
-        <v>29</v>
-      </c>
+      <c r="B40" s="13"/>
       <c r="J40" s="10"/>
     </row>
-    <row r="41" s="9" customFormat="1" spans="1:10">
-      <c r="A41" s="10"/>
-      <c r="B41" s="12"/>
-      <c r="D41" s="9" t="s">
-        <v>30</v>
-      </c>
+    <row r="41" s="9" customFormat="1" spans="10:10">
       <c r="J41" s="10"/>
     </row>
-    <row r="42" s="9" customFormat="1" spans="4:10">
-      <c r="D42" s="9" t="s">
-        <v>31</v>
-      </c>
+    <row r="42" s="9" customFormat="1" spans="10:10">
       <c r="J42" s="10"/>
     </row>
-    <row r="43" s="9" customFormat="1" spans="4:10">
-      <c r="D43" s="9" t="s">
-        <v>32</v>
-      </c>
+    <row r="43" s="9" customFormat="1" spans="3:10">
+      <c r="C43" s="11"/>
       <c r="J43" s="10"/>
     </row>
-    <row r="44" s="9" customFormat="1" spans="3:10">
-      <c r="C44" s="11" t="s">
-        <v>33</v>
-      </c>
+    <row r="44" s="9" customFormat="1" spans="1:10">
+      <c r="A44" s="10"/>
       <c r="J44" s="10"/>
     </row>
     <row r="45" s="9" customFormat="1" spans="1:10">
       <c r="A45" s="10"/>
-      <c r="D45" s="9" t="s">
-        <v>34</v>
-      </c>
+      <c r="B45" s="13"/>
       <c r="J45" s="10"/>
     </row>
-    <row r="46" s="9" customFormat="1" spans="1:10">
-      <c r="A46" s="10"/>
-      <c r="B46" s="12"/>
-      <c r="D46" s="9" t="s">
-        <v>35</v>
-      </c>
+    <row r="46" s="9" customFormat="1" spans="10:10">
       <c r="J46" s="10"/>
     </row>
-    <row r="47" s="9" customFormat="1" spans="4:10">
-      <c r="D47" s="9" t="s">
-        <v>36</v>
-      </c>
+    <row r="47" s="9" customFormat="1" spans="1:10">
+      <c r="A47" s="10"/>
+      <c r="D47" s="10"/>
       <c r="J47" s="10"/>
     </row>
     <row r="48" s="9" customFormat="1" spans="1:10">
       <c r="A48" s="10"/>
-      <c r="D48" s="10" t="s">
-        <v>37</v>
-      </c>
+      <c r="B48" s="10"/>
       <c r="J48" s="10"/>
     </row>
     <row r="49" s="9" customFormat="1" spans="1:10">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
-      <c r="E49" s="9" t="s">
-        <v>38</v>
-      </c>
+      <c r="C49" s="10"/>
       <c r="J49" s="10"/>
     </row>
-    <row r="50" s="9" customFormat="1" spans="1:10">
+    <row r="50" s="9" customFormat="1" spans="1:16">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
-      <c r="E50" s="9" t="s">
-        <v>39</v>
-      </c>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
       <c r="J50" s="10"/>
-    </row>
-    <row r="51" s="9" customFormat="1" spans="1:16">
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="16"/>
+    </row>
+    <row r="51" s="9" customFormat="1" spans="1:10">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
-      <c r="D51" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
       <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
-      <c r="O51" s="10"/>
-      <c r="P51" s="15"/>
     </row>
     <row r="52" s="9" customFormat="1" spans="1:10">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
-      <c r="E52" s="9" t="s">
-        <v>41</v>
-      </c>
+      <c r="D52" s="10"/>
       <c r="J52" s="10"/>
     </row>
     <row r="53" s="9" customFormat="1" spans="1:10">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
-      <c r="D53" s="10" t="s">
-        <v>42</v>
-      </c>
       <c r="J53" s="10"/>
     </row>
-    <row r="54" s="9" customFormat="1" spans="1:10">
+    <row r="54" s="9" customFormat="1" spans="1:16">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
-      <c r="E54" s="9" t="s">
-        <v>43</v>
-      </c>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
       <c r="J54" s="10"/>
-    </row>
-    <row r="55" s="9" customFormat="1" spans="1:16">
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="16"/>
+    </row>
+    <row r="55" s="9" customFormat="1" spans="1:10">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
-      <c r="D55" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
+      <c r="D55" s="11"/>
       <c r="J55" s="10"/>
-      <c r="K55" s="10"/>
-      <c r="L55" s="10"/>
-      <c r="M55" s="10"/>
-      <c r="N55" s="10"/>
-      <c r="O55" s="10"/>
-      <c r="P55" s="15"/>
     </row>
     <row r="56" s="9" customFormat="1" spans="1:10">
       <c r="A56" s="10"/>
@@ -2059,7 +3817,6 @@
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
-      <c r="D57" s="11"/>
       <c r="J57" s="10"/>
     </row>
     <row r="58" s="9" customFormat="1" spans="1:10">
@@ -2080,293 +3837,101 @@
       <c r="C60" s="10"/>
       <c r="J60" s="10"/>
     </row>
-    <row r="61" s="9" customFormat="1" spans="1:10">
-      <c r="A61" s="10"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="J61" s="10"/>
-    </row>
-    <row r="66" s="10" customFormat="1" spans="2:2">
-      <c r="B66" s="12"/>
-    </row>
-    <row r="69" s="10" customFormat="1" spans="5:5">
-      <c r="E69" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="70" s="10" customFormat="1" spans="5:5">
-      <c r="E70" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="71" s="10" customFormat="1" spans="5:5">
-      <c r="E71" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="72" s="10" customFormat="1" spans="3:5">
-      <c r="C72" s="12"/>
-      <c r="E72" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="73" s="10" customFormat="1" spans="3:3">
-      <c r="C73" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="74" s="10" customFormat="1" spans="4:4">
-      <c r="D74" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="75" s="10" customFormat="1" spans="3:4">
-      <c r="C75" s="15"/>
-      <c r="D75" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="76" s="10" customFormat="1" spans="4:5">
-      <c r="D76" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E76" s="15"/>
-    </row>
-    <row r="77" s="10" customFormat="1" spans="4:4">
-      <c r="D77" s="15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="78" s="10" customFormat="1" spans="4:5">
-      <c r="D78" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E78" s="15"/>
-    </row>
-    <row r="79" s="10" customFormat="1" spans="4:4">
-      <c r="D79" s="15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="80" s="10" customFormat="1" spans="3:4">
-      <c r="C80" s="15"/>
-      <c r="D80" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="81" s="10" customFormat="1" spans="3:4">
-      <c r="C81" s="15"/>
-      <c r="D81" s="10" t="s">
-        <v>57</v>
-      </c>
+    <row r="65" s="10" customFormat="1" spans="2:2">
+      <c r="B65" s="13"/>
+    </row>
+    <row r="71" s="10" customFormat="1" spans="3:3">
+      <c r="C71" s="13"/>
+    </row>
+    <row r="72" s="10" customFormat="1" spans="3:3">
+      <c r="C72" s="11"/>
+    </row>
+    <row r="74" s="10" customFormat="1" spans="3:3">
+      <c r="C74" s="16"/>
+    </row>
+    <row r="75" s="10" customFormat="1" spans="5:5">
+      <c r="E75" s="16"/>
+    </row>
+    <row r="76" s="10" customFormat="1" spans="4:4">
+      <c r="D76" s="16"/>
+    </row>
+    <row r="77" s="10" customFormat="1" spans="5:5">
+      <c r="E77" s="16"/>
+    </row>
+    <row r="78" s="10" customFormat="1" spans="4:4">
+      <c r="D78" s="16"/>
+    </row>
+    <row r="79" s="10" customFormat="1" spans="3:3">
+      <c r="C79" s="16"/>
+    </row>
+    <row r="80" s="10" customFormat="1" spans="3:3">
+      <c r="C80" s="16"/>
+    </row>
+    <row r="81" s="10" customFormat="1" spans="3:3">
+      <c r="C81" s="11"/>
     </row>
     <row r="82" s="10" customFormat="1" spans="3:3">
-      <c r="C82" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="83" s="10" customFormat="1" spans="3:4">
-      <c r="C83" s="15"/>
-      <c r="D83" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="84" s="10" customFormat="1" spans="3:4">
-      <c r="C84" s="15"/>
-      <c r="D84" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="85" s="10" customFormat="1" spans="3:3">
-      <c r="C85" s="11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="86" s="10" customFormat="1" spans="4:4">
-      <c r="D86" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="87" s="10" customFormat="1" spans="5:5">
-      <c r="E87" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="88" s="10" customFormat="1" spans="5:5">
-      <c r="E88" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="89" s="10" customFormat="1" spans="5:5">
-      <c r="E89" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="90" s="10" customFormat="1" spans="5:5">
-      <c r="E90" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="91" s="10" customFormat="1" spans="3:5">
-      <c r="C91" s="11"/>
-      <c r="E91" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="92" s="10" customFormat="1" spans="3:5">
-      <c r="C92" s="12"/>
-      <c r="E92" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="93" spans="5:5">
-      <c r="E93" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="105" spans="5:5">
-      <c r="E105" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="106" spans="6:6">
-      <c r="F106" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="107" spans="6:6">
-      <c r="F107" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="108" spans="6:6">
-      <c r="F108" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="109" spans="4:4">
-      <c r="D109" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="110" spans="5:5">
-      <c r="E110" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="111" spans="5:5">
-      <c r="E111" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="112" spans="5:5">
-      <c r="E112" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="113" spans="5:5">
-      <c r="E113" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="114" spans="2:2">
-      <c r="B114" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="115" spans="2:3">
+      <c r="C82" s="16"/>
+    </row>
+    <row r="83" s="10" customFormat="1" spans="3:3">
+      <c r="C83" s="16"/>
+    </row>
+    <row r="84" s="10" customFormat="1" spans="3:3">
+      <c r="C84" s="11"/>
+    </row>
+    <row r="90" s="10" customFormat="1" spans="3:5">
+      <c r="C90" s="11"/>
+      <c r="E90" s="11"/>
+    </row>
+    <row r="91" s="10" customFormat="1" spans="3:3">
+      <c r="C91" s="13"/>
+    </row>
+    <row r="113" s="10" customFormat="1" spans="2:2">
+      <c r="B113" s="11"/>
+    </row>
+    <row r="114" s="10" customFormat="1" spans="2:2">
+      <c r="B114" s="11"/>
+    </row>
+    <row r="115" s="10" customFormat="1" spans="2:2">
       <c r="B115" s="11"/>
-      <c r="C115" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="116" spans="2:4">
+    </row>
+    <row r="116" s="10" customFormat="1" spans="2:2">
       <c r="B116" s="11"/>
-      <c r="D116" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="117" spans="2:4">
+    </row>
+    <row r="117" s="10" customFormat="1" spans="2:2">
       <c r="B117" s="11"/>
-      <c r="D117" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="118" spans="2:3">
+    </row>
+    <row r="118" s="10" customFormat="1" spans="2:2">
       <c r="B118" s="11"/>
-      <c r="C118" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="119" spans="2:4">
+    </row>
+    <row r="119" s="10" customFormat="1" spans="2:2">
       <c r="B119" s="11"/>
-      <c r="D119" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="120" spans="2:4">
+    </row>
+    <row r="120" s="10" customFormat="1" spans="2:2">
       <c r="B120" s="11"/>
-      <c r="D120" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="121" spans="2:4">
+    </row>
+    <row r="121" s="10" customFormat="1" spans="2:2">
       <c r="B121" s="11"/>
-      <c r="D121" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="122" spans="2:4">
+    </row>
+    <row r="122" s="10" customFormat="1" spans="2:2">
       <c r="B122" s="11"/>
-      <c r="D122" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="123" spans="2:4">
-      <c r="B123" s="11"/>
-      <c r="D123" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="124" spans="2:2">
-      <c r="B124" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="125" spans="3:3">
-      <c r="C125" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="126" spans="3:3">
-      <c r="C126" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="127" spans="3:3">
-      <c r="C127" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="128" spans="3:3">
-      <c r="C128" s="10" t="s">
-        <v>93</v>
-      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E25" location="任务控制块源码!A1" display="上图"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AE122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="X47" sqref="X47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
@@ -2380,9 +3945,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="H1" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="H1" s="2"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="2"/>
@@ -2393,21 +3956,11 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
-      <c r="S1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="2"/>
       <c r="X1" s="3"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
@@ -2436,188 +3989,136 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
-      <c r="S2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
       <c r="X2" s="3"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="8"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:10">
-      <c r="A3" s="2" t="s">
-        <v>94</v>
-      </c>
+      <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:10">
       <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
-        <v>95</v>
-      </c>
+      <c r="B4" s="3"/>
       <c r="C4" s="2"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:10">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="C5" s="2"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:10">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="2" t="s">
-        <v>97</v>
-      </c>
+      <c r="C6" s="2"/>
       <c r="J6" s="2"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:10">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="C7" s="2"/>
       <c r="J7" s="2"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:10">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="2" t="s">
-        <v>99</v>
-      </c>
+      <c r="C8" s="2"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:10">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="C9" s="2"/>
       <c r="J9" s="2"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:10">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="2" t="s">
-        <v>101</v>
-      </c>
+      <c r="C10" s="2"/>
       <c r="J10" s="2"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:10">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="2" t="s">
-        <v>102</v>
-      </c>
+      <c r="C11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:10">
+    <row r="12" s="1" customFormat="1" spans="1:18">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="C12" s="2"/>
       <c r="J12" s="2"/>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:10">
+      <c r="R12" s="2"/>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:18">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="2" t="s">
-        <v>104</v>
-      </c>
+      <c r="C13" s="2"/>
       <c r="J13" s="2"/>
+      <c r="R13" s="2"/>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:10">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="C14" s="2"/>
       <c r="J14" s="2"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:10">
       <c r="A15" s="2"/>
-      <c r="B15" s="3" t="s">
-        <v>106</v>
-      </c>
+      <c r="B15" s="3"/>
       <c r="C15" s="2"/>
       <c r="J15" s="2"/>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:10">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="2" t="s">
-        <v>107</v>
-      </c>
+      <c r="C16" s="2"/>
       <c r="J16" s="2"/>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:10">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="2" t="s">
-        <v>108</v>
-      </c>
+      <c r="C17" s="2"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:10">
+    <row r="18" s="1" customFormat="1" spans="1:18">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
-      <c r="D18" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="J18" s="2"/>
+      <c r="R18" s="2"/>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:10">
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
       <c r="C19" s="2"/>
-      <c r="E19" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="J19" s="2"/>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:10">
       <c r="A20" s="2"/>
       <c r="B20" s="3"/>
       <c r="C20" s="2"/>
-      <c r="E20" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="J20" s="2"/>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:10">
       <c r="A21" s="2"/>
       <c r="B21" s="3"/>
       <c r="C21" s="2"/>
-      <c r="E21" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="J21" s="2"/>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:10">
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
       <c r="C22" s="2"/>
-      <c r="E22" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="J22" s="2"/>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:10">
@@ -2925,5 +4426,23 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/操作系统笔记.xlsx
+++ b/操作系统笔记.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540" tabRatio="497" activeTab="1"/>
+    <workbookView windowWidth="24225" windowHeight="12540" tabRatio="812" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="第一章" sheetId="2" r:id="rId1"/>
     <sheet name="第二章" sheetId="3" r:id="rId2"/>
     <sheet name="任务控制块源码" sheetId="4" r:id="rId3"/>
-    <sheet name="书签" sheetId="5" r:id="rId4"/>
+    <sheet name="任务控制块Init源码" sheetId="9" r:id="rId4"/>
+    <sheet name="书签" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="173">
   <si>
     <t>操作系统</t>
   </si>
@@ -368,6 +369,174 @@
   </si>
   <si>
     <t>上图</t>
+  </si>
+  <si>
+    <t>任务控制块实体：</t>
+  </si>
+  <si>
+    <t>ucosII已结构体数组形成任务控制块的实体，在ucos_ii.h里有定义</t>
+  </si>
+  <si>
+    <t>OS_MAX_TASKS表示最大的用户数量，OS_N_SYS_TASKS表示系统任务数，一般情况下为了节省空间，OS_MAX_TASKS尽量设置的小</t>
+  </si>
+  <si>
+    <t>2.1.2空闲链表和就绪链表</t>
+  </si>
+  <si>
+    <t>ucosII把任务控制分成两个链表，空闲链表和就绪链表，空闲链表包含了所有的空闲任务块。空闲控制块就是没分配给具体任务的控制块</t>
+  </si>
+  <si>
+    <t>创建新任务前提条件是还有空闲的任务块。就绪链表连着所有的就绪任务块，创建新任务就把控制块从空闲的链表链到就绪链表上</t>
+  </si>
+  <si>
+    <t>操作系统刚启动时，没执行程序，只有一节任务控制块的数组，链表还没创建，这两个链表在OSInit中创建</t>
+  </si>
+  <si>
+    <t>OSTCBFreeList指向链表的表头，链表的尾部指向0地址，OSTCBFreeList指向0地址则链表就是空，OSTCBList就绪指针也同理</t>
+  </si>
+  <si>
+    <t>创建任务时如何将空闲链表的控制块移动到就绪链表中呢？插入头还是尾呢？</t>
+  </si>
+  <si>
+    <t>创建一个任务，OSTCBFreeList指向的任务块1被分配了，OSTCBFreeList指向任务块2，这是控制块1会插入到就绪表到表头，OSTCBLis指向新插入的任务</t>
+  </si>
+  <si>
+    <t>就绪链表是双向链表，空闲链表是单项链表</t>
+  </si>
+  <si>
+    <t>空闲链表指针OSTCBFreeList永远指向空闲链表的表头，如果OSTCBFreeList指向了0，就说明空闲链表没东西了。</t>
+  </si>
+  <si>
+    <t>就绪链表指针OSTCBList永远指向就绪链表的表头，OSTCBList指向0说明就绪链没任务了</t>
+  </si>
+  <si>
+    <t>2.1.3任务优先级指针表</t>
+  </si>
+  <si>
+    <t>任务优先级指针表就是任务优先级指针数组OSTCBPrioTbl</t>
+  </si>
+  <si>
+    <t>作用是用来获取某优先级的任务的任务控制块地址</t>
+  </si>
+  <si>
+    <t>OS_LOWEST_PRIO为最低优先级的任务优先级，因为低优先级任务ID的值最大</t>
+  </si>
+  <si>
+    <t>假设现在创建一个任务，优先级是5，取得任务控制块的地址后，把地址赋给OSTCBPrioTbl[5]，以后查优先级的时候就不用遍历链表了，直接遍历OSTCBPrioTbl数组就行了，</t>
+  </si>
+  <si>
+    <t>2.1.4任务堆栈</t>
+  </si>
+  <si>
+    <t>为了满足切换任务和响应中断时保存的CPU寄存器中的内容，以及存储任务私有数据的需要，每个任务都有自己的堆栈</t>
+  </si>
+  <si>
+    <t>当任务进行切换的时候，将CPU寄存器的内容入栈，恢复的时候再拿出来给CPU寄存器，任务堆栈时任务的重要组成部分</t>
+  </si>
+  <si>
+    <t>关于堆栈的代码如下：</t>
+  </si>
+  <si>
+    <t>TASK_STK_SIZE是每个任务栈的大小，OS_MAX_THASKS是任务的最大数量，OS_STK是任务栈的类型，这里用的32位芯片，所以是unsigned int</t>
+  </si>
+  <si>
+    <t>因为是32位的单片机，OS_STK类型的指针移动一下就要偏移32位，也就是4字节，一个任务栈的大小就是32*512/8=2048个字节，堆栈可以自己定义，不一定非要弄个二维数组，</t>
+  </si>
+  <si>
+    <t>任务堆栈有两种，地址向下增长的，PC采用的就是这种堆栈，一种是地址向上增长，嵌入式实时操作系统得兼容这两种模式</t>
+  </si>
+  <si>
+    <t>OSTCBStkPtr实际上就是只想任务栈的栈顶指针，OSTBCStkSize是任务栈的大小，OSTCBStkBottom是栈底指针，栈顶和栈底重合了，</t>
+  </si>
+  <si>
+    <t>2.1.5任务就绪表和就绪组</t>
+  </si>
+  <si>
+    <t>内核再进行任务调度时必须知道哪个任务在运行，哪个任务是就绪最高优先级的任务，实时任务调度的关键在于速度，无论系统运行的情况如何，调度的时间是确定的，不能把时间都用在调度上</t>
+  </si>
+  <si>
+    <t>因此就得设计高效的调度方法，查找高优先级的任务，与正在执行的任务进行对比，判断是否需要切换，这种判断是每个时钟中断都需要做的事情，</t>
+  </si>
+  <si>
+    <t>为满足这样的需求，ucos开发了就绪表和就绪组这样的数据结构</t>
+  </si>
+  <si>
+    <t>代码如下：</t>
+  </si>
+  <si>
+    <t>OS_LOWEST_PRIO是优先级最低的任务优先级，因为ucos最多同时就绪64个任务，</t>
+  </si>
+  <si>
+    <t>而优先级是0-63，假如设置63，那OS_RDY_TBL_SIZE就是8，OSRdyTbl最多8个元素</t>
+  </si>
+  <si>
+    <t>OSRdyTbl是就绪组，类型是unsigned char，OSRdyTbl中每个元素都是8</t>
+  </si>
+  <si>
+    <t>ucos规定每个任务都在就绪表有对应的位置，就绪了就置1，空闲就置0。只要就绪表的一行中有一个是1，那就绪组对应的比特也置1，只有就绪表的一行全0，就绪组的对应比特才是0.</t>
+  </si>
+  <si>
+    <t>设置优先级的方式也很简单，优先级6位有效，因为最多63，优先级的/8.就是组的第几个比特位</t>
+  </si>
+  <si>
+    <t>优先级%8，就是表的第几行的第几个比特，里面涉及到进制转换，通过查表完成</t>
+  </si>
+  <si>
+    <t>综上，ucos通过OSMapTbl的组来设置优先级表和组，这样设置的时间最颠，满足系统要求</t>
+  </si>
+  <si>
+    <t>在系统调度的时候，要查优先级最高的任务采用分组管理的方法，这样节省时间，加入直接遍历表的话表比较大浪费时间</t>
+  </si>
+  <si>
+    <t>获取优先级最高任务的代码如下：</t>
+  </si>
+  <si>
+    <t>通过优先级组的值查OSUnMaoTbl表能查出优先级最高的任务在优先级表中的哪一行，用y表示</t>
+  </si>
+  <si>
+    <t>看这个代码可见，获取就绪任务中最高优先级的方法是用就绪组的值查表找到最高优先级在表的第几行，再查一遍表找到就绪表中最优先任务在行中所在的序号，在通过加上y&lt;3的操作，找到最优先的任务</t>
+  </si>
+  <si>
+    <t>这样就相当于事先算好，用的时候查表，省着用的时候现算，也就是空间换时间</t>
+  </si>
+  <si>
+    <t>2.2任务控制块初始化</t>
+  </si>
+  <si>
+    <t>2.2.1代码：</t>
+  </si>
+  <si>
+    <t>内核进行任务调度的时候必须知道哪个任务再运行，哪个任务是继续态优先级最高的，任务控制块的初始化函数代码如下：</t>
+  </si>
+  <si>
+    <t>这个任务是ucos的内部函数，当任务被创建的时候用来初始化任务控制块，</t>
+  </si>
+  <si>
+    <t>这函数是系统内部函数，外部不应该调用</t>
+  </si>
+  <si>
+    <t>源码：</t>
+  </si>
+  <si>
+    <t>2.2.2流程分析：</t>
+  </si>
+  <si>
+    <t>操作系统要创建一个任务时，如果有空闲链表里有任务块，就可以创建，创建时取下一个控制块然后把各区域进行赋值，</t>
+  </si>
+  <si>
+    <t>然后调用两个钩子函数，钩子函数允许用户自己写代码，默认为空，然后对任务优先级指针表和就绪组和就绪表进行相关操作</t>
+  </si>
+  <si>
+    <t>传送-&gt;</t>
+  </si>
+  <si>
+    <t>2.3操作系统初始化</t>
+  </si>
+  <si>
+    <t>源码</t>
+  </si>
+  <si>
+    <t>流程</t>
   </si>
 </sst>
 </file>
@@ -375,9 +544,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -425,21 +594,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -447,7 +601,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -461,16 +630,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -484,9 +654,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ ゴシック"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -505,17 +687,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="ＭＳ ゴシック"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -528,7 +713,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -537,29 +729,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -580,7 +749,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,19 +863,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,145 +923,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -774,6 +943,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -785,6 +978,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -822,21 +1030,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -847,30 +1040,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -879,10 +1048,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -891,138 +1060,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1075,6 +1244,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1277,6 +1449,671 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>165735</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>116840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>127635</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>2540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5737860" y="4517390"/>
+          <a:ext cx="11849100" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>170815</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>88265</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>160655</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1114425" y="5942965"/>
+          <a:ext cx="2317115" cy="2047240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>92710</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>358775</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>149860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4654550" y="8950960"/>
+          <a:ext cx="12049125" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>281305</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>24130</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>340360</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2510155" y="10082530"/>
+          <a:ext cx="2287905" cy="433070"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>60325</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>127635</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1485900" y="12115800"/>
+          <a:ext cx="3032125" cy="641985"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>132715</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>14605</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>81280</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="文本框 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3654425" y="12419965"/>
+          <a:ext cx="446405" cy="291465"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="600"/>
+            <a:t>就绪组</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="600"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="600"/>
+            <a:t>就绪表</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>252095</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>102235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>310515</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直接箭头连接符 7"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2480945" y="12560935"/>
+          <a:ext cx="1172845" cy="4445"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>73025</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>310515</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>48895</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直接箭头连接符 8"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3416300" y="12565380"/>
+          <a:ext cx="237490" cy="113665"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>108585</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1485900" y="12801600"/>
+          <a:ext cx="3017520" cy="1651635"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>358775</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>151130</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1485900" y="16059150"/>
+          <a:ext cx="3330575" cy="322580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>370840</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1113790" y="17621250"/>
+          <a:ext cx="1412240" cy="796925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4445</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>26035</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>245110</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>73660</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="矩形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2604770" y="17628235"/>
+          <a:ext cx="1726565" cy="1247775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="700"/>
+            <a:t>被创建的任务的优先级</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="700"/>
+            <a:t>任务栈的栈顶地址</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="700"/>
+            <a:t>任务栈的栈底地址</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="700"/>
+            <a:t>任务的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="700"/>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="700"/>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="700"/>
+            <a:t>16</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="700"/>
+            <a:t>位的</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="700"/>
+            <a:t>任务堆栈的大小</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="700"/>
+            <a:t>任务控制块的扩展地址</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="700"/>
+            <a:t>其他选项</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="700">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>返回值有两种：</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="700"/>
+            <a:t>调用成功</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="700"/>
+            <a:t>没有空闲的任务控制块</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2200,24 +3037,24 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="7" name="图片 6"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2230,8 +3067,50 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="13944600" cy="9639300"/>
+          <a:off x="0" y="171450"/>
+          <a:ext cx="5610225" cy="13173075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="13716000"/>
+          <a:ext cx="4333875" cy="6934200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3348,10 +4227,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AE122"/>
+  <dimension ref="A1:AE121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="G118" sqref="G118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
@@ -3636,46 +4515,73 @@
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
+      <c r="D26" s="9" t="s">
+        <v>117</v>
+      </c>
       <c r="J26" s="10"/>
     </row>
     <row r="27" s="9" customFormat="1" spans="1:10">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
+      <c r="E27" s="9" t="s">
+        <v>118</v>
+      </c>
       <c r="J27" s="10"/>
     </row>
     <row r="28" s="9" customFormat="1" spans="1:10">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
+      <c r="E28" s="9" t="s">
+        <v>119</v>
+      </c>
       <c r="J28" s="10"/>
     </row>
     <row r="29" s="9" customFormat="1" spans="1:10">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
+      <c r="C29" s="10" t="s">
+        <v>120</v>
+      </c>
       <c r="J29" s="10"/>
     </row>
     <row r="30" s="9" customFormat="1" spans="3:10">
       <c r="C30" s="11"/>
+      <c r="D30" s="9" t="s">
+        <v>121</v>
+      </c>
       <c r="J30" s="10"/>
     </row>
     <row r="31" s="9" customFormat="1" spans="1:10">
       <c r="A31" s="10"/>
       <c r="B31" s="13"/>
+      <c r="D31" s="9" t="s">
+        <v>122</v>
+      </c>
       <c r="J31" s="10"/>
     </row>
     <row r="32" s="9" customFormat="1" spans="1:10">
       <c r="A32" s="10"/>
       <c r="B32" s="13"/>
+      <c r="D32" s="9" t="s">
+        <v>123</v>
+      </c>
       <c r="J32" s="10"/>
     </row>
-    <row r="33" s="9" customFormat="1" spans="10:10">
+    <row r="33" s="9" customFormat="1" spans="4:10">
+      <c r="D33" s="9" t="s">
+        <v>124</v>
+      </c>
       <c r="J33" s="10"/>
     </row>
     <row r="34" s="9" customFormat="1" spans="1:10">
       <c r="A34" s="10"/>
       <c r="B34" s="13"/>
       <c r="C34" s="11"/>
+      <c r="D34" s="9" t="s">
+        <v>125</v>
+      </c>
       <c r="J34" s="10"/>
     </row>
     <row r="35" s="9" customFormat="1" spans="1:10">
@@ -3730,25 +4636,35 @@
     </row>
     <row r="47" s="9" customFormat="1" spans="1:10">
       <c r="A47" s="10"/>
-      <c r="D47" s="10"/>
+      <c r="D47" s="10" t="s">
+        <v>126</v>
+      </c>
       <c r="J47" s="10"/>
     </row>
     <row r="48" s="9" customFormat="1" spans="1:10">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
+      <c r="D48" s="9" t="s">
+        <v>127</v>
+      </c>
       <c r="J48" s="10"/>
     </row>
     <row r="49" s="9" customFormat="1" spans="1:10">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
+      <c r="D49" s="9" t="s">
+        <v>128</v>
+      </c>
       <c r="J49" s="10"/>
     </row>
     <row r="50" s="9" customFormat="1" spans="1:16">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
+      <c r="D50" s="10" t="s">
+        <v>129</v>
+      </c>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
@@ -3765,27 +4681,36 @@
     <row r="51" s="9" customFormat="1" spans="1:10">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
+      <c r="C51" s="10" t="s">
+        <v>130</v>
+      </c>
       <c r="J51" s="10"/>
     </row>
     <row r="52" s="9" customFormat="1" spans="1:10">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
+      <c r="D52" s="10" t="s">
+        <v>131</v>
+      </c>
       <c r="J52" s="10"/>
     </row>
     <row r="53" s="9" customFormat="1" spans="1:10">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
+      <c r="D53" s="9" t="s">
+        <v>132</v>
+      </c>
       <c r="J53" s="10"/>
     </row>
     <row r="54" s="9" customFormat="1" spans="1:16">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
+      <c r="D54" s="10" t="s">
+        <v>133</v>
+      </c>
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
@@ -3803,13 +4728,17 @@
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
-      <c r="D55" s="11"/>
+      <c r="D55" s="11" t="s">
+        <v>134</v>
+      </c>
       <c r="J55" s="10"/>
     </row>
     <row r="56" s="9" customFormat="1" spans="1:10">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
+      <c r="C56" s="10" t="s">
+        <v>135</v>
+      </c>
       <c r="D56" s="11"/>
       <c r="J56" s="10"/>
     </row>
@@ -3817,18 +4746,27 @@
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
+      <c r="D57" s="9" t="s">
+        <v>136</v>
+      </c>
       <c r="J57" s="10"/>
     </row>
     <row r="58" s="9" customFormat="1" spans="1:10">
       <c r="A58" s="10"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
+      <c r="D58" s="9" t="s">
+        <v>137</v>
+      </c>
       <c r="J58" s="10"/>
     </row>
     <row r="59" s="9" customFormat="1" spans="1:10">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
+      <c r="D59" s="9" t="s">
+        <v>138</v>
+      </c>
       <c r="J59" s="10"/>
     </row>
     <row r="60" s="9" customFormat="1" spans="1:10">
@@ -3837,69 +4775,206 @@
       <c r="C60" s="10"/>
       <c r="J60" s="10"/>
     </row>
-    <row r="65" s="10" customFormat="1" spans="2:2">
+    <row r="62" spans="4:4">
+      <c r="D62" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="63" spans="4:4">
+      <c r="D63" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="64" spans="4:4">
+      <c r="D64" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="65" s="10" customFormat="1" spans="2:4">
       <c r="B65" s="13"/>
-    </row>
-    <row r="71" s="10" customFormat="1" spans="3:3">
-      <c r="C71" s="13"/>
+      <c r="D65" s="10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3">
+      <c r="C66" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="67" spans="4:4">
+      <c r="D67" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4">
+      <c r="D68" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="69" s="10" customFormat="1" spans="3:4">
+      <c r="C69" s="13"/>
+      <c r="D69" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="70" s="10" customFormat="1" spans="3:4">
+      <c r="C70" s="11"/>
+      <c r="D70" s="10" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="72" s="10" customFormat="1" spans="3:3">
-      <c r="C72" s="11"/>
-    </row>
-    <row r="74" s="10" customFormat="1" spans="3:3">
-      <c r="C74" s="16"/>
-    </row>
-    <row r="75" s="10" customFormat="1" spans="5:5">
-      <c r="E75" s="16"/>
+      <c r="C72" s="16"/>
+    </row>
+    <row r="73" s="10" customFormat="1" spans="5:5">
+      <c r="E73" s="16"/>
+    </row>
+    <row r="74" s="10" customFormat="1" spans="4:4">
+      <c r="D74" s="16"/>
     </row>
     <row r="76" s="10" customFormat="1" spans="4:4">
       <c r="D76" s="16"/>
     </row>
-    <row r="77" s="10" customFormat="1" spans="5:5">
-      <c r="E77" s="16"/>
-    </row>
-    <row r="78" s="10" customFormat="1" spans="4:4">
-      <c r="D78" s="16"/>
+    <row r="77" s="10" customFormat="1" spans="3:3">
+      <c r="C77" s="16"/>
+    </row>
+    <row r="78" s="10" customFormat="1" spans="3:3">
+      <c r="C78" s="16"/>
     </row>
     <row r="79" s="10" customFormat="1" spans="3:3">
-      <c r="C79" s="16"/>
+      <c r="C79" s="11"/>
     </row>
     <row r="80" s="10" customFormat="1" spans="3:3">
       <c r="C80" s="16"/>
     </row>
     <row r="81" s="10" customFormat="1" spans="3:3">
-      <c r="C81" s="11"/>
+      <c r="C81" s="16"/>
     </row>
     <row r="82" s="10" customFormat="1" spans="3:3">
-      <c r="C82" s="16"/>
-    </row>
-    <row r="83" s="10" customFormat="1" spans="3:3">
-      <c r="C83" s="16"/>
-    </row>
-    <row r="84" s="10" customFormat="1" spans="3:3">
-      <c r="C84" s="11"/>
-    </row>
-    <row r="90" s="10" customFormat="1" spans="3:5">
-      <c r="C90" s="11"/>
-      <c r="E90" s="11"/>
-    </row>
-    <row r="91" s="10" customFormat="1" spans="3:3">
-      <c r="C91" s="13"/>
-    </row>
-    <row r="113" s="10" customFormat="1" spans="2:2">
+      <c r="C82" s="11"/>
+    </row>
+    <row r="85" spans="5:5">
+      <c r="E85" s="16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="86" spans="5:5">
+      <c r="E86" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="87" spans="5:5">
+      <c r="E87" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="88" s="10" customFormat="1" spans="3:5">
+      <c r="C88" s="11"/>
+      <c r="E88" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="89" s="10" customFormat="1" spans="3:5">
+      <c r="C89" s="13"/>
+      <c r="E89" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="90" spans="5:5">
+      <c r="E90" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="91" spans="5:5">
+      <c r="E91" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="92" spans="5:5">
+      <c r="E92" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="93" spans="5:5">
+      <c r="E93" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="96" spans="5:5">
+      <c r="E96" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="97" spans="5:5">
+      <c r="E97" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="98" spans="5:5">
+      <c r="E98" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" s="10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3">
+      <c r="C100" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="101" spans="4:4">
+      <c r="D101" s="10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="102" spans="4:4">
+      <c r="D102" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="111" s="10" customFormat="1" spans="2:4">
+      <c r="B111" s="11"/>
+      <c r="D111" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="112" s="10" customFormat="1" spans="2:4">
+      <c r="B112" s="11"/>
+      <c r="D112" s="18" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="113" s="10" customFormat="1" spans="2:3">
       <c r="B113" s="11"/>
-    </row>
-    <row r="114" s="10" customFormat="1" spans="2:2">
+      <c r="C113" s="10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="114" s="10" customFormat="1" spans="2:4">
       <c r="B114" s="11"/>
-    </row>
-    <row r="115" s="10" customFormat="1" spans="2:2">
+      <c r="D114" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="115" s="10" customFormat="1" spans="2:4">
       <c r="B115" s="11"/>
-    </row>
-    <row r="116" s="10" customFormat="1" spans="2:2">
+      <c r="D115" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="116" s="10" customFormat="1" spans="2:4">
       <c r="B116" s="11"/>
+      <c r="D116" s="18" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="117" s="10" customFormat="1" spans="2:2">
-      <c r="B117" s="11"/>
+      <c r="B117" s="11" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="118" s="10" customFormat="1" spans="2:2">
       <c r="B118" s="11"/>
@@ -3912,16 +4987,16 @@
     </row>
     <row r="121" s="10" customFormat="1" spans="2:2">
       <c r="B121" s="11"/>
-    </row>
-    <row r="122" s="10" customFormat="1" spans="2:2">
-      <c r="B122" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E25" location="任务控制块源码!A1" display="上图"/>
+    <hyperlink ref="D112" location="任务控制块Init源码!A1" display="源码："/>
+    <hyperlink ref="D116" location="任务控制块Init源码!A1" display="传送-&gt;"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3930,8 +5005,8 @@
   <sheetPr/>
   <dimension ref="A1:AE122"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="X47" sqref="X47"/>
+    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
@@ -4433,9 +5508,40 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:A80"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="V9" sqref="V9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="4.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>172</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
@@ -4443,6 +5549,5 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/操作系统笔记.xlsx
+++ b/操作系统笔记.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540" tabRatio="812" activeTab="1"/>
+    <workbookView windowWidth="24225" windowHeight="12540" tabRatio="812" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="第一章" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="175">
   <si>
     <t>操作系统</t>
   </si>
@@ -531,6 +531,12 @@
   </si>
   <si>
     <t>2.3操作系统初始化</t>
+  </si>
+  <si>
+    <t>操作系统初始化函数OS_Init是运行操作系统时就跑的，对全京城汴梁，任务控制块，就绪表，事件消息队列等数据结构进行初始化的，</t>
+  </si>
+  <si>
+    <t>并创建空闲任务，统计任务等，该函数必须在创建用户对象和OS_Start启动实时任务调度之前运行</t>
   </si>
   <si>
     <t>源码</t>
@@ -544,9 +550,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -594,21 +600,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -623,6 +615,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -630,7 +636,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -644,36 +658,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="ＭＳ ゴシック"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -690,6 +683,14 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -720,15 +721,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <name val="ＭＳ ゴシック"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -749,7 +755,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,13 +797,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,7 +815,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -791,7 +827,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -803,43 +899,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -851,7 +917,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -863,73 +935,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -940,15 +946,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -982,17 +979,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1008,6 +999,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1048,10 +1054,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1060,134 +1066,134 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3126,6 +3132,53 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2571750"/>
+          <a:ext cx="6524625" cy="4057650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -4229,8 +4282,8 @@
   <sheetPr/>
   <dimension ref="A1:AE121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="G118" sqref="G118"/>
+    <sheetView zoomScale="250" zoomScaleNormal="250" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="C121" sqref="C121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
@@ -4976,11 +5029,17 @@
         <v>170</v>
       </c>
     </row>
-    <row r="118" s="10" customFormat="1" spans="2:2">
+    <row r="118" s="10" customFormat="1" spans="2:3">
       <c r="B118" s="11"/>
-    </row>
-    <row r="119" s="10" customFormat="1" spans="2:2">
+      <c r="C118" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="119" s="10" customFormat="1" spans="2:3">
       <c r="B119" s="11"/>
+      <c r="C119" s="10" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="120" s="10" customFormat="1" spans="2:2">
       <c r="B120" s="11"/>
@@ -5521,12 +5580,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -5541,13 +5600,14 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/操作系统笔记.xlsx
+++ b/操作系统笔记.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540" tabRatio="812" activeTab="4"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="812" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="第一章" sheetId="2" r:id="rId1"/>
     <sheet name="第二章" sheetId="3" r:id="rId2"/>
     <sheet name="任务控制块源码" sheetId="4" r:id="rId3"/>
     <sheet name="任务控制块Init源码" sheetId="9" r:id="rId4"/>
-    <sheet name="书签" sheetId="5" r:id="rId5"/>
+    <sheet name="OS_Init源码" sheetId="10" r:id="rId5"/>
+    <sheet name="书签" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="199">
   <si>
     <t>操作系统</t>
   </si>
@@ -533,16 +534,88 @@
     <t>2.3操作系统初始化</t>
   </si>
   <si>
-    <t>操作系统初始化函数OS_Init是运行操作系统时就跑的，对全京城汴梁，任务控制块，就绪表，事件消息队列等数据结构进行初始化的，</t>
+    <t>操作系统初始化函数OS_Init是运行操作系统时就跑的，对全局变量，任务控制块，就绪表，事件消息队列等数据结构进行初始化的，</t>
   </si>
   <si>
     <t>并创建空闲任务，统计任务等，该函数必须在创建用户对象和OS_Start启动实时任务调度之前运行</t>
   </si>
   <si>
+    <t>2.3.1代码解析</t>
+  </si>
+  <si>
+    <t>内核初始化函数采用模块化编程，该函数分为若干个子块，每个子块实现一定的功能，操作系统初始化函数OS_Init程序如下</t>
+  </si>
+  <si>
+    <t>2.3.1流程分析</t>
+  </si>
+  <si>
+    <t>操作系统初始化是操作系统开始运行时首先要执行的函数，对操作系统使用的全局变量，数据结构，控制块，链表等初始化，然后创建两个系统任务，</t>
+  </si>
+  <si>
+    <t>流程图：</t>
+  </si>
+  <si>
+    <t>2.4任务的创建：</t>
+  </si>
+  <si>
+    <t>任务是操作系统的处理对象，在多任务的环境下，任务管理需要考虑很多因素，最基本的管理功能就是创建任务</t>
+  </si>
+  <si>
+    <t>任务创建函数分两种，一种是基本的创建函数OSTaskCreat，另一种是扩展任务创建函数OSTaskCreateExt，两个都是创建任务，OSTaskCreateExt更强，附带更多的功能</t>
+  </si>
+  <si>
+    <t>2.4.1 OSTaskCreat代码</t>
+  </si>
+  <si>
+    <t>太多了，就不截图了</t>
+  </si>
+  <si>
+    <t>在创建一个任务的时候，需要分配堆栈空间，堆栈是操作系统的变量声明中已经分配的空间，因此要把空间分配给任务，那么堆栈的地址应该保存在哪里呢？</t>
+  </si>
+  <si>
+    <t>堆栈初始化函数OSTaskStkInit</t>
+  </si>
+  <si>
+    <t>程序是把数据按顺序压入栈</t>
+  </si>
+  <si>
+    <t>若此时发生了任务调度OS_Sched，任务的地址，运行环境都保存在栈里，OS_Sched会根据堆栈内容进行相关操作，操作系统初始化因为没启动任务，所以不会调用OS_Sched</t>
+  </si>
+  <si>
+    <t>2.4.2 OSTaskCreat流程</t>
+  </si>
+  <si>
+    <t>从前面的基本代码表述，可以清晰的了解任务的初始化过程，首先检查配置的参数，尤其是优先级的判断，若任务的优先级有效，进行堆栈的初始化，任务控制块的初始化，若启动了多任务就检查是否需要调度。</t>
+  </si>
+  <si>
+    <t>流程如下：</t>
+  </si>
+  <si>
+    <t>2.4.3 OSTaskCreateExt代码解析</t>
+  </si>
+  <si>
     <t>源码</t>
   </si>
   <si>
     <t>流程</t>
+  </si>
+  <si>
+    <t>OS_InitMisc：初始化各种全局变量</t>
+  </si>
+  <si>
+    <t>OS_InitRdyList：初始化就绪列表</t>
+  </si>
+  <si>
+    <t>可见，该函数对就绪表和就绪组全部清0，然后对4个重要的任务相关的全局变量初始化。前两个是当前任务的优先级和最高任务的优先级，后两个是对应的两个任务块的指针，</t>
+  </si>
+  <si>
+    <t>OS_InitTaskIdle</t>
+  </si>
+  <si>
+    <t>创建统计任务方法一样，两个任务都创建好了之后，任务并没有真正的启动，只是配置了他们的数据结构。</t>
+  </si>
+  <si>
+    <t>如果系统配置有定时器模块，执行OSTmr_Init初始化定时器，后面的空函数可以自己编写一些东西，</t>
   </si>
 </sst>
 </file>
@@ -550,9 +623,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -606,16 +679,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -629,14 +709,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -647,6 +720,14 @@
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -665,18 +746,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -689,27 +779,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <sz val="11"/>
+      <name val="ＭＳ ゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -721,20 +800,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="ＭＳ ゴシック"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -755,19 +828,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -785,13 +894,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -809,37 +972,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -851,31 +990,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -887,55 +1008,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -949,16 +1022,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -979,15 +1052,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1003,26 +1067,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1038,11 +1113,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1054,10 +1127,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1069,13 +1142,13 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1087,118 +1160,121 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -2114,6 +2190,132 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>75565</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1114425" y="21545550"/>
+          <a:ext cx="2304415" cy="1800225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1114425" y="24631650"/>
+          <a:ext cx="3476625" cy="3248025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>370840</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>170815</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>92710</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1113790" y="28745815"/>
+          <a:ext cx="1105535" cy="1464945"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3138,14 +3340,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3162,8 +3364,181 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4562475" cy="5648325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>341630</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>26035</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6000750"/>
+          <a:ext cx="4218305" cy="3283585"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>339090</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="9601200"/>
+          <a:ext cx="4558665" cy="2030730"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="12001500"/>
+          <a:ext cx="6172200" cy="10696575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
           <a:off x="0" y="2571750"/>
-          <a:ext cx="6524625" cy="4057650"/>
+          <a:ext cx="14525625" cy="10258425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3474,799 +3849,799 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="4.875" style="2"/>
+    <col min="1" max="16384" width="4.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="22.5" spans="1:31">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="H1" s="2" t="s">
+    <row r="1" s="2" customFormat="1" ht="22.5" spans="1:31">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="H1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2" t="s">
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="3"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:27">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2" t="s">
+      <c r="X1" s="4"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="4"/>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:27">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="U2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="V2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="W2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="8"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:10">
-      <c r="A3" s="2" t="s">
+      <c r="X2" s="4"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="9"/>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:10">
+      <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:10">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
+      <c r="B3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:10">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:10">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3">
+      <c r="C4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:10">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4">
         <v>1.2</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:10">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3">
+      <c r="C5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:10">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4">
         <v>1.3</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:10">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:10">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:10">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:10">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:10">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:10">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="2"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:10">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="2"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="1:10">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="2"/>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:10">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="2"/>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:10">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="2"/>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:10">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="2"/>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:10">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="2"/>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:10">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="2"/>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:10">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="2"/>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="1:10">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="2"/>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="1:10">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="2"/>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="1:10">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3">
+      <c r="C6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:10">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="1:10">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="1:10">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="1:10">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="1:10">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="1:10">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" s="2" customFormat="1" spans="1:10">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="1:10">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" s="2" customFormat="1" spans="1:10">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" s="2" customFormat="1" spans="1:10">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" s="2" customFormat="1" spans="1:10">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" s="2" customFormat="1" spans="1:10">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" s="2" customFormat="1" spans="1:10">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="3"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" s="2" customFormat="1" spans="1:10">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="3"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" s="2" customFormat="1" spans="1:10">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="3"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" s="2" customFormat="1" spans="1:10">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="3"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" s="2" customFormat="1" spans="1:10">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4">
         <v>1.4</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="1:10">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3" t="s">
+      <c r="C23" s="3"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" s="2" customFormat="1" spans="1:10">
+      <c r="A24" s="3"/>
+      <c r="B24" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="1:10">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="3" t="s">
+      <c r="C24" s="3"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" s="2" customFormat="1" spans="1:10">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="1:10">
-      <c r="A26" s="2"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="1" t="s">
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" s="2" customFormat="1" spans="1:10">
+      <c r="A26" s="3"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="1:10">
-      <c r="A27" s="2"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="1" t="s">
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" s="2" customFormat="1" spans="1:10">
+      <c r="A27" s="3"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" s="1" customFormat="1" spans="1:10">
-      <c r="A28" s="2"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="1" t="s">
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" s="2" customFormat="1" spans="1:10">
+      <c r="A28" s="3"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" s="1" customFormat="1" spans="1:10">
-      <c r="A29" s="2"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="1" t="s">
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" s="2" customFormat="1" spans="1:10">
+      <c r="A29" s="3"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" s="1" customFormat="1" spans="1:10">
-      <c r="A30" s="2"/>
-      <c r="B30" s="3"/>
-      <c r="D30" s="1" t="s">
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" s="2" customFormat="1" spans="1:10">
+      <c r="A30" s="3"/>
+      <c r="B30" s="4"/>
+      <c r="D30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J30" s="2"/>
-    </row>
-    <row r="31" s="1" customFormat="1" spans="3:10">
-      <c r="C31" s="3" t="s">
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" s="2" customFormat="1" spans="3:10">
+      <c r="C31" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" s="1" customFormat="1" spans="1:10">
-      <c r="A32" s="2"/>
-      <c r="B32" s="4"/>
-      <c r="D32" s="1" t="s">
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" s="2" customFormat="1" spans="1:10">
+      <c r="A32" s="3"/>
+      <c r="B32" s="5"/>
+      <c r="D32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J32" s="2"/>
-    </row>
-    <row r="33" s="1" customFormat="1" spans="1:10">
-      <c r="A33" s="2"/>
-      <c r="B33" s="4"/>
-      <c r="D33" s="1" t="s">
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" s="2" customFormat="1" spans="1:10">
+      <c r="A33" s="3"/>
+      <c r="B33" s="5"/>
+      <c r="D33" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J33" s="2"/>
-    </row>
-    <row r="34" s="1" customFormat="1" spans="4:10">
-      <c r="D34" s="1" t="s">
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" s="2" customFormat="1" spans="4:10">
+      <c r="D34" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J34" s="2"/>
-    </row>
-    <row r="35" s="1" customFormat="1" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="3" t="s">
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" s="2" customFormat="1" spans="1:10">
+      <c r="A35" s="3"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J35" s="2"/>
-    </row>
-    <row r="36" s="1" customFormat="1" spans="1:10">
-      <c r="A36" s="2"/>
-      <c r="B36" s="4"/>
-      <c r="D36" s="1" t="s">
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" s="2" customFormat="1" spans="1:10">
+      <c r="A36" s="3"/>
+      <c r="B36" s="5"/>
+      <c r="D36" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J36" s="2"/>
-    </row>
-    <row r="37" s="1" customFormat="1" spans="4:10">
-      <c r="D37" s="1" t="s">
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" s="2" customFormat="1" spans="4:10">
+      <c r="D37" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J37" s="2"/>
-    </row>
-    <row r="38" s="1" customFormat="1" spans="4:10">
-      <c r="D38" s="1" t="s">
+      <c r="J37" s="3"/>
+    </row>
+    <row r="38" s="2" customFormat="1" spans="4:10">
+      <c r="D38" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J38" s="2"/>
-    </row>
-    <row r="39" s="1" customFormat="1" spans="1:10">
-      <c r="A39" s="2"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="1" t="s">
+      <c r="J38" s="3"/>
+    </row>
+    <row r="39" s="2" customFormat="1" spans="1:10">
+      <c r="A39" s="3"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J39" s="2"/>
-    </row>
-    <row r="40" s="1" customFormat="1" spans="1:10">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="3" t="s">
+      <c r="J39" s="3"/>
+    </row>
+    <row r="40" s="2" customFormat="1" spans="1:10">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J40" s="2"/>
-    </row>
-    <row r="41" s="1" customFormat="1" spans="1:10">
-      <c r="A41" s="2"/>
-      <c r="B41" s="4"/>
-      <c r="D41" s="1" t="s">
+      <c r="J40" s="3"/>
+    </row>
+    <row r="41" s="2" customFormat="1" spans="1:10">
+      <c r="A41" s="3"/>
+      <c r="B41" s="5"/>
+      <c r="D41" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J41" s="2"/>
-    </row>
-    <row r="42" s="1" customFormat="1" spans="4:10">
-      <c r="D42" s="1" t="s">
+      <c r="J41" s="3"/>
+    </row>
+    <row r="42" s="2" customFormat="1" spans="4:10">
+      <c r="D42" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J42" s="2"/>
-    </row>
-    <row r="43" s="1" customFormat="1" spans="4:10">
-      <c r="D43" s="1" t="s">
+      <c r="J42" s="3"/>
+    </row>
+    <row r="43" s="2" customFormat="1" spans="4:10">
+      <c r="D43" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J43" s="2"/>
-    </row>
-    <row r="44" s="1" customFormat="1" spans="3:10">
-      <c r="C44" s="3" t="s">
+      <c r="J43" s="3"/>
+    </row>
+    <row r="44" s="2" customFormat="1" spans="3:10">
+      <c r="C44" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J44" s="2"/>
-    </row>
-    <row r="45" s="1" customFormat="1" spans="1:10">
-      <c r="A45" s="2"/>
-      <c r="D45" s="1" t="s">
+      <c r="J44" s="3"/>
+    </row>
+    <row r="45" s="2" customFormat="1" spans="1:10">
+      <c r="A45" s="3"/>
+      <c r="D45" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J45" s="2"/>
-    </row>
-    <row r="46" s="1" customFormat="1" spans="1:10">
-      <c r="A46" s="2"/>
-      <c r="B46" s="4"/>
-      <c r="D46" s="1" t="s">
+      <c r="J45" s="3"/>
+    </row>
+    <row r="46" s="2" customFormat="1" spans="1:10">
+      <c r="A46" s="3"/>
+      <c r="B46" s="5"/>
+      <c r="D46" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J46" s="2"/>
-    </row>
-    <row r="47" s="1" customFormat="1" spans="4:10">
-      <c r="D47" s="1" t="s">
+      <c r="J46" s="3"/>
+    </row>
+    <row r="47" s="2" customFormat="1" spans="4:10">
+      <c r="D47" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J47" s="2"/>
-    </row>
-    <row r="48" s="1" customFormat="1" spans="1:10">
-      <c r="A48" s="2"/>
-      <c r="D48" s="2" t="s">
+      <c r="J47" s="3"/>
+    </row>
+    <row r="48" s="2" customFormat="1" spans="1:10">
+      <c r="A48" s="3"/>
+      <c r="D48" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J48" s="2"/>
-    </row>
-    <row r="49" s="1" customFormat="1" spans="1:10">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="E49" s="1" t="s">
+      <c r="J48" s="3"/>
+    </row>
+    <row r="49" s="2" customFormat="1" spans="1:10">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="E49" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J49" s="2"/>
-    </row>
-    <row r="50" s="1" customFormat="1" spans="1:10">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="E50" s="1" t="s">
+      <c r="J49" s="3"/>
+    </row>
+    <row r="50" s="2" customFormat="1" spans="1:10">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="E50" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J50" s="2"/>
-    </row>
-    <row r="51" s="1" customFormat="1" spans="1:16">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2" t="s">
+      <c r="J50" s="3"/>
+    </row>
+    <row r="51" s="2" customFormat="1" spans="1:16">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" s="7"/>
-    </row>
-    <row r="52" s="1" customFormat="1" spans="1:10">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="E52" s="1" t="s">
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="8"/>
+    </row>
+    <row r="52" s="2" customFormat="1" spans="1:10">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="E52" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J52" s="2"/>
-    </row>
-    <row r="53" s="1" customFormat="1" spans="1:10">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2" t="s">
+      <c r="J52" s="3"/>
+    </row>
+    <row r="53" s="2" customFormat="1" spans="1:10">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J53" s="2"/>
-    </row>
-    <row r="54" s="1" customFormat="1" spans="1:10">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="E54" s="1" t="s">
+      <c r="J53" s="3"/>
+    </row>
+    <row r="54" s="2" customFormat="1" spans="1:10">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="E54" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J54" s="2"/>
-    </row>
-    <row r="55" s="1" customFormat="1" spans="1:16">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2" t="s">
+      <c r="J54" s="3"/>
+    </row>
+    <row r="55" s="2" customFormat="1" spans="1:16">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-      <c r="P55" s="7"/>
-    </row>
-    <row r="56" s="1" customFormat="1" spans="1:10">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="3"/>
-      <c r="J56" s="2"/>
-    </row>
-    <row r="57" s="1" customFormat="1" spans="1:10">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="3"/>
-      <c r="J57" s="2"/>
-    </row>
-    <row r="58" s="1" customFormat="1" spans="1:10">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="J58" s="2"/>
-    </row>
-    <row r="59" s="1" customFormat="1" spans="1:10">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="J59" s="2"/>
-    </row>
-    <row r="60" s="1" customFormat="1" spans="1:10">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="J60" s="2"/>
-    </row>
-    <row r="61" s="1" customFormat="1" spans="1:10">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="J61" s="2"/>
-    </row>
-    <row r="66" s="2" customFormat="1" spans="2:2">
-      <c r="B66" s="4"/>
-    </row>
-    <row r="69" s="2" customFormat="1" spans="5:5">
-      <c r="E69" s="2" t="s">
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="8"/>
+    </row>
+    <row r="56" s="2" customFormat="1" spans="1:10">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="4"/>
+      <c r="J56" s="3"/>
+    </row>
+    <row r="57" s="2" customFormat="1" spans="1:10">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="4"/>
+      <c r="J57" s="3"/>
+    </row>
+    <row r="58" s="2" customFormat="1" spans="1:10">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="J58" s="3"/>
+    </row>
+    <row r="59" s="2" customFormat="1" spans="1:10">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="J59" s="3"/>
+    </row>
+    <row r="60" s="2" customFormat="1" spans="1:10">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="J60" s="3"/>
+    </row>
+    <row r="61" s="2" customFormat="1" spans="1:10">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="J61" s="3"/>
+    </row>
+    <row r="66" s="3" customFormat="1" spans="2:2">
+      <c r="B66" s="5"/>
+    </row>
+    <row r="69" s="3" customFormat="1" spans="5:5">
+      <c r="E69" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="70" s="2" customFormat="1" spans="5:5">
-      <c r="E70" s="2" t="s">
+    <row r="70" s="3" customFormat="1" spans="5:5">
+      <c r="E70" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="71" s="2" customFormat="1" spans="5:5">
-      <c r="E71" s="2" t="s">
+    <row r="71" s="3" customFormat="1" spans="5:5">
+      <c r="E71" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="72" s="2" customFormat="1" spans="3:5">
-      <c r="C72" s="4"/>
-      <c r="E72" s="2" t="s">
+    <row r="72" s="3" customFormat="1" spans="3:5">
+      <c r="C72" s="5"/>
+      <c r="E72" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="73" s="2" customFormat="1" spans="3:3">
-      <c r="C73" s="3" t="s">
+    <row r="73" s="3" customFormat="1" spans="3:3">
+      <c r="C73" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="74" s="2" customFormat="1" spans="4:4">
-      <c r="D74" s="2" t="s">
+    <row r="74" s="3" customFormat="1" spans="4:4">
+      <c r="D74" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="75" s="2" customFormat="1" spans="3:4">
-      <c r="C75" s="7"/>
-      <c r="D75" s="2" t="s">
+    <row r="75" s="3" customFormat="1" spans="3:4">
+      <c r="C75" s="8"/>
+      <c r="D75" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="76" s="2" customFormat="1" spans="4:5">
-      <c r="D76" s="2" t="s">
+    <row r="76" s="3" customFormat="1" spans="4:5">
+      <c r="D76" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E76" s="7"/>
-    </row>
-    <row r="77" s="2" customFormat="1" spans="4:4">
-      <c r="D77" s="7" t="s">
+      <c r="E76" s="8"/>
+    </row>
+    <row r="77" s="3" customFormat="1" spans="4:4">
+      <c r="D77" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="78" s="2" customFormat="1" spans="4:5">
-      <c r="D78" s="2" t="s">
+    <row r="78" s="3" customFormat="1" spans="4:5">
+      <c r="D78" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E78" s="7"/>
-    </row>
-    <row r="79" s="2" customFormat="1" spans="4:4">
-      <c r="D79" s="7" t="s">
+      <c r="E78" s="8"/>
+    </row>
+    <row r="79" s="3" customFormat="1" spans="4:4">
+      <c r="D79" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="80" s="2" customFormat="1" spans="3:4">
-      <c r="C80" s="7"/>
-      <c r="D80" s="2" t="s">
+    <row r="80" s="3" customFormat="1" spans="3:4">
+      <c r="C80" s="8"/>
+      <c r="D80" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="81" s="2" customFormat="1" spans="3:4">
-      <c r="C81" s="7"/>
-      <c r="D81" s="2" t="s">
+    <row r="81" s="3" customFormat="1" spans="3:4">
+      <c r="C81" s="8"/>
+      <c r="D81" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="82" s="2" customFormat="1" spans="3:3">
-      <c r="C82" s="3" t="s">
+    <row r="82" s="3" customFormat="1" spans="3:3">
+      <c r="C82" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="83" s="2" customFormat="1" spans="3:4">
-      <c r="C83" s="7"/>
-      <c r="D83" s="2" t="s">
+    <row r="83" s="3" customFormat="1" spans="3:4">
+      <c r="C83" s="8"/>
+      <c r="D83" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="84" s="2" customFormat="1" spans="3:4">
-      <c r="C84" s="7"/>
-      <c r="D84" s="2" t="s">
+    <row r="84" s="3" customFormat="1" spans="3:4">
+      <c r="C84" s="8"/>
+      <c r="D84" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="85" s="2" customFormat="1" spans="3:3">
-      <c r="C85" s="3" t="s">
+    <row r="85" s="3" customFormat="1" spans="3:3">
+      <c r="C85" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="86" s="2" customFormat="1" spans="4:4">
-      <c r="D86" s="2" t="s">
+    <row r="86" s="3" customFormat="1" spans="4:4">
+      <c r="D86" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="87" s="2" customFormat="1" spans="5:5">
-      <c r="E87" s="2" t="s">
+    <row r="87" s="3" customFormat="1" spans="5:5">
+      <c r="E87" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="88" s="2" customFormat="1" spans="5:5">
-      <c r="E88" s="2" t="s">
+    <row r="88" s="3" customFormat="1" spans="5:5">
+      <c r="E88" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="89" s="2" customFormat="1" spans="5:5">
-      <c r="E89" s="2" t="s">
+    <row r="89" s="3" customFormat="1" spans="5:5">
+      <c r="E89" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="90" s="2" customFormat="1" spans="5:5">
-      <c r="E90" s="2" t="s">
+    <row r="90" s="3" customFormat="1" spans="5:5">
+      <c r="E90" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="91" s="2" customFormat="1" spans="3:5">
-      <c r="C91" s="3"/>
-      <c r="E91" s="3" t="s">
+    <row r="91" s="3" customFormat="1" spans="3:5">
+      <c r="C91" s="4"/>
+      <c r="E91" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="92" s="2" customFormat="1" spans="3:5">
-      <c r="C92" s="4"/>
-      <c r="E92" s="2" t="s">
+    <row r="92" s="3" customFormat="1" spans="3:5">
+      <c r="C92" s="5"/>
+      <c r="E92" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="93" spans="5:5">
-      <c r="E93" s="2" t="s">
+      <c r="E93" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="105" spans="5:5">
-      <c r="E105" s="2" t="s">
+      <c r="E105" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="106" spans="6:6">
-      <c r="F106" s="2" t="s">
+      <c r="F106" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="107" spans="6:6">
-      <c r="F107" s="2" t="s">
+      <c r="F107" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="108" spans="6:6">
-      <c r="F108" s="2" t="s">
+      <c r="F108" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="109" spans="4:4">
-      <c r="D109" s="2" t="s">
+      <c r="D109" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="110" spans="5:5">
-      <c r="E110" s="2" t="s">
+      <c r="E110" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="111" spans="5:5">
-      <c r="E111" s="2" t="s">
+      <c r="E111" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="112" spans="5:5">
-      <c r="E112" s="2" t="s">
+      <c r="E112" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="113" spans="5:5">
-      <c r="E113" s="2" t="s">
+      <c r="E113" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="114" spans="2:2">
-      <c r="B114" s="3" t="s">
+      <c r="B114" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="115" spans="2:3">
-      <c r="B115" s="3"/>
-      <c r="C115" s="2" t="s">
+      <c r="B115" s="4"/>
+      <c r="C115" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="116" spans="2:4">
-      <c r="B116" s="3"/>
-      <c r="D116" s="2" t="s">
+      <c r="B116" s="4"/>
+      <c r="D116" s="3" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="117" spans="2:4">
-      <c r="B117" s="3"/>
-      <c r="D117" s="2" t="s">
+      <c r="B117" s="4"/>
+      <c r="D117" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="118" spans="2:3">
-      <c r="B118" s="3"/>
-      <c r="C118" s="2" t="s">
+      <c r="B118" s="4"/>
+      <c r="C118" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="119" spans="2:4">
-      <c r="B119" s="3"/>
-      <c r="D119" s="2" t="s">
+      <c r="B119" s="4"/>
+      <c r="D119" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="120" spans="2:4">
-      <c r="B120" s="3"/>
-      <c r="D120" s="2" t="s">
+      <c r="B120" s="4"/>
+      <c r="D120" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="121" spans="2:4">
-      <c r="B121" s="3"/>
-      <c r="D121" s="2" t="s">
+      <c r="B121" s="4"/>
+      <c r="D121" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="122" spans="2:4">
-      <c r="B122" s="3"/>
-      <c r="D122" s="2" t="s">
+      <c r="B122" s="4"/>
+      <c r="D122" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="123" spans="2:4">
-      <c r="B123" s="3"/>
-      <c r="D123" s="2" t="s">
+      <c r="B123" s="4"/>
+      <c r="D123" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="124" spans="2:2">
-      <c r="B124" s="2" t="s">
+      <c r="B124" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="125" spans="3:3">
-      <c r="C125" s="2" t="s">
+      <c r="C125" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="126" spans="3:3">
-      <c r="C126" s="2" t="s">
+      <c r="C126" s="3" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="127" spans="3:3">
-      <c r="C127" s="2" t="s">
+      <c r="C127" s="3" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="128" spans="3:3">
-      <c r="C128" s="2" t="s">
+      <c r="C128" s="3" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4280,778 +4655,870 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AE121"/>
+  <dimension ref="A1:AE177"/>
   <sheetViews>
-    <sheetView zoomScale="250" zoomScaleNormal="250" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="C121" sqref="C121"/>
+    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="K175" sqref="K175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="4.875" style="10"/>
+    <col min="1" max="16384" width="4.875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" ht="22.5" spans="1:31">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="H1" s="10" t="s">
+    <row r="1" s="10" customFormat="1" ht="22.5" spans="1:31">
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="H1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10" t="s">
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="T1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="U1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="V1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="W1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="10"/>
-      <c r="AC1" s="10"/>
-      <c r="AD1" s="10"/>
-      <c r="AE1" s="11"/>
-    </row>
-    <row r="2" s="9" customFormat="1" spans="1:27">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10" t="s">
+      <c r="X1" s="12"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="12"/>
+    </row>
+    <row r="2" s="10" customFormat="1" spans="1:27">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="T2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="U2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="V2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="W2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="17"/>
-    </row>
-    <row r="3" s="9" customFormat="1" spans="1:10">
-      <c r="A3" s="10" t="s">
+      <c r="X2" s="12"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="18"/>
+    </row>
+    <row r="3" s="10" customFormat="1" spans="1:10">
+      <c r="A3" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="J3" s="10"/>
-    </row>
-    <row r="4" s="9" customFormat="1" spans="1:10">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="J3" s="11"/>
+    </row>
+    <row r="4" s="10" customFormat="1" spans="1:10">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="J4" s="10"/>
-    </row>
-    <row r="5" s="9" customFormat="1" spans="1:10">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="10" t="s">
+      <c r="C4" s="11"/>
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" s="10" customFormat="1" spans="1:10">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="J5" s="10"/>
-    </row>
-    <row r="6" s="9" customFormat="1" spans="1:10">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="10" t="s">
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" s="10" customFormat="1" spans="1:10">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="J6" s="10"/>
-    </row>
-    <row r="7" s="9" customFormat="1" spans="1:10">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="10" t="s">
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7" s="10" customFormat="1" spans="1:10">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="J7" s="10"/>
-    </row>
-    <row r="8" s="9" customFormat="1" spans="1:10">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="10" t="s">
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" s="10" customFormat="1" spans="1:10">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="J8" s="10"/>
-    </row>
-    <row r="9" s="9" customFormat="1" spans="1:10">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="10" t="s">
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" s="10" customFormat="1" spans="1:10">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="J9" s="10"/>
-    </row>
-    <row r="10" s="9" customFormat="1" spans="1:10">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="10" t="s">
+      <c r="J9" s="11"/>
+    </row>
+    <row r="10" s="10" customFormat="1" spans="1:10">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="J10" s="10"/>
-    </row>
-    <row r="11" s="9" customFormat="1" spans="1:10">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="10" t="s">
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" s="10" customFormat="1" spans="1:10">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="J11" s="10"/>
-    </row>
-    <row r="12" s="9" customFormat="1" spans="1:10">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="10" t="s">
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" s="10" customFormat="1" spans="1:10">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="J12" s="10"/>
-    </row>
-    <row r="13" s="9" customFormat="1" spans="1:10">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="10" t="s">
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" s="10" customFormat="1" spans="1:10">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="J13" s="10"/>
-    </row>
-    <row r="14" s="9" customFormat="1" spans="1:10">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="10" t="s">
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" s="10" customFormat="1" spans="1:10">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="J14" s="10"/>
-    </row>
-    <row r="15" s="9" customFormat="1" spans="1:10">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11" t="s">
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" s="10" customFormat="1" spans="1:10">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="J15" s="10"/>
-    </row>
-    <row r="16" s="9" customFormat="1" spans="1:10">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="10" t="s">
+      <c r="C15" s="11"/>
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" s="10" customFormat="1" spans="1:10">
+      <c r="A16" s="11"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="J16" s="10"/>
-    </row>
-    <row r="17" s="9" customFormat="1" spans="1:10">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="10" t="s">
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" s="10" customFormat="1" spans="1:10">
+      <c r="A17" s="11"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="J17" s="10"/>
-    </row>
-    <row r="18" s="9" customFormat="1" spans="1:10">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="D18" s="9" t="s">
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" s="10" customFormat="1" spans="1:10">
+      <c r="A18" s="11"/>
+      <c r="B18" s="12"/>
+      <c r="D18" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="J18" s="10"/>
-    </row>
-    <row r="19" s="9" customFormat="1" spans="1:10">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="10"/>
-      <c r="E19" s="9" t="s">
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19" s="10" customFormat="1" spans="1:10">
+      <c r="A19" s="11"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="11"/>
+      <c r="E19" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="J19" s="10"/>
-    </row>
-    <row r="20" s="9" customFormat="1" spans="1:10">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="10"/>
-      <c r="E20" s="9" t="s">
+      <c r="J19" s="11"/>
+    </row>
+    <row r="20" s="10" customFormat="1" spans="1:10">
+      <c r="A20" s="11"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="11"/>
+      <c r="E20" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="J20" s="10"/>
-    </row>
-    <row r="21" s="9" customFormat="1" spans="1:10">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="10"/>
-      <c r="E21" s="9" t="s">
+      <c r="J20" s="11"/>
+    </row>
+    <row r="21" s="10" customFormat="1" spans="1:10">
+      <c r="A21" s="11"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="11"/>
+      <c r="E21" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="J21" s="10"/>
-    </row>
-    <row r="22" s="9" customFormat="1" spans="1:10">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="10"/>
-      <c r="E22" s="9" t="s">
+      <c r="J21" s="11"/>
+    </row>
+    <row r="22" s="10" customFormat="1" spans="1:10">
+      <c r="A22" s="11"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="11"/>
+      <c r="E22" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="J22" s="10"/>
-    </row>
-    <row r="23" s="9" customFormat="1" spans="1:10">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="10"/>
-      <c r="E23" s="9" t="s">
+      <c r="J22" s="11"/>
+    </row>
+    <row r="23" s="10" customFormat="1" spans="1:10">
+      <c r="A23" s="11"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="11"/>
+      <c r="E23" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="J23" s="10"/>
-    </row>
-    <row r="24" s="9" customFormat="1" spans="1:10">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="9" t="s">
+      <c r="J23" s="11"/>
+    </row>
+    <row r="24" s="10" customFormat="1" spans="1:10">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="J24" s="10"/>
-    </row>
-    <row r="25" s="9" customFormat="1" spans="1:10">
-      <c r="A25" s="10"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="E25" s="12" t="s">
+      <c r="J24" s="11"/>
+    </row>
+    <row r="25" s="10" customFormat="1" spans="1:10">
+      <c r="A25" s="11"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="E25" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="J25" s="10"/>
-    </row>
-    <row r="26" s="9" customFormat="1" spans="1:10">
-      <c r="A26" s="10"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="9" t="s">
+      <c r="J25" s="11"/>
+    </row>
+    <row r="26" s="10" customFormat="1" spans="1:10">
+      <c r="A26" s="11"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="J26" s="10"/>
-    </row>
-    <row r="27" s="9" customFormat="1" spans="1:10">
-      <c r="A27" s="10"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="E27" s="9" t="s">
+      <c r="J26" s="11"/>
+    </row>
+    <row r="27" s="10" customFormat="1" spans="1:10">
+      <c r="A27" s="11"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="E27" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="J27" s="10"/>
-    </row>
-    <row r="28" s="9" customFormat="1" spans="1:10">
-      <c r="A28" s="10"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="E28" s="9" t="s">
+      <c r="J27" s="11"/>
+    </row>
+    <row r="28" s="10" customFormat="1" spans="1:10">
+      <c r="A28" s="11"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="E28" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="J28" s="10"/>
-    </row>
-    <row r="29" s="9" customFormat="1" spans="1:10">
-      <c r="A29" s="10"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="10" t="s">
+      <c r="J28" s="11"/>
+    </row>
+    <row r="29" s="10" customFormat="1" spans="1:10">
+      <c r="A29" s="11"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="J29" s="10"/>
-    </row>
-    <row r="30" s="9" customFormat="1" spans="3:10">
-      <c r="C30" s="11"/>
-      <c r="D30" s="9" t="s">
+      <c r="J29" s="11"/>
+    </row>
+    <row r="30" s="10" customFormat="1" spans="3:10">
+      <c r="C30" s="12"/>
+      <c r="D30" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="J30" s="10"/>
-    </row>
-    <row r="31" s="9" customFormat="1" spans="1:10">
-      <c r="A31" s="10"/>
-      <c r="B31" s="13"/>
-      <c r="D31" s="9" t="s">
+      <c r="J30" s="11"/>
+    </row>
+    <row r="31" s="10" customFormat="1" spans="1:10">
+      <c r="A31" s="11"/>
+      <c r="B31" s="14"/>
+      <c r="D31" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="J31" s="10"/>
-    </row>
-    <row r="32" s="9" customFormat="1" spans="1:10">
-      <c r="A32" s="10"/>
-      <c r="B32" s="13"/>
-      <c r="D32" s="9" t="s">
+      <c r="J31" s="11"/>
+    </row>
+    <row r="32" s="10" customFormat="1" spans="1:10">
+      <c r="A32" s="11"/>
+      <c r="B32" s="14"/>
+      <c r="D32" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="J32" s="10"/>
-    </row>
-    <row r="33" s="9" customFormat="1" spans="4:10">
-      <c r="D33" s="9" t="s">
+      <c r="J32" s="11"/>
+    </row>
+    <row r="33" s="10" customFormat="1" spans="4:10">
+      <c r="D33" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="J33" s="10"/>
-    </row>
-    <row r="34" s="9" customFormat="1" spans="1:10">
-      <c r="A34" s="10"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="9" t="s">
+      <c r="J33" s="11"/>
+    </row>
+    <row r="34" s="10" customFormat="1" spans="1:10">
+      <c r="A34" s="11"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="J34" s="10"/>
-    </row>
-    <row r="35" s="9" customFormat="1" spans="1:10">
-      <c r="A35" s="10"/>
-      <c r="B35" s="13"/>
-      <c r="J35" s="10"/>
-    </row>
-    <row r="36" s="9" customFormat="1" spans="10:10">
-      <c r="J36" s="10"/>
-    </row>
-    <row r="37" s="9" customFormat="1" spans="10:10">
-      <c r="J37" s="10"/>
-    </row>
-    <row r="38" s="9" customFormat="1" spans="1:10">
-      <c r="A38" s="10"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="11"/>
-      <c r="J38" s="10"/>
-    </row>
-    <row r="39" s="9" customFormat="1" spans="1:10">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="11"/>
-      <c r="J39" s="10"/>
-    </row>
-    <row r="40" s="9" customFormat="1" spans="1:10">
-      <c r="A40" s="10"/>
-      <c r="B40" s="13"/>
-      <c r="J40" s="10"/>
-    </row>
-    <row r="41" s="9" customFormat="1" spans="10:10">
-      <c r="J41" s="10"/>
-    </row>
-    <row r="42" s="9" customFormat="1" spans="10:10">
-      <c r="J42" s="10"/>
-    </row>
-    <row r="43" s="9" customFormat="1" spans="3:10">
-      <c r="C43" s="11"/>
-      <c r="J43" s="10"/>
-    </row>
-    <row r="44" s="9" customFormat="1" spans="1:10">
-      <c r="A44" s="10"/>
-      <c r="J44" s="10"/>
-    </row>
-    <row r="45" s="9" customFormat="1" spans="1:10">
-      <c r="A45" s="10"/>
-      <c r="B45" s="13"/>
-      <c r="J45" s="10"/>
-    </row>
-    <row r="46" s="9" customFormat="1" spans="10:10">
-      <c r="J46" s="10"/>
-    </row>
-    <row r="47" s="9" customFormat="1" spans="1:10">
-      <c r="A47" s="10"/>
-      <c r="D47" s="10" t="s">
+      <c r="J34" s="11"/>
+    </row>
+    <row r="35" s="10" customFormat="1" spans="1:10">
+      <c r="A35" s="11"/>
+      <c r="B35" s="14"/>
+      <c r="J35" s="11"/>
+    </row>
+    <row r="36" s="10" customFormat="1" spans="10:10">
+      <c r="J36" s="11"/>
+    </row>
+    <row r="37" s="10" customFormat="1" spans="10:10">
+      <c r="J37" s="11"/>
+    </row>
+    <row r="38" s="10" customFormat="1" spans="1:10">
+      <c r="A38" s="11"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="12"/>
+      <c r="J38" s="11"/>
+    </row>
+    <row r="39" s="10" customFormat="1" spans="1:10">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="12"/>
+      <c r="J39" s="11"/>
+    </row>
+    <row r="40" s="10" customFormat="1" spans="1:10">
+      <c r="A40" s="11"/>
+      <c r="B40" s="14"/>
+      <c r="J40" s="11"/>
+    </row>
+    <row r="41" s="10" customFormat="1" spans="10:10">
+      <c r="J41" s="11"/>
+    </row>
+    <row r="42" s="10" customFormat="1" spans="10:10">
+      <c r="J42" s="11"/>
+    </row>
+    <row r="43" s="10" customFormat="1" spans="3:10">
+      <c r="C43" s="12"/>
+      <c r="J43" s="11"/>
+    </row>
+    <row r="44" s="10" customFormat="1" spans="1:10">
+      <c r="A44" s="11"/>
+      <c r="J44" s="11"/>
+    </row>
+    <row r="45" s="10" customFormat="1" spans="1:10">
+      <c r="A45" s="11"/>
+      <c r="B45" s="14"/>
+      <c r="J45" s="11"/>
+    </row>
+    <row r="46" s="10" customFormat="1" spans="10:10">
+      <c r="J46" s="11"/>
+    </row>
+    <row r="47" s="10" customFormat="1" spans="1:10">
+      <c r="A47" s="11"/>
+      <c r="D47" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="J47" s="10"/>
-    </row>
-    <row r="48" s="9" customFormat="1" spans="1:10">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
-      <c r="D48" s="9" t="s">
+      <c r="J47" s="11"/>
+    </row>
+    <row r="48" s="10" customFormat="1" spans="1:10">
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
+      <c r="D48" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="J48" s="10"/>
-    </row>
-    <row r="49" s="9" customFormat="1" spans="1:10">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="9" t="s">
+      <c r="J48" s="11"/>
+    </row>
+    <row r="49" s="10" customFormat="1" spans="1:10">
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="J49" s="10"/>
-    </row>
-    <row r="50" s="9" customFormat="1" spans="1:16">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10" t="s">
+      <c r="J49" s="11"/>
+    </row>
+    <row r="50" s="10" customFormat="1" spans="1:16">
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="10"/>
-      <c r="P50" s="16"/>
-    </row>
-    <row r="51" s="9" customFormat="1" spans="1:10">
-      <c r="A51" s="10"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10" t="s">
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="17"/>
+    </row>
+    <row r="51" s="10" customFormat="1" spans="1:10">
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="J51" s="10"/>
-    </row>
-    <row r="52" s="9" customFormat="1" spans="1:10">
-      <c r="A52" s="10"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10" t="s">
+      <c r="J51" s="11"/>
+    </row>
+    <row r="52" s="10" customFormat="1" spans="1:10">
+      <c r="A52" s="11"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J52" s="10"/>
-    </row>
-    <row r="53" s="9" customFormat="1" spans="1:10">
-      <c r="A53" s="10"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="9" t="s">
+      <c r="J52" s="11"/>
+    </row>
+    <row r="53" s="10" customFormat="1" spans="1:10">
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="J53" s="10"/>
-    </row>
-    <row r="54" s="9" customFormat="1" spans="1:16">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10" t="s">
+      <c r="J53" s="11"/>
+    </row>
+    <row r="54" s="10" customFormat="1" spans="1:16">
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="10"/>
-      <c r="K54" s="10"/>
-      <c r="L54" s="10"/>
-      <c r="M54" s="10"/>
-      <c r="N54" s="10"/>
-      <c r="O54" s="10"/>
-      <c r="P54" s="16"/>
-    </row>
-    <row r="55" s="9" customFormat="1" spans="1:10">
-      <c r="A55" s="10"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="11" t="s">
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="17"/>
+    </row>
+    <row r="55" s="10" customFormat="1" spans="1:10">
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="J55" s="10"/>
-    </row>
-    <row r="56" s="9" customFormat="1" spans="1:10">
-      <c r="A56" s="10"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10" t="s">
+      <c r="J55" s="11"/>
+    </row>
+    <row r="56" s="10" customFormat="1" spans="1:10">
+      <c r="A56" s="11"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="D56" s="11"/>
-      <c r="J56" s="10"/>
-    </row>
-    <row r="57" s="9" customFormat="1" spans="1:10">
-      <c r="A57" s="10"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="9" t="s">
+      <c r="D56" s="12"/>
+      <c r="J56" s="11"/>
+    </row>
+    <row r="57" s="10" customFormat="1" spans="1:10">
+      <c r="A57" s="11"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="J57" s="10"/>
-    </row>
-    <row r="58" s="9" customFormat="1" spans="1:10">
-      <c r="A58" s="10"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="9" t="s">
+      <c r="J57" s="11"/>
+    </row>
+    <row r="58" s="10" customFormat="1" spans="1:10">
+      <c r="A58" s="11"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="J58" s="10"/>
-    </row>
-    <row r="59" s="9" customFormat="1" spans="1:10">
-      <c r="A59" s="10"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="9" t="s">
+      <c r="J58" s="11"/>
+    </row>
+    <row r="59" s="10" customFormat="1" spans="1:10">
+      <c r="A59" s="11"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="J59" s="10"/>
-    </row>
-    <row r="60" s="9" customFormat="1" spans="1:10">
-      <c r="A60" s="10"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="J60" s="10"/>
+      <c r="J59" s="11"/>
+    </row>
+    <row r="60" s="10" customFormat="1" spans="1:10">
+      <c r="A60" s="11"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="J60" s="11"/>
     </row>
     <row r="62" spans="4:4">
-      <c r="D62" s="10" t="s">
+      <c r="D62" s="11" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="63" spans="4:4">
-      <c r="D63" s="10" t="s">
+      <c r="D63" s="11" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="64" spans="4:4">
-      <c r="D64" s="10" t="s">
+      <c r="D64" s="11" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="65" s="10" customFormat="1" spans="2:4">
-      <c r="B65" s="13"/>
-      <c r="D65" s="10" t="s">
+    <row r="65" s="11" customFormat="1" spans="2:4">
+      <c r="B65" s="14"/>
+      <c r="D65" s="11" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="66" spans="3:3">
-      <c r="C66" s="10" t="s">
+      <c r="C66" s="11" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="67" spans="4:4">
-      <c r="D67" s="10" t="s">
+      <c r="D67" s="11" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="68" spans="4:4">
-      <c r="D68" s="10" t="s">
+      <c r="D68" s="11" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="69" s="10" customFormat="1" spans="3:4">
-      <c r="C69" s="13"/>
-      <c r="D69" s="10" t="s">
+    <row r="69" s="11" customFormat="1" spans="3:4">
+      <c r="C69" s="14"/>
+      <c r="D69" s="11" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="70" s="10" customFormat="1" spans="3:4">
-      <c r="C70" s="11"/>
-      <c r="D70" s="10" t="s">
+    <row r="70" s="11" customFormat="1" spans="3:4">
+      <c r="C70" s="12"/>
+      <c r="D70" s="11" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="72" s="10" customFormat="1" spans="3:3">
-      <c r="C72" s="16"/>
-    </row>
-    <row r="73" s="10" customFormat="1" spans="5:5">
-      <c r="E73" s="16"/>
-    </row>
-    <row r="74" s="10" customFormat="1" spans="4:4">
-      <c r="D74" s="16"/>
-    </row>
-    <row r="76" s="10" customFormat="1" spans="4:4">
-      <c r="D76" s="16"/>
-    </row>
-    <row r="77" s="10" customFormat="1" spans="3:3">
-      <c r="C77" s="16"/>
-    </row>
-    <row r="78" s="10" customFormat="1" spans="3:3">
-      <c r="C78" s="16"/>
-    </row>
-    <row r="79" s="10" customFormat="1" spans="3:3">
-      <c r="C79" s="11"/>
-    </row>
-    <row r="80" s="10" customFormat="1" spans="3:3">
-      <c r="C80" s="16"/>
-    </row>
-    <row r="81" s="10" customFormat="1" spans="3:3">
-      <c r="C81" s="16"/>
-    </row>
-    <row r="82" s="10" customFormat="1" spans="3:3">
-      <c r="C82" s="11"/>
+    <row r="72" s="11" customFormat="1" spans="3:3">
+      <c r="C72" s="17"/>
+    </row>
+    <row r="73" s="11" customFormat="1" spans="5:5">
+      <c r="E73" s="17"/>
+    </row>
+    <row r="74" s="11" customFormat="1" spans="4:4">
+      <c r="D74" s="17"/>
+    </row>
+    <row r="76" s="11" customFormat="1" spans="4:4">
+      <c r="D76" s="17"/>
+    </row>
+    <row r="77" s="11" customFormat="1" spans="3:3">
+      <c r="C77" s="17"/>
+    </row>
+    <row r="78" s="11" customFormat="1" spans="3:3">
+      <c r="C78" s="17"/>
+    </row>
+    <row r="79" s="11" customFormat="1" spans="3:3">
+      <c r="C79" s="12"/>
+    </row>
+    <row r="80" s="11" customFormat="1" spans="3:3">
+      <c r="C80" s="17"/>
+    </row>
+    <row r="81" s="11" customFormat="1" spans="3:3">
+      <c r="C81" s="17"/>
+    </row>
+    <row r="82" s="11" customFormat="1" spans="3:3">
+      <c r="C82" s="12"/>
     </row>
     <row r="85" spans="5:5">
-      <c r="E85" s="16" t="s">
+      <c r="E85" s="17" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="86" spans="5:5">
-      <c r="E86" s="10" t="s">
+      <c r="E86" s="11" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="87" spans="5:5">
-      <c r="E87" s="10" t="s">
+      <c r="E87" s="11" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="88" s="10" customFormat="1" spans="3:5">
-      <c r="C88" s="11"/>
-      <c r="E88" s="10" t="s">
+    <row r="88" s="11" customFormat="1" spans="3:5">
+      <c r="C88" s="12"/>
+      <c r="E88" s="11" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="89" s="10" customFormat="1" spans="3:5">
-      <c r="C89" s="13"/>
-      <c r="E89" s="10" t="s">
+    <row r="89" s="11" customFormat="1" spans="3:5">
+      <c r="C89" s="14"/>
+      <c r="E89" s="11" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="90" spans="5:5">
-      <c r="E90" s="10" t="s">
+      <c r="E90" s="11" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="91" spans="5:5">
-      <c r="E91" s="10" t="s">
+      <c r="E91" s="11" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="92" spans="5:5">
-      <c r="E92" s="10" t="s">
+      <c r="E92" s="11" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="93" spans="5:5">
-      <c r="E93" s="10" t="s">
+      <c r="E93" s="11" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="96" spans="5:5">
-      <c r="E96" s="10" t="s">
+      <c r="E96" s="11" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="97" spans="5:5">
-      <c r="E97" s="10" t="s">
+      <c r="E97" s="11" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="98" spans="5:5">
-      <c r="E98" s="10" t="s">
+      <c r="E98" s="11" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="99" spans="2:2">
-      <c r="B99" s="10" t="s">
+      <c r="B99" s="11" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="100" spans="3:3">
-      <c r="C100" s="10" t="s">
+      <c r="C100" s="11" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="101" spans="4:4">
-      <c r="D101" s="10" t="s">
+      <c r="D101" s="11" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="102" spans="4:4">
-      <c r="D102" s="10" t="s">
+      <c r="D102" s="11" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="111" s="10" customFormat="1" spans="2:4">
-      <c r="B111" s="11"/>
-      <c r="D111" s="10" t="s">
+    <row r="111" s="11" customFormat="1" spans="2:4">
+      <c r="B111" s="12"/>
+      <c r="D111" s="11" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="112" s="10" customFormat="1" spans="2:4">
-      <c r="B112" s="11"/>
-      <c r="D112" s="18" t="s">
+    <row r="112" s="11" customFormat="1" spans="2:4">
+      <c r="B112" s="12"/>
+      <c r="D112" s="19" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="113" s="10" customFormat="1" spans="2:3">
-      <c r="B113" s="11"/>
-      <c r="C113" s="10" t="s">
+    <row r="113" s="11" customFormat="1" spans="2:3">
+      <c r="B113" s="12"/>
+      <c r="C113" s="11" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="114" s="10" customFormat="1" spans="2:4">
-      <c r="B114" s="11"/>
-      <c r="D114" s="10" t="s">
+    <row r="114" s="11" customFormat="1" spans="2:4">
+      <c r="B114" s="12"/>
+      <c r="D114" s="11" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="115" s="10" customFormat="1" spans="2:4">
-      <c r="B115" s="11"/>
-      <c r="D115" s="10" t="s">
+    <row r="115" s="11" customFormat="1" spans="2:4">
+      <c r="B115" s="12"/>
+      <c r="D115" s="11" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="116" s="10" customFormat="1" spans="2:4">
-      <c r="B116" s="11"/>
-      <c r="D116" s="18" t="s">
+    <row r="116" s="11" customFormat="1" spans="2:4">
+      <c r="B116" s="12"/>
+      <c r="D116" s="19" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="117" s="10" customFormat="1" spans="2:2">
-      <c r="B117" s="11" t="s">
+    <row r="117" s="11" customFormat="1" spans="2:2">
+      <c r="B117" s="12" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="118" s="10" customFormat="1" spans="2:3">
-      <c r="B118" s="11"/>
-      <c r="C118" s="10" t="s">
+    <row r="118" s="11" customFormat="1" spans="2:3">
+      <c r="B118" s="12"/>
+      <c r="C118" s="11" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="119" s="10" customFormat="1" spans="2:3">
-      <c r="B119" s="11"/>
-      <c r="C119" s="10" t="s">
+    <row r="119" s="11" customFormat="1" spans="2:3">
+      <c r="B119" s="12"/>
+      <c r="C119" s="11" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="120" s="10" customFormat="1" spans="2:2">
-      <c r="B120" s="11"/>
-    </row>
-    <row r="121" s="10" customFormat="1" spans="2:2">
-      <c r="B121" s="11"/>
+    <row r="120" s="11" customFormat="1" spans="2:3">
+      <c r="B120" s="12"/>
+      <c r="C120" s="11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="121" s="11" customFormat="1" spans="2:4">
+      <c r="B121" s="12"/>
+      <c r="D121" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="122" spans="4:4">
+      <c r="D122" s="19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3">
+      <c r="C123" s="11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="124" spans="4:4">
+      <c r="D124" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="125" spans="4:4">
+      <c r="D125" s="11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137" s="11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="138" spans="3:3">
+      <c r="C138" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="139" spans="3:3">
+      <c r="C139" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="140" spans="3:3">
+      <c r="C140" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="141" spans="4:4">
+      <c r="D141" s="14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="142" spans="4:4">
+      <c r="D142" s="11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="143" spans="4:4">
+      <c r="D143" s="11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="163" spans="4:4">
+      <c r="D163" s="11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="164" spans="4:4">
+      <c r="D164" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="165" spans="3:3">
+      <c r="C165" s="11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="166" spans="4:4">
+      <c r="D166" s="11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="167" spans="4:4">
+      <c r="D167" s="11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="177" spans="3:3">
+      <c r="C177" s="11" t="s">
+        <v>190</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E25" location="任务控制块源码!A1" display="上图"/>
     <hyperlink ref="D112" location="任务控制块Init源码!A1" display="源码："/>
     <hyperlink ref="D116" location="任务控制块Init源码!A1" display="传送-&gt;"/>
+    <hyperlink ref="D122" location="OS_Init源码!A1" display="源码："/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -5070,492 +5537,492 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="4.875" style="2"/>
+    <col min="1" max="16384" width="4.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="22.5" spans="1:31">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="3"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:27">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="8"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:10">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:10">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:10">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="2"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:10">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:10">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:10">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:10">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:10">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:10">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:18">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="R12" s="2"/>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:18">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="R13" s="2"/>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="1:10">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="2"/>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:10">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="2"/>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:10">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="2"/>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:10">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="2"/>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:18">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="J18" s="2"/>
-      <c r="R18" s="2"/>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:10">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="2"/>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:10">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="2"/>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="1:10">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="2"/>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="1:10">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="2"/>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="1:10">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="2"/>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="1:10">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="3"/>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="1:10">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="1:10">
-      <c r="A26" s="2"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="1:10">
-      <c r="A27" s="2"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" s="1" customFormat="1" spans="1:10">
-      <c r="A28" s="2"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" s="1" customFormat="1" spans="1:10">
-      <c r="A29" s="2"/>
-      <c r="B29" s="3"/>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" s="1" customFormat="1" spans="3:10">
-      <c r="C30" s="3"/>
-      <c r="J30" s="2"/>
-    </row>
-    <row r="31" s="1" customFormat="1" spans="1:10">
-      <c r="A31" s="2"/>
-      <c r="B31" s="4"/>
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" s="1" customFormat="1" spans="1:10">
-      <c r="A32" s="2"/>
-      <c r="B32" s="4"/>
-      <c r="J32" s="2"/>
-    </row>
-    <row r="33" s="1" customFormat="1" spans="10:10">
-      <c r="J33" s="2"/>
-    </row>
-    <row r="34" s="1" customFormat="1" spans="1:10">
-      <c r="A34" s="2"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="3"/>
-      <c r="J34" s="2"/>
-    </row>
-    <row r="35" s="1" customFormat="1" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="4"/>
-      <c r="J35" s="2"/>
-    </row>
-    <row r="36" s="1" customFormat="1" spans="10:10">
-      <c r="J36" s="2"/>
-    </row>
-    <row r="37" s="1" customFormat="1" spans="10:10">
-      <c r="J37" s="2"/>
-    </row>
-    <row r="38" s="1" customFormat="1" spans="1:10">
-      <c r="A38" s="2"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="3"/>
-      <c r="J38" s="2"/>
-    </row>
-    <row r="39" s="1" customFormat="1" spans="1:10">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="3"/>
-      <c r="J39" s="2"/>
-    </row>
-    <row r="40" s="1" customFormat="1" spans="1:10">
-      <c r="A40" s="2"/>
-      <c r="B40" s="4"/>
-      <c r="J40" s="2"/>
-    </row>
-    <row r="41" s="1" customFormat="1" spans="10:10">
-      <c r="J41" s="2"/>
-    </row>
-    <row r="42" s="1" customFormat="1" spans="10:10">
-      <c r="J42" s="2"/>
-    </row>
-    <row r="43" s="1" customFormat="1" spans="3:10">
-      <c r="C43" s="3"/>
-      <c r="J43" s="2"/>
-    </row>
-    <row r="44" s="1" customFormat="1" spans="1:10">
-      <c r="A44" s="2"/>
-      <c r="J44" s="2"/>
-    </row>
-    <row r="45" s="1" customFormat="1" spans="1:10">
-      <c r="A45" s="2"/>
-      <c r="B45" s="4"/>
-      <c r="J45" s="2"/>
-    </row>
-    <row r="46" s="1" customFormat="1" spans="10:10">
-      <c r="J46" s="2"/>
-    </row>
-    <row r="47" s="1" customFormat="1" spans="1:10">
-      <c r="A47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="J47" s="2"/>
-    </row>
-    <row r="48" s="1" customFormat="1" spans="1:10">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="J48" s="2"/>
-    </row>
-    <row r="49" s="1" customFormat="1" spans="1:10">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="J49" s="2"/>
-    </row>
-    <row r="50" s="1" customFormat="1" spans="1:16">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
-      <c r="P50" s="7"/>
-    </row>
-    <row r="51" s="1" customFormat="1" spans="1:10">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="J51" s="2"/>
-    </row>
-    <row r="52" s="1" customFormat="1" spans="1:10">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="J52" s="2"/>
-    </row>
-    <row r="53" s="1" customFormat="1" spans="1:10">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="J53" s="2"/>
-    </row>
-    <row r="54" s="1" customFormat="1" spans="1:16">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" s="7"/>
-    </row>
-    <row r="55" s="1" customFormat="1" spans="1:10">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="3"/>
-      <c r="J55" s="2"/>
-    </row>
-    <row r="56" s="1" customFormat="1" spans="1:10">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="3"/>
-      <c r="J56" s="2"/>
-    </row>
-    <row r="57" s="1" customFormat="1" spans="1:10">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="J57" s="2"/>
-    </row>
-    <row r="58" s="1" customFormat="1" spans="1:10">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="J58" s="2"/>
-    </row>
-    <row r="59" s="1" customFormat="1" spans="1:10">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="J59" s="2"/>
-    </row>
-    <row r="60" s="1" customFormat="1" spans="1:10">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="J60" s="2"/>
-    </row>
-    <row r="65" s="2" customFormat="1" spans="2:2">
-      <c r="B65" s="4"/>
-    </row>
-    <row r="71" s="2" customFormat="1" spans="3:3">
-      <c r="C71" s="4"/>
-    </row>
-    <row r="72" s="2" customFormat="1" spans="3:3">
-      <c r="C72" s="3"/>
-    </row>
-    <row r="74" s="2" customFormat="1" spans="3:3">
-      <c r="C74" s="7"/>
-    </row>
-    <row r="75" s="2" customFormat="1" spans="5:5">
-      <c r="E75" s="7"/>
-    </row>
-    <row r="76" s="2" customFormat="1" spans="4:4">
-      <c r="D76" s="7"/>
-    </row>
-    <row r="77" s="2" customFormat="1" spans="5:5">
-      <c r="E77" s="7"/>
-    </row>
-    <row r="78" s="2" customFormat="1" spans="4:4">
-      <c r="D78" s="7"/>
-    </row>
-    <row r="79" s="2" customFormat="1" spans="3:3">
-      <c r="C79" s="7"/>
-    </row>
-    <row r="80" s="2" customFormat="1" spans="3:3">
-      <c r="C80" s="7"/>
-    </row>
-    <row r="81" s="2" customFormat="1" spans="3:3">
-      <c r="C81" s="3"/>
-    </row>
-    <row r="82" s="2" customFormat="1" spans="3:3">
-      <c r="C82" s="7"/>
-    </row>
-    <row r="83" s="2" customFormat="1" spans="3:3">
-      <c r="C83" s="7"/>
-    </row>
-    <row r="84" s="2" customFormat="1" spans="3:3">
-      <c r="C84" s="3"/>
-    </row>
-    <row r="90" s="2" customFormat="1" spans="3:5">
-      <c r="C90" s="3"/>
-      <c r="E90" s="3"/>
-    </row>
-    <row r="91" s="2" customFormat="1" spans="3:3">
-      <c r="C91" s="4"/>
-    </row>
-    <row r="113" s="2" customFormat="1" spans="2:2">
-      <c r="B113" s="3"/>
-    </row>
-    <row r="114" s="2" customFormat="1" spans="2:2">
-      <c r="B114" s="3"/>
-    </row>
-    <row r="115" s="2" customFormat="1" spans="2:2">
-      <c r="B115" s="3"/>
-    </row>
-    <row r="116" s="2" customFormat="1" spans="2:2">
-      <c r="B116" s="3"/>
-    </row>
-    <row r="117" s="2" customFormat="1" spans="2:2">
-      <c r="B117" s="3"/>
-    </row>
-    <row r="118" s="2" customFormat="1" spans="2:2">
-      <c r="B118" s="3"/>
-    </row>
-    <row r="119" s="2" customFormat="1" spans="2:2">
-      <c r="B119" s="3"/>
-    </row>
-    <row r="120" s="2" customFormat="1" spans="2:2">
-      <c r="B120" s="3"/>
-    </row>
-    <row r="121" s="2" customFormat="1" spans="2:2">
-      <c r="B121" s="3"/>
-    </row>
-    <row r="122" s="2" customFormat="1" spans="2:2">
-      <c r="B122" s="3"/>
+    <row r="1" s="2" customFormat="1" ht="22.5" spans="1:31">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="4"/>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:27">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="9"/>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:10">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:10">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:10">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:10">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:10">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="1:10">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="1:10">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="1:10">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="1:10">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="1:18">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="R12" s="3"/>
+    </row>
+    <row r="13" s="2" customFormat="1" spans="1:18">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="R13" s="3"/>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="1:10">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" s="2" customFormat="1" spans="1:10">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" s="2" customFormat="1" spans="1:10">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" s="2" customFormat="1" spans="1:10">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" s="2" customFormat="1" spans="1:18">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="J18" s="3"/>
+      <c r="R18" s="3"/>
+    </row>
+    <row r="19" s="2" customFormat="1" spans="1:10">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="3"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" s="2" customFormat="1" spans="1:10">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="3"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" s="2" customFormat="1" spans="1:10">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="3"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" s="2" customFormat="1" spans="1:10">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="3"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" s="2" customFormat="1" spans="1:10">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="3"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" s="2" customFormat="1" spans="1:10">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" s="2" customFormat="1" spans="1:10">
+      <c r="A25" s="3"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" s="2" customFormat="1" spans="1:10">
+      <c r="A26" s="3"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" s="2" customFormat="1" spans="1:10">
+      <c r="A27" s="3"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" s="2" customFormat="1" spans="1:10">
+      <c r="A28" s="3"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" s="2" customFormat="1" spans="1:10">
+      <c r="A29" s="3"/>
+      <c r="B29" s="4"/>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" s="2" customFormat="1" spans="3:10">
+      <c r="C30" s="4"/>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" s="2" customFormat="1" spans="1:10">
+      <c r="A31" s="3"/>
+      <c r="B31" s="5"/>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" s="2" customFormat="1" spans="1:10">
+      <c r="A32" s="3"/>
+      <c r="B32" s="5"/>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" s="2" customFormat="1" spans="10:10">
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" s="2" customFormat="1" spans="1:10">
+      <c r="A34" s="3"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="4"/>
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" s="2" customFormat="1" spans="1:10">
+      <c r="A35" s="3"/>
+      <c r="B35" s="5"/>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" s="2" customFormat="1" spans="10:10">
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" s="2" customFormat="1" spans="10:10">
+      <c r="J37" s="3"/>
+    </row>
+    <row r="38" s="2" customFormat="1" spans="1:10">
+      <c r="A38" s="3"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="4"/>
+      <c r="J38" s="3"/>
+    </row>
+    <row r="39" s="2" customFormat="1" spans="1:10">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="4"/>
+      <c r="J39" s="3"/>
+    </row>
+    <row r="40" s="2" customFormat="1" spans="1:10">
+      <c r="A40" s="3"/>
+      <c r="B40" s="5"/>
+      <c r="J40" s="3"/>
+    </row>
+    <row r="41" s="2" customFormat="1" spans="10:10">
+      <c r="J41" s="3"/>
+    </row>
+    <row r="42" s="2" customFormat="1" spans="10:10">
+      <c r="J42" s="3"/>
+    </row>
+    <row r="43" s="2" customFormat="1" spans="3:10">
+      <c r="C43" s="4"/>
+      <c r="J43" s="3"/>
+    </row>
+    <row r="44" s="2" customFormat="1" spans="1:10">
+      <c r="A44" s="3"/>
+      <c r="J44" s="3"/>
+    </row>
+    <row r="45" s="2" customFormat="1" spans="1:10">
+      <c r="A45" s="3"/>
+      <c r="B45" s="5"/>
+      <c r="J45" s="3"/>
+    </row>
+    <row r="46" s="2" customFormat="1" spans="10:10">
+      <c r="J46" s="3"/>
+    </row>
+    <row r="47" s="2" customFormat="1" spans="1:10">
+      <c r="A47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="J47" s="3"/>
+    </row>
+    <row r="48" s="2" customFormat="1" spans="1:10">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="J48" s="3"/>
+    </row>
+    <row r="49" s="2" customFormat="1" spans="1:10">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="J49" s="3"/>
+    </row>
+    <row r="50" s="2" customFormat="1" spans="1:16">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="8"/>
+    </row>
+    <row r="51" s="2" customFormat="1" spans="1:10">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="J51" s="3"/>
+    </row>
+    <row r="52" s="2" customFormat="1" spans="1:10">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="J52" s="3"/>
+    </row>
+    <row r="53" s="2" customFormat="1" spans="1:10">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="J53" s="3"/>
+    </row>
+    <row r="54" s="2" customFormat="1" spans="1:16">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="8"/>
+    </row>
+    <row r="55" s="2" customFormat="1" spans="1:10">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="4"/>
+      <c r="J55" s="3"/>
+    </row>
+    <row r="56" s="2" customFormat="1" spans="1:10">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="4"/>
+      <c r="J56" s="3"/>
+    </row>
+    <row r="57" s="2" customFormat="1" spans="1:10">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="J57" s="3"/>
+    </row>
+    <row r="58" s="2" customFormat="1" spans="1:10">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="J58" s="3"/>
+    </row>
+    <row r="59" s="2" customFormat="1" spans="1:10">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="J59" s="3"/>
+    </row>
+    <row r="60" s="2" customFormat="1" spans="1:10">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="J60" s="3"/>
+    </row>
+    <row r="65" s="3" customFormat="1" spans="2:2">
+      <c r="B65" s="5"/>
+    </row>
+    <row r="71" s="3" customFormat="1" spans="3:3">
+      <c r="C71" s="5"/>
+    </row>
+    <row r="72" s="3" customFormat="1" spans="3:3">
+      <c r="C72" s="4"/>
+    </row>
+    <row r="74" s="3" customFormat="1" spans="3:3">
+      <c r="C74" s="8"/>
+    </row>
+    <row r="75" s="3" customFormat="1" spans="5:5">
+      <c r="E75" s="8"/>
+    </row>
+    <row r="76" s="3" customFormat="1" spans="4:4">
+      <c r="D76" s="8"/>
+    </row>
+    <row r="77" s="3" customFormat="1" spans="5:5">
+      <c r="E77" s="8"/>
+    </row>
+    <row r="78" s="3" customFormat="1" spans="4:4">
+      <c r="D78" s="8"/>
+    </row>
+    <row r="79" s="3" customFormat="1" spans="3:3">
+      <c r="C79" s="8"/>
+    </row>
+    <row r="80" s="3" customFormat="1" spans="3:3">
+      <c r="C80" s="8"/>
+    </row>
+    <row r="81" s="3" customFormat="1" spans="3:3">
+      <c r="C81" s="4"/>
+    </row>
+    <row r="82" s="3" customFormat="1" spans="3:3">
+      <c r="C82" s="8"/>
+    </row>
+    <row r="83" s="3" customFormat="1" spans="3:3">
+      <c r="C83" s="8"/>
+    </row>
+    <row r="84" s="3" customFormat="1" spans="3:3">
+      <c r="C84" s="4"/>
+    </row>
+    <row r="90" s="3" customFormat="1" spans="3:5">
+      <c r="C90" s="4"/>
+      <c r="E90" s="4"/>
+    </row>
+    <row r="91" s="3" customFormat="1" spans="3:3">
+      <c r="C91" s="5"/>
+    </row>
+    <row r="113" s="3" customFormat="1" spans="2:2">
+      <c r="B113" s="4"/>
+    </row>
+    <row r="114" s="3" customFormat="1" spans="2:2">
+      <c r="B114" s="4"/>
+    </row>
+    <row r="115" s="3" customFormat="1" spans="2:2">
+      <c r="B115" s="4"/>
+    </row>
+    <row r="116" s="3" customFormat="1" spans="2:2">
+      <c r="B116" s="4"/>
+    </row>
+    <row r="117" s="3" customFormat="1" spans="2:2">
+      <c r="B117" s="4"/>
+    </row>
+    <row r="118" s="3" customFormat="1" spans="2:2">
+      <c r="B118" s="4"/>
+    </row>
+    <row r="119" s="3" customFormat="1" spans="2:2">
+      <c r="B119" s="4"/>
+    </row>
+    <row r="120" s="3" customFormat="1" spans="2:2">
+      <c r="B120" s="4"/>
+    </row>
+    <row r="121" s="3" customFormat="1" spans="2:2">
+      <c r="B121" s="4"/>
+    </row>
+    <row r="122" s="3" customFormat="1" spans="2:2">
+      <c r="B122" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5569,8 +6036,8 @@
   <sheetPr/>
   <dimension ref="A1:A80"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="W14" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -5580,12 +6047,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -5598,9 +6065,105 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A35:A136"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="4.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="35" customFormat="1" spans="1:1">
+      <c r="A35" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1"/>
+    <row r="37" customFormat="1"/>
+    <row r="38" customFormat="1"/>
+    <row r="39" customFormat="1"/>
+    <row r="40" customFormat="1"/>
+    <row r="41" customFormat="1"/>
+    <row r="42" customFormat="1"/>
+    <row r="43" customFormat="1"/>
+    <row r="44" customFormat="1"/>
+    <row r="45" customFormat="1"/>
+    <row r="46" customFormat="1"/>
+    <row r="47" customFormat="1"/>
+    <row r="48" customFormat="1"/>
+    <row r="49" customFormat="1"/>
+    <row r="50" customFormat="1"/>
+    <row r="51" customFormat="1"/>
+    <row r="52" customFormat="1"/>
+    <row r="53" customFormat="1"/>
+    <row r="54" customFormat="1"/>
+    <row r="55" customFormat="1"/>
+    <row r="56" customFormat="1" spans="1:1">
+      <c r="A56" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="57" customFormat="1"/>
+    <row r="58" customFormat="1"/>
+    <row r="59" customFormat="1"/>
+    <row r="60" customFormat="1"/>
+    <row r="61" customFormat="1"/>
+    <row r="62" customFormat="1"/>
+    <row r="63" customFormat="1"/>
+    <row r="64" customFormat="1"/>
+    <row r="65" customFormat="1"/>
+    <row r="66" customFormat="1"/>
+    <row r="67" customFormat="1"/>
+    <row r="68" customFormat="1"/>
+    <row r="69" customFormat="1" spans="1:1">
+      <c r="A69" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="70" customFormat="1" spans="1:1">
+      <c r="A70" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="71" customFormat="1"/>
+    <row r="72" customFormat="1"/>
+    <row r="73" customFormat="1"/>
+    <row r="74" customFormat="1"/>
+    <row r="75" customFormat="1"/>
+    <row r="76" customFormat="1"/>
+    <row r="77" customFormat="1"/>
+    <row r="78" customFormat="1"/>
+    <row r="79" customFormat="1"/>
+    <row r="80" customFormat="1"/>
+    <row r="134" spans="1:1">
+      <c r="A134" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>

--- a/操作系统笔记.xlsx
+++ b/操作系统笔记.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="200">
   <si>
     <t>操作系统</t>
   </si>
@@ -592,6 +592,9 @@
   </si>
   <si>
     <t>2.4.3 OSTaskCreateExt代码解析</t>
+  </si>
+  <si>
+    <t>前面提到的OSTaskCreat实现了创建任务的最基本功能，现在讲OSTaskCreatWxt，OSTaskCreatWxt的参数有9个，主要增加了堆栈检查的功能</t>
   </si>
   <si>
     <t>源码</t>
@@ -623,10 +626,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -673,7 +676,90 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -694,35 +780,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -731,23 +788,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -762,55 +811,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="ＭＳ ゴシック"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -828,7 +831,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -840,19 +921,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,139 +951,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1012,6 +973,48 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1019,21 +1022,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1048,6 +1036,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1067,11 +1079,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1086,39 +1122,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1127,10 +1130,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1139,134 +1142,134 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2306,6 +2309,48 @@
         <a:xfrm>
           <a:off x="1113790" y="28745815"/>
           <a:ext cx="1105535" cy="1464945"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>370840</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>235585</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1113790" y="30632400"/>
+          <a:ext cx="1350645" cy="682625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4655,10 +4700,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AE177"/>
+  <dimension ref="A1:AE178"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="K175" sqref="K175"/>
+    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D183" sqref="D183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
@@ -5511,6 +5556,11 @@
     <row r="177" spans="3:3">
       <c r="C177" s="11" t="s">
         <v>190</v>
+      </c>
+    </row>
+    <row r="178" spans="4:4">
+      <c r="D178" s="11" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -6037,7 +6087,7 @@
   <dimension ref="A1:A80"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="W14" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -6047,12 +6097,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -6078,7 +6128,7 @@
   <sheetData>
     <row r="35" customFormat="1" spans="1:1">
       <c r="A35" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" customFormat="1"/>
@@ -6103,7 +6153,7 @@
     <row r="55" customFormat="1"/>
     <row r="56" customFormat="1" spans="1:1">
       <c r="A56" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="57" customFormat="1"/>
@@ -6120,12 +6170,12 @@
     <row r="68" customFormat="1"/>
     <row r="69" customFormat="1" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="70" customFormat="1" spans="1:1">
       <c r="A70" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="71" customFormat="1"/>
@@ -6140,12 +6190,12 @@
     <row r="80" customFormat="1"/>
     <row r="134" spans="1:1">
       <c r="A134" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="136" spans="1:1">

--- a/操作系统笔记.xlsx
+++ b/操作系统笔记.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="212">
   <si>
     <t>操作系统</t>
   </si>
@@ -579,6 +579,15 @@
     <t>程序是把数据按顺序压入栈</t>
   </si>
   <si>
+    <t>PC的堆栈是向低地址生长的，空闲任务栈的最高地址是OSTaskIdleStk[127]，既OSTaskIdleStk[7F]。</t>
+  </si>
+  <si>
+    <t>所以将&amp;OSTaskIdleStk[7F]的地址作为栈顶地址传给堆栈初始化函数，第一次赋值就是让stk指向OSTaskIdleStk[7F]，</t>
+  </si>
+  <si>
+    <t>做一次--stk，就让stk指针指向OSTaskIdleStk[7E]。</t>
+  </si>
+  <si>
     <t>若此时发生了任务调度OS_Sched，任务的地址，运行环境都保存在栈里，OS_Sched会根据堆栈内容进行相关操作，操作系统初始化因为没启动任务，所以不会调用OS_Sched</t>
   </si>
   <si>
@@ -595,6 +604,33 @@
   </si>
   <si>
     <t>前面提到的OSTaskCreat实现了创建任务的最基本功能，现在讲OSTaskCreatWxt，OSTaskCreatWxt的参数有9个，主要增加了堆栈检查的功能</t>
+  </si>
+  <si>
+    <t>2.5任务的删除</t>
+  </si>
+  <si>
+    <t>一开始，任务在操作系统中以函数的形式存在的，在操作系统启动时程序被加载到内存，此时程序并未运行。</t>
+  </si>
+  <si>
+    <t>而且，最开始的就绪表和就绪组时空的，此时任务在内存中睡眠，如果不创建任务配置任务，那任务就一直在内存中睡眠。</t>
+  </si>
+  <si>
+    <t>创建任务首先得弄一个任务控制块，然后配置这个任务控制块，任务代码的地址被压入栈。为了以后运行做准备。就绪表和就绪组也进行配置，根据优先级设置，空闲任务块链到就绪链表中</t>
+  </si>
+  <si>
+    <t>删除任务就是创建任务的逆过程，就绪链表内容拿到空闲链表中</t>
+  </si>
+  <si>
+    <t>2.5.1删除任务的代码分析</t>
+  </si>
+  <si>
+    <t>任务删除函数的参数只有一个，就是优先级，因为ucos中优先级是系统的唯一标志，任务控制块虽然也有ID，</t>
+  </si>
+  <si>
+    <t>但是置为了扩展功能使用的。因此删除任务也可以理解成删除指定优先级的任务。</t>
+  </si>
+  <si>
+    <t>代码的学习过程都放在源代码里了</t>
   </si>
   <si>
     <t>源码</t>
@@ -626,10 +662,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -676,21 +712,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -704,15 +726,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -726,9 +747,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -742,39 +785,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -785,13 +798,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -811,9 +817,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="ＭＳ ゴシック"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -831,7 +867,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -843,7 +897,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,19 +927,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -879,7 +951,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -891,7 +969,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -903,25 +1017,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -933,37 +1035,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -976,42 +1048,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1040,11 +1076,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1064,17 +1115,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1093,35 +1158,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1130,10 +1166,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1142,134 +1178,134 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2283,13 +2319,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>370840</xdr:colOff>
-      <xdr:row>166</xdr:row>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>170815</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>175</xdr:row>
+      <xdr:row>178</xdr:row>
       <xdr:rowOff>92710</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2307,7 +2343,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1113790" y="28745815"/>
+          <a:off x="1113790" y="29260165"/>
           <a:ext cx="1105535" cy="1464945"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2325,13 +2361,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>370840</xdr:colOff>
-      <xdr:row>178</xdr:row>
+      <xdr:row>181</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>235585</xdr:colOff>
-      <xdr:row>181</xdr:row>
+      <xdr:row>184</xdr:row>
       <xdr:rowOff>168275</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2349,7 +2385,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1113790" y="30632400"/>
+          <a:off x="1113790" y="31146750"/>
           <a:ext cx="1350645" cy="682625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4700,10 +4736,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AE178"/>
+  <dimension ref="A1:AE195"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="D183" sqref="D183"/>
+    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" topLeftCell="A188" workbookViewId="0">
+      <selection activeCell="E197" sqref="E197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
@@ -5538,8 +5574,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="165" spans="3:3">
-      <c r="C165" s="11" t="s">
+    <row r="165" spans="4:4">
+      <c r="D165" s="11" t="s">
         <v>187</v>
       </c>
     </row>
@@ -5553,14 +5589,79 @@
         <v>189</v>
       </c>
     </row>
-    <row r="177" spans="3:3">
-      <c r="C177" s="11" t="s">
+    <row r="168" spans="3:3">
+      <c r="C168" s="11" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="178" spans="4:4">
-      <c r="D178" s="11" t="s">
+    <row r="169" spans="4:4">
+      <c r="D169" s="11" t="s">
         <v>191</v>
+      </c>
+    </row>
+    <row r="170" spans="4:4">
+      <c r="D170" s="11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="180" spans="3:3">
+      <c r="C180" s="11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="181" spans="4:4">
+      <c r="D181" s="11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2">
+      <c r="B186" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="187" spans="3:3">
+      <c r="C187" s="11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="188" spans="3:3">
+      <c r="C188" s="11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="189" spans="3:3">
+      <c r="C189" s="11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="190" spans="3:3">
+      <c r="C190" s="11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="191" spans="3:3">
+      <c r="C191" s="11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="192" spans="4:4">
+      <c r="D192" s="11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="193" spans="4:4">
+      <c r="D193" s="11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="194" spans="4:4">
+      <c r="D194" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="195" spans="5:5">
+      <c r="E195" s="14" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -6097,12 +6198,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -6128,7 +6229,7 @@
   <sheetData>
     <row r="35" customFormat="1" spans="1:1">
       <c r="A35" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" customFormat="1"/>
@@ -6153,7 +6254,7 @@
     <row r="55" customFormat="1"/>
     <row r="56" customFormat="1" spans="1:1">
       <c r="A56" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
     </row>
     <row r="57" customFormat="1"/>
@@ -6170,12 +6271,12 @@
     <row r="68" customFormat="1"/>
     <row r="69" customFormat="1" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
     </row>
     <row r="70" customFormat="1" spans="1:1">
       <c r="A70" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
     </row>
     <row r="71" customFormat="1"/>
@@ -6190,12 +6291,12 @@
     <row r="80" customFormat="1"/>
     <row r="134" spans="1:1">
       <c r="A134" s="1" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="1" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
     </row>
     <row r="136" spans="1:1">

--- a/操作系统笔记.xlsx
+++ b/操作系统笔记.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="234">
   <si>
     <t>操作系统</t>
   </si>
@@ -303,6 +303,15 @@
     <t>ucos采用了内存块来管理，内存块的大小数量以及空闲等信息都放在内存控制记录块中，内存管理包括了内存分区的创建，分配，释放，使用，等待系统的调用</t>
   </si>
   <si>
+    <t>⑸</t>
+  </si>
+  <si>
+    <t>⑺⑻⑼⑽</t>
+  </si>
+  <si>
+    <t>⑹</t>
+  </si>
+  <si>
     <t>第二章：任务管理</t>
   </si>
   <si>
@@ -631,6 +640,63 @@
   </si>
   <si>
     <t>代码的学习过程都放在源代码里了</t>
+  </si>
+  <si>
+    <t>删除任务挺复杂，过程中一直访问全局变量，因此系统不能响应中断，破坏了实时性，因此代码中间断开了一次中断。</t>
+  </si>
+  <si>
+    <t>⑴任务调度锁+1</t>
+  </si>
+  <si>
+    <t>⑵开中断</t>
+  </si>
+  <si>
+    <t>⑶执行空语句，保证有中断可以插入</t>
+  </si>
+  <si>
+    <t>⑷关中断</t>
+  </si>
+  <si>
+    <t>⑸调度锁-1，恢复原来的值</t>
+  </si>
+  <si>
+    <t>2.5.2删除任务的流程</t>
+  </si>
+  <si>
+    <t>传入任务优先级-&gt;关中断-&gt;在就绪表和就绪组中取消该优先级的标志-&gt;取消任务等待时间的标志-&gt;</t>
+  </si>
+  <si>
+    <t>清除等待事件标志位-&gt;将任务控制块的时钟延迟数清0-&gt;设置空闲任务控制块的指针-&gt;给调度器上锁-&gt;</t>
+  </si>
+  <si>
+    <t>开中断-&gt;等待-&gt;开中断-&gt;修改任务优先级指针表-&gt;开调度锁-&gt;处理控制块就绪表-&gt;处理空闲就绪表-&gt;处理空闲链表指针-&gt;开中断-&gt;执行一次调度</t>
+  </si>
+  <si>
+    <t>关于删除任务，除了直接删除任务外，还有个函数也可以-&gt;OSTASKDelReq</t>
+  </si>
+  <si>
+    <t>2.5.3请求删除任务代码解析</t>
+  </si>
+  <si>
+    <t>当以其他任务优先级作为参数的时候，OSTaskDel粗暴的删除了任务，在某些情况下是有效的，但是不是必须这么做。可以通知对方任务说我要删除你了，请任务自己删除时一种更好的方式，</t>
+  </si>
+  <si>
+    <t>因为这么做任务可以在删除自己之前放弃自己使用的资源，如缓存，信号量，邮箱，队列等，如果总用OSTaskDel删除一个任务，这个任务占用的资源就得不到释放，会造成内存泄露。内存泄露大的时候系统就崩溃了。</t>
+  </si>
+  <si>
+    <t>其实，OSTaskDelReq名称虽然时请求，却集请求和响应与一体的代码。该代码请求删除某任务和检查是否要删除自。</t>
+  </si>
+  <si>
+    <t>优先级5的Task调用了OSTaskDelReq（10），请求删除优先级为10的任务，优先级10的热播我要调用</t>
+  </si>
+  <si>
+    <t>OSTaskDelReq（OS_PRIO_SEL）并检查返回值，若要求删除自己，任务10就放弃自己的资源，</t>
+  </si>
+  <si>
+    <t>调用OSTaskDel（10）或者OSTaskDel（OS_PRIO_SEL）来删除自己</t>
+  </si>
+  <si>
+    <t>OSTaskDelReq的代码解析在源码中</t>
   </si>
   <si>
     <t>源码</t>
@@ -662,9 +728,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -711,8 +777,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -726,14 +807,27 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ ゴシック"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -744,29 +838,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -782,6 +853,13 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -809,9 +887,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -833,20 +910,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <name val="ＭＳ ゴシック"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -867,13 +933,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -891,7 +999,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -903,43 +1017,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -957,31 +1095,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -993,61 +1113,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1058,6 +1124,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1094,8 +1180,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1114,50 +1224,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1166,10 +1232,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1178,134 +1244,134 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4736,10 +4802,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AE195"/>
+  <dimension ref="A1:AE215"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" topLeftCell="A188" workbookViewId="0">
-      <selection activeCell="E197" sqref="E197"/>
+    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" topLeftCell="A201" workbookViewId="0">
+      <selection activeCell="G205" sqref="G205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
@@ -4765,12 +4831,14 @@
       <c r="O1" s="11"/>
       <c r="P1" s="11"/>
       <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
+      <c r="R1" s="11" t="s">
+        <v>1</v>
+      </c>
       <c r="S1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="T1" s="11" t="s">
         <v>2</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="U1" s="11" t="s">
         <v>3</v>
@@ -4779,7 +4847,7 @@
         <v>4</v>
       </c>
       <c r="W1" s="11" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="X1" s="12"/>
       <c r="Y1" s="11"/>
@@ -4808,12 +4876,14 @@
       <c r="O2" s="11"/>
       <c r="P2" s="11"/>
       <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
+      <c r="R2" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="S2" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="T2" s="11" t="s">
         <v>7</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>96</v>
       </c>
       <c r="U2" s="11" t="s">
         <v>8</v>
@@ -4831,7 +4901,7 @@
     </row>
     <row r="3" s="10" customFormat="1" spans="1:10">
       <c r="A3" s="11" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -4840,7 +4910,7 @@
     <row r="4" s="10" customFormat="1" spans="1:10">
       <c r="A4" s="11"/>
       <c r="B4" s="12" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C4" s="11"/>
       <c r="J4" s="11"/>
@@ -4849,7 +4919,7 @@
       <c r="A5" s="11"/>
       <c r="B5" s="12"/>
       <c r="C5" s="11" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="J5" s="11"/>
     </row>
@@ -4857,7 +4927,7 @@
       <c r="A6" s="11"/>
       <c r="B6" s="12"/>
       <c r="C6" s="11" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="J6" s="11"/>
     </row>
@@ -4865,7 +4935,7 @@
       <c r="A7" s="11"/>
       <c r="B7" s="12"/>
       <c r="C7" s="11" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J7" s="11"/>
     </row>
@@ -4873,7 +4943,7 @@
       <c r="A8" s="11"/>
       <c r="B8" s="12"/>
       <c r="C8" s="11" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J8" s="11"/>
     </row>
@@ -4881,7 +4951,7 @@
       <c r="A9" s="11"/>
       <c r="B9" s="12"/>
       <c r="C9" s="11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J9" s="11"/>
     </row>
@@ -4889,7 +4959,7 @@
       <c r="A10" s="11"/>
       <c r="B10" s="12"/>
       <c r="C10" s="11" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J10" s="11"/>
     </row>
@@ -4897,7 +4967,7 @@
       <c r="A11" s="11"/>
       <c r="B11" s="12"/>
       <c r="C11" s="11" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J11" s="11"/>
     </row>
@@ -4905,7 +4975,7 @@
       <c r="A12" s="11"/>
       <c r="B12" s="12"/>
       <c r="C12" s="11" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="J12" s="11"/>
     </row>
@@ -4913,7 +4983,7 @@
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
       <c r="C13" s="11" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J13" s="11"/>
     </row>
@@ -4921,14 +4991,14 @@
       <c r="A14" s="11"/>
       <c r="B14" s="12"/>
       <c r="C14" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="J14" s="11"/>
     </row>
     <row r="15" s="10" customFormat="1" spans="1:10">
       <c r="A15" s="11"/>
       <c r="B15" s="12" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C15" s="11"/>
       <c r="J15" s="11"/>
@@ -4937,7 +5007,7 @@
       <c r="A16" s="11"/>
       <c r="B16" s="12"/>
       <c r="C16" s="11" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="J16" s="11"/>
     </row>
@@ -4945,7 +5015,7 @@
       <c r="A17" s="11"/>
       <c r="B17" s="12"/>
       <c r="C17" s="11" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="J17" s="11"/>
     </row>
@@ -4953,7 +5023,7 @@
       <c r="A18" s="11"/>
       <c r="B18" s="12"/>
       <c r="D18" s="10" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="J18" s="11"/>
     </row>
@@ -4962,7 +5032,7 @@
       <c r="B19" s="12"/>
       <c r="C19" s="11"/>
       <c r="E19" s="10" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J19" s="11"/>
     </row>
@@ -4971,7 +5041,7 @@
       <c r="B20" s="12"/>
       <c r="C20" s="11"/>
       <c r="E20" s="10" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="J20" s="11"/>
     </row>
@@ -4980,7 +5050,7 @@
       <c r="B21" s="12"/>
       <c r="C21" s="11"/>
       <c r="E21" s="10" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J21" s="11"/>
     </row>
@@ -4989,7 +5059,7 @@
       <c r="B22" s="12"/>
       <c r="C22" s="11"/>
       <c r="E22" s="10" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J22" s="11"/>
     </row>
@@ -4998,7 +5068,7 @@
       <c r="B23" s="12"/>
       <c r="C23" s="11"/>
       <c r="E23" s="10" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="J23" s="11"/>
     </row>
@@ -5007,7 +5077,7 @@
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
       <c r="D24" s="10" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J24" s="11"/>
     </row>
@@ -5016,7 +5086,7 @@
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
       <c r="E25" s="13" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J25" s="11"/>
     </row>
@@ -5025,7 +5095,7 @@
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="10" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J26" s="11"/>
     </row>
@@ -5034,7 +5104,7 @@
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="E27" s="10" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J27" s="11"/>
     </row>
@@ -5043,7 +5113,7 @@
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
       <c r="E28" s="10" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="J28" s="11"/>
     </row>
@@ -5051,14 +5121,14 @@
       <c r="A29" s="11"/>
       <c r="B29" s="12"/>
       <c r="C29" s="11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="J29" s="11"/>
     </row>
     <row r="30" s="10" customFormat="1" spans="3:10">
       <c r="C30" s="12"/>
       <c r="D30" s="10" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="J30" s="11"/>
     </row>
@@ -5066,7 +5136,7 @@
       <c r="A31" s="11"/>
       <c r="B31" s="14"/>
       <c r="D31" s="10" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="J31" s="11"/>
     </row>
@@ -5074,13 +5144,13 @@
       <c r="A32" s="11"/>
       <c r="B32" s="14"/>
       <c r="D32" s="10" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="J32" s="11"/>
     </row>
     <row r="33" s="10" customFormat="1" spans="4:10">
       <c r="D33" s="10" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="J33" s="11"/>
     </row>
@@ -5089,7 +5159,7 @@
       <c r="B34" s="14"/>
       <c r="C34" s="12"/>
       <c r="D34" s="10" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J34" s="11"/>
     </row>
@@ -5146,7 +5216,7 @@
     <row r="47" s="10" customFormat="1" spans="1:10">
       <c r="A47" s="11"/>
       <c r="D47" s="11" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="J47" s="11"/>
     </row>
@@ -5154,7 +5224,7 @@
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="D48" s="10" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="J48" s="11"/>
     </row>
@@ -5163,7 +5233,7 @@
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
       <c r="D49" s="10" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J49" s="11"/>
     </row>
@@ -5172,7 +5242,7 @@
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
       <c r="D50" s="11" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
@@ -5191,7 +5261,7 @@
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="J51" s="11"/>
     </row>
@@ -5200,7 +5270,7 @@
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
       <c r="D52" s="11" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="J52" s="11"/>
     </row>
@@ -5209,7 +5279,7 @@
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
       <c r="D53" s="10" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="J53" s="11"/>
     </row>
@@ -5218,7 +5288,7 @@
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
       <c r="D54" s="11" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
@@ -5238,7 +5308,7 @@
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
       <c r="D55" s="12" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="J55" s="11"/>
     </row>
@@ -5246,7 +5316,7 @@
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D56" s="12"/>
       <c r="J56" s="11"/>
@@ -5256,7 +5326,7 @@
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
       <c r="D57" s="10" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="J57" s="11"/>
     </row>
@@ -5265,7 +5335,7 @@
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
       <c r="D58" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="J58" s="11"/>
     </row>
@@ -5274,7 +5344,7 @@
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
       <c r="D59" s="10" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="J59" s="11"/>
     </row>
@@ -5286,50 +5356,50 @@
     </row>
     <row r="62" spans="4:4">
       <c r="D62" s="11" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="63" spans="4:4">
       <c r="D63" s="11" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="64" spans="4:4">
       <c r="D64" s="11" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="65" s="11" customFormat="1" spans="2:4">
       <c r="B65" s="14"/>
       <c r="D65" s="11" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" s="11" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="67" spans="4:4">
       <c r="D67" s="11" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="68" spans="4:4">
       <c r="D68" s="11" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="69" s="11" customFormat="1" spans="3:4">
       <c r="C69" s="14"/>
       <c r="D69" s="11" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="70" s="11" customFormat="1" spans="3:4">
       <c r="C70" s="12"/>
       <c r="D70" s="11" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="72" s="11" customFormat="1" spans="3:3">
@@ -5364,304 +5434,405 @@
     </row>
     <row r="85" spans="5:5">
       <c r="E85" s="17" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="86" spans="5:5">
       <c r="E86" s="11" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="87" spans="5:5">
       <c r="E87" s="11" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="88" s="11" customFormat="1" spans="3:5">
       <c r="C88" s="12"/>
       <c r="E88" s="11" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="89" s="11" customFormat="1" spans="3:5">
       <c r="C89" s="14"/>
       <c r="E89" s="11" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="90" spans="5:5">
       <c r="E90" s="11" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="91" spans="5:5">
       <c r="E91" s="11" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="92" spans="5:5">
       <c r="E92" s="11" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="93" spans="5:5">
       <c r="E93" s="11" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="96" spans="5:5">
       <c r="E96" s="11" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="97" spans="5:5">
       <c r="E97" s="11" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="98" spans="5:5">
       <c r="E98" s="11" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99" s="11" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="100" spans="3:3">
       <c r="C100" s="11" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="101" spans="4:4">
       <c r="D101" s="11" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="102" spans="4:4">
       <c r="D102" s="11" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="111" s="11" customFormat="1" spans="2:4">
       <c r="B111" s="12"/>
       <c r="D111" s="11" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="112" s="11" customFormat="1" spans="2:4">
       <c r="B112" s="12"/>
       <c r="D112" s="19" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="113" s="11" customFormat="1" spans="2:3">
       <c r="B113" s="12"/>
       <c r="C113" s="11" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="114" s="11" customFormat="1" spans="2:4">
       <c r="B114" s="12"/>
       <c r="D114" s="11" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="115" s="11" customFormat="1" spans="2:4">
       <c r="B115" s="12"/>
       <c r="D115" s="11" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="116" s="11" customFormat="1" spans="2:4">
       <c r="B116" s="12"/>
       <c r="D116" s="19" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="117" s="11" customFormat="1" spans="2:2">
       <c r="B117" s="12" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="118" s="11" customFormat="1" spans="2:3">
       <c r="B118" s="12"/>
       <c r="C118" s="11" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="119" s="11" customFormat="1" spans="2:3">
       <c r="B119" s="12"/>
       <c r="C119" s="11" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="120" s="11" customFormat="1" spans="2:3">
       <c r="B120" s="12"/>
       <c r="C120" s="11" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="121" s="11" customFormat="1" spans="2:4">
       <c r="B121" s="12"/>
       <c r="D121" s="11" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="122" spans="4:4">
       <c r="D122" s="19" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="123" spans="3:3">
       <c r="C123" s="11" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="124" spans="4:4">
       <c r="D124" s="11" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="125" spans="4:4">
       <c r="D125" s="11" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137" s="11" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="138" spans="3:3">
       <c r="C138" s="11" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="139" spans="3:3">
       <c r="C139" s="11" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="140" spans="3:3">
       <c r="C140" s="11" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="141" spans="4:4">
       <c r="D141" s="14" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="142" spans="4:4">
       <c r="D142" s="11" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="143" spans="4:4">
       <c r="D143" s="11" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="163" spans="4:4">
       <c r="D163" s="11" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="164" spans="4:4">
       <c r="D164" s="11" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="165" spans="4:4">
       <c r="D165" s="11" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="166" spans="4:4">
       <c r="D166" s="11" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="167" spans="4:4">
       <c r="D167" s="11" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="168" spans="3:3">
       <c r="C168" s="11" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="169" spans="4:4">
       <c r="D169" s="11" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="170" spans="4:4">
       <c r="D170" s="11" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="180" spans="3:3">
       <c r="C180" s="11" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="181" spans="4:4">
       <c r="D181" s="11" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="186" spans="2:2">
       <c r="B186" s="11" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="187" spans="3:3">
       <c r="C187" s="11" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="188" spans="3:3">
       <c r="C188" s="11" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="189" spans="3:3">
       <c r="C189" s="11" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="190" spans="3:3">
       <c r="C190" s="11" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="191" spans="3:3">
       <c r="C191" s="11" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="192" spans="4:4">
       <c r="D192" s="11" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="193" spans="4:4">
       <c r="D193" s="11" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="194" spans="4:4">
       <c r="D194" s="11" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="195" spans="5:5">
       <c r="E195" s="14" t="s">
-        <v>203</v>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="196" spans="4:4">
+      <c r="D196" s="11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="197" spans="4:4">
+      <c r="D197" s="11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="198" spans="4:4">
+      <c r="D198" s="11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="199" spans="4:4">
+      <c r="D199" s="11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="200" spans="4:5">
+      <c r="D200" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="E200" s="10"/>
+    </row>
+    <row r="201" spans="4:4">
+      <c r="D201" s="10" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="202" spans="3:3">
+      <c r="C202" s="11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="203" spans="4:4">
+      <c r="D203" s="11" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="204" spans="4:4">
+      <c r="D204" s="11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="205" spans="4:4">
+      <c r="D205" s="11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="206" spans="4:4">
+      <c r="D206" s="11" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="207" spans="3:3">
+      <c r="C207" s="11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="208" spans="4:4">
+      <c r="D208" s="11" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="209" spans="4:4">
+      <c r="D209" s="11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="210" spans="4:4">
+      <c r="D210" s="11" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="211" spans="4:4">
+      <c r="D211" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="212" spans="5:5">
+      <c r="E212" s="11" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="213" spans="5:5">
+      <c r="E213" s="11" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="214" spans="5:5">
+      <c r="E214" s="11" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="215" spans="4:4">
+      <c r="D215" s="11" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -6198,12 +6369,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -6229,7 +6400,7 @@
   <sheetData>
     <row r="35" customFormat="1" spans="1:1">
       <c r="A35" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
     </row>
     <row r="36" customFormat="1"/>
@@ -6254,7 +6425,7 @@
     <row r="55" customFormat="1"/>
     <row r="56" customFormat="1" spans="1:1">
       <c r="A56" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
     </row>
     <row r="57" customFormat="1"/>
@@ -6271,12 +6442,12 @@
     <row r="68" customFormat="1"/>
     <row r="69" customFormat="1" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
     </row>
     <row r="70" customFormat="1" spans="1:1">
       <c r="A70" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
     </row>
     <row r="71" customFormat="1"/>
@@ -6291,12 +6462,12 @@
     <row r="80" customFormat="1"/>
     <row r="134" spans="1:1">
       <c r="A134" s="1" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="1" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
     </row>
     <row r="136" spans="1:1">

--- a/操作系统笔记.xlsx
+++ b/操作系统笔记.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="241">
   <si>
     <t>操作系统</t>
   </si>
@@ -697,6 +697,27 @@
   </si>
   <si>
     <t>OSTaskDelReq的代码解析在源码中</t>
+  </si>
+  <si>
+    <t>2.6任务的挂起和恢复</t>
+  </si>
+  <si>
+    <t>任务创建后会从睡眠态转到就绪态，就绪的任务如果调用OSTaskSuspend将被阻塞，也就是被剥夺CPU的使用权，暂时中止运行，转到阻塞态，被称为任务挂起。</t>
+  </si>
+  <si>
+    <t>被挂起的任务不能运行，知道其他任务调用了OSTaskResume来恢复他，才能将该任务的状态重新设为就绪态。</t>
+  </si>
+  <si>
+    <t>当该任务就是就绪表中最高优先级的时候才能重新占领CPU，恢复运行。</t>
+  </si>
+  <si>
+    <t>一个任务如果无事可做，且优先级又特别高，长期占用CPU，那么其他任务将得不到运行而饿死，因此不需要运行的时候放弃CPU时一种策略，除此之外还有任务延时等策略。</t>
+  </si>
+  <si>
+    <t>挂起一个任务是将任务变成阻塞态。不是挂起态，挂起态是因为中断，中断结束了任务还会继续运行。两者有明显区别。</t>
+  </si>
+  <si>
+    <t>2.6.1 OSTaskSuspend代码解析在源码中</t>
   </si>
   <si>
     <t>源码</t>
@@ -4802,10 +4823,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AE215"/>
+  <dimension ref="A1:AE222"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" topLeftCell="A201" workbookViewId="0">
-      <selection activeCell="G205" sqref="G205"/>
+    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="G223" sqref="G223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
@@ -5833,6 +5854,41 @@
     <row r="215" spans="4:4">
       <c r="D215" s="11" t="s">
         <v>225</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2">
+      <c r="B216" s="11" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="217" spans="3:3">
+      <c r="C217" s="11" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="218" spans="3:3">
+      <c r="C218" s="11" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="219" spans="3:3">
+      <c r="C219" s="11" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="220" spans="3:3">
+      <c r="C220" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="221" spans="3:3">
+      <c r="C221" s="11" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="222" spans="3:3">
+      <c r="C222" s="11" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -6369,12 +6425,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -6400,7 +6456,7 @@
   <sheetData>
     <row r="35" customFormat="1" spans="1:1">
       <c r="A35" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
     </row>
     <row r="36" customFormat="1"/>
@@ -6425,7 +6481,7 @@
     <row r="55" customFormat="1"/>
     <row r="56" customFormat="1" spans="1:1">
       <c r="A56" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
     </row>
     <row r="57" customFormat="1"/>
@@ -6442,12 +6498,12 @@
     <row r="68" customFormat="1"/>
     <row r="69" customFormat="1" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
     </row>
     <row r="70" customFormat="1" spans="1:1">
       <c r="A70" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
     </row>
     <row r="71" customFormat="1"/>
@@ -6462,12 +6518,12 @@
     <row r="80" customFormat="1"/>
     <row r="134" spans="1:1">
       <c r="A134" s="1" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="1" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
     </row>
     <row r="136" spans="1:1">

--- a/操作系统笔记.xlsx
+++ b/操作系统笔记.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="812" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="812" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="第一章" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="243">
   <si>
     <t>操作系统</t>
   </si>
@@ -718,6 +718,12 @@
   </si>
   <si>
     <t>2.6.1 OSTaskSuspend代码解析在源码中</t>
+  </si>
+  <si>
+    <t>2.6.2 OSTaskSuspendl流程分析</t>
+  </si>
+  <si>
+    <t>2.6.3 OSTaskResume代码解析在源码中</t>
   </si>
   <si>
     <t>源码</t>
@@ -749,10 +755,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -798,7 +804,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -807,7 +819,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -821,7 +833,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -832,23 +859,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -877,13 +890,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -908,21 +914,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -934,6 +925,21 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -954,7 +960,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -966,49 +1002,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1026,7 +1020,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1044,6 +1044,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1056,85 +1122,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1145,26 +1151,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1183,6 +1169,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1194,6 +1189,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1216,21 +1226,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1245,6 +1240,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1253,10 +1259,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1265,134 +1271,134 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3685,14 +3691,14 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3706,7 +3712,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="2571750"/>
-          <a:ext cx="14525625" cy="10258425"/>
+          <a:ext cx="13858875" cy="9267825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4823,10 +4829,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AE222"/>
+  <dimension ref="A1:AE224"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="G223" sqref="G223"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="K226" sqref="K226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
@@ -5889,6 +5895,16 @@
     <row r="222" spans="3:3">
       <c r="C222" s="11" t="s">
         <v>232</v>
+      </c>
+    </row>
+    <row r="223" spans="3:3">
+      <c r="C223" s="11" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="224" spans="3:3">
+      <c r="C224" s="11" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -6425,12 +6441,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -6456,7 +6472,7 @@
   <sheetData>
     <row r="35" customFormat="1" spans="1:1">
       <c r="A35" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="36" customFormat="1"/>
@@ -6481,7 +6497,7 @@
     <row r="55" customFormat="1"/>
     <row r="56" customFormat="1" spans="1:1">
       <c r="A56" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="57" customFormat="1"/>
@@ -6498,12 +6514,12 @@
     <row r="68" customFormat="1"/>
     <row r="69" customFormat="1" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="70" customFormat="1" spans="1:1">
       <c r="A70" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="71" customFormat="1"/>
@@ -6518,12 +6534,12 @@
     <row r="80" customFormat="1"/>
     <row r="134" spans="1:1">
       <c r="A134" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="136" spans="1:1">
@@ -6541,7 +6557,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>

--- a/操作系统笔记.xlsx
+++ b/操作系统笔记.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="812" activeTab="5"/>
+    <workbookView windowWidth="19200" windowHeight="9090" tabRatio="812" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="第一章" sheetId="2" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="任务控制块源码" sheetId="4" r:id="rId3"/>
     <sheet name="任务控制块Init源码" sheetId="9" r:id="rId4"/>
     <sheet name="OS_Init源码" sheetId="10" r:id="rId5"/>
-    <sheet name="书签" sheetId="5" r:id="rId6"/>
+    <sheet name="内存中数据结构" sheetId="11" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="288">
   <si>
     <t>操作系统</t>
   </si>
@@ -726,6 +726,81 @@
     <t>2.6.3 OSTaskResume代码解析在源码中</t>
   </si>
   <si>
+    <t>2.7任务的调度和多任务的启动</t>
+  </si>
+  <si>
+    <t>2.7.1任务调度器</t>
+  </si>
+  <si>
+    <t>ucos是基于优先级调度的实时操作系统。启动多任务后，每个时钟都要执行任务调度，</t>
+  </si>
+  <si>
+    <t>如果时间片是20ms，那么每20就要执行一次任务调度，这个任务调度函数就是OSTimeTick，源代码分析</t>
+  </si>
+  <si>
+    <t>任务可能因为等待时间而进入阻塞状态，但是阻塞的任务控制块让然在就绪链表中，任务等待事件发生的时候，可以设置等待事件，超市就不等了，避免死等</t>
+  </si>
+  <si>
+    <t>因此结合代码，调度器遍历一遍任务后，如果设置了等待延时，就把延时事件-1，不论是等待事件发生的任务，</t>
+  </si>
+  <si>
+    <t>还是单纯的等待一段时间，只要不是挂起的任务，延时到了就会就绪，使任务就绪的方法就是操作就绪组和就绪表</t>
+  </si>
+  <si>
+    <t>总结一下，每来一个时间片，就会调用一次OSTimeTick,修改延时任务的时间，然后设置哪些任务就绪，现在只是配置任务的就绪表和就绪组，还没进行任务的切换</t>
+  </si>
+  <si>
+    <t>2.7.2任务切换函数</t>
+  </si>
+  <si>
+    <t>就绪的任务进入取得CPU才叫运行，任务切换函数就是执行这样的功能：</t>
+  </si>
+  <si>
+    <t>如果正在运行的任务不是优先级最高的或将被阻塞，需要选择一个优先级最高的任务运行，该过程最重要的一点是上下文切换，</t>
+  </si>
+  <si>
+    <t>也就是保存运行环境。如CPU寄存器的值，以便任务重新开始运行之前恢复CPU的值。</t>
+  </si>
+  <si>
+    <t>因此，任务切换函数是涉及硬件操作的，和CPU关系密切，因此不同硬件实现的代码也不同，任务切换函数是OS_Schea，</t>
+  </si>
+  <si>
+    <t>OS_TASK_SW();首先把CPU寄存器的内容入被换出来任务的堆栈中，被换入的任务的堆栈的内容被弹入CPU寄存器内，这个过程和硬件关系密切。</t>
+  </si>
+  <si>
+    <t>OS_TASK_SW();程序以8086CPU来举例。</t>
+  </si>
+  <si>
+    <t>2.7.3中断中的任务调度</t>
+  </si>
+  <si>
+    <t>ucos中每个时钟滴答就进入时钟中断服务，如果有比目前运行的任务更高优先级的任务，就要进行调度，调度函数不是OS_Sched，而是OSIntExit</t>
+  </si>
+  <si>
+    <t>2.7.4多任务的启动</t>
+  </si>
+  <si>
+    <t>多任务启动的代码是内核中的OSStart函数，运行OSStart之前，必须执行OSInit，并且至少创建一个以上的任务，</t>
+  </si>
+  <si>
+    <t>代码解析：</t>
+  </si>
+  <si>
+    <t>2.8特殊任务：</t>
+  </si>
+  <si>
+    <t>ucos的特殊任务包括空闲任务和统计任务，有称为操作系统的系统任务，虽然统计任务不是必须的，</t>
+  </si>
+  <si>
+    <t>但却是默认的系统任务，这两个任务在操作系统初始化时被创建，在多任务启动后被执行，</t>
+  </si>
+  <si>
+    <t>2.8.1空闲任务OS_TaskIdle</t>
+  </si>
+  <si>
+    <t>2.8.2统计任务OS_TaskStat</t>
+  </si>
+  <si>
     <t>源码</t>
   </si>
   <si>
@@ -748,6 +823,66 @@
   </si>
   <si>
     <t>如果系统配置有定时器模块，执行OSTmr_Init初始化定时器，后面的空函数可以自己编写一些东西，</t>
+  </si>
+  <si>
+    <t>OSTCBPrioTbl</t>
+  </si>
+  <si>
+    <t>任务优先级指针表</t>
+  </si>
+  <si>
+    <t>任务堆栈</t>
+  </si>
+  <si>
+    <t>指向各个控制块</t>
+  </si>
+  <si>
+    <t>任务控制块（一）TCB</t>
+  </si>
+  <si>
+    <t>栈顶</t>
+  </si>
+  <si>
+    <t>*OSTCBStkPtr</t>
+  </si>
+  <si>
+    <t>栈底</t>
+  </si>
+  <si>
+    <t>*OSTCBNext</t>
+  </si>
+  <si>
+    <t>空闲链表指针OSTCBFreeList</t>
+  </si>
+  <si>
+    <t>*OSTCBPrev</t>
+  </si>
+  <si>
+    <t>就绪链表指针OSTCBList</t>
+  </si>
+  <si>
+    <t>n-1</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>任务就绪组OSRdyGrp</t>
+  </si>
+  <si>
+    <t>任务控制块（二）TCB</t>
+  </si>
+  <si>
+    <t>任务就绪表OSRdyTbl[OS_RDY_TBL_SIZE]</t>
+  </si>
+  <si>
+    <t>任务控制块（n-1）TCB，空闲任务</t>
+  </si>
+  <si>
+    <t>任务控制块（n）TCB，统计任务</t>
+  </si>
+  <si>
+    <t>0地址</t>
   </si>
 </sst>
 </file>
@@ -755,9 +890,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -818,6 +953,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -825,6 +976,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -844,34 +1011,6 @@
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="ＭＳ ゴシック"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -914,17 +1053,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -944,6 +1074,11 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ ゴシック"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -954,13 +1089,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.25"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -972,151 +1143,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1134,7 +1161,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1144,13 +1201,231 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="20">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1178,6 +1453,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1189,21 +1479,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1226,21 +1501,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1259,10 +1519,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1271,19 +1531,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1292,13 +1552,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1310,100 +1570,139 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1433,34 +1732,34 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1561,8 +1860,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1114425" y="9543415"/>
-          <a:ext cx="2828925" cy="2094230"/>
+          <a:off x="1021080" y="9886315"/>
+          <a:ext cx="2611120" cy="2176780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1603,8 +1902,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="742950" y="1143000"/>
-          <a:ext cx="5534025" cy="2562225"/>
+          <a:off x="680720" y="1181100"/>
+          <a:ext cx="5098415" cy="2651125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1645,8 +1944,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1485900" y="16059150"/>
-          <a:ext cx="2628900" cy="1805940"/>
+          <a:off x="1361440" y="16649700"/>
+          <a:ext cx="2411095" cy="1869440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1692,8 +1991,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5737860" y="4517390"/>
-          <a:ext cx="11849100" cy="228600"/>
+          <a:off x="5271135" y="4676140"/>
+          <a:ext cx="10853420" cy="241300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1734,8 +2033,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1114425" y="5942965"/>
-          <a:ext cx="2317115" cy="2047240"/>
+          <a:off x="1021080" y="6152515"/>
+          <a:ext cx="2130425" cy="2123440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1756,8 +2055,8 @@
       <xdr:rowOff>92710</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>358775</xdr:colOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>149860</xdr:rowOff>
     </xdr:to>
@@ -1776,8 +2075,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4654550" y="8950960"/>
-          <a:ext cx="12049125" cy="228600"/>
+          <a:off x="4281170" y="9274810"/>
+          <a:ext cx="11035030" cy="234950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1798,8 +2097,8 @@
       <xdr:rowOff>24130</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>340360</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1818,8 +2117,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2510155" y="10082530"/>
-          <a:ext cx="2287905" cy="433070"/>
+          <a:off x="2323465" y="10450830"/>
+          <a:ext cx="2101215" cy="445770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1860,8 +2159,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1485900" y="12115800"/>
-          <a:ext cx="3032125" cy="641985"/>
+          <a:off x="1361440" y="12560300"/>
+          <a:ext cx="2783205" cy="661035"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1894,8 +2193,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3654425" y="12419965"/>
-          <a:ext cx="446405" cy="291465"/>
+          <a:off x="3374390" y="12870815"/>
+          <a:ext cx="384175" cy="304165"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1969,8 +2268,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="2480945" y="12560935"/>
-          <a:ext cx="1172845" cy="4445"/>
+          <a:off x="2294255" y="13018135"/>
+          <a:ext cx="1079500" cy="4445"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2018,8 +2317,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3416300" y="12565380"/>
-          <a:ext cx="237490" cy="113665"/>
+          <a:off x="3136265" y="13022580"/>
+          <a:ext cx="237490" cy="120015"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2073,8 +2372,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1485900" y="12801600"/>
-          <a:ext cx="3017520" cy="1651635"/>
+          <a:off x="1361440" y="13271500"/>
+          <a:ext cx="2768600" cy="1708785"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2095,8 +2394,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>358775</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>94</xdr:row>
       <xdr:rowOff>151130</xdr:rowOff>
     </xdr:to>
@@ -2115,8 +2414,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1485900" y="16059150"/>
-          <a:ext cx="3330575" cy="322580"/>
+          <a:off x="1361440" y="16649700"/>
+          <a:ext cx="3063240" cy="328930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2157,8 +2456,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1113790" y="17621250"/>
-          <a:ext cx="1412240" cy="796925"/>
+          <a:off x="1021080" y="18268950"/>
+          <a:ext cx="1318260" cy="822325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2191,8 +2490,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2604770" y="17628235"/>
-          <a:ext cx="1726565" cy="1247775"/>
+          <a:off x="2386965" y="18275935"/>
+          <a:ext cx="1602105" cy="1292225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2352,8 +2651,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1114425" y="21545550"/>
-          <a:ext cx="2304415" cy="1800225"/>
+          <a:off x="1021080" y="22339300"/>
+          <a:ext cx="2117725" cy="1863725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2394,8 +2693,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1114425" y="24631650"/>
-          <a:ext cx="3476625" cy="3248025"/>
+          <a:off x="1021080" y="25539700"/>
+          <a:ext cx="3196590" cy="3362325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2416,8 +2715,8 @@
       <xdr:rowOff>170815</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>178</xdr:row>
       <xdr:rowOff>92710</xdr:rowOff>
     </xdr:to>
@@ -2436,8 +2735,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1113790" y="29260165"/>
-          <a:ext cx="1105535" cy="1464945"/>
+          <a:off x="1021080" y="30333315"/>
+          <a:ext cx="1021080" cy="1522095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2478,8 +2777,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1113790" y="31146750"/>
-          <a:ext cx="1350645" cy="682625"/>
+          <a:off x="1021080" y="32296100"/>
+          <a:ext cx="1256665" cy="701675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2526,7 +2825,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6210300" cy="11610975"/>
+          <a:ext cx="5712460" cy="12036425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2559,8 +2858,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5276850" y="38100"/>
-          <a:ext cx="8296275" cy="866775"/>
+          <a:off x="4841240" y="38100"/>
+          <a:ext cx="7611745" cy="892175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2648,8 +2947,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4133850" y="1266825"/>
-          <a:ext cx="2781935" cy="657860"/>
+          <a:off x="3791585" y="1304925"/>
+          <a:ext cx="2564130" cy="683260"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2828,8 +3127,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5216525" y="3664585"/>
-          <a:ext cx="3369310" cy="670560"/>
+          <a:off x="4780915" y="3791585"/>
+          <a:ext cx="3089275" cy="695960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3008,8 +3307,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4702175" y="6781800"/>
-          <a:ext cx="3369310" cy="1762125"/>
+          <a:off x="4328795" y="7023100"/>
+          <a:ext cx="3089275" cy="1831975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3360,8 +3659,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6219825" y="5010150"/>
-          <a:ext cx="5924550" cy="1724025"/>
+          <a:off x="5721985" y="5187950"/>
+          <a:ext cx="5426710" cy="1787525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3402,8 +3701,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6245225" y="8616950"/>
-          <a:ext cx="6019800" cy="1209675"/>
+          <a:off x="5747385" y="8928100"/>
+          <a:ext cx="5490845" cy="1254125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3429,8 +3728,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>77</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
@@ -3449,8 +3748,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="171450"/>
-          <a:ext cx="5610225" cy="13173075"/>
+          <a:off x="0" y="177800"/>
+          <a:ext cx="5171440" cy="13655675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3491,8 +3790,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="13716000"/>
-          <a:ext cx="4333875" cy="6934200"/>
+          <a:off x="0" y="14224000"/>
+          <a:ext cx="3983355" cy="7188200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3518,8 +3817,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
@@ -3539,7 +3838,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="4562475" cy="5648325"/>
+          <a:ext cx="4201795" cy="5851525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3560,8 +3859,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>341630</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>26035</xdr:rowOff>
     </xdr:to>
@@ -3580,8 +3879,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="6000750"/>
-          <a:ext cx="4218305" cy="3283585"/>
+          <a:off x="0" y="6223000"/>
+          <a:ext cx="3878580" cy="3404235"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3602,8 +3901,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>339090</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>67</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
@@ -3622,8 +3921,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="9601200"/>
-          <a:ext cx="4558665" cy="2030730"/>
+          <a:off x="9525" y="9956800"/>
+          <a:ext cx="4192270" cy="2100580"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3664,8 +3963,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="12001500"/>
-          <a:ext cx="6172200" cy="10696575"/>
+          <a:off x="0" y="12446000"/>
+          <a:ext cx="5675630" cy="11090275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3683,22 +3982,867 @@
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>322580</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>88265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>592455</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>88265</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直接箭头连接符 18"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4723130" y="1155065"/>
+          <a:ext cx="898525" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>183515</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>103505</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>8255</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>103505</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直接箭头连接符 19"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6470015" y="1881505"/>
+          <a:ext cx="1082040" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>344805</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>80645</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>614680</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>80645</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直接箭头连接符 21"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4745355" y="3103245"/>
+          <a:ext cx="898525" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>344805</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>80645</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>614680</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>80645</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直接箭头连接符 22"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4745355" y="5059045"/>
+          <a:ext cx="898525" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>344805</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>80645</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>614680</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>80645</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直接箭头连接符 23"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4745355" y="7014845"/>
+          <a:ext cx="898525" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>624205</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>84455</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76835</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="肘形连接符 24"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="1"/>
+          <a:endCxn id="27" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1" flipV="1">
+          <a:off x="5653405" y="1862455"/>
+          <a:ext cx="17145" cy="1948180"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -1500000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>8890</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>109855</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>26035</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>102235</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="肘形连接符 29"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1" flipV="1">
+          <a:off x="5666740" y="3843655"/>
+          <a:ext cx="17145" cy="1948180"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -1500000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>606425</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>154940</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>623570</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>147320</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="肘形连接符 30"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1" flipV="1">
+          <a:off x="5635625" y="5844540"/>
+          <a:ext cx="17145" cy="1948180"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -1500000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>621030</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>149225</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>17780</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="肘形连接符 33"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="3"/>
+          <a:endCxn id="28" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6907530" y="7750175"/>
+          <a:ext cx="156845" cy="1513205"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>168910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>59690</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>116840</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="矩形 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10447020" y="9947910"/>
+          <a:ext cx="928370" cy="659130"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>164465</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>20955</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>146685</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="矩形 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7708265" y="10155555"/>
+          <a:ext cx="927735" cy="659130"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>627697</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>167957</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>223837</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>145732</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="肘形连接符 36"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="36" idx="2"/>
+          <a:endCxn id="35" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="9107170" y="9010015"/>
+          <a:ext cx="866775" cy="2739390"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector5">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -27233"/>
+            <a:gd name="adj2" fmla="val 50012"/>
+            <a:gd name="adj3" fmla="val 127233"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>288925</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>77470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>288925</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="肘形连接符 39"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="39" idx="2"/>
+          <a:endCxn id="38" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5476240" y="5646420"/>
+          <a:ext cx="7227570" cy="635"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>210185</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>35560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>230505</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>165735</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="41" name="图片 40"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3711,8 +4855,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="2571750"/>
-          <a:ext cx="13858875" cy="9267825"/>
+          <a:off x="210185" y="3235960"/>
+          <a:ext cx="2534920" cy="1374775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3723,6 +4867,59 @@
         </a:ln>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6985</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>64135</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>111760</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>121285</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="肘形连接符 43"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="43" idx="3"/>
+          <a:endCxn id="42" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1892935" y="953135"/>
+          <a:ext cx="3876675" cy="57150"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 44020"/>
+            <a:gd name="adj2" fmla="val 998889"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4021,801 +5218,801 @@
       <selection activeCell="S1" sqref="S1:T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="4.87272727272727" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="16384" width="4.875" style="3"/>
+    <col min="1" max="16384" width="4.87272727272727" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="22.5" spans="1:31">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="H1" s="3" t="s">
+    <row r="1" s="15" customFormat="1" ht="23" spans="1:31">
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="H1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3" t="s">
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="4"/>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:27">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3" t="s">
+      <c r="X1" s="17"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="17"/>
+    </row>
+    <row r="2" s="15" customFormat="1" spans="1:27">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="T2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="U2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="V2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="W2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="9"/>
-    </row>
-    <row r="3" s="2" customFormat="1" spans="1:10">
-      <c r="A3" s="3" t="s">
+      <c r="X2" s="17"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="22"/>
+    </row>
+    <row r="3" s="15" customFormat="1" spans="1:10">
+      <c r="A3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" s="2" customFormat="1" spans="1:10">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
+      <c r="B3" s="16"/>
+      <c r="J3" s="16"/>
+    </row>
+    <row r="4" s="15" customFormat="1" spans="1:10">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" s="2" customFormat="1" spans="1:10">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4">
+      <c r="C4" s="16"/>
+      <c r="J4" s="16"/>
+    </row>
+    <row r="5" s="15" customFormat="1" spans="1:10">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17">
         <v>1.2</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" s="2" customFormat="1" spans="1:10">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4">
+      <c r="C5" s="16"/>
+      <c r="J5" s="16"/>
+    </row>
+    <row r="6" s="15" customFormat="1" spans="1:10">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17">
         <v>1.3</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" s="2" customFormat="1" spans="1:10">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="3"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" s="2" customFormat="1" spans="1:10">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="3"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" s="2" customFormat="1" spans="1:10">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="3"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" s="2" customFormat="1" spans="1:10">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="3"/>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" s="2" customFormat="1" spans="1:10">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="3"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" s="2" customFormat="1" spans="1:10">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="3"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" s="2" customFormat="1" spans="1:10">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="3"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" s="2" customFormat="1" spans="1:10">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="3"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" s="2" customFormat="1" spans="1:10">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="3"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" s="2" customFormat="1" spans="1:10">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="3"/>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" s="2" customFormat="1" spans="1:10">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="3"/>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" s="2" customFormat="1" spans="1:10">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="3"/>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" s="2" customFormat="1" spans="1:10">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="3"/>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" s="2" customFormat="1" spans="1:10">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="3"/>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" s="2" customFormat="1" spans="1:10">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="3"/>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" s="2" customFormat="1" spans="1:10">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="3"/>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" s="2" customFormat="1" spans="1:10">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4">
+      <c r="C6" s="16"/>
+      <c r="J6" s="16"/>
+    </row>
+    <row r="7" s="15" customFormat="1" spans="1:10">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="16"/>
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" s="15" customFormat="1" spans="1:10">
+      <c r="A8" s="16"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="16"/>
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" s="15" customFormat="1" spans="1:10">
+      <c r="A9" s="16"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="16"/>
+      <c r="J9" s="16"/>
+    </row>
+    <row r="10" s="15" customFormat="1" spans="1:10">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="16"/>
+      <c r="J10" s="16"/>
+    </row>
+    <row r="11" s="15" customFormat="1" spans="1:10">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="16"/>
+      <c r="J11" s="16"/>
+    </row>
+    <row r="12" s="15" customFormat="1" spans="1:10">
+      <c r="A12" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="16"/>
+      <c r="J12" s="16"/>
+    </row>
+    <row r="13" s="15" customFormat="1" spans="1:10">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="16"/>
+      <c r="J13" s="16"/>
+    </row>
+    <row r="14" s="15" customFormat="1" spans="1:10">
+      <c r="A14" s="16"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="16"/>
+      <c r="J14" s="16"/>
+    </row>
+    <row r="15" s="15" customFormat="1" spans="1:10">
+      <c r="A15" s="16"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="16"/>
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16" s="15" customFormat="1" spans="1:10">
+      <c r="A16" s="16"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="16"/>
+      <c r="J16" s="16"/>
+    </row>
+    <row r="17" s="15" customFormat="1" spans="1:10">
+      <c r="A17" s="16"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="16"/>
+      <c r="J17" s="16"/>
+    </row>
+    <row r="18" s="15" customFormat="1" spans="1:10">
+      <c r="A18" s="16"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="16"/>
+      <c r="J18" s="16"/>
+    </row>
+    <row r="19" s="15" customFormat="1" spans="1:10">
+      <c r="A19" s="16"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="16"/>
+      <c r="J19" s="16"/>
+    </row>
+    <row r="20" s="15" customFormat="1" spans="1:10">
+      <c r="A20" s="16"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="16"/>
+      <c r="J20" s="16"/>
+    </row>
+    <row r="21" s="15" customFormat="1" spans="1:10">
+      <c r="A21" s="16"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="16"/>
+      <c r="J21" s="16"/>
+    </row>
+    <row r="22" s="15" customFormat="1" spans="1:10">
+      <c r="A22" s="16"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="16"/>
+      <c r="J22" s="16"/>
+    </row>
+    <row r="23" s="15" customFormat="1" spans="1:10">
+      <c r="A23" s="16"/>
+      <c r="B23" s="17">
         <v>1.4</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="J23" s="3"/>
-    </row>
-    <row r="24" s="2" customFormat="1" spans="1:10">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4" t="s">
+      <c r="C23" s="16"/>
+      <c r="J23" s="16"/>
+    </row>
+    <row r="24" s="15" customFormat="1" spans="1:10">
+      <c r="A24" s="16"/>
+      <c r="B24" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="J24" s="3"/>
-    </row>
-    <row r="25" s="2" customFormat="1" spans="1:10">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="4" t="s">
+      <c r="C24" s="16"/>
+      <c r="J24" s="16"/>
+    </row>
+    <row r="25" s="15" customFormat="1" spans="1:10">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="J25" s="3"/>
-    </row>
-    <row r="26" s="2" customFormat="1" spans="1:10">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="2" t="s">
+      <c r="J25" s="16"/>
+    </row>
+    <row r="26" s="15" customFormat="1" spans="1:10">
+      <c r="A26" s="16"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27" s="2" customFormat="1" spans="1:10">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="2" t="s">
+      <c r="J26" s="16"/>
+    </row>
+    <row r="27" s="15" customFormat="1" spans="1:10">
+      <c r="A27" s="16"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="J27" s="3"/>
-    </row>
-    <row r="28" s="2" customFormat="1" spans="1:10">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="2" t="s">
+      <c r="J27" s="16"/>
+    </row>
+    <row r="28" s="15" customFormat="1" spans="1:10">
+      <c r="A28" s="16"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J28" s="3"/>
-    </row>
-    <row r="29" s="2" customFormat="1" spans="1:10">
-      <c r="A29" s="3"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="2" t="s">
+      <c r="J28" s="16"/>
+    </row>
+    <row r="29" s="15" customFormat="1" spans="1:10">
+      <c r="A29" s="16"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="J29" s="3"/>
-    </row>
-    <row r="30" s="2" customFormat="1" spans="1:10">
-      <c r="A30" s="3"/>
-      <c r="B30" s="4"/>
-      <c r="D30" s="2" t="s">
+      <c r="J29" s="16"/>
+    </row>
+    <row r="30" s="15" customFormat="1" spans="1:10">
+      <c r="A30" s="16"/>
+      <c r="B30" s="17"/>
+      <c r="D30" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="J30" s="3"/>
-    </row>
-    <row r="31" s="2" customFormat="1" spans="3:10">
-      <c r="C31" s="4" t="s">
+      <c r="J30" s="16"/>
+    </row>
+    <row r="31" s="15" customFormat="1" spans="3:10">
+      <c r="C31" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="3"/>
-    </row>
-    <row r="32" s="2" customFormat="1" spans="1:10">
-      <c r="A32" s="3"/>
-      <c r="B32" s="5"/>
-      <c r="D32" s="2" t="s">
+      <c r="J31" s="16"/>
+    </row>
+    <row r="32" s="15" customFormat="1" spans="1:10">
+      <c r="A32" s="16"/>
+      <c r="B32" s="18"/>
+      <c r="D32" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="J32" s="3"/>
-    </row>
-    <row r="33" s="2" customFormat="1" spans="1:10">
-      <c r="A33" s="3"/>
-      <c r="B33" s="5"/>
-      <c r="D33" s="2" t="s">
+      <c r="J32" s="16"/>
+    </row>
+    <row r="33" s="15" customFormat="1" spans="1:10">
+      <c r="A33" s="16"/>
+      <c r="B33" s="18"/>
+      <c r="D33" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J33" s="3"/>
-    </row>
-    <row r="34" s="2" customFormat="1" spans="4:10">
-      <c r="D34" s="2" t="s">
+      <c r="J33" s="16"/>
+    </row>
+    <row r="34" s="15" customFormat="1" spans="4:10">
+      <c r="D34" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="J34" s="3"/>
-    </row>
-    <row r="35" s="2" customFormat="1" spans="1:10">
-      <c r="A35" s="3"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="4" t="s">
+      <c r="J34" s="16"/>
+    </row>
+    <row r="35" s="15" customFormat="1" spans="1:10">
+      <c r="A35" s="16"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="J35" s="3"/>
-    </row>
-    <row r="36" s="2" customFormat="1" spans="1:10">
-      <c r="A36" s="3"/>
-      <c r="B36" s="5"/>
-      <c r="D36" s="2" t="s">
+      <c r="J35" s="16"/>
+    </row>
+    <row r="36" s="15" customFormat="1" spans="1:10">
+      <c r="A36" s="16"/>
+      <c r="B36" s="18"/>
+      <c r="D36" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="J36" s="3"/>
-    </row>
-    <row r="37" s="2" customFormat="1" spans="4:10">
-      <c r="D37" s="2" t="s">
+      <c r="J36" s="16"/>
+    </row>
+    <row r="37" s="15" customFormat="1" spans="4:10">
+      <c r="D37" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="J37" s="3"/>
-    </row>
-    <row r="38" s="2" customFormat="1" spans="4:10">
-      <c r="D38" s="2" t="s">
+      <c r="J37" s="16"/>
+    </row>
+    <row r="38" s="15" customFormat="1" spans="4:10">
+      <c r="D38" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="J38" s="3"/>
-    </row>
-    <row r="39" s="2" customFormat="1" spans="1:10">
-      <c r="A39" s="3"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="2" t="s">
+      <c r="J38" s="16"/>
+    </row>
+    <row r="39" s="15" customFormat="1" spans="1:10">
+      <c r="A39" s="16"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J39" s="3"/>
-    </row>
-    <row r="40" s="2" customFormat="1" spans="1:10">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="4" t="s">
+      <c r="J39" s="16"/>
+    </row>
+    <row r="40" s="15" customFormat="1" spans="1:10">
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="J40" s="3"/>
-    </row>
-    <row r="41" s="2" customFormat="1" spans="1:10">
-      <c r="A41" s="3"/>
-      <c r="B41" s="5"/>
-      <c r="D41" s="2" t="s">
+      <c r="J40" s="16"/>
+    </row>
+    <row r="41" s="15" customFormat="1" spans="1:10">
+      <c r="A41" s="16"/>
+      <c r="B41" s="18"/>
+      <c r="D41" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="J41" s="3"/>
-    </row>
-    <row r="42" s="2" customFormat="1" spans="4:10">
-      <c r="D42" s="2" t="s">
+      <c r="J41" s="16"/>
+    </row>
+    <row r="42" s="15" customFormat="1" spans="4:10">
+      <c r="D42" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="J42" s="3"/>
-    </row>
-    <row r="43" s="2" customFormat="1" spans="4:10">
-      <c r="D43" s="2" t="s">
+      <c r="J42" s="16"/>
+    </row>
+    <row r="43" s="15" customFormat="1" spans="4:10">
+      <c r="D43" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="J43" s="3"/>
-    </row>
-    <row r="44" s="2" customFormat="1" spans="3:10">
-      <c r="C44" s="4" t="s">
+      <c r="J43" s="16"/>
+    </row>
+    <row r="44" s="15" customFormat="1" spans="3:10">
+      <c r="C44" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="J44" s="3"/>
-    </row>
-    <row r="45" s="2" customFormat="1" spans="1:10">
-      <c r="A45" s="3"/>
-      <c r="D45" s="2" t="s">
+      <c r="J44" s="16"/>
+    </row>
+    <row r="45" s="15" customFormat="1" spans="1:10">
+      <c r="A45" s="16"/>
+      <c r="D45" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="J45" s="3"/>
-    </row>
-    <row r="46" s="2" customFormat="1" spans="1:10">
-      <c r="A46" s="3"/>
-      <c r="B46" s="5"/>
-      <c r="D46" s="2" t="s">
+      <c r="J45" s="16"/>
+    </row>
+    <row r="46" s="15" customFormat="1" spans="1:10">
+      <c r="A46" s="16"/>
+      <c r="B46" s="18"/>
+      <c r="D46" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="J46" s="3"/>
-    </row>
-    <row r="47" s="2" customFormat="1" spans="4:10">
-      <c r="D47" s="2" t="s">
+      <c r="J46" s="16"/>
+    </row>
+    <row r="47" s="15" customFormat="1" spans="4:10">
+      <c r="D47" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="J47" s="3"/>
-    </row>
-    <row r="48" s="2" customFormat="1" spans="1:10">
-      <c r="A48" s="3"/>
-      <c r="D48" s="3" t="s">
+      <c r="J47" s="16"/>
+    </row>
+    <row r="48" s="15" customFormat="1" spans="1:10">
+      <c r="A48" s="16"/>
+      <c r="D48" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="J48" s="3"/>
-    </row>
-    <row r="49" s="2" customFormat="1" spans="1:10">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="E49" s="2" t="s">
+      <c r="J48" s="16"/>
+    </row>
+    <row r="49" s="15" customFormat="1" spans="1:10">
+      <c r="A49" s="16"/>
+      <c r="B49" s="16"/>
+      <c r="E49" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="J49" s="3"/>
-    </row>
-    <row r="50" s="2" customFormat="1" spans="1:10">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="E50" s="2" t="s">
+      <c r="J49" s="16"/>
+    </row>
+    <row r="50" s="15" customFormat="1" spans="1:10">
+      <c r="A50" s="16"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="E50" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="J50" s="3"/>
-    </row>
-    <row r="51" s="2" customFormat="1" spans="1:16">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3" t="s">
+      <c r="J50" s="16"/>
+    </row>
+    <row r="51" s="15" customFormat="1" spans="1:16">
+      <c r="A51" s="16"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
-      <c r="O51" s="3"/>
-      <c r="P51" s="8"/>
-    </row>
-    <row r="52" s="2" customFormat="1" spans="1:10">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="E52" s="2" t="s">
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="16"/>
+      <c r="N51" s="16"/>
+      <c r="O51" s="16"/>
+      <c r="P51" s="21"/>
+    </row>
+    <row r="52" s="15" customFormat="1" spans="1:10">
+      <c r="A52" s="16"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="E52" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="J52" s="3"/>
-    </row>
-    <row r="53" s="2" customFormat="1" spans="1:10">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3" t="s">
+      <c r="J52" s="16"/>
+    </row>
+    <row r="53" s="15" customFormat="1" spans="1:10">
+      <c r="A53" s="16"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="J53" s="3"/>
-    </row>
-    <row r="54" s="2" customFormat="1" spans="1:10">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="E54" s="2" t="s">
+      <c r="J53" s="16"/>
+    </row>
+    <row r="54" s="15" customFormat="1" spans="1:10">
+      <c r="A54" s="16"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="E54" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="J54" s="3"/>
-    </row>
-    <row r="55" s="2" customFormat="1" spans="1:16">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3" t="s">
+      <c r="J54" s="16"/>
+    </row>
+    <row r="55" s="15" customFormat="1" spans="1:16">
+      <c r="A55" s="16"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
-      <c r="O55" s="3"/>
-      <c r="P55" s="8"/>
-    </row>
-    <row r="56" s="2" customFormat="1" spans="1:10">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="4"/>
-      <c r="J56" s="3"/>
-    </row>
-    <row r="57" s="2" customFormat="1" spans="1:10">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="4"/>
-      <c r="J57" s="3"/>
-    </row>
-    <row r="58" s="2" customFormat="1" spans="1:10">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="J58" s="3"/>
-    </row>
-    <row r="59" s="2" customFormat="1" spans="1:10">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="J59" s="3"/>
-    </row>
-    <row r="60" s="2" customFormat="1" spans="1:10">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="J60" s="3"/>
-    </row>
-    <row r="61" s="2" customFormat="1" spans="1:10">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="J61" s="3"/>
-    </row>
-    <row r="66" s="3" customFormat="1" spans="2:2">
-      <c r="B66" s="5"/>
-    </row>
-    <row r="69" s="3" customFormat="1" spans="5:5">
-      <c r="E69" s="3" t="s">
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="16"/>
+      <c r="N55" s="16"/>
+      <c r="O55" s="16"/>
+      <c r="P55" s="21"/>
+    </row>
+    <row r="56" s="15" customFormat="1" spans="1:10">
+      <c r="A56" s="16"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="17"/>
+      <c r="J56" s="16"/>
+    </row>
+    <row r="57" s="15" customFormat="1" spans="1:10">
+      <c r="A57" s="16"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="17"/>
+      <c r="J57" s="16"/>
+    </row>
+    <row r="58" s="15" customFormat="1" spans="1:10">
+      <c r="A58" s="16"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="J58" s="16"/>
+    </row>
+    <row r="59" s="15" customFormat="1" spans="1:10">
+      <c r="A59" s="16"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="J59" s="16"/>
+    </row>
+    <row r="60" s="15" customFormat="1" spans="1:10">
+      <c r="A60" s="16"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="J60" s="16"/>
+    </row>
+    <row r="61" s="15" customFormat="1" spans="1:10">
+      <c r="A61" s="16"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="J61" s="16"/>
+    </row>
+    <row r="66" s="16" customFormat="1" spans="2:2">
+      <c r="B66" s="18"/>
+    </row>
+    <row r="69" s="16" customFormat="1" spans="5:5">
+      <c r="E69" s="16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="70" s="3" customFormat="1" spans="5:5">
-      <c r="E70" s="3" t="s">
+    <row r="70" s="16" customFormat="1" spans="5:5">
+      <c r="E70" s="16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="71" s="3" customFormat="1" spans="5:5">
-      <c r="E71" s="3" t="s">
+    <row r="71" s="16" customFormat="1" spans="5:5">
+      <c r="E71" s="16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="72" s="3" customFormat="1" spans="3:5">
-      <c r="C72" s="5"/>
-      <c r="E72" s="3" t="s">
+    <row r="72" s="16" customFormat="1" spans="3:5">
+      <c r="C72" s="18"/>
+      <c r="E72" s="16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="73" s="3" customFormat="1" spans="3:3">
-      <c r="C73" s="4" t="s">
+    <row r="73" s="16" customFormat="1" spans="3:3">
+      <c r="C73" s="17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="74" s="3" customFormat="1" spans="4:4">
-      <c r="D74" s="3" t="s">
+    <row r="74" s="16" customFormat="1" spans="4:4">
+      <c r="D74" s="16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="75" s="3" customFormat="1" spans="3:4">
-      <c r="C75" s="8"/>
-      <c r="D75" s="3" t="s">
+    <row r="75" s="16" customFormat="1" spans="3:4">
+      <c r="C75" s="21"/>
+      <c r="D75" s="16" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="76" s="3" customFormat="1" spans="4:5">
-      <c r="D76" s="3" t="s">
+    <row r="76" s="16" customFormat="1" spans="4:5">
+      <c r="D76" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E76" s="8"/>
-    </row>
-    <row r="77" s="3" customFormat="1" spans="4:4">
-      <c r="D77" s="8" t="s">
+      <c r="E76" s="21"/>
+    </row>
+    <row r="77" s="16" customFormat="1" spans="4:4">
+      <c r="D77" s="21" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="78" s="3" customFormat="1" spans="4:5">
-      <c r="D78" s="3" t="s">
+    <row r="78" s="16" customFormat="1" spans="4:5">
+      <c r="D78" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E78" s="8"/>
-    </row>
-    <row r="79" s="3" customFormat="1" spans="4:4">
-      <c r="D79" s="8" t="s">
+      <c r="E78" s="21"/>
+    </row>
+    <row r="79" s="16" customFormat="1" spans="4:4">
+      <c r="D79" s="21" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="80" s="3" customFormat="1" spans="3:4">
-      <c r="C80" s="8"/>
-      <c r="D80" s="3" t="s">
+    <row r="80" s="16" customFormat="1" spans="3:4">
+      <c r="C80" s="21"/>
+      <c r="D80" s="16" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="81" s="3" customFormat="1" spans="3:4">
-      <c r="C81" s="8"/>
-      <c r="D81" s="3" t="s">
+    <row r="81" s="16" customFormat="1" spans="3:4">
+      <c r="C81" s="21"/>
+      <c r="D81" s="16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="82" s="3" customFormat="1" spans="3:3">
-      <c r="C82" s="4" t="s">
+    <row r="82" s="16" customFormat="1" spans="3:3">
+      <c r="C82" s="17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="83" s="3" customFormat="1" spans="3:4">
-      <c r="C83" s="8"/>
-      <c r="D83" s="3" t="s">
+    <row r="83" s="16" customFormat="1" spans="3:4">
+      <c r="C83" s="21"/>
+      <c r="D83" s="16" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="84" s="3" customFormat="1" spans="3:4">
-      <c r="C84" s="8"/>
-      <c r="D84" s="3" t="s">
+    <row r="84" s="16" customFormat="1" spans="3:4">
+      <c r="C84" s="21"/>
+      <c r="D84" s="16" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="85" s="3" customFormat="1" spans="3:3">
-      <c r="C85" s="4" t="s">
+    <row r="85" s="16" customFormat="1" spans="3:3">
+      <c r="C85" s="17" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="86" s="3" customFormat="1" spans="4:4">
-      <c r="D86" s="3" t="s">
+    <row r="86" s="16" customFormat="1" spans="4:4">
+      <c r="D86" s="16" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="87" s="3" customFormat="1" spans="5:5">
-      <c r="E87" s="3" t="s">
+    <row r="87" s="16" customFormat="1" spans="5:5">
+      <c r="E87" s="16" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="88" s="3" customFormat="1" spans="5:5">
-      <c r="E88" s="3" t="s">
+    <row r="88" s="16" customFormat="1" spans="5:5">
+      <c r="E88" s="16" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="89" s="3" customFormat="1" spans="5:5">
-      <c r="E89" s="3" t="s">
+    <row r="89" s="16" customFormat="1" spans="5:5">
+      <c r="E89" s="16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="90" s="3" customFormat="1" spans="5:5">
-      <c r="E90" s="3" t="s">
+    <row r="90" s="16" customFormat="1" spans="5:5">
+      <c r="E90" s="16" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="91" s="3" customFormat="1" spans="3:5">
-      <c r="C91" s="4"/>
-      <c r="E91" s="4" t="s">
+    <row r="91" s="16" customFormat="1" spans="3:5">
+      <c r="C91" s="17"/>
+      <c r="E91" s="17" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="92" s="3" customFormat="1" spans="3:5">
-      <c r="C92" s="5"/>
-      <c r="E92" s="3" t="s">
+    <row r="92" s="16" customFormat="1" spans="3:5">
+      <c r="C92" s="18"/>
+      <c r="E92" s="16" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="93" spans="5:5">
-      <c r="E93" s="3" t="s">
+      <c r="E93" s="16" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="105" spans="5:5">
-      <c r="E105" s="3" t="s">
+      <c r="E105" s="16" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="106" spans="6:6">
-      <c r="F106" s="3" t="s">
+      <c r="F106" s="16" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="107" spans="6:6">
-      <c r="F107" s="3" t="s">
+      <c r="F107" s="16" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="108" spans="6:6">
-      <c r="F108" s="3" t="s">
+      <c r="F108" s="16" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="109" spans="4:4">
-      <c r="D109" s="3" t="s">
+      <c r="D109" s="16" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="110" spans="5:5">
-      <c r="E110" s="3" t="s">
+      <c r="E110" s="16" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="111" spans="5:5">
-      <c r="E111" s="3" t="s">
+      <c r="E111" s="16" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="112" spans="5:5">
-      <c r="E112" s="3" t="s">
+      <c r="E112" s="16" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="113" spans="5:5">
-      <c r="E113" s="3" t="s">
+      <c r="E113" s="16" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="114" spans="2:2">
-      <c r="B114" s="4" t="s">
+      <c r="B114" s="17" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="115" spans="2:3">
-      <c r="B115" s="4"/>
-      <c r="C115" s="3" t="s">
+      <c r="B115" s="17"/>
+      <c r="C115" s="16" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="116" spans="2:4">
-      <c r="B116" s="4"/>
-      <c r="D116" s="3" t="s">
+      <c r="B116" s="17"/>
+      <c r="D116" s="16" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="117" spans="2:4">
-      <c r="B117" s="4"/>
-      <c r="D117" s="3" t="s">
+      <c r="B117" s="17"/>
+      <c r="D117" s="16" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="118" spans="2:3">
-      <c r="B118" s="4"/>
-      <c r="C118" s="3" t="s">
+      <c r="B118" s="17"/>
+      <c r="C118" s="16" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="119" spans="2:4">
-      <c r="B119" s="4"/>
-      <c r="D119" s="3" t="s">
+      <c r="B119" s="17"/>
+      <c r="D119" s="16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="120" spans="2:4">
-      <c r="B120" s="4"/>
-      <c r="D120" s="3" t="s">
+      <c r="B120" s="17"/>
+      <c r="D120" s="16" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="121" spans="2:4">
-      <c r="B121" s="4"/>
-      <c r="D121" s="3" t="s">
+      <c r="B121" s="17"/>
+      <c r="D121" s="16" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="122" spans="2:4">
-      <c r="B122" s="4"/>
-      <c r="D122" s="3" t="s">
+      <c r="B122" s="17"/>
+      <c r="D122" s="16" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="123" spans="2:4">
-      <c r="B123" s="4"/>
-      <c r="D123" s="3" t="s">
+      <c r="B123" s="17"/>
+      <c r="D123" s="16" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="124" spans="2:2">
-      <c r="B124" s="3" t="s">
+      <c r="B124" s="16" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="125" spans="3:3">
-      <c r="C125" s="3" t="s">
+      <c r="C125" s="16" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="126" spans="3:3">
-      <c r="C126" s="3" t="s">
+      <c r="C126" s="16" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="127" spans="3:3">
-      <c r="C127" s="3" t="s">
+      <c r="C127" s="16" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="128" spans="3:3">
-      <c r="C128" s="3" t="s">
+      <c r="C128" s="16" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4829,1082 +6026,1207 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AE224"/>
+  <dimension ref="A1:AE249"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="K226" sqref="K226"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="A236" workbookViewId="0">
+      <selection activeCell="I241" sqref="I241"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="4.87272727272727" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="16384" width="4.875" style="11"/>
+    <col min="1" max="16384" width="4.87272727272727" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="1" ht="22.5" spans="1:31">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="H1" s="11" t="s">
+    <row r="1" s="23" customFormat="1" ht="23" spans="1:31">
+      <c r="A1" s="24"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="H1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11" t="s">
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="T1" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="U1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="V1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="W1" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
-      <c r="AD1" s="11"/>
-      <c r="AE1" s="12"/>
-    </row>
-    <row r="2" s="10" customFormat="1" spans="1:27">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11" t="s">
+      <c r="X1" s="25"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="24"/>
+      <c r="AE1" s="25"/>
+    </row>
+    <row r="2" s="23" customFormat="1" spans="1:27">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="S2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="T2" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="U2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="V2" s="11" t="s">
+      <c r="V2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="11" t="s">
+      <c r="W2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="18"/>
-    </row>
-    <row r="3" s="10" customFormat="1" spans="1:10">
-      <c r="A3" s="11" t="s">
+      <c r="X2" s="25"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="31"/>
+    </row>
+    <row r="3" s="23" customFormat="1" spans="1:10">
+      <c r="A3" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="J3" s="11"/>
-    </row>
-    <row r="4" s="10" customFormat="1" spans="1:10">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="J3" s="24"/>
+    </row>
+    <row r="4" s="23" customFormat="1" spans="1:10">
+      <c r="A4" s="24"/>
+      <c r="B4" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="J4" s="11"/>
-    </row>
-    <row r="5" s="10" customFormat="1" spans="1:10">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="11" t="s">
+      <c r="C4" s="24"/>
+      <c r="J4" s="24"/>
+    </row>
+    <row r="5" s="23" customFormat="1" spans="1:10">
+      <c r="A5" s="24"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="J5" s="11"/>
-    </row>
-    <row r="6" s="10" customFormat="1" spans="1:10">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="11" t="s">
+      <c r="J5" s="24"/>
+    </row>
+    <row r="6" s="23" customFormat="1" spans="1:10">
+      <c r="A6" s="24"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="J6" s="11"/>
-    </row>
-    <row r="7" s="10" customFormat="1" spans="1:10">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="11" t="s">
+      <c r="J6" s="24"/>
+    </row>
+    <row r="7" s="23" customFormat="1" spans="1:10">
+      <c r="A7" s="24"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="J7" s="11"/>
-    </row>
-    <row r="8" s="10" customFormat="1" spans="1:10">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="11" t="s">
+      <c r="J7" s="24"/>
+    </row>
+    <row r="8" s="23" customFormat="1" spans="1:10">
+      <c r="A8" s="24"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="J8" s="11"/>
-    </row>
-    <row r="9" s="10" customFormat="1" spans="1:10">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="11" t="s">
+      <c r="J8" s="24"/>
+    </row>
+    <row r="9" s="23" customFormat="1" spans="1:10">
+      <c r="A9" s="24"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="J9" s="11"/>
-    </row>
-    <row r="10" s="10" customFormat="1" spans="1:10">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="11" t="s">
+      <c r="J9" s="24"/>
+    </row>
+    <row r="10" s="23" customFormat="1" spans="1:10">
+      <c r="A10" s="24"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="J10" s="11"/>
-    </row>
-    <row r="11" s="10" customFormat="1" spans="1:10">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="11" t="s">
+      <c r="J10" s="24"/>
+    </row>
+    <row r="11" s="23" customFormat="1" spans="1:10">
+      <c r="A11" s="24"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" s="10" customFormat="1" spans="1:10">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="11" t="s">
+      <c r="J11" s="24"/>
+    </row>
+    <row r="12" s="23" customFormat="1" spans="1:10">
+      <c r="A12" s="24"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" s="10" customFormat="1" spans="1:10">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="11" t="s">
+      <c r="J12" s="24"/>
+    </row>
+    <row r="13" s="23" customFormat="1" spans="1:10">
+      <c r="A13" s="24"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" s="10" customFormat="1" spans="1:10">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="11" t="s">
+      <c r="J13" s="24"/>
+    </row>
+    <row r="14" s="23" customFormat="1" spans="1:10">
+      <c r="A14" s="24"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" s="10" customFormat="1" spans="1:10">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12" t="s">
+      <c r="J14" s="24"/>
+    </row>
+    <row r="15" s="23" customFormat="1" spans="1:10">
+      <c r="A15" s="24"/>
+      <c r="B15" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="J15" s="11"/>
-    </row>
-    <row r="16" s="10" customFormat="1" spans="1:10">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="11" t="s">
+      <c r="C15" s="24"/>
+      <c r="J15" s="24"/>
+    </row>
+    <row r="16" s="23" customFormat="1" spans="1:10">
+      <c r="A16" s="24"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="J16" s="11"/>
-    </row>
-    <row r="17" s="10" customFormat="1" spans="1:10">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="11" t="s">
+      <c r="J16" s="24"/>
+    </row>
+    <row r="17" s="23" customFormat="1" spans="1:10">
+      <c r="A17" s="24"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="J17" s="11"/>
-    </row>
-    <row r="18" s="10" customFormat="1" spans="1:10">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12"/>
-      <c r="D18" s="10" t="s">
+      <c r="J17" s="24"/>
+    </row>
+    <row r="18" s="23" customFormat="1" spans="1:10">
+      <c r="A18" s="24"/>
+      <c r="B18" s="25"/>
+      <c r="D18" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="J18" s="11"/>
-    </row>
-    <row r="19" s="10" customFormat="1" spans="1:10">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="11"/>
-      <c r="E19" s="10" t="s">
+      <c r="J18" s="24"/>
+    </row>
+    <row r="19" s="23" customFormat="1" spans="1:10">
+      <c r="A19" s="24"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="24"/>
+      <c r="E19" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="J19" s="11"/>
-    </row>
-    <row r="20" s="10" customFormat="1" spans="1:10">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="11"/>
-      <c r="E20" s="10" t="s">
+      <c r="J19" s="24"/>
+    </row>
+    <row r="20" s="23" customFormat="1" spans="1:10">
+      <c r="A20" s="24"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="24"/>
+      <c r="E20" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="J20" s="11"/>
-    </row>
-    <row r="21" s="10" customFormat="1" spans="1:10">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="11"/>
-      <c r="E21" s="10" t="s">
+      <c r="J20" s="24"/>
+    </row>
+    <row r="21" s="23" customFormat="1" spans="1:10">
+      <c r="A21" s="24"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="24"/>
+      <c r="E21" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="J21" s="11"/>
-    </row>
-    <row r="22" s="10" customFormat="1" spans="1:10">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="11"/>
-      <c r="E22" s="10" t="s">
+      <c r="J21" s="24"/>
+    </row>
+    <row r="22" s="23" customFormat="1" spans="1:10">
+      <c r="A22" s="24"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="24"/>
+      <c r="E22" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="J22" s="11"/>
-    </row>
-    <row r="23" s="10" customFormat="1" spans="1:10">
-      <c r="A23" s="11"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="11"/>
-      <c r="E23" s="10" t="s">
+      <c r="J22" s="24"/>
+    </row>
+    <row r="23" s="23" customFormat="1" spans="1:10">
+      <c r="A23" s="24"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="24"/>
+      <c r="E23" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="J23" s="11"/>
-    </row>
-    <row r="24" s="10" customFormat="1" spans="1:10">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="10" t="s">
+      <c r="J23" s="24"/>
+    </row>
+    <row r="24" s="23" customFormat="1" spans="1:10">
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="J24" s="11"/>
-    </row>
-    <row r="25" s="10" customFormat="1" spans="1:10">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="E25" s="13" t="s">
+      <c r="J24" s="24"/>
+    </row>
+    <row r="25" s="23" customFormat="1" spans="1:10">
+      <c r="A25" s="24"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="E25" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="J25" s="11"/>
-    </row>
-    <row r="26" s="10" customFormat="1" spans="1:10">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="10" t="s">
+      <c r="J25" s="24"/>
+    </row>
+    <row r="26" s="23" customFormat="1" spans="1:10">
+      <c r="A26" s="24"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="J26" s="11"/>
-    </row>
-    <row r="27" s="10" customFormat="1" spans="1:10">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="E27" s="10" t="s">
+      <c r="J26" s="24"/>
+    </row>
+    <row r="27" s="23" customFormat="1" spans="1:10">
+      <c r="A27" s="24"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="E27" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="J27" s="11"/>
-    </row>
-    <row r="28" s="10" customFormat="1" spans="1:10">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="E28" s="10" t="s">
+      <c r="J27" s="24"/>
+    </row>
+    <row r="28" s="23" customFormat="1" spans="1:10">
+      <c r="A28" s="24"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="E28" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="J28" s="11"/>
-    </row>
-    <row r="29" s="10" customFormat="1" spans="1:10">
-      <c r="A29" s="11"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="11" t="s">
+      <c r="J28" s="24"/>
+    </row>
+    <row r="29" s="23" customFormat="1" spans="1:10">
+      <c r="A29" s="24"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="J29" s="11"/>
-    </row>
-    <row r="30" s="10" customFormat="1" spans="3:10">
-      <c r="C30" s="12"/>
-      <c r="D30" s="10" t="s">
+      <c r="J29" s="24"/>
+    </row>
+    <row r="30" s="23" customFormat="1" spans="3:10">
+      <c r="C30" s="25"/>
+      <c r="D30" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="J30" s="11"/>
-    </row>
-    <row r="31" s="10" customFormat="1" spans="1:10">
-      <c r="A31" s="11"/>
-      <c r="B31" s="14"/>
-      <c r="D31" s="10" t="s">
+      <c r="J30" s="24"/>
+    </row>
+    <row r="31" s="23" customFormat="1" spans="1:10">
+      <c r="A31" s="24"/>
+      <c r="B31" s="27"/>
+      <c r="D31" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="J31" s="11"/>
-    </row>
-    <row r="32" s="10" customFormat="1" spans="1:10">
-      <c r="A32" s="11"/>
-      <c r="B32" s="14"/>
-      <c r="D32" s="10" t="s">
+      <c r="J31" s="24"/>
+    </row>
+    <row r="32" s="23" customFormat="1" spans="1:10">
+      <c r="A32" s="24"/>
+      <c r="B32" s="27"/>
+      <c r="D32" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="J32" s="11"/>
-    </row>
-    <row r="33" s="10" customFormat="1" spans="4:10">
-      <c r="D33" s="10" t="s">
+      <c r="J32" s="24"/>
+    </row>
+    <row r="33" s="23" customFormat="1" spans="4:10">
+      <c r="D33" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="J33" s="11"/>
-    </row>
-    <row r="34" s="10" customFormat="1" spans="1:10">
-      <c r="A34" s="11"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="10" t="s">
+      <c r="J33" s="24"/>
+    </row>
+    <row r="34" s="23" customFormat="1" spans="1:10">
+      <c r="A34" s="24"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="J34" s="11"/>
-    </row>
-    <row r="35" s="10" customFormat="1" spans="1:10">
-      <c r="A35" s="11"/>
-      <c r="B35" s="14"/>
-      <c r="J35" s="11"/>
-    </row>
-    <row r="36" s="10" customFormat="1" spans="10:10">
-      <c r="J36" s="11"/>
-    </row>
-    <row r="37" s="10" customFormat="1" spans="10:10">
-      <c r="J37" s="11"/>
-    </row>
-    <row r="38" s="10" customFormat="1" spans="1:10">
-      <c r="A38" s="11"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="12"/>
-      <c r="J38" s="11"/>
-    </row>
-    <row r="39" s="10" customFormat="1" spans="1:10">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="12"/>
-      <c r="J39" s="11"/>
-    </row>
-    <row r="40" s="10" customFormat="1" spans="1:10">
-      <c r="A40" s="11"/>
-      <c r="B40" s="14"/>
-      <c r="J40" s="11"/>
-    </row>
-    <row r="41" s="10" customFormat="1" spans="10:10">
-      <c r="J41" s="11"/>
-    </row>
-    <row r="42" s="10" customFormat="1" spans="10:10">
-      <c r="J42" s="11"/>
-    </row>
-    <row r="43" s="10" customFormat="1" spans="3:10">
-      <c r="C43" s="12"/>
-      <c r="J43" s="11"/>
-    </row>
-    <row r="44" s="10" customFormat="1" spans="1:10">
-      <c r="A44" s="11"/>
-      <c r="J44" s="11"/>
-    </row>
-    <row r="45" s="10" customFormat="1" spans="1:10">
-      <c r="A45" s="11"/>
-      <c r="B45" s="14"/>
-      <c r="J45" s="11"/>
-    </row>
-    <row r="46" s="10" customFormat="1" spans="10:10">
-      <c r="J46" s="11"/>
-    </row>
-    <row r="47" s="10" customFormat="1" spans="1:10">
-      <c r="A47" s="11"/>
-      <c r="D47" s="11" t="s">
+      <c r="J34" s="24"/>
+    </row>
+    <row r="35" s="23" customFormat="1" spans="1:10">
+      <c r="A35" s="24"/>
+      <c r="B35" s="27"/>
+      <c r="J35" s="24"/>
+    </row>
+    <row r="36" s="23" customFormat="1" spans="10:10">
+      <c r="J36" s="24"/>
+    </row>
+    <row r="37" s="23" customFormat="1" spans="10:10">
+      <c r="J37" s="24"/>
+    </row>
+    <row r="38" s="23" customFormat="1" spans="1:10">
+      <c r="A38" s="24"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="25"/>
+      <c r="J38" s="24"/>
+    </row>
+    <row r="39" s="23" customFormat="1" spans="1:10">
+      <c r="A39" s="24"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="25"/>
+      <c r="J39" s="24"/>
+    </row>
+    <row r="40" s="23" customFormat="1" spans="1:10">
+      <c r="A40" s="24"/>
+      <c r="B40" s="27"/>
+      <c r="J40" s="24"/>
+    </row>
+    <row r="41" s="23" customFormat="1" spans="10:10">
+      <c r="J41" s="24"/>
+    </row>
+    <row r="42" s="23" customFormat="1" spans="10:10">
+      <c r="J42" s="24"/>
+    </row>
+    <row r="43" s="23" customFormat="1" spans="3:10">
+      <c r="C43" s="25"/>
+      <c r="J43" s="24"/>
+    </row>
+    <row r="44" s="23" customFormat="1" spans="1:10">
+      <c r="A44" s="24"/>
+      <c r="J44" s="24"/>
+    </row>
+    <row r="45" s="23" customFormat="1" spans="1:10">
+      <c r="A45" s="24"/>
+      <c r="B45" s="27"/>
+      <c r="J45" s="24"/>
+    </row>
+    <row r="46" s="23" customFormat="1" spans="10:10">
+      <c r="J46" s="24"/>
+    </row>
+    <row r="47" s="23" customFormat="1" spans="1:10">
+      <c r="A47" s="24"/>
+      <c r="D47" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="J47" s="11"/>
-    </row>
-    <row r="48" s="10" customFormat="1" spans="1:10">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
-      <c r="D48" s="10" t="s">
+      <c r="J47" s="24"/>
+    </row>
+    <row r="48" s="23" customFormat="1" spans="1:10">
+      <c r="A48" s="24"/>
+      <c r="B48" s="24"/>
+      <c r="D48" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="J48" s="11"/>
-    </row>
-    <row r="49" s="10" customFormat="1" spans="1:10">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="10" t="s">
+      <c r="J48" s="24"/>
+    </row>
+    <row r="49" s="23" customFormat="1" spans="1:10">
+      <c r="A49" s="24"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="J49" s="11"/>
-    </row>
-    <row r="50" s="10" customFormat="1" spans="1:16">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11" t="s">
+      <c r="J49" s="24"/>
+    </row>
+    <row r="50" s="23" customFormat="1" spans="1:16">
+      <c r="A50" s="24"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="11"/>
-      <c r="K50" s="11"/>
-      <c r="L50" s="11"/>
-      <c r="M50" s="11"/>
-      <c r="N50" s="11"/>
-      <c r="O50" s="11"/>
-      <c r="P50" s="17"/>
-    </row>
-    <row r="51" s="10" customFormat="1" spans="1:10">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11" t="s">
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="24"/>
+      <c r="M50" s="24"/>
+      <c r="N50" s="24"/>
+      <c r="O50" s="24"/>
+      <c r="P50" s="30"/>
+    </row>
+    <row r="51" s="23" customFormat="1" spans="1:10">
+      <c r="A51" s="24"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="J51" s="11"/>
-    </row>
-    <row r="52" s="10" customFormat="1" spans="1:10">
-      <c r="A52" s="11"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11" t="s">
+      <c r="J51" s="24"/>
+    </row>
+    <row r="52" s="23" customFormat="1" spans="1:10">
+      <c r="A52" s="24"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="J52" s="11"/>
-    </row>
-    <row r="53" s="10" customFormat="1" spans="1:10">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="10" t="s">
+      <c r="J52" s="24"/>
+    </row>
+    <row r="53" s="23" customFormat="1" spans="1:10">
+      <c r="A53" s="24"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="J53" s="11"/>
-    </row>
-    <row r="54" s="10" customFormat="1" spans="1:16">
-      <c r="A54" s="11"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11" t="s">
+      <c r="J53" s="24"/>
+    </row>
+    <row r="54" s="23" customFormat="1" spans="1:16">
+      <c r="A54" s="24"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
-      <c r="J54" s="11"/>
-      <c r="K54" s="11"/>
-      <c r="L54" s="11"/>
-      <c r="M54" s="11"/>
-      <c r="N54" s="11"/>
-      <c r="O54" s="11"/>
-      <c r="P54" s="17"/>
-    </row>
-    <row r="55" s="10" customFormat="1" spans="1:10">
-      <c r="A55" s="11"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="12" t="s">
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="24"/>
+      <c r="J54" s="24"/>
+      <c r="K54" s="24"/>
+      <c r="L54" s="24"/>
+      <c r="M54" s="24"/>
+      <c r="N54" s="24"/>
+      <c r="O54" s="24"/>
+      <c r="P54" s="30"/>
+    </row>
+    <row r="55" s="23" customFormat="1" spans="1:10">
+      <c r="A55" s="24"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="J55" s="11"/>
-    </row>
-    <row r="56" s="10" customFormat="1" spans="1:10">
-      <c r="A56" s="11"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11" t="s">
+      <c r="J55" s="24"/>
+    </row>
+    <row r="56" s="23" customFormat="1" spans="1:10">
+      <c r="A56" s="24"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="D56" s="12"/>
-      <c r="J56" s="11"/>
-    </row>
-    <row r="57" s="10" customFormat="1" spans="1:10">
-      <c r="A57" s="11"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="10" t="s">
+      <c r="D56" s="25"/>
+      <c r="J56" s="24"/>
+    </row>
+    <row r="57" s="23" customFormat="1" spans="1:10">
+      <c r="A57" s="24"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="J57" s="11"/>
-    </row>
-    <row r="58" s="10" customFormat="1" spans="1:10">
-      <c r="A58" s="11"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="10" t="s">
+      <c r="J57" s="24"/>
+    </row>
+    <row r="58" s="23" customFormat="1" spans="1:10">
+      <c r="A58" s="24"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="J58" s="11"/>
-    </row>
-    <row r="59" s="10" customFormat="1" spans="1:10">
-      <c r="A59" s="11"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="10" t="s">
+      <c r="J58" s="24"/>
+    </row>
+    <row r="59" s="23" customFormat="1" spans="1:10">
+      <c r="A59" s="24"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="J59" s="11"/>
-    </row>
-    <row r="60" s="10" customFormat="1" spans="1:10">
-      <c r="A60" s="11"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
-      <c r="J60" s="11"/>
+      <c r="J59" s="24"/>
+    </row>
+    <row r="60" s="23" customFormat="1" spans="1:10">
+      <c r="A60" s="24"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="24"/>
+      <c r="J60" s="24"/>
     </row>
     <row r="62" spans="4:4">
-      <c r="D62" s="11" t="s">
+      <c r="D62" s="24" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="63" spans="4:4">
-      <c r="D63" s="11" t="s">
+      <c r="D63" s="24" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="64" spans="4:4">
-      <c r="D64" s="11" t="s">
+      <c r="D64" s="24" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="65" s="11" customFormat="1" spans="2:4">
-      <c r="B65" s="14"/>
-      <c r="D65" s="11" t="s">
+    <row r="65" s="24" customFormat="1" spans="2:4">
+      <c r="B65" s="27"/>
+      <c r="D65" s="24" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="66" spans="3:3">
-      <c r="C66" s="11" t="s">
+      <c r="C66" s="24" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="67" spans="4:4">
-      <c r="D67" s="11" t="s">
+      <c r="D67" s="24" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="68" spans="4:4">
-      <c r="D68" s="11" t="s">
+      <c r="D68" s="24" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="69" s="11" customFormat="1" spans="3:4">
-      <c r="C69" s="14"/>
-      <c r="D69" s="11" t="s">
+    <row r="69" s="24" customFormat="1" spans="3:4">
+      <c r="C69" s="27"/>
+      <c r="D69" s="24" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="70" s="11" customFormat="1" spans="3:4">
-      <c r="C70" s="12"/>
-      <c r="D70" s="11" t="s">
+    <row r="70" s="24" customFormat="1" spans="3:4">
+      <c r="C70" s="25"/>
+      <c r="D70" s="24" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="72" s="11" customFormat="1" spans="3:3">
-      <c r="C72" s="17"/>
-    </row>
-    <row r="73" s="11" customFormat="1" spans="5:5">
-      <c r="E73" s="17"/>
-    </row>
-    <row r="74" s="11" customFormat="1" spans="4:4">
-      <c r="D74" s="17"/>
-    </row>
-    <row r="76" s="11" customFormat="1" spans="4:4">
-      <c r="D76" s="17"/>
-    </row>
-    <row r="77" s="11" customFormat="1" spans="3:3">
-      <c r="C77" s="17"/>
-    </row>
-    <row r="78" s="11" customFormat="1" spans="3:3">
-      <c r="C78" s="17"/>
-    </row>
-    <row r="79" s="11" customFormat="1" spans="3:3">
-      <c r="C79" s="12"/>
-    </row>
-    <row r="80" s="11" customFormat="1" spans="3:3">
-      <c r="C80" s="17"/>
-    </row>
-    <row r="81" s="11" customFormat="1" spans="3:3">
-      <c r="C81" s="17"/>
-    </row>
-    <row r="82" s="11" customFormat="1" spans="3:3">
-      <c r="C82" s="12"/>
+    <row r="72" s="24" customFormat="1" spans="3:3">
+      <c r="C72" s="30"/>
+    </row>
+    <row r="73" s="24" customFormat="1" spans="5:5">
+      <c r="E73" s="30"/>
+    </row>
+    <row r="74" s="24" customFormat="1" spans="4:4">
+      <c r="D74" s="30"/>
+    </row>
+    <row r="76" s="24" customFormat="1" spans="4:4">
+      <c r="D76" s="30"/>
+    </row>
+    <row r="77" s="24" customFormat="1" spans="3:3">
+      <c r="C77" s="30"/>
+    </row>
+    <row r="78" s="24" customFormat="1" spans="3:3">
+      <c r="C78" s="30"/>
+    </row>
+    <row r="79" s="24" customFormat="1" spans="3:3">
+      <c r="C79" s="25"/>
+    </row>
+    <row r="80" s="24" customFormat="1" spans="3:3">
+      <c r="C80" s="30"/>
+    </row>
+    <row r="81" s="24" customFormat="1" spans="3:3">
+      <c r="C81" s="30"/>
+    </row>
+    <row r="82" s="24" customFormat="1" spans="3:3">
+      <c r="C82" s="25"/>
     </row>
     <row r="85" spans="5:5">
-      <c r="E85" s="17" t="s">
+      <c r="E85" s="30" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="86" spans="5:5">
-      <c r="E86" s="11" t="s">
+      <c r="E86" s="24" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="87" spans="5:5">
-      <c r="E87" s="11" t="s">
+      <c r="E87" s="24" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="88" s="11" customFormat="1" spans="3:5">
-      <c r="C88" s="12"/>
-      <c r="E88" s="11" t="s">
+    <row r="88" s="24" customFormat="1" spans="3:5">
+      <c r="C88" s="25"/>
+      <c r="E88" s="24" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="89" s="11" customFormat="1" spans="3:5">
-      <c r="C89" s="14"/>
-      <c r="E89" s="11" t="s">
+    <row r="89" s="24" customFormat="1" spans="3:5">
+      <c r="C89" s="27"/>
+      <c r="E89" s="24" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="90" spans="5:5">
-      <c r="E90" s="11" t="s">
+      <c r="E90" s="24" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="91" spans="5:5">
-      <c r="E91" s="11" t="s">
+      <c r="E91" s="24" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="92" spans="5:5">
-      <c r="E92" s="11" t="s">
+      <c r="E92" s="24" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="93" spans="5:5">
-      <c r="E93" s="11" t="s">
+      <c r="E93" s="24" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="96" spans="5:5">
-      <c r="E96" s="11" t="s">
+      <c r="E96" s="24" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="97" spans="5:5">
-      <c r="E97" s="11" t="s">
+      <c r="E97" s="24" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="98" spans="5:5">
-      <c r="E98" s="11" t="s">
+      <c r="E98" s="24" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="99" spans="2:2">
-      <c r="B99" s="11" t="s">
+      <c r="B99" s="24" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="100" spans="3:3">
-      <c r="C100" s="11" t="s">
+      <c r="C100" s="24" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="101" spans="4:4">
-      <c r="D101" s="11" t="s">
+      <c r="D101" s="24" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="102" spans="4:4">
-      <c r="D102" s="11" t="s">
+      <c r="D102" s="24" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="111" s="11" customFormat="1" spans="2:4">
-      <c r="B111" s="12"/>
-      <c r="D111" s="11" t="s">
+    <row r="111" s="24" customFormat="1" spans="2:4">
+      <c r="B111" s="25"/>
+      <c r="D111" s="24" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="112" s="11" customFormat="1" spans="2:4">
-      <c r="B112" s="12"/>
-      <c r="D112" s="19" t="s">
+    <row r="112" s="24" customFormat="1" spans="2:4">
+      <c r="B112" s="25"/>
+      <c r="D112" s="32" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="113" s="11" customFormat="1" spans="2:3">
-      <c r="B113" s="12"/>
-      <c r="C113" s="11" t="s">
+    <row r="113" s="24" customFormat="1" spans="2:3">
+      <c r="B113" s="25"/>
+      <c r="C113" s="24" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="114" s="11" customFormat="1" spans="2:4">
-      <c r="B114" s="12"/>
-      <c r="D114" s="11" t="s">
+    <row r="114" s="24" customFormat="1" spans="2:4">
+      <c r="B114" s="25"/>
+      <c r="D114" s="24" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="115" s="11" customFormat="1" spans="2:4">
-      <c r="B115" s="12"/>
-      <c r="D115" s="11" t="s">
+    <row r="115" s="24" customFormat="1" spans="2:4">
+      <c r="B115" s="25"/>
+      <c r="D115" s="24" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="116" s="11" customFormat="1" spans="2:4">
-      <c r="B116" s="12"/>
-      <c r="D116" s="19" t="s">
+    <row r="116" s="24" customFormat="1" spans="2:4">
+      <c r="B116" s="25"/>
+      <c r="D116" s="32" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="117" s="11" customFormat="1" spans="2:2">
-      <c r="B117" s="12" t="s">
+    <row r="117" s="24" customFormat="1" spans="2:2">
+      <c r="B117" s="25" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="118" s="11" customFormat="1" spans="2:3">
-      <c r="B118" s="12"/>
-      <c r="C118" s="11" t="s">
+    <row r="118" s="24" customFormat="1" spans="2:3">
+      <c r="B118" s="25"/>
+      <c r="C118" s="24" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="119" s="11" customFormat="1" spans="2:3">
-      <c r="B119" s="12"/>
-      <c r="C119" s="11" t="s">
+    <row r="119" s="24" customFormat="1" spans="2:3">
+      <c r="B119" s="25"/>
+      <c r="C119" s="24" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="120" s="11" customFormat="1" spans="2:3">
-      <c r="B120" s="12"/>
-      <c r="C120" s="11" t="s">
+    <row r="120" s="24" customFormat="1" spans="2:3">
+      <c r="B120" s="25"/>
+      <c r="C120" s="24" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="121" s="11" customFormat="1" spans="2:4">
-      <c r="B121" s="12"/>
-      <c r="D121" s="11" t="s">
+    <row r="121" s="24" customFormat="1" spans="2:4">
+      <c r="B121" s="25"/>
+      <c r="D121" s="24" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="122" spans="4:4">
-      <c r="D122" s="19" t="s">
+      <c r="D122" s="32" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="123" spans="3:3">
-      <c r="C123" s="11" t="s">
+      <c r="C123" s="24" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="124" spans="4:4">
-      <c r="D124" s="11" t="s">
+      <c r="D124" s="24" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="125" spans="4:4">
-      <c r="D125" s="11" t="s">
+      <c r="D125" s="24" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="137" spans="2:2">
-      <c r="B137" s="11" t="s">
+      <c r="B137" s="24" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="138" spans="3:3">
-      <c r="C138" s="11" t="s">
+      <c r="C138" s="24" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="139" spans="3:3">
-      <c r="C139" s="11" t="s">
+      <c r="C139" s="24" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="140" spans="3:3">
-      <c r="C140" s="11" t="s">
+      <c r="C140" s="24" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="141" spans="4:4">
-      <c r="D141" s="14" t="s">
+      <c r="D141" s="27" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="142" spans="4:4">
-      <c r="D142" s="11" t="s">
+      <c r="D142" s="24" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="143" spans="4:4">
-      <c r="D143" s="11" t="s">
+      <c r="D143" s="24" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="163" spans="4:4">
-      <c r="D163" s="11" t="s">
+      <c r="D163" s="24" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="164" spans="4:4">
-      <c r="D164" s="11" t="s">
+      <c r="D164" s="24" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="165" spans="4:4">
-      <c r="D165" s="11" t="s">
+      <c r="D165" s="24" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="166" spans="4:4">
-      <c r="D166" s="11" t="s">
+      <c r="D166" s="24" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="167" spans="4:4">
-      <c r="D167" s="11" t="s">
+      <c r="D167" s="24" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="168" spans="3:3">
-      <c r="C168" s="11" t="s">
+      <c r="C168" s="24" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="169" spans="4:4">
-      <c r="D169" s="11" t="s">
+      <c r="D169" s="24" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="170" spans="4:4">
-      <c r="D170" s="11" t="s">
+      <c r="D170" s="24" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="180" spans="3:3">
-      <c r="C180" s="11" t="s">
+      <c r="C180" s="24" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="181" spans="4:4">
-      <c r="D181" s="11" t="s">
+      <c r="D181" s="24" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="186" spans="2:2">
-      <c r="B186" s="11" t="s">
+      <c r="B186" s="24" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="187" spans="3:3">
-      <c r="C187" s="11" t="s">
+      <c r="C187" s="24" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="188" spans="3:3">
-      <c r="C188" s="11" t="s">
+      <c r="C188" s="24" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="189" spans="3:3">
-      <c r="C189" s="11" t="s">
+      <c r="C189" s="24" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="190" spans="3:3">
-      <c r="C190" s="11" t="s">
+      <c r="C190" s="24" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="191" spans="3:3">
-      <c r="C191" s="11" t="s">
+      <c r="C191" s="24" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="192" spans="4:4">
-      <c r="D192" s="11" t="s">
+      <c r="D192" s="24" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="193" spans="4:4">
-      <c r="D193" s="11" t="s">
+      <c r="D193" s="24" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="194" spans="4:4">
-      <c r="D194" s="11" t="s">
+      <c r="D194" s="24" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="195" spans="5:5">
-      <c r="E195" s="14" t="s">
+      <c r="E195" s="27" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="196" spans="4:4">
-      <c r="D196" s="11" t="s">
+      <c r="D196" s="24" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="197" spans="4:4">
-      <c r="D197" s="11" t="s">
+      <c r="D197" s="24" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="198" spans="4:4">
-      <c r="D198" s="11" t="s">
+      <c r="D198" s="24" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="199" spans="4:4">
-      <c r="D199" s="11" t="s">
+      <c r="D199" s="24" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="200" spans="4:5">
-      <c r="D200" s="11" t="s">
+      <c r="D200" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="E200" s="10"/>
+      <c r="E200" s="23"/>
     </row>
     <row r="201" spans="4:4">
-      <c r="D201" s="10" t="s">
+      <c r="D201" s="23" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="202" spans="3:3">
-      <c r="C202" s="11" t="s">
+      <c r="C202" s="24" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="203" spans="4:4">
-      <c r="D203" s="11" t="s">
+      <c r="D203" s="24" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="204" spans="4:4">
-      <c r="D204" s="11" t="s">
+      <c r="D204" s="24" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="205" spans="4:4">
-      <c r="D205" s="11" t="s">
+      <c r="D205" s="24" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="206" spans="4:4">
-      <c r="D206" s="11" t="s">
+      <c r="D206" s="24" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="207" spans="3:3">
-      <c r="C207" s="11" t="s">
+      <c r="C207" s="24" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="208" spans="4:4">
-      <c r="D208" s="11" t="s">
+      <c r="D208" s="24" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="209" spans="4:4">
-      <c r="D209" s="11" t="s">
+      <c r="D209" s="24" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="210" spans="4:4">
-      <c r="D210" s="11" t="s">
+      <c r="D210" s="24" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="211" spans="4:4">
-      <c r="D211" s="11" t="s">
+      <c r="D211" s="24" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="212" spans="5:5">
-      <c r="E212" s="11" t="s">
+      <c r="E212" s="24" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="213" spans="5:5">
-      <c r="E213" s="11" t="s">
+      <c r="E213" s="24" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="214" spans="5:5">
-      <c r="E214" s="11" t="s">
+      <c r="E214" s="24" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="215" spans="4:4">
-      <c r="D215" s="11" t="s">
+      <c r="D215" s="24" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="216" spans="2:2">
-      <c r="B216" s="11" t="s">
+      <c r="B216" s="24" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="217" spans="3:3">
-      <c r="C217" s="11" t="s">
+      <c r="C217" s="24" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="218" spans="3:3">
-      <c r="C218" s="11" t="s">
+      <c r="C218" s="24" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="219" spans="3:3">
-      <c r="C219" s="11" t="s">
+      <c r="C219" s="24" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="220" spans="3:3">
-      <c r="C220" s="11" t="s">
+      <c r="C220" s="24" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="221" spans="3:3">
-      <c r="C221" s="11" t="s">
+      <c r="C221" s="24" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="222" spans="3:3">
-      <c r="C222" s="11" t="s">
+      <c r="C222" s="24" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="223" spans="3:3">
-      <c r="C223" s="11" t="s">
+      <c r="C223" s="24" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="224" spans="3:3">
-      <c r="C224" s="11" t="s">
+      <c r="C224" s="24" t="s">
         <v>234</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2">
+      <c r="B225" s="24" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="226" spans="3:3">
+      <c r="C226" s="24" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="227" spans="4:4">
+      <c r="D227" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="228" spans="4:4">
+      <c r="D228" s="24" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="229" spans="4:4">
+      <c r="D229" s="24" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="230" spans="4:4">
+      <c r="D230" s="24" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="231" spans="4:4">
+      <c r="D231" s="24" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="232" spans="4:4">
+      <c r="D232" s="24" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="233" spans="3:3">
+      <c r="C233" s="24" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="234" spans="4:4">
+      <c r="D234" s="24" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="235" spans="4:4">
+      <c r="D235" s="24" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="236" spans="4:4">
+      <c r="D236" s="24" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="237" spans="4:4">
+      <c r="D237" s="24" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="238" spans="4:4">
+      <c r="D238" s="24" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="239" spans="4:4">
+      <c r="D239" s="24" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="240" spans="3:3">
+      <c r="C240" s="24" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="241" spans="4:4">
+      <c r="D241" s="24" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="242" spans="3:3">
+      <c r="C242" s="24" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="243" spans="4:4">
+      <c r="D243" s="24" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="244" spans="4:4">
+      <c r="D244" s="24" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="245" spans="2:2">
+      <c r="B245" s="24" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="246" spans="3:3">
+      <c r="C246" s="24" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="247" spans="3:3">
+      <c r="C247" s="24" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="248" spans="3:3">
+      <c r="C248" s="24" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="249" spans="3:3">
+      <c r="C249" s="24" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -5929,494 +7251,494 @@
       <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="4.87272727272727" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="16384" width="4.875" style="3"/>
+    <col min="1" max="16384" width="4.87272727272727" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="22.5" spans="1:31">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="4"/>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:27">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="9"/>
-    </row>
-    <row r="3" s="2" customFormat="1" spans="1:10">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" s="2" customFormat="1" spans="1:10">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" s="2" customFormat="1" spans="1:10">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" s="2" customFormat="1" spans="1:10">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" s="2" customFormat="1" spans="1:10">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="3"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" s="2" customFormat="1" spans="1:10">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="3"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" s="2" customFormat="1" spans="1:10">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="3"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" s="2" customFormat="1" spans="1:10">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="3"/>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" s="2" customFormat="1" spans="1:10">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="3"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" s="2" customFormat="1" spans="1:18">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="R12" s="3"/>
-    </row>
-    <row r="13" s="2" customFormat="1" spans="1:18">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="R13" s="3"/>
-    </row>
-    <row r="14" s="2" customFormat="1" spans="1:10">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="3"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" s="2" customFormat="1" spans="1:10">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="3"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" s="2" customFormat="1" spans="1:10">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="3"/>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" s="2" customFormat="1" spans="1:10">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="3"/>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" s="2" customFormat="1" spans="1:18">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
-      <c r="J18" s="3"/>
-      <c r="R18" s="3"/>
-    </row>
-    <row r="19" s="2" customFormat="1" spans="1:10">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="3"/>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" s="2" customFormat="1" spans="1:10">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="3"/>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" s="2" customFormat="1" spans="1:10">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="3"/>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" s="2" customFormat="1" spans="1:10">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="3"/>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" s="2" customFormat="1" spans="1:10">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="3"/>
-      <c r="J23" s="3"/>
-    </row>
-    <row r="24" s="2" customFormat="1" spans="1:10">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
-      <c r="J24" s="3"/>
-    </row>
-    <row r="25" s="2" customFormat="1" spans="1:10">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="J25" s="3"/>
-    </row>
-    <row r="26" s="2" customFormat="1" spans="1:10">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27" s="2" customFormat="1" spans="1:10">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="J27" s="3"/>
-    </row>
-    <row r="28" s="2" customFormat="1" spans="1:10">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="J28" s="3"/>
-    </row>
-    <row r="29" s="2" customFormat="1" spans="1:10">
-      <c r="A29" s="3"/>
-      <c r="B29" s="4"/>
-      <c r="J29" s="3"/>
-    </row>
-    <row r="30" s="2" customFormat="1" spans="3:10">
-      <c r="C30" s="4"/>
-      <c r="J30" s="3"/>
-    </row>
-    <row r="31" s="2" customFormat="1" spans="1:10">
-      <c r="A31" s="3"/>
-      <c r="B31" s="5"/>
-      <c r="J31" s="3"/>
-    </row>
-    <row r="32" s="2" customFormat="1" spans="1:10">
-      <c r="A32" s="3"/>
-      <c r="B32" s="5"/>
-      <c r="J32" s="3"/>
-    </row>
-    <row r="33" s="2" customFormat="1" spans="10:10">
-      <c r="J33" s="3"/>
-    </row>
-    <row r="34" s="2" customFormat="1" spans="1:10">
-      <c r="A34" s="3"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="4"/>
-      <c r="J34" s="3"/>
-    </row>
-    <row r="35" s="2" customFormat="1" spans="1:10">
-      <c r="A35" s="3"/>
-      <c r="B35" s="5"/>
-      <c r="J35" s="3"/>
-    </row>
-    <row r="36" s="2" customFormat="1" spans="10:10">
-      <c r="J36" s="3"/>
-    </row>
-    <row r="37" s="2" customFormat="1" spans="10:10">
-      <c r="J37" s="3"/>
-    </row>
-    <row r="38" s="2" customFormat="1" spans="1:10">
-      <c r="A38" s="3"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="4"/>
-      <c r="J38" s="3"/>
-    </row>
-    <row r="39" s="2" customFormat="1" spans="1:10">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="4"/>
-      <c r="J39" s="3"/>
-    </row>
-    <row r="40" s="2" customFormat="1" spans="1:10">
-      <c r="A40" s="3"/>
-      <c r="B40" s="5"/>
-      <c r="J40" s="3"/>
-    </row>
-    <row r="41" s="2" customFormat="1" spans="10:10">
-      <c r="J41" s="3"/>
-    </row>
-    <row r="42" s="2" customFormat="1" spans="10:10">
-      <c r="J42" s="3"/>
-    </row>
-    <row r="43" s="2" customFormat="1" spans="3:10">
-      <c r="C43" s="4"/>
-      <c r="J43" s="3"/>
-    </row>
-    <row r="44" s="2" customFormat="1" spans="1:10">
-      <c r="A44" s="3"/>
-      <c r="J44" s="3"/>
-    </row>
-    <row r="45" s="2" customFormat="1" spans="1:10">
-      <c r="A45" s="3"/>
-      <c r="B45" s="5"/>
-      <c r="J45" s="3"/>
-    </row>
-    <row r="46" s="2" customFormat="1" spans="10:10">
-      <c r="J46" s="3"/>
-    </row>
-    <row r="47" s="2" customFormat="1" spans="1:10">
-      <c r="A47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="J47" s="3"/>
-    </row>
-    <row r="48" s="2" customFormat="1" spans="1:10">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="J48" s="3"/>
-    </row>
-    <row r="49" s="2" customFormat="1" spans="1:10">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="J49" s="3"/>
-    </row>
-    <row r="50" s="2" customFormat="1" spans="1:16">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
-      <c r="P50" s="8"/>
-    </row>
-    <row r="51" s="2" customFormat="1" spans="1:10">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="J51" s="3"/>
-    </row>
-    <row r="52" s="2" customFormat="1" spans="1:10">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="J52" s="3"/>
-    </row>
-    <row r="53" s="2" customFormat="1" spans="1:10">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="J53" s="3"/>
-    </row>
-    <row r="54" s="2" customFormat="1" spans="1:16">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
-      <c r="O54" s="3"/>
-      <c r="P54" s="8"/>
-    </row>
-    <row r="55" s="2" customFormat="1" spans="1:10">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="4"/>
-      <c r="J55" s="3"/>
-    </row>
-    <row r="56" s="2" customFormat="1" spans="1:10">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="4"/>
-      <c r="J56" s="3"/>
-    </row>
-    <row r="57" s="2" customFormat="1" spans="1:10">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="J57" s="3"/>
-    </row>
-    <row r="58" s="2" customFormat="1" spans="1:10">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="J58" s="3"/>
-    </row>
-    <row r="59" s="2" customFormat="1" spans="1:10">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="J59" s="3"/>
-    </row>
-    <row r="60" s="2" customFormat="1" spans="1:10">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="J60" s="3"/>
-    </row>
-    <row r="65" s="3" customFormat="1" spans="2:2">
-      <c r="B65" s="5"/>
-    </row>
-    <row r="71" s="3" customFormat="1" spans="3:3">
-      <c r="C71" s="5"/>
-    </row>
-    <row r="72" s="3" customFormat="1" spans="3:3">
-      <c r="C72" s="4"/>
-    </row>
-    <row r="74" s="3" customFormat="1" spans="3:3">
-      <c r="C74" s="8"/>
-    </row>
-    <row r="75" s="3" customFormat="1" spans="5:5">
-      <c r="E75" s="8"/>
-    </row>
-    <row r="76" s="3" customFormat="1" spans="4:4">
-      <c r="D76" s="8"/>
-    </row>
-    <row r="77" s="3" customFormat="1" spans="5:5">
-      <c r="E77" s="8"/>
-    </row>
-    <row r="78" s="3" customFormat="1" spans="4:4">
-      <c r="D78" s="8"/>
-    </row>
-    <row r="79" s="3" customFormat="1" spans="3:3">
-      <c r="C79" s="8"/>
-    </row>
-    <row r="80" s="3" customFormat="1" spans="3:3">
-      <c r="C80" s="8"/>
-    </row>
-    <row r="81" s="3" customFormat="1" spans="3:3">
-      <c r="C81" s="4"/>
-    </row>
-    <row r="82" s="3" customFormat="1" spans="3:3">
-      <c r="C82" s="8"/>
-    </row>
-    <row r="83" s="3" customFormat="1" spans="3:3">
-      <c r="C83" s="8"/>
-    </row>
-    <row r="84" s="3" customFormat="1" spans="3:3">
-      <c r="C84" s="4"/>
-    </row>
-    <row r="90" s="3" customFormat="1" spans="3:5">
-      <c r="C90" s="4"/>
-      <c r="E90" s="4"/>
-    </row>
-    <row r="91" s="3" customFormat="1" spans="3:3">
-      <c r="C91" s="5"/>
-    </row>
-    <row r="113" s="3" customFormat="1" spans="2:2">
-      <c r="B113" s="4"/>
-    </row>
-    <row r="114" s="3" customFormat="1" spans="2:2">
-      <c r="B114" s="4"/>
-    </row>
-    <row r="115" s="3" customFormat="1" spans="2:2">
-      <c r="B115" s="4"/>
-    </row>
-    <row r="116" s="3" customFormat="1" spans="2:2">
-      <c r="B116" s="4"/>
-    </row>
-    <row r="117" s="3" customFormat="1" spans="2:2">
-      <c r="B117" s="4"/>
-    </row>
-    <row r="118" s="3" customFormat="1" spans="2:2">
-      <c r="B118" s="4"/>
-    </row>
-    <row r="119" s="3" customFormat="1" spans="2:2">
-      <c r="B119" s="4"/>
-    </row>
-    <row r="120" s="3" customFormat="1" spans="2:2">
-      <c r="B120" s="4"/>
-    </row>
-    <row r="121" s="3" customFormat="1" spans="2:2">
-      <c r="B121" s="4"/>
-    </row>
-    <row r="122" s="3" customFormat="1" spans="2:2">
-      <c r="B122" s="4"/>
+    <row r="1" s="15" customFormat="1" ht="23" spans="1:31">
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="17"/>
+    </row>
+    <row r="2" s="15" customFormat="1" spans="1:27">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="22"/>
+    </row>
+    <row r="3" s="15" customFormat="1" spans="1:10">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="J3" s="16"/>
+    </row>
+    <row r="4" s="15" customFormat="1" spans="1:10">
+      <c r="A4" s="16"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="16"/>
+      <c r="J4" s="16"/>
+    </row>
+    <row r="5" s="15" customFormat="1" spans="1:10">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="16"/>
+      <c r="J5" s="16"/>
+    </row>
+    <row r="6" s="15" customFormat="1" spans="1:10">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="16"/>
+      <c r="J6" s="16"/>
+    </row>
+    <row r="7" s="15" customFormat="1" spans="1:10">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="16"/>
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" s="15" customFormat="1" spans="1:10">
+      <c r="A8" s="16"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="16"/>
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" s="15" customFormat="1" spans="1:10">
+      <c r="A9" s="16"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="16"/>
+      <c r="J9" s="16"/>
+    </row>
+    <row r="10" s="15" customFormat="1" spans="1:10">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="16"/>
+      <c r="J10" s="16"/>
+    </row>
+    <row r="11" s="15" customFormat="1" spans="1:10">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="16"/>
+      <c r="J11" s="16"/>
+    </row>
+    <row r="12" s="15" customFormat="1" spans="1:18">
+      <c r="A12" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="R12" s="16"/>
+    </row>
+    <row r="13" s="15" customFormat="1" spans="1:18">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="R13" s="16"/>
+    </row>
+    <row r="14" s="15" customFormat="1" spans="1:10">
+      <c r="A14" s="16"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="16"/>
+      <c r="J14" s="16"/>
+    </row>
+    <row r="15" s="15" customFormat="1" spans="1:10">
+      <c r="A15" s="16"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="16"/>
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16" s="15" customFormat="1" spans="1:10">
+      <c r="A16" s="16"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="16"/>
+      <c r="J16" s="16"/>
+    </row>
+    <row r="17" s="15" customFormat="1" spans="1:10">
+      <c r="A17" s="16"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="16"/>
+      <c r="J17" s="16"/>
+    </row>
+    <row r="18" s="15" customFormat="1" spans="1:18">
+      <c r="A18" s="16"/>
+      <c r="B18" s="17"/>
+      <c r="J18" s="16"/>
+      <c r="R18" s="16"/>
+    </row>
+    <row r="19" s="15" customFormat="1" spans="1:10">
+      <c r="A19" s="16"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="16"/>
+      <c r="J19" s="16"/>
+    </row>
+    <row r="20" s="15" customFormat="1" spans="1:10">
+      <c r="A20" s="16"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="16"/>
+      <c r="J20" s="16"/>
+    </row>
+    <row r="21" s="15" customFormat="1" spans="1:10">
+      <c r="A21" s="16"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="16"/>
+      <c r="J21" s="16"/>
+    </row>
+    <row r="22" s="15" customFormat="1" spans="1:10">
+      <c r="A22" s="16"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="16"/>
+      <c r="J22" s="16"/>
+    </row>
+    <row r="23" s="15" customFormat="1" spans="1:10">
+      <c r="A23" s="16"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="16"/>
+      <c r="J23" s="16"/>
+    </row>
+    <row r="24" s="15" customFormat="1" spans="1:10">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="17"/>
+      <c r="J24" s="16"/>
+    </row>
+    <row r="25" s="15" customFormat="1" spans="1:10">
+      <c r="A25" s="16"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="J25" s="16"/>
+    </row>
+    <row r="26" s="15" customFormat="1" spans="1:10">
+      <c r="A26" s="16"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="J26" s="16"/>
+    </row>
+    <row r="27" s="15" customFormat="1" spans="1:10">
+      <c r="A27" s="16"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="J27" s="16"/>
+    </row>
+    <row r="28" s="15" customFormat="1" spans="1:10">
+      <c r="A28" s="16"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="J28" s="16"/>
+    </row>
+    <row r="29" s="15" customFormat="1" spans="1:10">
+      <c r="A29" s="16"/>
+      <c r="B29" s="17"/>
+      <c r="J29" s="16"/>
+    </row>
+    <row r="30" s="15" customFormat="1" spans="3:10">
+      <c r="C30" s="17"/>
+      <c r="J30" s="16"/>
+    </row>
+    <row r="31" s="15" customFormat="1" spans="1:10">
+      <c r="A31" s="16"/>
+      <c r="B31" s="18"/>
+      <c r="J31" s="16"/>
+    </row>
+    <row r="32" s="15" customFormat="1" spans="1:10">
+      <c r="A32" s="16"/>
+      <c r="B32" s="18"/>
+      <c r="J32" s="16"/>
+    </row>
+    <row r="33" s="15" customFormat="1" spans="10:10">
+      <c r="J33" s="16"/>
+    </row>
+    <row r="34" s="15" customFormat="1" spans="1:10">
+      <c r="A34" s="16"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="17"/>
+      <c r="J34" s="16"/>
+    </row>
+    <row r="35" s="15" customFormat="1" spans="1:10">
+      <c r="A35" s="16"/>
+      <c r="B35" s="18"/>
+      <c r="J35" s="16"/>
+    </row>
+    <row r="36" s="15" customFormat="1" spans="10:10">
+      <c r="J36" s="16"/>
+    </row>
+    <row r="37" s="15" customFormat="1" spans="10:10">
+      <c r="J37" s="16"/>
+    </row>
+    <row r="38" s="15" customFormat="1" spans="1:10">
+      <c r="A38" s="16"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="17"/>
+      <c r="J38" s="16"/>
+    </row>
+    <row r="39" s="15" customFormat="1" spans="1:10">
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="17"/>
+      <c r="J39" s="16"/>
+    </row>
+    <row r="40" s="15" customFormat="1" spans="1:10">
+      <c r="A40" s="16"/>
+      <c r="B40" s="18"/>
+      <c r="J40" s="16"/>
+    </row>
+    <row r="41" s="15" customFormat="1" spans="10:10">
+      <c r="J41" s="16"/>
+    </row>
+    <row r="42" s="15" customFormat="1" spans="10:10">
+      <c r="J42" s="16"/>
+    </row>
+    <row r="43" s="15" customFormat="1" spans="3:10">
+      <c r="C43" s="17"/>
+      <c r="J43" s="16"/>
+    </row>
+    <row r="44" s="15" customFormat="1" spans="1:10">
+      <c r="A44" s="16"/>
+      <c r="J44" s="16"/>
+    </row>
+    <row r="45" s="15" customFormat="1" spans="1:10">
+      <c r="A45" s="16"/>
+      <c r="B45" s="18"/>
+      <c r="J45" s="16"/>
+    </row>
+    <row r="46" s="15" customFormat="1" spans="10:10">
+      <c r="J46" s="16"/>
+    </row>
+    <row r="47" s="15" customFormat="1" spans="1:10">
+      <c r="A47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="J47" s="16"/>
+    </row>
+    <row r="48" s="15" customFormat="1" spans="1:10">
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
+      <c r="J48" s="16"/>
+    </row>
+    <row r="49" s="15" customFormat="1" spans="1:10">
+      <c r="A49" s="16"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="J49" s="16"/>
+    </row>
+    <row r="50" s="15" customFormat="1" spans="1:16">
+      <c r="A50" s="16"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="16"/>
+      <c r="M50" s="16"/>
+      <c r="N50" s="16"/>
+      <c r="O50" s="16"/>
+      <c r="P50" s="21"/>
+    </row>
+    <row r="51" s="15" customFormat="1" spans="1:10">
+      <c r="A51" s="16"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="J51" s="16"/>
+    </row>
+    <row r="52" s="15" customFormat="1" spans="1:10">
+      <c r="A52" s="16"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="J52" s="16"/>
+    </row>
+    <row r="53" s="15" customFormat="1" spans="1:10">
+      <c r="A53" s="16"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="J53" s="16"/>
+    </row>
+    <row r="54" s="15" customFormat="1" spans="1:16">
+      <c r="A54" s="16"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="16"/>
+      <c r="M54" s="16"/>
+      <c r="N54" s="16"/>
+      <c r="O54" s="16"/>
+      <c r="P54" s="21"/>
+    </row>
+    <row r="55" s="15" customFormat="1" spans="1:10">
+      <c r="A55" s="16"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="17"/>
+      <c r="J55" s="16"/>
+    </row>
+    <row r="56" s="15" customFormat="1" spans="1:10">
+      <c r="A56" s="16"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="17"/>
+      <c r="J56" s="16"/>
+    </row>
+    <row r="57" s="15" customFormat="1" spans="1:10">
+      <c r="A57" s="16"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="J57" s="16"/>
+    </row>
+    <row r="58" s="15" customFormat="1" spans="1:10">
+      <c r="A58" s="16"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="J58" s="16"/>
+    </row>
+    <row r="59" s="15" customFormat="1" spans="1:10">
+      <c r="A59" s="16"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="J59" s="16"/>
+    </row>
+    <row r="60" s="15" customFormat="1" spans="1:10">
+      <c r="A60" s="16"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="J60" s="16"/>
+    </row>
+    <row r="65" s="16" customFormat="1" spans="2:2">
+      <c r="B65" s="18"/>
+    </row>
+    <row r="71" s="16" customFormat="1" spans="3:3">
+      <c r="C71" s="18"/>
+    </row>
+    <row r="72" s="16" customFormat="1" spans="3:3">
+      <c r="C72" s="17"/>
+    </row>
+    <row r="74" s="16" customFormat="1" spans="3:3">
+      <c r="C74" s="21"/>
+    </row>
+    <row r="75" s="16" customFormat="1" spans="5:5">
+      <c r="E75" s="21"/>
+    </row>
+    <row r="76" s="16" customFormat="1" spans="4:4">
+      <c r="D76" s="21"/>
+    </row>
+    <row r="77" s="16" customFormat="1" spans="5:5">
+      <c r="E77" s="21"/>
+    </row>
+    <row r="78" s="16" customFormat="1" spans="4:4">
+      <c r="D78" s="21"/>
+    </row>
+    <row r="79" s="16" customFormat="1" spans="3:3">
+      <c r="C79" s="21"/>
+    </row>
+    <row r="80" s="16" customFormat="1" spans="3:3">
+      <c r="C80" s="21"/>
+    </row>
+    <row r="81" s="16" customFormat="1" spans="3:3">
+      <c r="C81" s="17"/>
+    </row>
+    <row r="82" s="16" customFormat="1" spans="3:3">
+      <c r="C82" s="21"/>
+    </row>
+    <row r="83" s="16" customFormat="1" spans="3:3">
+      <c r="C83" s="21"/>
+    </row>
+    <row r="84" s="16" customFormat="1" spans="3:3">
+      <c r="C84" s="17"/>
+    </row>
+    <row r="90" s="16" customFormat="1" spans="3:5">
+      <c r="C90" s="17"/>
+      <c r="E90" s="17"/>
+    </row>
+    <row r="91" s="16" customFormat="1" spans="3:3">
+      <c r="C91" s="18"/>
+    </row>
+    <row r="113" s="16" customFormat="1" spans="2:2">
+      <c r="B113" s="17"/>
+    </row>
+    <row r="114" s="16" customFormat="1" spans="2:2">
+      <c r="B114" s="17"/>
+    </row>
+    <row r="115" s="16" customFormat="1" spans="2:2">
+      <c r="B115" s="17"/>
+    </row>
+    <row r="116" s="16" customFormat="1" spans="2:2">
+      <c r="B116" s="17"/>
+    </row>
+    <row r="117" s="16" customFormat="1" spans="2:2">
+      <c r="B117" s="17"/>
+    </row>
+    <row r="118" s="16" customFormat="1" spans="2:2">
+      <c r="B118" s="17"/>
+    </row>
+    <row r="119" s="16" customFormat="1" spans="2:2">
+      <c r="B119" s="17"/>
+    </row>
+    <row r="120" s="16" customFormat="1" spans="2:2">
+      <c r="B120" s="17"/>
+    </row>
+    <row r="121" s="16" customFormat="1" spans="2:2">
+      <c r="B121" s="17"/>
+    </row>
+    <row r="122" s="16" customFormat="1" spans="2:2">
+      <c r="B122" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6434,19 +7756,19 @@
       <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="4.62727272727273" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="16384" width="4.625" customWidth="1"/>
+    <col min="1" max="16384" width="4.62727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -6465,14 +7787,14 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="4.62727272727273" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="16384" width="4.625" customWidth="1"/>
+    <col min="1" max="16384" width="4.62727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="35" customFormat="1" spans="1:1">
       <c r="A35" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
     </row>
     <row r="36" customFormat="1"/>
@@ -6497,7 +7819,7 @@
     <row r="55" customFormat="1"/>
     <row r="56" customFormat="1" spans="1:1">
       <c r="A56" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
     </row>
     <row r="57" customFormat="1"/>
@@ -6513,13 +7835,13 @@
     <row r="67" customFormat="1"/>
     <row r="68" customFormat="1"/>
     <row r="69" customFormat="1" spans="1:1">
-      <c r="A69" s="1" t="s">
-        <v>239</v>
+      <c r="A69" s="14" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="70" customFormat="1" spans="1:1">
       <c r="A70" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
     </row>
     <row r="71" customFormat="1"/>
@@ -6533,17 +7855,17 @@
     <row r="79" customFormat="1"/>
     <row r="80" customFormat="1"/>
     <row r="134" spans="1:1">
-      <c r="A134" s="1" t="s">
-        <v>241</v>
+      <c r="A134" s="14" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="135" spans="1:1">
-      <c r="A135" s="1" t="s">
-        <v>242</v>
+      <c r="A135" s="14" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="136" spans="1:1">
-      <c r="A136" s="1"/>
+      <c r="A136" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6555,14 +7877,340 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A3:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S48" sqref="S48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>269</v>
+      </c>
+      <c r="H4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>271</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="H6" s="5"/>
+      <c r="J6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="H7" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="H8" s="5"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="10"/>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="3">
+        <v>3</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="10"/>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="3">
+        <v>4</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="H10" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="J10" s="9"/>
+      <c r="K10" s="10"/>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="3">
+        <v>5</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="J11" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="M11" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" s="3">
+        <v>6</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="J12" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="M12" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="8:11">
+      <c r="H15" t="s">
+        <v>270</v>
+      </c>
+      <c r="J15" s="9"/>
+      <c r="K15" s="10"/>
+    </row>
+    <row r="16" spans="8:11">
+      <c r="H16" s="2"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="13"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" t="s">
+        <v>282</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="J17" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" t="s">
+        <v>284</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K18" s="8"/>
+    </row>
+    <row r="19" spans="8:11">
+      <c r="H19" s="5"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="10"/>
+    </row>
+    <row r="20" spans="8:11">
+      <c r="H20" s="5"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="10"/>
+    </row>
+    <row r="21" spans="8:11">
+      <c r="H21" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="J21" s="9"/>
+      <c r="K21" s="10"/>
+    </row>
+    <row r="22" spans="10:11">
+      <c r="J22" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="10:11">
+      <c r="J23" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="10:11">
+      <c r="J24" s="9"/>
+      <c r="K24" s="10"/>
+    </row>
+    <row r="25" spans="10:11">
+      <c r="J25" s="9"/>
+      <c r="K25" s="10"/>
+    </row>
+    <row r="26" spans="8:11">
+      <c r="H26" t="s">
+        <v>270</v>
+      </c>
+      <c r="J26" s="9"/>
+      <c r="K26" s="10"/>
+    </row>
+    <row r="27" spans="8:11">
+      <c r="H27" s="2"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="13"/>
+    </row>
+    <row r="28" spans="8:10">
+      <c r="H28" s="5"/>
+      <c r="J28" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="29" spans="8:11">
+      <c r="H29" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K29" s="8"/>
+    </row>
+    <row r="30" spans="8:11">
+      <c r="H30" s="5"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="10"/>
+    </row>
+    <row r="31" spans="8:11">
+      <c r="H31" s="5"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="10"/>
+    </row>
+    <row r="32" spans="8:11">
+      <c r="H32" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="J32" s="9"/>
+      <c r="K32" s="10"/>
+    </row>
+    <row r="33" spans="10:11">
+      <c r="J33" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="K33" s="4"/>
+    </row>
+    <row r="34" spans="10:11">
+      <c r="J34" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="K34" s="4"/>
+    </row>
+    <row r="35" spans="10:11">
+      <c r="J35" s="9"/>
+      <c r="K35" s="10"/>
+    </row>
+    <row r="36" spans="10:11">
+      <c r="J36" s="9"/>
+      <c r="K36" s="10"/>
+    </row>
+    <row r="37" spans="8:11">
+      <c r="H37" t="s">
+        <v>270</v>
+      </c>
+      <c r="J37" s="9"/>
+      <c r="K37" s="10"/>
+    </row>
+    <row r="38" spans="8:11">
+      <c r="H38" s="2"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="13"/>
+    </row>
+    <row r="39" spans="8:10">
+      <c r="H39" s="5"/>
+      <c r="J39" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="40" spans="8:11">
+      <c r="H40" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K40" s="8"/>
+    </row>
+    <row r="41" spans="8:11">
+      <c r="H41" s="5"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="10"/>
+    </row>
+    <row r="42" spans="8:11">
+      <c r="H42" s="5"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="10"/>
+    </row>
+    <row r="43" spans="8:11">
+      <c r="H43" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="J43" s="9"/>
+      <c r="K43" s="10"/>
+    </row>
+    <row r="44" spans="10:11">
+      <c r="J44" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="K44" s="4"/>
+    </row>
+    <row r="45" spans="10:11">
+      <c r="J45" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="K45" s="4"/>
+    </row>
+    <row r="46" spans="10:11">
+      <c r="J46" s="9"/>
+      <c r="K46" s="10"/>
+    </row>
+    <row r="47" spans="10:11">
+      <c r="J47" s="9"/>
+      <c r="K47" s="10"/>
+    </row>
+    <row r="48" spans="10:11">
+      <c r="J48" s="9"/>
+      <c r="K48" s="10"/>
+    </row>
+    <row r="49" spans="10:11">
+      <c r="J49" s="12"/>
+      <c r="K49" s="13"/>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="53" s="1" customFormat="1"/>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/操作系统笔记.xlsx
+++ b/操作系统笔记.xlsx
@@ -4,22 +4,24 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="9090" tabRatio="812" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="812" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="第一章" sheetId="2" r:id="rId1"/>
     <sheet name="第二章" sheetId="3" r:id="rId2"/>
-    <sheet name="任务控制块源码" sheetId="4" r:id="rId3"/>
-    <sheet name="任务控制块Init源码" sheetId="9" r:id="rId4"/>
-    <sheet name="OS_Init源码" sheetId="10" r:id="rId5"/>
-    <sheet name="内存中数据结构" sheetId="11" r:id="rId6"/>
+    <sheet name="第三章" sheetId="12" r:id="rId3"/>
+    <sheet name="第四章" sheetId="13" r:id="rId4"/>
+    <sheet name="任务控制块源码" sheetId="4" r:id="rId5"/>
+    <sheet name="任务控制块Init源码" sheetId="9" r:id="rId6"/>
+    <sheet name="OS_Init源码" sheetId="10" r:id="rId7"/>
+    <sheet name="内存中数据结构" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="329">
   <si>
     <t>操作系统</t>
   </si>
@@ -799,6 +801,129 @@
   </si>
   <si>
     <t>2.8.2统计任务OS_TaskStat</t>
+  </si>
+  <si>
+    <t>第三章：中断和时间管理</t>
+  </si>
+  <si>
+    <t>3.1中断管理</t>
+  </si>
+  <si>
+    <t>ucos是实时操作系统，系统的实时性主要体现在对中断的响应上，要求能够尽快的响应中断，进入中断服务函数。</t>
+  </si>
+  <si>
+    <t>ucos的服务函数不能时间太长，否则会导致其他系统任务得不到运行，也会导致不能响应其他中断。所以中断服务函数必须短小精悍，把复杂的事情通过消息机制交给用户任务。</t>
+  </si>
+  <si>
+    <t>ucos中并没有单独的C文件来处理中断。因为不同的硬件系统中断服务函数的编写时不同的，操作系统中的中断管理函数还是内核os_core.c中，对中断服务函数的编写必须根据ucos的思路实现。</t>
+  </si>
+  <si>
+    <t>事实上，任务调度主要依靠中断。创建任务或调用delete函数删除自己或调用suspend阻塞自己的时候会执行一次任务切换。但是更多的任务切换时时钟中断，每一个时间滴答都发生，该中断服务程序发现有更高优先级的就绪任务就会进行调度。</t>
+  </si>
+  <si>
+    <t>当操作系统有其他外中断时，如定时器中断，外部中断，串口中断时，也会响应中断，这是任务会被切换。因此遵循ucos的中断管理思路设计好中断服务函数时非常关键的。</t>
+  </si>
+  <si>
+    <t>3.1.1中断管理核心思路</t>
+  </si>
+  <si>
+    <t>如果正在运行的任务能响应中断，中断来了，操作系统将会响应中断，进入中断服务函数，此时运行环境还没保存，</t>
+  </si>
+  <si>
+    <t>因此需将运行环境保存，此时任务由于中断进入了挂起态。进入中断服务函数，首先保存CPU的环境，接下嵌套数量+1</t>
+  </si>
+  <si>
+    <t>中断应该是紧急情况下才使用的，正常处理交给任务，中断服务程序和任务之间可以共享数据结构，中断服务程序可以向任务发消息等。总之，中断服务函数的运行时间不能太长。</t>
+  </si>
+  <si>
+    <t>中断服务完成后，应调用OSIntExit来进行最好的处理。Exit函数是用来通知ucos已经结束中断操作了，功能是嵌套数--，找到最高优先级的就绪任务，而不是被挂起的任务。OSIntExit和OSIntEnter是成对儿存在的。</t>
+  </si>
+  <si>
+    <t>3.1.2中断处理流程</t>
+  </si>
+  <si>
+    <t>调用OSIntEnter让嵌套数+1，保存cpu寄存器内容到当前堆栈，运行中断服务函数，调用OSIntExit让嵌套数-1切换优先级最高的任务</t>
+  </si>
+  <si>
+    <t>3.1.3时钟中断服务</t>
+  </si>
+  <si>
+    <t>ucos每个时间片都要进行任务调度，调度的结果是返回原任务或者找到更高优先级的任务。时间片的时间不能太长，</t>
+  </si>
+  <si>
+    <t>否则任务等待时间就太长，时间太短的话花费在系统调度的时间就短，系统效率就变低了。</t>
+  </si>
+  <si>
+    <t>时钟中断服务是依赖中断，如果是单片机系统，那就设置定时器中断，对于Windows平台的虚拟系统，采用定时器来触发中断。</t>
+  </si>
+  <si>
+    <t>中断服务函数的入口地址是OSTickISRuser，代码分析在源码</t>
+  </si>
+  <si>
+    <t>3.2时间管理</t>
+  </si>
+  <si>
+    <t>在os_time.c中，包含操作系统时间设置和获取，对任务的延时，任务按分秒延时，取消任务延时，共五个系统调用，时间管理的主要功能是对任务的延时</t>
+  </si>
+  <si>
+    <t>3.2.1时间管理主要数据结构</t>
+  </si>
+  <si>
+    <t>时间管理最重要的数据结构是OSTime，表示操作系统的时间，volatile关键字总是与优化有关，编译器有一种技术叫数据流分析，分析程序的变量在哪里赋值，</t>
+  </si>
+  <si>
+    <t>在哪里使用，在哪里失效，分析结果可以用于常量合并，常量传播优化，而关键字volatile就是禁止这些优化，因为OSTime是易变的，</t>
+  </si>
+  <si>
+    <t>加上关键字volatile后就不会被编译器优化，每次取值都是直接从内存地址中取出来的，保证不会因编译器优化产生错误。</t>
+  </si>
+  <si>
+    <t>OSTime初始化被设置位0。时间管理的另一个重要的数据结构是任务控制块，任务控制块有一项OSTCBDly，表示任务延时的时间。</t>
+  </si>
+  <si>
+    <t>这个时间以2次时钟中断间隔的时间为单位，与硬件关系密切，以后再说。另外对任务的延时实际上就是阻塞了任务，因此对就绪表就绪组等数据结构进行相关操作。</t>
+  </si>
+  <si>
+    <t>3.2.2时间的获取和设置</t>
+  </si>
+  <si>
+    <t>时间的设置和获取都是关于OSTime的赋值，代码比较简单</t>
+  </si>
+  <si>
+    <t>3.2.3任务延时函数OSTimeDly</t>
+  </si>
+  <si>
+    <t>用于阻塞任务一段时间，参数代表几个时间片。</t>
+  </si>
+  <si>
+    <t>要注意的是延时1个时间片是不准确的，因为任务在调用延时函数的适合可能马上产生时钟中断了，那么设置OSTCBDly为1，想延时10ms，然后系统切换到了一个新任务，新任务刚运行0.1ms这是时钟中断来了，</t>
+  </si>
+  <si>
+    <t>OSTCBDly--，变成0了，任务就绪了，这是刚延时0.1ms。可见OSTCBDly是有误差的，最大误差一个时间片，所以想延时一个时间片应该写OSTCBDly（2）</t>
+  </si>
+  <si>
+    <t>3.2.4任务按秒延迟函数OSTimeDlyHMSM</t>
+  </si>
+  <si>
+    <t>用于按时分秒阻塞任务</t>
+  </si>
+  <si>
+    <t>3.2.5延时恢复函数OSTimeDlyResume</t>
+  </si>
+  <si>
+    <t>任务在延时后进入阻塞态，当时间到了，就恢复就绪，可以被操作系统调度。但是并不一定只能回到就绪态，因为即便延时时间没到，也可以通过OSTimeDlyResume恢复任务到就绪态。</t>
+  </si>
+  <si>
+    <t>另外，OSTimeDlyResume不仅仅能恢复使用因延时而阻塞的任务，对于因等待事件而发生的阻塞，并设置了timeout事件的，也能用OSTimeDlyResume来恢复，</t>
+  </si>
+  <si>
+    <t>对这些任务使用OSTimeDlyResume，就好像已经等待超时了一样。</t>
+  </si>
+  <si>
+    <t>但是对于使用suspend挂起的任务，不允许使用OSTimeDlyResume来恢复</t>
+  </si>
+  <si>
+    <t>第四章：事件管理</t>
   </si>
   <si>
     <t>源码</t>
@@ -890,10 +1015,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -955,9 +1080,54 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -969,8 +1139,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -991,85 +1193,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1095,19 +1220,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1119,7 +1232,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1131,7 +1250,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1149,13 +1268,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1167,55 +1304,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1233,49 +1364,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1414,17 +1539,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1440,6 +1570,45 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1467,50 +1636,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1519,10 +1644,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1531,19 +1656,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1552,117 +1677,117 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1732,31 +1857,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1860,8 +1964,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1021080" y="9886315"/>
-          <a:ext cx="2611120" cy="2176780"/>
+          <a:off x="1114425" y="9543415"/>
+          <a:ext cx="2828925" cy="2094230"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1902,8 +2006,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="680720" y="1181100"/>
-          <a:ext cx="5098415" cy="2651125"/>
+          <a:off x="742950" y="1143000"/>
+          <a:ext cx="5534025" cy="2562225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1944,8 +2048,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1361440" y="16649700"/>
-          <a:ext cx="2411095" cy="1869440"/>
+          <a:off x="1485900" y="16059150"/>
+          <a:ext cx="2628900" cy="1805940"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1991,8 +2095,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5271135" y="4676140"/>
-          <a:ext cx="10853420" cy="241300"/>
+          <a:off x="5737860" y="4517390"/>
+          <a:ext cx="11849100" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2033,8 +2137,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1021080" y="6152515"/>
-          <a:ext cx="2130425" cy="2123440"/>
+          <a:off x="1114425" y="5942965"/>
+          <a:ext cx="2317115" cy="2047240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2075,8 +2179,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4281170" y="9274810"/>
-          <a:ext cx="11035030" cy="234950"/>
+          <a:off x="4654550" y="8950960"/>
+          <a:ext cx="12061825" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2117,8 +2221,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2323465" y="10450830"/>
-          <a:ext cx="2101215" cy="445770"/>
+          <a:off x="2510155" y="10082530"/>
+          <a:ext cx="2319020" cy="433070"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2159,8 +2263,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1361440" y="12560300"/>
-          <a:ext cx="2783205" cy="661035"/>
+          <a:off x="1485900" y="12115800"/>
+          <a:ext cx="3032125" cy="641985"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2193,8 +2297,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3374390" y="12870815"/>
-          <a:ext cx="384175" cy="304165"/>
+          <a:off x="3654425" y="12419965"/>
+          <a:ext cx="446405" cy="291465"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2268,8 +2372,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="2294255" y="13018135"/>
-          <a:ext cx="1079500" cy="4445"/>
+          <a:off x="2480945" y="12560935"/>
+          <a:ext cx="1172845" cy="4445"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2317,8 +2421,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3136265" y="13022580"/>
-          <a:ext cx="237490" cy="120015"/>
+          <a:off x="3416300" y="12565380"/>
+          <a:ext cx="237490" cy="113665"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2372,8 +2476,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1361440" y="13271500"/>
-          <a:ext cx="2768600" cy="1708785"/>
+          <a:off x="1485900" y="12801600"/>
+          <a:ext cx="3017520" cy="1651635"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2414,8 +2518,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1361440" y="16649700"/>
-          <a:ext cx="3063240" cy="328930"/>
+          <a:off x="1485900" y="16059150"/>
+          <a:ext cx="3343275" cy="322580"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2456,8 +2560,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1021080" y="18268950"/>
-          <a:ext cx="1318260" cy="822325"/>
+          <a:off x="1113790" y="17621250"/>
+          <a:ext cx="1412240" cy="796925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2490,8 +2594,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2386965" y="18275935"/>
-          <a:ext cx="1602105" cy="1292225"/>
+          <a:off x="2604770" y="17628235"/>
+          <a:ext cx="1726565" cy="1247775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2651,8 +2755,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1021080" y="22339300"/>
-          <a:ext cx="2117725" cy="1863725"/>
+          <a:off x="1114425" y="21545550"/>
+          <a:ext cx="2304415" cy="1800225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2693,8 +2797,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1021080" y="25539700"/>
-          <a:ext cx="3196590" cy="3362325"/>
+          <a:off x="1114425" y="24631650"/>
+          <a:ext cx="3476625" cy="3248025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2735,8 +2839,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1021080" y="30333315"/>
-          <a:ext cx="1021080" cy="1522095"/>
+          <a:off x="1113790" y="29260165"/>
+          <a:ext cx="1115060" cy="1464945"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2777,8 +2881,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1021080" y="32296100"/>
-          <a:ext cx="1256665" cy="701675"/>
+          <a:off x="1113790" y="31146750"/>
+          <a:ext cx="1350645" cy="682625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2825,7 +2929,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5712460" cy="12036425"/>
+          <a:ext cx="6210300" cy="11610975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2858,8 +2962,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4841240" y="38100"/>
-          <a:ext cx="7611745" cy="892175"/>
+          <a:off x="5276850" y="38100"/>
+          <a:ext cx="8296275" cy="866775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2947,8 +3051,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3791585" y="1304925"/>
-          <a:ext cx="2564130" cy="683260"/>
+          <a:off x="4133850" y="1266825"/>
+          <a:ext cx="2781935" cy="657860"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3127,8 +3231,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4780915" y="3791585"/>
-          <a:ext cx="3089275" cy="695960"/>
+          <a:off x="5216525" y="3664585"/>
+          <a:ext cx="3369310" cy="670560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3307,8 +3411,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4328795" y="7023100"/>
-          <a:ext cx="3089275" cy="1831975"/>
+          <a:off x="4702175" y="6781800"/>
+          <a:ext cx="3369310" cy="1762125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3659,8 +3763,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5721985" y="5187950"/>
-          <a:ext cx="5426710" cy="1787525"/>
+          <a:off x="6219825" y="5010150"/>
+          <a:ext cx="5924550" cy="1724025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3701,8 +3805,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5747385" y="8928100"/>
-          <a:ext cx="5490845" cy="1254125"/>
+          <a:off x="6245225" y="8616950"/>
+          <a:ext cx="6019800" cy="1209675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3748,8 +3852,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="177800"/>
-          <a:ext cx="5171440" cy="13655675"/>
+          <a:off x="0" y="171450"/>
+          <a:ext cx="5638800" cy="13173075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3790,8 +3894,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="14224000"/>
-          <a:ext cx="3983355" cy="7188200"/>
+          <a:off x="0" y="13716000"/>
+          <a:ext cx="4333875" cy="6934200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3838,7 +3942,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="4201795" cy="5851525"/>
+          <a:ext cx="4581525" cy="5648325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3879,8 +3983,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="6223000"/>
-          <a:ext cx="3878580" cy="3404235"/>
+          <a:off x="0" y="6000750"/>
+          <a:ext cx="4229100" cy="3283585"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3921,8 +4025,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="9956800"/>
-          <a:ext cx="4192270" cy="2100580"/>
+          <a:off x="9525" y="9601200"/>
+          <a:ext cx="4572000" cy="2030730"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3963,8 +4067,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="12446000"/>
-          <a:ext cx="5675630" cy="11090275"/>
+          <a:off x="0" y="12001500"/>
+          <a:ext cx="6172200" cy="10696575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4002,8 +4106,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4723130" y="1155065"/>
-          <a:ext cx="898525" cy="0"/>
+          <a:off x="5123180" y="1116965"/>
+          <a:ext cx="955675" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4049,8 +4153,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6470015" y="1881505"/>
-          <a:ext cx="1082040" cy="0"/>
+          <a:off x="7041515" y="1818005"/>
+          <a:ext cx="1196340" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4096,8 +4200,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4745355" y="3103245"/>
-          <a:ext cx="898525" cy="0"/>
+          <a:off x="5145405" y="2995295"/>
+          <a:ext cx="955675" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4143,8 +4247,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4745355" y="5059045"/>
-          <a:ext cx="898525" cy="0"/>
+          <a:off x="5145405" y="4881245"/>
+          <a:ext cx="955675" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4190,8 +4294,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4745355" y="7014845"/>
-          <a:ext cx="898525" cy="0"/>
+          <a:off x="5145405" y="6767195"/>
+          <a:ext cx="955675" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4240,8 +4344,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipH="1" flipV="1">
-          <a:off x="5653405" y="1862455"/>
-          <a:ext cx="17145" cy="1948180"/>
+          <a:off x="6110605" y="1798955"/>
+          <a:ext cx="74295" cy="1878330"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -4289,8 +4393,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipH="1" flipV="1">
-          <a:off x="5666740" y="3843655"/>
-          <a:ext cx="17145" cy="1948180"/>
+          <a:off x="6181090" y="3710305"/>
+          <a:ext cx="17145" cy="1878330"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -4338,8 +4442,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipH="1" flipV="1">
-          <a:off x="5635625" y="5844540"/>
-          <a:ext cx="17145" cy="1948180"/>
+          <a:off x="6092825" y="5641340"/>
+          <a:ext cx="17145" cy="1878330"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -4390,8 +4494,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6907530" y="7750175"/>
-          <a:ext cx="156845" cy="1513205"/>
+          <a:off x="7479030" y="7477125"/>
+          <a:ext cx="213995" cy="1456055"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -4437,8 +4541,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10447020" y="9947910"/>
-          <a:ext cx="928370" cy="659130"/>
+          <a:off x="11361420" y="9598660"/>
+          <a:ext cx="1042670" cy="633730"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4589,8 +4693,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7708265" y="10155555"/>
-          <a:ext cx="927735" cy="659130"/>
+          <a:off x="8394065" y="9793605"/>
+          <a:ext cx="984885" cy="640080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4744,8 +4848,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="9107170" y="9010015"/>
-          <a:ext cx="866775" cy="2739390"/>
+          <a:off x="9951720" y="8502015"/>
+          <a:ext cx="835025" cy="3025140"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector5">
           <a:avLst>
@@ -4798,8 +4902,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="5476240" y="5646420"/>
-          <a:ext cx="7227570" cy="635"/>
+          <a:off x="6406515" y="5446395"/>
+          <a:ext cx="6967220" cy="635"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -4855,8 +4959,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="210185" y="3235960"/>
-          <a:ext cx="2534920" cy="1374775"/>
+          <a:off x="210185" y="3121660"/>
+          <a:ext cx="2763520" cy="1330325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4892,8 +4996,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1892935" y="953135"/>
-          <a:ext cx="3876675" cy="57150"/>
+          <a:off x="2064385" y="921385"/>
+          <a:ext cx="4219575" cy="57150"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector4">
           <a:avLst>
@@ -5215,15 +5319,15 @@
   <dimension ref="A1:AE128"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:T2"/>
+      <selection activeCell="A1" sqref="$A1:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.87272727272727" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="4.87272727272727" style="16"/>
+    <col min="1" max="16384" width="4.875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" s="15" customFormat="1" ht="23" spans="1:31">
+    <row r="1" s="15" customFormat="1" ht="22.5" spans="1:31">
       <c r="A1" s="16"/>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -6028,1204 +6132,1204 @@
   <sheetPr/>
   <dimension ref="A1:AE249"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="A236" workbookViewId="0">
-      <selection activeCell="I241" sqref="I241"/>
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.87272727272727" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="4.87272727272727" style="24"/>
+    <col min="1" max="16384" width="4.875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" s="23" customFormat="1" ht="23" spans="1:31">
-      <c r="A1" s="24"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="H1" s="24" t="s">
+    <row r="1" s="15" customFormat="1" ht="22.5" spans="1:31">
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="H1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24" t="s">
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="S1" s="24" t="s">
+      <c r="S1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="23" t="s">
+      <c r="T1" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="U1" s="24" t="s">
+      <c r="U1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="25" t="s">
+      <c r="V1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="24" t="s">
+      <c r="W1" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="25"/>
-    </row>
-    <row r="2" s="23" customFormat="1" spans="1:27">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24" t="s">
+      <c r="X1" s="17"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="17"/>
+    </row>
+    <row r="2" s="15" customFormat="1" spans="1:27">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="24" t="s">
+      <c r="S2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="T2" s="23" t="s">
+      <c r="T2" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="U2" s="24" t="s">
+      <c r="U2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="V2" s="24" t="s">
+      <c r="V2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="24" t="s">
+      <c r="W2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="31"/>
-    </row>
-    <row r="3" s="23" customFormat="1" spans="1:10">
-      <c r="A3" s="24" t="s">
+      <c r="X2" s="17"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="22"/>
+    </row>
+    <row r="3" s="15" customFormat="1" spans="1:10">
+      <c r="A3" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="J3" s="24"/>
-    </row>
-    <row r="4" s="23" customFormat="1" spans="1:10">
-      <c r="A4" s="24"/>
-      <c r="B4" s="25" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="J3" s="16"/>
+    </row>
+    <row r="4" s="15" customFormat="1" spans="1:10">
+      <c r="A4" s="16"/>
+      <c r="B4" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="J4" s="24"/>
-    </row>
-    <row r="5" s="23" customFormat="1" spans="1:10">
-      <c r="A5" s="24"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="24" t="s">
+      <c r="C4" s="16"/>
+      <c r="J4" s="16"/>
+    </row>
+    <row r="5" s="15" customFormat="1" spans="1:10">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="J5" s="24"/>
-    </row>
-    <row r="6" s="23" customFormat="1" spans="1:10">
-      <c r="A6" s="24"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="24" t="s">
+      <c r="J5" s="16"/>
+    </row>
+    <row r="6" s="15" customFormat="1" spans="1:10">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="J6" s="24"/>
-    </row>
-    <row r="7" s="23" customFormat="1" spans="1:10">
-      <c r="A7" s="24"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="24" t="s">
+      <c r="J6" s="16"/>
+    </row>
+    <row r="7" s="15" customFormat="1" spans="1:10">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="J7" s="24"/>
-    </row>
-    <row r="8" s="23" customFormat="1" spans="1:10">
-      <c r="A8" s="24"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="24" t="s">
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" s="15" customFormat="1" spans="1:10">
+      <c r="A8" s="16"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="J8" s="24"/>
-    </row>
-    <row r="9" s="23" customFormat="1" spans="1:10">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="24" t="s">
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" s="15" customFormat="1" spans="1:10">
+      <c r="A9" s="16"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="J9" s="24"/>
-    </row>
-    <row r="10" s="23" customFormat="1" spans="1:10">
-      <c r="A10" s="24"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="24" t="s">
+      <c r="J9" s="16"/>
+    </row>
+    <row r="10" s="15" customFormat="1" spans="1:10">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="J10" s="24"/>
-    </row>
-    <row r="11" s="23" customFormat="1" spans="1:10">
-      <c r="A11" s="24"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="24" t="s">
+      <c r="J10" s="16"/>
+    </row>
+    <row r="11" s="15" customFormat="1" spans="1:10">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="J11" s="24"/>
-    </row>
-    <row r="12" s="23" customFormat="1" spans="1:10">
-      <c r="A12" s="24"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="24" t="s">
+      <c r="J11" s="16"/>
+    </row>
+    <row r="12" s="15" customFormat="1" spans="1:10">
+      <c r="A12" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="J12" s="24"/>
-    </row>
-    <row r="13" s="23" customFormat="1" spans="1:10">
-      <c r="A13" s="24"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="24" t="s">
+      <c r="J12" s="16"/>
+    </row>
+    <row r="13" s="15" customFormat="1" spans="1:10">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="J13" s="24"/>
-    </row>
-    <row r="14" s="23" customFormat="1" spans="1:10">
-      <c r="A14" s="24"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="24" t="s">
+      <c r="J13" s="16"/>
+    </row>
+    <row r="14" s="15" customFormat="1" spans="1:10">
+      <c r="A14" s="16"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="J14" s="24"/>
-    </row>
-    <row r="15" s="23" customFormat="1" spans="1:10">
-      <c r="A15" s="24"/>
-      <c r="B15" s="25" t="s">
+      <c r="J14" s="16"/>
+    </row>
+    <row r="15" s="15" customFormat="1" spans="1:10">
+      <c r="A15" s="16"/>
+      <c r="B15" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="J15" s="24"/>
-    </row>
-    <row r="16" s="23" customFormat="1" spans="1:10">
-      <c r="A16" s="24"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="24" t="s">
+      <c r="C15" s="16"/>
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16" s="15" customFormat="1" spans="1:10">
+      <c r="A16" s="16"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="J16" s="24"/>
-    </row>
-    <row r="17" s="23" customFormat="1" spans="1:10">
-      <c r="A17" s="24"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="24" t="s">
+      <c r="J16" s="16"/>
+    </row>
+    <row r="17" s="15" customFormat="1" spans="1:10">
+      <c r="A17" s="16"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="J17" s="24"/>
-    </row>
-    <row r="18" s="23" customFormat="1" spans="1:10">
-      <c r="A18" s="24"/>
-      <c r="B18" s="25"/>
-      <c r="D18" s="23" t="s">
+      <c r="J17" s="16"/>
+    </row>
+    <row r="18" s="15" customFormat="1" spans="1:10">
+      <c r="A18" s="16"/>
+      <c r="B18" s="17"/>
+      <c r="D18" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="J18" s="24"/>
-    </row>
-    <row r="19" s="23" customFormat="1" spans="1:10">
-      <c r="A19" s="24"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="24"/>
-      <c r="E19" s="23" t="s">
+      <c r="J18" s="16"/>
+    </row>
+    <row r="19" s="15" customFormat="1" spans="1:10">
+      <c r="A19" s="16"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="16"/>
+      <c r="E19" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="J19" s="24"/>
-    </row>
-    <row r="20" s="23" customFormat="1" spans="1:10">
-      <c r="A20" s="24"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="24"/>
-      <c r="E20" s="23" t="s">
+      <c r="J19" s="16"/>
+    </row>
+    <row r="20" s="15" customFormat="1" spans="1:10">
+      <c r="A20" s="16"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="16"/>
+      <c r="E20" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="J20" s="24"/>
-    </row>
-    <row r="21" s="23" customFormat="1" spans="1:10">
-      <c r="A21" s="24"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="24"/>
-      <c r="E21" s="23" t="s">
+      <c r="J20" s="16"/>
+    </row>
+    <row r="21" s="15" customFormat="1" spans="1:10">
+      <c r="A21" s="16"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="16"/>
+      <c r="E21" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="J21" s="24"/>
-    </row>
-    <row r="22" s="23" customFormat="1" spans="1:10">
-      <c r="A22" s="24"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="24"/>
-      <c r="E22" s="23" t="s">
+      <c r="J21" s="16"/>
+    </row>
+    <row r="22" s="15" customFormat="1" spans="1:10">
+      <c r="A22" s="16"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="16"/>
+      <c r="E22" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="J22" s="24"/>
-    </row>
-    <row r="23" s="23" customFormat="1" spans="1:10">
-      <c r="A23" s="24"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="24"/>
-      <c r="E23" s="23" t="s">
+      <c r="J22" s="16"/>
+    </row>
+    <row r="23" s="15" customFormat="1" spans="1:10">
+      <c r="A23" s="16"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="16"/>
+      <c r="E23" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="J23" s="24"/>
-    </row>
-    <row r="24" s="23" customFormat="1" spans="1:10">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="23" t="s">
+      <c r="J23" s="16"/>
+    </row>
+    <row r="24" s="15" customFormat="1" spans="1:10">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="J24" s="24"/>
-    </row>
-    <row r="25" s="23" customFormat="1" spans="1:10">
-      <c r="A25" s="24"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="E25" s="26" t="s">
+      <c r="J24" s="16"/>
+    </row>
+    <row r="25" s="15" customFormat="1" spans="1:10">
+      <c r="A25" s="16"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="E25" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="J25" s="24"/>
-    </row>
-    <row r="26" s="23" customFormat="1" spans="1:10">
-      <c r="A26" s="24"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="23" t="s">
+      <c r="J25" s="16"/>
+    </row>
+    <row r="26" s="15" customFormat="1" spans="1:10">
+      <c r="A26" s="16"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="J26" s="24"/>
-    </row>
-    <row r="27" s="23" customFormat="1" spans="1:10">
-      <c r="A27" s="24"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="E27" s="23" t="s">
+      <c r="J26" s="16"/>
+    </row>
+    <row r="27" s="15" customFormat="1" spans="1:10">
+      <c r="A27" s="16"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="E27" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="J27" s="24"/>
-    </row>
-    <row r="28" s="23" customFormat="1" spans="1:10">
-      <c r="A28" s="24"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="E28" s="23" t="s">
+      <c r="J27" s="16"/>
+    </row>
+    <row r="28" s="15" customFormat="1" spans="1:10">
+      <c r="A28" s="16"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="E28" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="J28" s="24"/>
-    </row>
-    <row r="29" s="23" customFormat="1" spans="1:10">
-      <c r="A29" s="24"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="24" t="s">
+      <c r="J28" s="16"/>
+    </row>
+    <row r="29" s="15" customFormat="1" spans="1:10">
+      <c r="A29" s="16"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="J29" s="24"/>
-    </row>
-    <row r="30" s="23" customFormat="1" spans="3:10">
-      <c r="C30" s="25"/>
-      <c r="D30" s="23" t="s">
+      <c r="J29" s="16"/>
+    </row>
+    <row r="30" s="15" customFormat="1" spans="3:10">
+      <c r="C30" s="17"/>
+      <c r="D30" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="J30" s="24"/>
-    </row>
-    <row r="31" s="23" customFormat="1" spans="1:10">
-      <c r="A31" s="24"/>
-      <c r="B31" s="27"/>
-      <c r="D31" s="23" t="s">
+      <c r="J30" s="16"/>
+    </row>
+    <row r="31" s="15" customFormat="1" spans="1:10">
+      <c r="A31" s="16"/>
+      <c r="B31" s="18"/>
+      <c r="D31" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="J31" s="24"/>
-    </row>
-    <row r="32" s="23" customFormat="1" spans="1:10">
-      <c r="A32" s="24"/>
-      <c r="B32" s="27"/>
-      <c r="D32" s="23" t="s">
+      <c r="J31" s="16"/>
+    </row>
+    <row r="32" s="15" customFormat="1" spans="1:10">
+      <c r="A32" s="16"/>
+      <c r="B32" s="18"/>
+      <c r="D32" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="J32" s="24"/>
-    </row>
-    <row r="33" s="23" customFormat="1" spans="4:10">
-      <c r="D33" s="23" t="s">
+      <c r="J32" s="16"/>
+    </row>
+    <row r="33" s="15" customFormat="1" spans="4:10">
+      <c r="D33" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="J33" s="24"/>
-    </row>
-    <row r="34" s="23" customFormat="1" spans="1:10">
-      <c r="A34" s="24"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="23" t="s">
+      <c r="J33" s="16"/>
+    </row>
+    <row r="34" s="15" customFormat="1" spans="1:10">
+      <c r="A34" s="16"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="J34" s="24"/>
-    </row>
-    <row r="35" s="23" customFormat="1" spans="1:10">
-      <c r="A35" s="24"/>
-      <c r="B35" s="27"/>
-      <c r="J35" s="24"/>
-    </row>
-    <row r="36" s="23" customFormat="1" spans="10:10">
-      <c r="J36" s="24"/>
-    </row>
-    <row r="37" s="23" customFormat="1" spans="10:10">
-      <c r="J37" s="24"/>
-    </row>
-    <row r="38" s="23" customFormat="1" spans="1:10">
-      <c r="A38" s="24"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="25"/>
-      <c r="J38" s="24"/>
-    </row>
-    <row r="39" s="23" customFormat="1" spans="1:10">
-      <c r="A39" s="24"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="25"/>
-      <c r="J39" s="24"/>
-    </row>
-    <row r="40" s="23" customFormat="1" spans="1:10">
-      <c r="A40" s="24"/>
-      <c r="B40" s="27"/>
-      <c r="J40" s="24"/>
-    </row>
-    <row r="41" s="23" customFormat="1" spans="10:10">
-      <c r="J41" s="24"/>
-    </row>
-    <row r="42" s="23" customFormat="1" spans="10:10">
-      <c r="J42" s="24"/>
-    </row>
-    <row r="43" s="23" customFormat="1" spans="3:10">
-      <c r="C43" s="25"/>
-      <c r="J43" s="24"/>
-    </row>
-    <row r="44" s="23" customFormat="1" spans="1:10">
-      <c r="A44" s="24"/>
-      <c r="J44" s="24"/>
-    </row>
-    <row r="45" s="23" customFormat="1" spans="1:10">
-      <c r="A45" s="24"/>
-      <c r="B45" s="27"/>
-      <c r="J45" s="24"/>
-    </row>
-    <row r="46" s="23" customFormat="1" spans="10:10">
-      <c r="J46" s="24"/>
-    </row>
-    <row r="47" s="23" customFormat="1" spans="1:10">
-      <c r="A47" s="24"/>
-      <c r="D47" s="24" t="s">
+      <c r="J34" s="16"/>
+    </row>
+    <row r="35" s="15" customFormat="1" spans="1:10">
+      <c r="A35" s="16"/>
+      <c r="B35" s="18"/>
+      <c r="J35" s="16"/>
+    </row>
+    <row r="36" s="15" customFormat="1" spans="10:10">
+      <c r="J36" s="16"/>
+    </row>
+    <row r="37" s="15" customFormat="1" spans="10:10">
+      <c r="J37" s="16"/>
+    </row>
+    <row r="38" s="15" customFormat="1" spans="1:10">
+      <c r="A38" s="16"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="17"/>
+      <c r="J38" s="16"/>
+    </row>
+    <row r="39" s="15" customFormat="1" spans="1:10">
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="17"/>
+      <c r="J39" s="16"/>
+    </row>
+    <row r="40" s="15" customFormat="1" spans="1:10">
+      <c r="A40" s="16"/>
+      <c r="B40" s="18"/>
+      <c r="J40" s="16"/>
+    </row>
+    <row r="41" s="15" customFormat="1" spans="10:10">
+      <c r="J41" s="16"/>
+    </row>
+    <row r="42" s="15" customFormat="1" spans="10:10">
+      <c r="J42" s="16"/>
+    </row>
+    <row r="43" s="15" customFormat="1" spans="3:10">
+      <c r="C43" s="17"/>
+      <c r="J43" s="16"/>
+    </row>
+    <row r="44" s="15" customFormat="1" spans="1:10">
+      <c r="A44" s="16"/>
+      <c r="J44" s="16"/>
+    </row>
+    <row r="45" s="15" customFormat="1" spans="1:10">
+      <c r="A45" s="16"/>
+      <c r="B45" s="18"/>
+      <c r="J45" s="16"/>
+    </row>
+    <row r="46" s="15" customFormat="1" spans="10:10">
+      <c r="J46" s="16"/>
+    </row>
+    <row r="47" s="15" customFormat="1" spans="1:10">
+      <c r="A47" s="16"/>
+      <c r="D47" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="J47" s="24"/>
-    </row>
-    <row r="48" s="23" customFormat="1" spans="1:10">
-      <c r="A48" s="24"/>
-      <c r="B48" s="24"/>
-      <c r="D48" s="23" t="s">
+      <c r="J47" s="16"/>
+    </row>
+    <row r="48" s="15" customFormat="1" spans="1:10">
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
+      <c r="D48" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="J48" s="24"/>
-    </row>
-    <row r="49" s="23" customFormat="1" spans="1:10">
-      <c r="A49" s="24"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="23" t="s">
+      <c r="J48" s="16"/>
+    </row>
+    <row r="49" s="15" customFormat="1" spans="1:10">
+      <c r="A49" s="16"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="J49" s="24"/>
-    </row>
-    <row r="50" s="23" customFormat="1" spans="1:16">
-      <c r="A50" s="24"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24" t="s">
+      <c r="J49" s="16"/>
+    </row>
+    <row r="50" s="15" customFormat="1" spans="1:16">
+      <c r="A50" s="16"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="24"/>
-      <c r="J50" s="24"/>
-      <c r="K50" s="24"/>
-      <c r="L50" s="24"/>
-      <c r="M50" s="24"/>
-      <c r="N50" s="24"/>
-      <c r="O50" s="24"/>
-      <c r="P50" s="30"/>
-    </row>
-    <row r="51" s="23" customFormat="1" spans="1:10">
-      <c r="A51" s="24"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="24" t="s">
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="16"/>
+      <c r="M50" s="16"/>
+      <c r="N50" s="16"/>
+      <c r="O50" s="16"/>
+      <c r="P50" s="21"/>
+    </row>
+    <row r="51" s="15" customFormat="1" spans="1:10">
+      <c r="A51" s="16"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="J51" s="24"/>
-    </row>
-    <row r="52" s="23" customFormat="1" spans="1:10">
-      <c r="A52" s="24"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24" t="s">
+      <c r="J51" s="16"/>
+    </row>
+    <row r="52" s="15" customFormat="1" spans="1:10">
+      <c r="A52" s="16"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="J52" s="24"/>
-    </row>
-    <row r="53" s="23" customFormat="1" spans="1:10">
-      <c r="A53" s="24"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="23" t="s">
+      <c r="J52" s="16"/>
+    </row>
+    <row r="53" s="15" customFormat="1" spans="1:10">
+      <c r="A53" s="16"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="J53" s="24"/>
-    </row>
-    <row r="54" s="23" customFormat="1" spans="1:16">
-      <c r="A54" s="24"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="24" t="s">
+      <c r="J53" s="16"/>
+    </row>
+    <row r="54" s="15" customFormat="1" spans="1:16">
+      <c r="A54" s="16"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="24"/>
-      <c r="I54" s="24"/>
-      <c r="J54" s="24"/>
-      <c r="K54" s="24"/>
-      <c r="L54" s="24"/>
-      <c r="M54" s="24"/>
-      <c r="N54" s="24"/>
-      <c r="O54" s="24"/>
-      <c r="P54" s="30"/>
-    </row>
-    <row r="55" s="23" customFormat="1" spans="1:10">
-      <c r="A55" s="24"/>
-      <c r="B55" s="24"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="25" t="s">
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="16"/>
+      <c r="M54" s="16"/>
+      <c r="N54" s="16"/>
+      <c r="O54" s="16"/>
+      <c r="P54" s="21"/>
+    </row>
+    <row r="55" s="15" customFormat="1" spans="1:10">
+      <c r="A55" s="16"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="J55" s="24"/>
-    </row>
-    <row r="56" s="23" customFormat="1" spans="1:10">
-      <c r="A56" s="24"/>
-      <c r="B56" s="24"/>
-      <c r="C56" s="24" t="s">
+      <c r="J55" s="16"/>
+    </row>
+    <row r="56" s="15" customFormat="1" spans="1:10">
+      <c r="A56" s="16"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="D56" s="25"/>
-      <c r="J56" s="24"/>
-    </row>
-    <row r="57" s="23" customFormat="1" spans="1:10">
-      <c r="A57" s="24"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="23" t="s">
+      <c r="D56" s="17"/>
+      <c r="J56" s="16"/>
+    </row>
+    <row r="57" s="15" customFormat="1" spans="1:10">
+      <c r="A57" s="16"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="J57" s="24"/>
-    </row>
-    <row r="58" s="23" customFormat="1" spans="1:10">
-      <c r="A58" s="24"/>
-      <c r="B58" s="24"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="23" t="s">
+      <c r="J57" s="16"/>
+    </row>
+    <row r="58" s="15" customFormat="1" spans="1:10">
+      <c r="A58" s="16"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="J58" s="24"/>
-    </row>
-    <row r="59" s="23" customFormat="1" spans="1:10">
-      <c r="A59" s="24"/>
-      <c r="B59" s="24"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="23" t="s">
+      <c r="J58" s="16"/>
+    </row>
+    <row r="59" s="15" customFormat="1" spans="1:10">
+      <c r="A59" s="16"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="J59" s="24"/>
-    </row>
-    <row r="60" s="23" customFormat="1" spans="1:10">
-      <c r="A60" s="24"/>
-      <c r="B60" s="24"/>
-      <c r="C60" s="24"/>
-      <c r="J60" s="24"/>
+      <c r="J59" s="16"/>
+    </row>
+    <row r="60" s="15" customFormat="1" spans="1:10">
+      <c r="A60" s="16"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="J60" s="16"/>
     </row>
     <row r="62" spans="4:4">
-      <c r="D62" s="24" t="s">
+      <c r="D62" s="16" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="63" spans="4:4">
-      <c r="D63" s="24" t="s">
+      <c r="D63" s="16" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="64" spans="4:4">
-      <c r="D64" s="24" t="s">
+      <c r="D64" s="16" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="65" s="24" customFormat="1" spans="2:4">
-      <c r="B65" s="27"/>
-      <c r="D65" s="24" t="s">
+    <row r="65" s="16" customFormat="1" spans="2:4">
+      <c r="B65" s="18"/>
+      <c r="D65" s="16" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="66" spans="3:3">
-      <c r="C66" s="24" t="s">
+      <c r="C66" s="16" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="67" spans="4:4">
-      <c r="D67" s="24" t="s">
+      <c r="D67" s="16" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="68" spans="4:4">
-      <c r="D68" s="24" t="s">
+      <c r="D68" s="16" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="69" s="24" customFormat="1" spans="3:4">
-      <c r="C69" s="27"/>
-      <c r="D69" s="24" t="s">
+    <row r="69" s="16" customFormat="1" spans="3:4">
+      <c r="C69" s="18"/>
+      <c r="D69" s="16" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="70" s="24" customFormat="1" spans="3:4">
-      <c r="C70" s="25"/>
-      <c r="D70" s="24" t="s">
+    <row r="70" s="16" customFormat="1" spans="3:4">
+      <c r="C70" s="17"/>
+      <c r="D70" s="16" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="72" s="24" customFormat="1" spans="3:3">
-      <c r="C72" s="30"/>
-    </row>
-    <row r="73" s="24" customFormat="1" spans="5:5">
-      <c r="E73" s="30"/>
-    </row>
-    <row r="74" s="24" customFormat="1" spans="4:4">
-      <c r="D74" s="30"/>
-    </row>
-    <row r="76" s="24" customFormat="1" spans="4:4">
-      <c r="D76" s="30"/>
-    </row>
-    <row r="77" s="24" customFormat="1" spans="3:3">
-      <c r="C77" s="30"/>
-    </row>
-    <row r="78" s="24" customFormat="1" spans="3:3">
-      <c r="C78" s="30"/>
-    </row>
-    <row r="79" s="24" customFormat="1" spans="3:3">
-      <c r="C79" s="25"/>
-    </row>
-    <row r="80" s="24" customFormat="1" spans="3:3">
-      <c r="C80" s="30"/>
-    </row>
-    <row r="81" s="24" customFormat="1" spans="3:3">
-      <c r="C81" s="30"/>
-    </row>
-    <row r="82" s="24" customFormat="1" spans="3:3">
-      <c r="C82" s="25"/>
+    <row r="72" s="16" customFormat="1" spans="3:3">
+      <c r="C72" s="21"/>
+    </row>
+    <row r="73" s="16" customFormat="1" spans="5:5">
+      <c r="E73" s="21"/>
+    </row>
+    <row r="74" s="16" customFormat="1" spans="4:4">
+      <c r="D74" s="21"/>
+    </row>
+    <row r="76" s="16" customFormat="1" spans="4:4">
+      <c r="D76" s="21"/>
+    </row>
+    <row r="77" s="16" customFormat="1" spans="3:3">
+      <c r="C77" s="21"/>
+    </row>
+    <row r="78" s="16" customFormat="1" spans="3:3">
+      <c r="C78" s="21"/>
+    </row>
+    <row r="79" s="16" customFormat="1" spans="3:3">
+      <c r="C79" s="17"/>
+    </row>
+    <row r="80" s="16" customFormat="1" spans="3:3">
+      <c r="C80" s="21"/>
+    </row>
+    <row r="81" s="16" customFormat="1" spans="3:3">
+      <c r="C81" s="21"/>
+    </row>
+    <row r="82" s="16" customFormat="1" spans="3:3">
+      <c r="C82" s="17"/>
     </row>
     <row r="85" spans="5:5">
-      <c r="E85" s="30" t="s">
+      <c r="E85" s="21" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="86" spans="5:5">
-      <c r="E86" s="24" t="s">
+      <c r="E86" s="16" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="87" spans="5:5">
-      <c r="E87" s="24" t="s">
+      <c r="E87" s="16" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="88" s="24" customFormat="1" spans="3:5">
-      <c r="C88" s="25"/>
-      <c r="E88" s="24" t="s">
+    <row r="88" s="16" customFormat="1" spans="3:5">
+      <c r="C88" s="17"/>
+      <c r="E88" s="16" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="89" s="24" customFormat="1" spans="3:5">
-      <c r="C89" s="27"/>
-      <c r="E89" s="24" t="s">
+    <row r="89" s="16" customFormat="1" spans="3:5">
+      <c r="C89" s="18"/>
+      <c r="E89" s="16" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="90" spans="5:5">
-      <c r="E90" s="24" t="s">
+      <c r="E90" s="16" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="91" spans="5:5">
-      <c r="E91" s="24" t="s">
+      <c r="E91" s="16" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="92" spans="5:5">
-      <c r="E92" s="24" t="s">
+      <c r="E92" s="16" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="93" spans="5:5">
-      <c r="E93" s="24" t="s">
+      <c r="E93" s="16" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="96" spans="5:5">
-      <c r="E96" s="24" t="s">
+      <c r="E96" s="16" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="97" spans="5:5">
-      <c r="E97" s="24" t="s">
+      <c r="E97" s="16" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="98" spans="5:5">
-      <c r="E98" s="24" t="s">
+      <c r="E98" s="16" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="99" spans="2:2">
-      <c r="B99" s="24" t="s">
+      <c r="B99" s="16" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="100" spans="3:3">
-      <c r="C100" s="24" t="s">
+      <c r="C100" s="16" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="101" spans="4:4">
-      <c r="D101" s="24" t="s">
+      <c r="D101" s="16" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="102" spans="4:4">
-      <c r="D102" s="24" t="s">
+      <c r="D102" s="16" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="111" s="24" customFormat="1" spans="2:4">
-      <c r="B111" s="25"/>
-      <c r="D111" s="24" t="s">
+    <row r="111" s="16" customFormat="1" spans="2:4">
+      <c r="B111" s="17"/>
+      <c r="D111" s="16" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="112" s="24" customFormat="1" spans="2:4">
-      <c r="B112" s="25"/>
-      <c r="D112" s="32" t="s">
+    <row r="112" s="16" customFormat="1" spans="2:4">
+      <c r="B112" s="17"/>
+      <c r="D112" s="25" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="113" s="24" customFormat="1" spans="2:3">
-      <c r="B113" s="25"/>
-      <c r="C113" s="24" t="s">
+    <row r="113" s="16" customFormat="1" spans="2:3">
+      <c r="B113" s="17"/>
+      <c r="C113" s="16" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="114" s="24" customFormat="1" spans="2:4">
-      <c r="B114" s="25"/>
-      <c r="D114" s="24" t="s">
+    <row r="114" s="16" customFormat="1" spans="2:4">
+      <c r="B114" s="17"/>
+      <c r="D114" s="16" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="115" s="24" customFormat="1" spans="2:4">
-      <c r="B115" s="25"/>
-      <c r="D115" s="24" t="s">
+    <row r="115" s="16" customFormat="1" spans="2:4">
+      <c r="B115" s="17"/>
+      <c r="D115" s="16" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="116" s="24" customFormat="1" spans="2:4">
-      <c r="B116" s="25"/>
-      <c r="D116" s="32" t="s">
+    <row r="116" s="16" customFormat="1" spans="2:4">
+      <c r="B116" s="17"/>
+      <c r="D116" s="25" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="117" s="24" customFormat="1" spans="2:2">
-      <c r="B117" s="25" t="s">
+    <row r="117" s="16" customFormat="1" spans="2:2">
+      <c r="B117" s="17" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="118" s="24" customFormat="1" spans="2:3">
-      <c r="B118" s="25"/>
-      <c r="C118" s="24" t="s">
+    <row r="118" s="16" customFormat="1" spans="2:3">
+      <c r="B118" s="17"/>
+      <c r="C118" s="16" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="119" s="24" customFormat="1" spans="2:3">
-      <c r="B119" s="25"/>
-      <c r="C119" s="24" t="s">
+    <row r="119" s="16" customFormat="1" spans="2:3">
+      <c r="B119" s="17"/>
+      <c r="C119" s="16" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="120" s="24" customFormat="1" spans="2:3">
-      <c r="B120" s="25"/>
-      <c r="C120" s="24" t="s">
+    <row r="120" s="16" customFormat="1" spans="2:3">
+      <c r="B120" s="17"/>
+      <c r="C120" s="16" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="121" s="24" customFormat="1" spans="2:4">
-      <c r="B121" s="25"/>
-      <c r="D121" s="24" t="s">
+    <row r="121" s="16" customFormat="1" spans="2:4">
+      <c r="B121" s="17"/>
+      <c r="D121" s="16" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="122" spans="4:4">
-      <c r="D122" s="32" t="s">
+      <c r="D122" s="25" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="123" spans="3:3">
-      <c r="C123" s="24" t="s">
+      <c r="C123" s="16" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="124" spans="4:4">
-      <c r="D124" s="24" t="s">
+      <c r="D124" s="16" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="125" spans="4:4">
-      <c r="D125" s="24" t="s">
+      <c r="D125" s="16" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="137" spans="2:2">
-      <c r="B137" s="24" t="s">
+      <c r="B137" s="16" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="138" spans="3:3">
-      <c r="C138" s="24" t="s">
+      <c r="C138" s="16" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="139" spans="3:3">
-      <c r="C139" s="24" t="s">
+      <c r="C139" s="16" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="140" spans="3:3">
-      <c r="C140" s="24" t="s">
+      <c r="C140" s="16" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="141" spans="4:4">
-      <c r="D141" s="27" t="s">
+      <c r="D141" s="18" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="142" spans="4:4">
-      <c r="D142" s="24" t="s">
+      <c r="D142" s="16" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="143" spans="4:4">
-      <c r="D143" s="24" t="s">
+      <c r="D143" s="16" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="163" spans="4:4">
-      <c r="D163" s="24" t="s">
+      <c r="D163" s="16" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="164" spans="4:4">
-      <c r="D164" s="24" t="s">
+      <c r="D164" s="16" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="165" spans="4:4">
-      <c r="D165" s="24" t="s">
+      <c r="D165" s="16" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="166" spans="4:4">
-      <c r="D166" s="24" t="s">
+      <c r="D166" s="16" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="167" spans="4:4">
-      <c r="D167" s="24" t="s">
+      <c r="D167" s="16" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="168" spans="3:3">
-      <c r="C168" s="24" t="s">
+      <c r="C168" s="16" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="169" spans="4:4">
-      <c r="D169" s="24" t="s">
+      <c r="D169" s="16" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="170" spans="4:4">
-      <c r="D170" s="24" t="s">
+      <c r="D170" s="16" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="180" spans="3:3">
-      <c r="C180" s="24" t="s">
+      <c r="C180" s="16" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="181" spans="4:4">
-      <c r="D181" s="24" t="s">
+      <c r="D181" s="16" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="186" spans="2:2">
-      <c r="B186" s="24" t="s">
+      <c r="B186" s="16" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="187" spans="3:3">
-      <c r="C187" s="24" t="s">
+      <c r="C187" s="16" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="188" spans="3:3">
-      <c r="C188" s="24" t="s">
+      <c r="C188" s="16" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="189" spans="3:3">
-      <c r="C189" s="24" t="s">
+      <c r="C189" s="16" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="190" spans="3:3">
-      <c r="C190" s="24" t="s">
+      <c r="C190" s="16" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="191" spans="3:3">
-      <c r="C191" s="24" t="s">
+      <c r="C191" s="16" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="192" spans="4:4">
-      <c r="D192" s="24" t="s">
+      <c r="D192" s="16" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="193" spans="4:4">
-      <c r="D193" s="24" t="s">
+      <c r="D193" s="16" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="194" spans="4:4">
-      <c r="D194" s="24" t="s">
+      <c r="D194" s="16" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="195" spans="5:5">
-      <c r="E195" s="27" t="s">
+      <c r="E195" s="18" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="196" spans="4:4">
-      <c r="D196" s="24" t="s">
+      <c r="D196" s="16" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="197" spans="4:4">
-      <c r="D197" s="24" t="s">
+      <c r="D197" s="16" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="198" spans="4:4">
-      <c r="D198" s="24" t="s">
+      <c r="D198" s="16" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="199" spans="4:4">
-      <c r="D199" s="24" t="s">
+      <c r="D199" s="16" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="200" spans="4:5">
-      <c r="D200" s="24" t="s">
+      <c r="D200" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="E200" s="23"/>
+      <c r="E200" s="15"/>
     </row>
     <row r="201" spans="4:4">
-      <c r="D201" s="23" t="s">
+      <c r="D201" s="15" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="202" spans="3:3">
-      <c r="C202" s="24" t="s">
+      <c r="C202" s="16" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="203" spans="4:4">
-      <c r="D203" s="24" t="s">
+      <c r="D203" s="16" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="204" spans="4:4">
-      <c r="D204" s="24" t="s">
+      <c r="D204" s="16" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="205" spans="4:4">
-      <c r="D205" s="24" t="s">
+      <c r="D205" s="16" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="206" spans="4:4">
-      <c r="D206" s="24" t="s">
+      <c r="D206" s="16" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="207" spans="3:3">
-      <c r="C207" s="24" t="s">
+      <c r="C207" s="16" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="208" spans="4:4">
-      <c r="D208" s="24" t="s">
+      <c r="D208" s="16" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="209" spans="4:4">
-      <c r="D209" s="24" t="s">
+      <c r="D209" s="16" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="210" spans="4:4">
-      <c r="D210" s="24" t="s">
+      <c r="D210" s="16" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="211" spans="4:4">
-      <c r="D211" s="24" t="s">
+      <c r="D211" s="16" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="212" spans="5:5">
-      <c r="E212" s="24" t="s">
+      <c r="E212" s="16" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="213" spans="5:5">
-      <c r="E213" s="24" t="s">
+      <c r="E213" s="16" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="214" spans="5:5">
-      <c r="E214" s="24" t="s">
+      <c r="E214" s="16" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="215" spans="4:4">
-      <c r="D215" s="24" t="s">
+      <c r="D215" s="16" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="216" spans="2:2">
-      <c r="B216" s="24" t="s">
+      <c r="B216" s="16" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="217" spans="3:3">
-      <c r="C217" s="24" t="s">
+      <c r="C217" s="16" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="218" spans="3:3">
-      <c r="C218" s="24" t="s">
+      <c r="C218" s="16" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="219" spans="3:3">
-      <c r="C219" s="24" t="s">
+      <c r="C219" s="16" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="220" spans="3:3">
-      <c r="C220" s="24" t="s">
+      <c r="C220" s="16" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="221" spans="3:3">
-      <c r="C221" s="24" t="s">
+      <c r="C221" s="16" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="222" spans="3:3">
-      <c r="C222" s="24" t="s">
+      <c r="C222" s="16" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="223" spans="3:3">
-      <c r="C223" s="24" t="s">
+      <c r="C223" s="16" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="224" spans="3:3">
-      <c r="C224" s="24" t="s">
+      <c r="C224" s="16" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="225" spans="2:2">
-      <c r="B225" s="24" t="s">
+      <c r="B225" s="16" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="226" spans="3:3">
-      <c r="C226" s="24" t="s">
+      <c r="C226" s="16" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="227" spans="4:4">
-      <c r="D227" s="24" t="s">
+      <c r="D227" s="16" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="228" spans="4:4">
-      <c r="D228" s="24" t="s">
+      <c r="D228" s="16" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="229" spans="4:4">
-      <c r="D229" s="24" t="s">
+      <c r="D229" s="16" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="230" spans="4:4">
-      <c r="D230" s="24" t="s">
+      <c r="D230" s="16" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="231" spans="4:4">
-      <c r="D231" s="24" t="s">
+      <c r="D231" s="16" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="232" spans="4:4">
-      <c r="D232" s="24" t="s">
+      <c r="D232" s="16" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="233" spans="3:3">
-      <c r="C233" s="24" t="s">
+      <c r="C233" s="16" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="234" spans="4:4">
-      <c r="D234" s="24" t="s">
+      <c r="D234" s="16" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="235" spans="4:4">
-      <c r="D235" s="24" t="s">
+      <c r="D235" s="16" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="236" spans="4:4">
-      <c r="D236" s="24" t="s">
+      <c r="D236" s="16" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="237" spans="4:4">
-      <c r="D237" s="24" t="s">
+      <c r="D237" s="16" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="238" spans="4:4">
-      <c r="D238" s="24" t="s">
+      <c r="D238" s="16" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="239" spans="4:4">
-      <c r="D239" s="24" t="s">
+      <c r="D239" s="16" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="240" spans="3:3">
-      <c r="C240" s="24" t="s">
+      <c r="C240" s="16" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="241" spans="4:4">
-      <c r="D241" s="24" t="s">
+      <c r="D241" s="16" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="242" spans="3:3">
-      <c r="C242" s="24" t="s">
+      <c r="C242" s="16" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="243" spans="4:4">
-      <c r="D243" s="24" t="s">
+      <c r="D243" s="16" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="244" spans="4:4">
-      <c r="D244" s="24" t="s">
+      <c r="D244" s="16" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="245" spans="2:2">
-      <c r="B245" s="24" t="s">
+      <c r="B245" s="16" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="246" spans="3:3">
-      <c r="C246" s="24" t="s">
+      <c r="C246" s="16" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="247" spans="3:3">
-      <c r="C247" s="24" t="s">
+      <c r="C247" s="16" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="248" spans="3:3">
-      <c r="C248" s="24" t="s">
+      <c r="C248" s="16" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="249" spans="3:3">
-      <c r="C249" s="24" t="s">
+      <c r="C249" s="16" t="s">
         <v>259</v>
       </c>
     </row>
@@ -7245,18 +7349,1211 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:AE123"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="4.875" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="15" customFormat="1" ht="22.5" spans="1:31">
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="H1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="V1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="W1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="17"/>
+    </row>
+    <row r="2" s="15" customFormat="1" spans="1:27">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="V2" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="W2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="22"/>
+    </row>
+    <row r="3" s="15" customFormat="1" spans="1:10">
+      <c r="A3" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="J3" s="16"/>
+    </row>
+    <row r="4" s="15" customFormat="1" spans="1:10">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="J4" s="16"/>
+    </row>
+    <row r="5" s="15" customFormat="1" spans="1:10">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="J5" s="16"/>
+    </row>
+    <row r="6" s="15" customFormat="1" spans="1:10">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="J6" s="16"/>
+    </row>
+    <row r="7" s="15" customFormat="1" spans="1:10">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" s="15" customFormat="1" spans="1:10">
+      <c r="A8" s="16"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" s="15" customFormat="1" spans="1:10">
+      <c r="A9" s="16"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="J9" s="16"/>
+    </row>
+    <row r="10" s="15" customFormat="1" spans="1:10">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="J10" s="16"/>
+    </row>
+    <row r="11" s="15" customFormat="1" spans="1:10">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="J11" s="16"/>
+    </row>
+    <row r="12" s="15" customFormat="1" spans="1:10">
+      <c r="A12" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="J12" s="16"/>
+    </row>
+    <row r="13" s="15" customFormat="1" spans="1:10">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="J13" s="16"/>
+    </row>
+    <row r="14" s="15" customFormat="1" spans="1:10">
+      <c r="A14" s="16"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="J14" s="16"/>
+    </row>
+    <row r="15" s="15" customFormat="1" spans="1:10">
+      <c r="A15" s="16"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16" s="15" customFormat="1" spans="1:10">
+      <c r="A16" s="16"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="J16" s="16"/>
+    </row>
+    <row r="17" s="15" customFormat="1" spans="1:10">
+      <c r="A17" s="16"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="J17" s="16"/>
+    </row>
+    <row r="18" s="15" customFormat="1" spans="1:10">
+      <c r="A18" s="16"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="J18" s="16"/>
+    </row>
+    <row r="19" s="15" customFormat="1" spans="1:10">
+      <c r="A19" s="16"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="J19" s="16"/>
+    </row>
+    <row r="20" s="15" customFormat="1" spans="1:10">
+      <c r="A20" s="16"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="J20" s="16"/>
+    </row>
+    <row r="21" s="15" customFormat="1" spans="1:10">
+      <c r="A21" s="16"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="J21" s="16"/>
+    </row>
+    <row r="22" s="15" customFormat="1" spans="1:10">
+      <c r="A22" s="16"/>
+      <c r="B22" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="J22" s="16"/>
+    </row>
+    <row r="23" s="15" customFormat="1" spans="1:10">
+      <c r="A23" s="16"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="J23" s="16"/>
+    </row>
+    <row r="24" s="15" customFormat="1" spans="1:10">
+      <c r="A24" s="16"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="J24" s="16"/>
+    </row>
+    <row r="25" s="15" customFormat="1" spans="1:10">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="J25" s="16"/>
+    </row>
+    <row r="26" s="15" customFormat="1" spans="1:10">
+      <c r="A26" s="16"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="J26" s="16"/>
+    </row>
+    <row r="27" s="15" customFormat="1" spans="1:10">
+      <c r="A27" s="16"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="J27" s="16"/>
+    </row>
+    <row r="28" s="15" customFormat="1" spans="1:10">
+      <c r="A28" s="16"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="J28" s="16"/>
+    </row>
+    <row r="29" s="15" customFormat="1" spans="1:10">
+      <c r="A29" s="16"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="J29" s="16"/>
+    </row>
+    <row r="30" s="15" customFormat="1" spans="1:10">
+      <c r="A30" s="16"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="D30" s="15"/>
+      <c r="J30" s="16"/>
+    </row>
+    <row r="31" s="15" customFormat="1" spans="3:10">
+      <c r="C31" s="17"/>
+      <c r="D31" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="J31" s="16"/>
+    </row>
+    <row r="32" s="15" customFormat="1" spans="1:10">
+      <c r="A32" s="16"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="D32" s="15"/>
+      <c r="J32" s="16"/>
+    </row>
+    <row r="33" s="15" customFormat="1" spans="1:10">
+      <c r="A33" s="16"/>
+      <c r="B33" s="18"/>
+      <c r="D33" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="J33" s="16"/>
+    </row>
+    <row r="34" s="15" customFormat="1" spans="4:10">
+      <c r="D34" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="J34" s="16"/>
+    </row>
+    <row r="35" s="15" customFormat="1" spans="1:10">
+      <c r="A35" s="16"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="J35" s="16"/>
+    </row>
+    <row r="36" s="15" customFormat="1" spans="1:10">
+      <c r="A36" s="16"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="D36" s="15"/>
+      <c r="J36" s="16"/>
+    </row>
+    <row r="37" s="15" customFormat="1" spans="4:10">
+      <c r="D37" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="J37" s="16"/>
+    </row>
+    <row r="38" s="15" customFormat="1" spans="3:10">
+      <c r="C38" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="D38" s="15"/>
+      <c r="J38" s="16"/>
+    </row>
+    <row r="39" s="15" customFormat="1" spans="1:10">
+      <c r="A39" s="16"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="J39" s="16"/>
+    </row>
+    <row r="40" s="15" customFormat="1" spans="1:10">
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="J40" s="16"/>
+    </row>
+    <row r="41" s="15" customFormat="1" spans="1:10">
+      <c r="A41" s="16"/>
+      <c r="B41" s="18"/>
+      <c r="D41" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="J41" s="16"/>
+    </row>
+    <row r="42" s="15" customFormat="1" spans="4:10">
+      <c r="D42" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="J42" s="16"/>
+    </row>
+    <row r="43" s="15" customFormat="1" spans="10:10">
+      <c r="J43" s="16"/>
+    </row>
+    <row r="44" s="15" customFormat="1" spans="3:10">
+      <c r="C44" s="17"/>
+      <c r="J44" s="16"/>
+    </row>
+    <row r="45" s="15" customFormat="1" spans="1:10">
+      <c r="A45" s="16"/>
+      <c r="J45" s="16"/>
+    </row>
+    <row r="46" s="15" customFormat="1" spans="1:10">
+      <c r="A46" s="16"/>
+      <c r="B46" s="18"/>
+      <c r="J46" s="16"/>
+    </row>
+    <row r="47" s="15" customFormat="1" spans="10:10">
+      <c r="J47" s="16"/>
+    </row>
+    <row r="48" s="15" customFormat="1" spans="1:10">
+      <c r="A48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="J48" s="16"/>
+    </row>
+    <row r="49" s="15" customFormat="1" spans="1:10">
+      <c r="A49" s="16"/>
+      <c r="B49" s="16"/>
+      <c r="J49" s="16"/>
+    </row>
+    <row r="50" s="15" customFormat="1" spans="1:10">
+      <c r="A50" s="16"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="J50" s="16"/>
+    </row>
+    <row r="51" s="15" customFormat="1" spans="1:16">
+      <c r="A51" s="16"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="16"/>
+      <c r="N51" s="16"/>
+      <c r="O51" s="16"/>
+      <c r="P51" s="21"/>
+    </row>
+    <row r="52" s="15" customFormat="1" spans="1:10">
+      <c r="A52" s="16"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="J52" s="16"/>
+    </row>
+    <row r="53" s="15" customFormat="1" spans="1:10">
+      <c r="A53" s="16"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="J53" s="16"/>
+    </row>
+    <row r="54" s="15" customFormat="1" spans="1:10">
+      <c r="A54" s="16"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="J54" s="16"/>
+    </row>
+    <row r="55" s="15" customFormat="1" spans="1:16">
+      <c r="A55" s="16"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="16"/>
+      <c r="N55" s="16"/>
+      <c r="O55" s="16"/>
+      <c r="P55" s="21"/>
+    </row>
+    <row r="56" s="15" customFormat="1" spans="1:10">
+      <c r="A56" s="16"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="17"/>
+      <c r="J56" s="16"/>
+    </row>
+    <row r="57" s="15" customFormat="1" spans="1:10">
+      <c r="A57" s="16"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="17"/>
+      <c r="J57" s="16"/>
+    </row>
+    <row r="58" s="15" customFormat="1" spans="1:10">
+      <c r="A58" s="16"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="J58" s="16"/>
+    </row>
+    <row r="59" s="15" customFormat="1" spans="1:10">
+      <c r="A59" s="16"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="J59" s="16"/>
+    </row>
+    <row r="60" s="15" customFormat="1" spans="1:10">
+      <c r="A60" s="16"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="J60" s="16"/>
+    </row>
+    <row r="61" s="15" customFormat="1" spans="1:10">
+      <c r="A61" s="16"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="J61" s="16"/>
+    </row>
+    <row r="66" s="16" customFormat="1" spans="2:2">
+      <c r="B66" s="18"/>
+    </row>
+    <row r="72" s="16" customFormat="1" spans="3:3">
+      <c r="C72" s="18"/>
+    </row>
+    <row r="73" s="16" customFormat="1" spans="3:3">
+      <c r="C73" s="17"/>
+    </row>
+    <row r="75" s="16" customFormat="1" spans="3:3">
+      <c r="C75" s="21"/>
+    </row>
+    <row r="76" s="16" customFormat="1" spans="5:5">
+      <c r="E76" s="21"/>
+    </row>
+    <row r="77" s="16" customFormat="1" spans="4:4">
+      <c r="D77" s="21"/>
+    </row>
+    <row r="78" s="16" customFormat="1" spans="5:5">
+      <c r="E78" s="21"/>
+    </row>
+    <row r="79" s="16" customFormat="1" spans="4:4">
+      <c r="D79" s="21"/>
+    </row>
+    <row r="80" s="16" customFormat="1" spans="3:3">
+      <c r="C80" s="21"/>
+    </row>
+    <row r="81" s="16" customFormat="1" spans="3:3">
+      <c r="C81" s="21"/>
+    </row>
+    <row r="82" s="16" customFormat="1" spans="3:3">
+      <c r="C82" s="17"/>
+    </row>
+    <row r="83" s="16" customFormat="1" spans="3:3">
+      <c r="C83" s="21"/>
+    </row>
+    <row r="84" s="16" customFormat="1" spans="3:3">
+      <c r="C84" s="21"/>
+    </row>
+    <row r="85" s="16" customFormat="1" spans="3:3">
+      <c r="C85" s="17"/>
+    </row>
+    <row r="91" s="16" customFormat="1" spans="3:5">
+      <c r="C91" s="17"/>
+      <c r="E91" s="17"/>
+    </row>
+    <row r="92" s="16" customFormat="1" spans="3:3">
+      <c r="C92" s="18"/>
+    </row>
+    <row r="114" s="16" customFormat="1" spans="2:2">
+      <c r="B114" s="17"/>
+    </row>
+    <row r="115" s="16" customFormat="1" spans="2:2">
+      <c r="B115" s="17"/>
+    </row>
+    <row r="116" s="16" customFormat="1" spans="2:2">
+      <c r="B116" s="17"/>
+    </row>
+    <row r="117" s="16" customFormat="1" spans="2:2">
+      <c r="B117" s="17"/>
+    </row>
+    <row r="118" s="16" customFormat="1" spans="2:2">
+      <c r="B118" s="17"/>
+    </row>
+    <row r="119" s="16" customFormat="1" spans="2:2">
+      <c r="B119" s="17"/>
+    </row>
+    <row r="120" s="16" customFormat="1" spans="2:2">
+      <c r="B120" s="17"/>
+    </row>
+    <row r="121" s="16" customFormat="1" spans="2:2">
+      <c r="B121" s="17"/>
+    </row>
+    <row r="122" s="16" customFormat="1" spans="2:2">
+      <c r="B122" s="17"/>
+    </row>
+    <row r="123" s="16" customFormat="1" spans="2:2">
+      <c r="B123" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AE123"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="4.875" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="15" customFormat="1" ht="22.5" spans="1:31">
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="H1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="V1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="W1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="17"/>
+    </row>
+    <row r="2" s="15" customFormat="1" spans="1:27">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="V2" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="W2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="22"/>
+    </row>
+    <row r="3" s="15" customFormat="1" spans="1:10">
+      <c r="A3" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="J3" s="16"/>
+    </row>
+    <row r="4" s="15" customFormat="1" spans="1:10">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="J4" s="16"/>
+    </row>
+    <row r="5" s="15" customFormat="1" spans="1:10">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="16"/>
+      <c r="J5" s="16"/>
+    </row>
+    <row r="6" s="15" customFormat="1" spans="1:10">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="16"/>
+      <c r="J6" s="16"/>
+    </row>
+    <row r="7" s="15" customFormat="1" spans="1:10">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="16"/>
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" s="15" customFormat="1" spans="1:10">
+      <c r="A8" s="16"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="16"/>
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" s="15" customFormat="1" spans="1:10">
+      <c r="A9" s="16"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="16"/>
+      <c r="J9" s="16"/>
+    </row>
+    <row r="10" s="15" customFormat="1" spans="1:10">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="16"/>
+      <c r="J10" s="16"/>
+    </row>
+    <row r="11" s="15" customFormat="1" spans="1:10">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="15"/>
+      <c r="J11" s="16"/>
+    </row>
+    <row r="12" s="15" customFormat="1" spans="1:10">
+      <c r="A12" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="15"/>
+      <c r="J12" s="16"/>
+    </row>
+    <row r="13" s="15" customFormat="1" spans="1:10">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="15"/>
+      <c r="J13" s="16"/>
+    </row>
+    <row r="14" s="15" customFormat="1" spans="1:10">
+      <c r="A14" s="16"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="15"/>
+      <c r="J14" s="16"/>
+    </row>
+    <row r="15" s="15" customFormat="1" spans="1:10">
+      <c r="A15" s="16"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="16"/>
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16" s="15" customFormat="1" spans="1:10">
+      <c r="A16" s="16"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="15"/>
+      <c r="J16" s="16"/>
+    </row>
+    <row r="17" s="15" customFormat="1" spans="1:10">
+      <c r="A17" s="16"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="16"/>
+      <c r="J17" s="16"/>
+    </row>
+    <row r="18" s="15" customFormat="1" spans="1:10">
+      <c r="A18" s="16"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="15"/>
+      <c r="J18" s="16"/>
+    </row>
+    <row r="19" s="15" customFormat="1" spans="1:10">
+      <c r="A19" s="16"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="15"/>
+      <c r="J19" s="16"/>
+    </row>
+    <row r="20" s="15" customFormat="1" spans="1:10">
+      <c r="A20" s="16"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="15"/>
+      <c r="J20" s="16"/>
+    </row>
+    <row r="21" s="15" customFormat="1" spans="1:10">
+      <c r="A21" s="16"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="15"/>
+      <c r="J21" s="16"/>
+    </row>
+    <row r="22" s="15" customFormat="1" spans="1:10">
+      <c r="A22" s="16"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="16"/>
+      <c r="J22" s="16"/>
+    </row>
+    <row r="23" s="15" customFormat="1" spans="1:10">
+      <c r="A23" s="16"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="16"/>
+      <c r="J23" s="16"/>
+    </row>
+    <row r="24" s="15" customFormat="1" spans="1:10">
+      <c r="A24" s="16"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="16"/>
+      <c r="J24" s="16"/>
+    </row>
+    <row r="25" s="15" customFormat="1" spans="1:10">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="15"/>
+      <c r="J25" s="16"/>
+    </row>
+    <row r="26" s="15" customFormat="1" spans="1:10">
+      <c r="A26" s="16"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="15"/>
+      <c r="J26" s="16"/>
+    </row>
+    <row r="27" s="15" customFormat="1" spans="1:10">
+      <c r="A27" s="16"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="15"/>
+      <c r="J27" s="16"/>
+    </row>
+    <row r="28" s="15" customFormat="1" spans="1:10">
+      <c r="A28" s="16"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="15"/>
+      <c r="J28" s="16"/>
+    </row>
+    <row r="29" s="15" customFormat="1" spans="1:10">
+      <c r="A29" s="16"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="15"/>
+      <c r="J29" s="16"/>
+    </row>
+    <row r="30" s="15" customFormat="1" spans="1:10">
+      <c r="A30" s="16"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="15"/>
+      <c r="J30" s="16"/>
+    </row>
+    <row r="31" s="15" customFormat="1" spans="3:10">
+      <c r="C31" s="17"/>
+      <c r="D31" s="15"/>
+      <c r="J31" s="16"/>
+    </row>
+    <row r="32" s="15" customFormat="1" spans="1:10">
+      <c r="A32" s="16"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="15"/>
+      <c r="J32" s="16"/>
+    </row>
+    <row r="33" s="15" customFormat="1" spans="1:10">
+      <c r="A33" s="16"/>
+      <c r="B33" s="18"/>
+      <c r="J33" s="16"/>
+    </row>
+    <row r="34" s="15" customFormat="1" spans="10:10">
+      <c r="J34" s="16"/>
+    </row>
+    <row r="35" s="15" customFormat="1" spans="1:10">
+      <c r="A35" s="16"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="15"/>
+      <c r="J35" s="16"/>
+    </row>
+    <row r="36" s="15" customFormat="1" spans="1:10">
+      <c r="A36" s="16"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="15"/>
+      <c r="J36" s="16"/>
+    </row>
+    <row r="37" s="15" customFormat="1" spans="10:10">
+      <c r="J37" s="16"/>
+    </row>
+    <row r="38" s="15" customFormat="1" spans="10:10">
+      <c r="J38" s="16"/>
+    </row>
+    <row r="39" s="15" customFormat="1" spans="1:10">
+      <c r="A39" s="16"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="15"/>
+      <c r="J39" s="16"/>
+    </row>
+    <row r="40" s="15" customFormat="1" spans="1:10">
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="23"/>
+      <c r="J40" s="16"/>
+    </row>
+    <row r="41" s="15" customFormat="1" spans="1:10">
+      <c r="A41" s="16"/>
+      <c r="B41" s="18"/>
+      <c r="J41" s="16"/>
+    </row>
+    <row r="42" s="15" customFormat="1" spans="10:10">
+      <c r="J42" s="16"/>
+    </row>
+    <row r="43" s="15" customFormat="1" spans="10:10">
+      <c r="J43" s="16"/>
+    </row>
+    <row r="44" s="15" customFormat="1" spans="3:10">
+      <c r="C44" s="17"/>
+      <c r="J44" s="16"/>
+    </row>
+    <row r="45" s="15" customFormat="1" spans="1:10">
+      <c r="A45" s="16"/>
+      <c r="J45" s="16"/>
+    </row>
+    <row r="46" s="15" customFormat="1" spans="1:10">
+      <c r="A46" s="16"/>
+      <c r="B46" s="18"/>
+      <c r="J46" s="16"/>
+    </row>
+    <row r="47" s="15" customFormat="1" spans="10:10">
+      <c r="J47" s="16"/>
+    </row>
+    <row r="48" s="15" customFormat="1" spans="1:10">
+      <c r="A48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="J48" s="16"/>
+    </row>
+    <row r="49" s="15" customFormat="1" spans="1:10">
+      <c r="A49" s="16"/>
+      <c r="B49" s="16"/>
+      <c r="J49" s="16"/>
+    </row>
+    <row r="50" s="15" customFormat="1" spans="1:10">
+      <c r="A50" s="16"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="J50" s="16"/>
+    </row>
+    <row r="51" s="15" customFormat="1" spans="1:16">
+      <c r="A51" s="16"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="16"/>
+      <c r="N51" s="16"/>
+      <c r="O51" s="16"/>
+      <c r="P51" s="21"/>
+    </row>
+    <row r="52" s="15" customFormat="1" spans="1:10">
+      <c r="A52" s="16"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="J52" s="16"/>
+    </row>
+    <row r="53" s="15" customFormat="1" spans="1:10">
+      <c r="A53" s="16"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="J53" s="16"/>
+    </row>
+    <row r="54" s="15" customFormat="1" spans="1:10">
+      <c r="A54" s="16"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="J54" s="16"/>
+    </row>
+    <row r="55" s="15" customFormat="1" spans="1:16">
+      <c r="A55" s="16"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="16"/>
+      <c r="N55" s="16"/>
+      <c r="O55" s="16"/>
+      <c r="P55" s="21"/>
+    </row>
+    <row r="56" s="15" customFormat="1" spans="1:10">
+      <c r="A56" s="16"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="17"/>
+      <c r="J56" s="16"/>
+    </row>
+    <row r="57" s="15" customFormat="1" spans="1:10">
+      <c r="A57" s="16"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="17"/>
+      <c r="J57" s="16"/>
+    </row>
+    <row r="58" s="15" customFormat="1" spans="1:10">
+      <c r="A58" s="16"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="J58" s="16"/>
+    </row>
+    <row r="59" s="15" customFormat="1" spans="1:10">
+      <c r="A59" s="16"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="J59" s="16"/>
+    </row>
+    <row r="60" s="15" customFormat="1" spans="1:10">
+      <c r="A60" s="16"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="J60" s="16"/>
+    </row>
+    <row r="61" s="15" customFormat="1" spans="1:10">
+      <c r="A61" s="16"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="J61" s="16"/>
+    </row>
+    <row r="66" s="16" customFormat="1" spans="2:2">
+      <c r="B66" s="18"/>
+    </row>
+    <row r="72" s="16" customFormat="1" spans="3:3">
+      <c r="C72" s="18"/>
+    </row>
+    <row r="73" s="16" customFormat="1" spans="3:3">
+      <c r="C73" s="17"/>
+    </row>
+    <row r="75" s="16" customFormat="1" spans="3:3">
+      <c r="C75" s="21"/>
+    </row>
+    <row r="76" s="16" customFormat="1" spans="5:5">
+      <c r="E76" s="21"/>
+    </row>
+    <row r="77" s="16" customFormat="1" spans="4:4">
+      <c r="D77" s="21"/>
+    </row>
+    <row r="78" s="16" customFormat="1" spans="5:5">
+      <c r="E78" s="21"/>
+    </row>
+    <row r="79" s="16" customFormat="1" spans="4:4">
+      <c r="D79" s="21"/>
+    </row>
+    <row r="80" s="16" customFormat="1" spans="3:3">
+      <c r="C80" s="21"/>
+    </row>
+    <row r="81" s="16" customFormat="1" spans="3:3">
+      <c r="C81" s="21"/>
+    </row>
+    <row r="82" s="16" customFormat="1" spans="3:3">
+      <c r="C82" s="17"/>
+    </row>
+    <row r="83" s="16" customFormat="1" spans="3:3">
+      <c r="C83" s="21"/>
+    </row>
+    <row r="84" s="16" customFormat="1" spans="3:3">
+      <c r="C84" s="21"/>
+    </row>
+    <row r="85" s="16" customFormat="1" spans="3:3">
+      <c r="C85" s="17"/>
+    </row>
+    <row r="91" s="16" customFormat="1" spans="3:5">
+      <c r="C91" s="17"/>
+      <c r="E91" s="17"/>
+    </row>
+    <row r="92" s="16" customFormat="1" spans="3:3">
+      <c r="C92" s="18"/>
+    </row>
+    <row r="114" s="16" customFormat="1" spans="2:2">
+      <c r="B114" s="17"/>
+    </row>
+    <row r="115" s="16" customFormat="1" spans="2:2">
+      <c r="B115" s="17"/>
+    </row>
+    <row r="116" s="16" customFormat="1" spans="2:2">
+      <c r="B116" s="17"/>
+    </row>
+    <row r="117" s="16" customFormat="1" spans="2:2">
+      <c r="B117" s="17"/>
+    </row>
+    <row r="118" s="16" customFormat="1" spans="2:2">
+      <c r="B118" s="17"/>
+    </row>
+    <row r="119" s="16" customFormat="1" spans="2:2">
+      <c r="B119" s="17"/>
+    </row>
+    <row r="120" s="16" customFormat="1" spans="2:2">
+      <c r="B120" s="17"/>
+    </row>
+    <row r="121" s="16" customFormat="1" spans="2:2">
+      <c r="B121" s="17"/>
+    </row>
+    <row r="122" s="16" customFormat="1" spans="2:2">
+      <c r="B122" s="17"/>
+    </row>
+    <row r="123" s="16" customFormat="1" spans="2:2">
+      <c r="B123" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AE122"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.87272727272727" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="4.87272727272727" style="16"/>
+    <col min="1" max="16384" width="4.875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" s="15" customFormat="1" ht="23" spans="1:31">
+    <row r="1" s="15" customFormat="1" ht="22.5" spans="1:31">
       <c r="A1" s="16"/>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -7747,7 +9044,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:A80"/>
@@ -7756,19 +9053,19 @@
       <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.62727272727273" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="4.62727272727273" customWidth="1"/>
+    <col min="1" max="16384" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>260</v>
+        <v>301</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>261</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -7778,7 +9075,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A35:A136"/>
@@ -7787,14 +9084,14 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.62727272727273" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="4.62727272727273" customWidth="1"/>
+    <col min="1" max="16384" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="35" customFormat="1" spans="1:1">
       <c r="A35" t="s">
-        <v>262</v>
+        <v>303</v>
       </c>
     </row>
     <row r="36" customFormat="1"/>
@@ -7819,7 +9116,7 @@
     <row r="55" customFormat="1"/>
     <row r="56" customFormat="1" spans="1:1">
       <c r="A56" t="s">
-        <v>263</v>
+        <v>304</v>
       </c>
     </row>
     <row r="57" customFormat="1"/>
@@ -7836,12 +9133,12 @@
     <row r="68" customFormat="1"/>
     <row r="69" customFormat="1" spans="1:1">
       <c r="A69" s="14" t="s">
-        <v>264</v>
+        <v>305</v>
       </c>
     </row>
     <row r="70" customFormat="1" spans="1:1">
       <c r="A70" t="s">
-        <v>265</v>
+        <v>306</v>
       </c>
     </row>
     <row r="71" customFormat="1"/>
@@ -7856,12 +9153,12 @@
     <row r="80" customFormat="1"/>
     <row r="134" spans="1:1">
       <c r="A134" s="14" t="s">
-        <v>266</v>
+        <v>307</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="14" t="s">
-        <v>267</v>
+        <v>308</v>
       </c>
     </row>
     <row r="136" spans="1:1">
@@ -7874,7 +9171,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A3:M53"/>
@@ -7883,24 +9180,24 @@
       <selection activeCell="S48" sqref="S48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>268</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" t="s">
-        <v>269</v>
+        <v>310</v>
       </c>
       <c r="H4" t="s">
-        <v>270</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" t="s">
-        <v>271</v>
+        <v>312</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -7911,7 +9208,7 @@
       <c r="C6" s="4"/>
       <c r="H6" s="5"/>
       <c r="J6" t="s">
-        <v>272</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -7920,10 +9217,10 @@
       </c>
       <c r="C7" s="4"/>
       <c r="H7" s="5" t="s">
-        <v>273</v>
+        <v>314</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>274</v>
+        <v>315</v>
       </c>
       <c r="K7" s="8"/>
     </row>
@@ -7951,7 +9248,7 @@
       </c>
       <c r="C10" s="4"/>
       <c r="H10" s="6" t="s">
-        <v>275</v>
+        <v>316</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="10"/>
@@ -7962,11 +9259,11 @@
       </c>
       <c r="C11" s="4"/>
       <c r="J11" s="11" t="s">
-        <v>276</v>
+        <v>317</v>
       </c>
       <c r="K11" s="4"/>
       <c r="M11" t="s">
-        <v>277</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="2:13">
@@ -7975,16 +9272,16 @@
       </c>
       <c r="C12" s="4"/>
       <c r="J12" s="11" t="s">
-        <v>278</v>
+        <v>319</v>
       </c>
       <c r="K12" s="4"/>
       <c r="M12" t="s">
-        <v>279</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="3" t="s">
-        <v>280</v>
+        <v>321</v>
       </c>
       <c r="C13" s="4"/>
       <c r="J13" s="9"/>
@@ -7992,7 +9289,7 @@
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="3" t="s">
-        <v>281</v>
+        <v>322</v>
       </c>
       <c r="C14" s="4"/>
       <c r="J14" s="9"/>
@@ -8000,7 +9297,7 @@
     </row>
     <row r="15" spans="8:11">
       <c r="H15" t="s">
-        <v>270</v>
+        <v>311</v>
       </c>
       <c r="J15" s="9"/>
       <c r="K15" s="10"/>
@@ -8012,22 +9309,22 @@
     </row>
     <row r="17" spans="2:10">
       <c r="B17" t="s">
-        <v>282</v>
+        <v>323</v>
       </c>
       <c r="H17" s="5"/>
       <c r="J17" t="s">
-        <v>283</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" t="s">
-        <v>284</v>
+        <v>325</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>273</v>
+        <v>314</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>274</v>
+        <v>315</v>
       </c>
       <c r="K18" s="8"/>
     </row>
@@ -8043,20 +9340,20 @@
     </row>
     <row r="21" spans="8:11">
       <c r="H21" s="6" t="s">
-        <v>275</v>
+        <v>316</v>
       </c>
       <c r="J21" s="9"/>
       <c r="K21" s="10"/>
     </row>
     <row r="22" spans="10:11">
       <c r="J22" s="11" t="s">
-        <v>276</v>
+        <v>317</v>
       </c>
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="10:11">
       <c r="J23" s="11" t="s">
-        <v>278</v>
+        <v>319</v>
       </c>
       <c r="K23" s="4"/>
     </row>
@@ -8070,7 +9367,7 @@
     </row>
     <row r="26" spans="8:11">
       <c r="H26" t="s">
-        <v>270</v>
+        <v>311</v>
       </c>
       <c r="J26" s="9"/>
       <c r="K26" s="10"/>
@@ -8083,15 +9380,15 @@
     <row r="28" spans="8:10">
       <c r="H28" s="5"/>
       <c r="J28" t="s">
-        <v>285</v>
+        <v>326</v>
       </c>
     </row>
     <row r="29" spans="8:11">
       <c r="H29" s="5" t="s">
-        <v>273</v>
+        <v>314</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>274</v>
+        <v>315</v>
       </c>
       <c r="K29" s="8"/>
     </row>
@@ -8107,20 +9404,20 @@
     </row>
     <row r="32" spans="8:11">
       <c r="H32" s="6" t="s">
-        <v>275</v>
+        <v>316</v>
       </c>
       <c r="J32" s="9"/>
       <c r="K32" s="10"/>
     </row>
     <row r="33" spans="10:11">
       <c r="J33" s="11" t="s">
-        <v>276</v>
+        <v>317</v>
       </c>
       <c r="K33" s="4"/>
     </row>
     <row r="34" spans="10:11">
       <c r="J34" s="11" t="s">
-        <v>278</v>
+        <v>319</v>
       </c>
       <c r="K34" s="4"/>
     </row>
@@ -8134,7 +9431,7 @@
     </row>
     <row r="37" spans="8:11">
       <c r="H37" t="s">
-        <v>270</v>
+        <v>311</v>
       </c>
       <c r="J37" s="9"/>
       <c r="K37" s="10"/>
@@ -8147,15 +9444,15 @@
     <row r="39" spans="8:10">
       <c r="H39" s="5"/>
       <c r="J39" t="s">
-        <v>286</v>
+        <v>327</v>
       </c>
     </row>
     <row r="40" spans="8:11">
       <c r="H40" s="5" t="s">
-        <v>273</v>
+        <v>314</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>274</v>
+        <v>315</v>
       </c>
       <c r="K40" s="8"/>
     </row>
@@ -8171,20 +9468,20 @@
     </row>
     <row r="43" spans="8:11">
       <c r="H43" s="6" t="s">
-        <v>275</v>
+        <v>316</v>
       </c>
       <c r="J43" s="9"/>
       <c r="K43" s="10"/>
     </row>
     <row r="44" spans="10:11">
       <c r="J44" s="11" t="s">
-        <v>276</v>
+        <v>317</v>
       </c>
       <c r="K44" s="4"/>
     </row>
     <row r="45" spans="10:11">
       <c r="J45" s="11" t="s">
-        <v>278</v>
+        <v>319</v>
       </c>
       <c r="K45" s="4"/>
     </row>
@@ -8206,7 +9503,7 @@
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>287</v>
+        <v>328</v>
       </c>
     </row>
     <row r="53" s="1" customFormat="1"/>

--- a/操作系统笔记.xlsx
+++ b/操作系统笔记.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="360">
   <si>
     <t>操作系统</t>
   </si>
@@ -924,6 +924,99 @@
   </si>
   <si>
     <t>第四章：事件管理</t>
+  </si>
+  <si>
+    <t>ucos作为实时多任务的操作系统，是事件驱动的，支持信号量，消息机制等。事件主要包括信号量和互斥信号量，而事件的组合可以用事件标志管理组来管理。</t>
+  </si>
+  <si>
+    <t>本章内容包括时间管理的数据结构，事件管理程序，信号量管理，互斥型信号量管理，事件标志组管理。虽然消息也离不开事件管理，但将消息的内容单独放在下一章。</t>
+  </si>
+  <si>
+    <t>事件管理的基础和操作对象是各种事件管理的数据结构，首先分析时间管理的数据结构。</t>
+  </si>
+  <si>
+    <t>4.1事件管理的数据结构</t>
+  </si>
+  <si>
+    <t>4.1.1事件管理控制块（ECB）</t>
+  </si>
+  <si>
+    <t>事件控制块的地位相当于任务控制块。事件控制块ECB内容虽然没有任务控制块内容丰富，但是在事件处理中仍然是核心的数据结构，被频繁的访问，ECB的定义出现在操作系统的.h文件里。</t>
+  </si>
+  <si>
+    <t>4.1.2事件等待组和事件等待表</t>
+  </si>
+  <si>
+    <t>一个事件块标志着一个事件，等待这个事件的任务在事件块的事件等待组和事件等代表中标记自己的存在，然后被阻塞。当事件发生时，</t>
+  </si>
+  <si>
+    <t>操作系统会找到优先级最高的等待事件发生的任务，并将任务就绪，然后在事件等待组和事件等待表中取消该任务的标记。</t>
+  </si>
+  <si>
+    <t>时间等待组和事件等代表的关系和任务就绪组表是完全一样的。</t>
+  </si>
+  <si>
+    <t>假设优先级为20和32的任务再等待时间</t>
+  </si>
+  <si>
+    <t>可见事件等待组和事件等待表的关系结构跟任务的完全一样</t>
+  </si>
+  <si>
+    <t>4.1.3事件控制块空闲链表</t>
+  </si>
+  <si>
+    <t>在事件管理中，将空闲的事件控制块连接到一个单向链表上，称为事件控制块空闲链表。这个链表的形式和TCB的空闲链表形式完全相同。</t>
+  </si>
+  <si>
+    <t>当创建一个事件的时候，要在事件控制块ECB的空闲链表中找到空闲的ECB，然后从链表中取下，分配事件。首先得找到链表的表头，那就需要一个指向指针指向表头，OSEventFreeList</t>
+  </si>
+  <si>
+    <t>链表的数据结构是这样：</t>
+  </si>
+  <si>
+    <t>4.2事件管理程序</t>
+  </si>
+  <si>
+    <t>4.2.1事件控制块ECB初始化</t>
+  </si>
+  <si>
+    <t>事件控制块初始化的代码在OS_Init中被调用。</t>
+  </si>
+  <si>
+    <t>4.2.2事件等待表初始化</t>
+  </si>
+  <si>
+    <t>当建立一个事件或消息（如信号量，邮箱，消息队列），如信号量的简历函数等，需要对事件等待表进行初始化，因为虽然事件等待表在操作系统init的时候已经初始化了，</t>
+  </si>
+  <si>
+    <t>但是有可能在操作系统的运行过程中被使用过。不能保证时间等代表已经是0.事件等待表初始化函数实现对特定任务块中事件等待表和事件等待组清0，可被操作系统的其他函数调用。</t>
+  </si>
+  <si>
+    <t>事件等待表初始化函数为OS_EventWaitListInit，代码在内核里，参数是ECB的地址</t>
+  </si>
+  <si>
+    <t>4.2.3设置事件等待</t>
+  </si>
+  <si>
+    <t>当任务等待事件发生，获取ECB后，需要在ECB中标记任务在等待事件的发生，这样才可以在事件发生时取消任务的阻塞。将任务在ECB中进行登记的函数是OS_EventTaskWait，</t>
+  </si>
+  <si>
+    <t>参数是ECB的指针。与OS_EventWaitListInit类似，OS_EventTaskWait在任务调用信号量，邮箱等事件等待函数时被对应的函数调用。因为任务的优先级可以通过TCB指针得到，因此没传参数。</t>
+  </si>
+  <si>
+    <t>设置事件等待的函数OS_EventTaskWait代码解析在源码。</t>
+  </si>
+  <si>
+    <t>4.2.4取消事件等待</t>
+  </si>
+  <si>
+    <t>OS_EventTaskRemove和OS_EventTaskWait是相反的操作，当一个事件不再需要等待事件时，就需要在该事件的等待表中取消等待事件的标志位，否则会引起严重的后果。</t>
+  </si>
+  <si>
+    <t>4.2.5将等待事件的任务就绪</t>
+  </si>
+  <si>
+    <t>任务因为等待事件而在ECB中等级自己的等待，当事件发生时，如果该任务时事件等待表中优先级最高的任务，就把任务变成就绪态。</t>
   </si>
   <si>
     <t>源码</t>
@@ -1016,9 +1109,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1065,6 +1158,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1073,6 +1180,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1087,10 +1201,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1103,28 +1217,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="ＭＳ ゴシック"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1139,18 +1237,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1163,8 +1261,23 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1179,33 +1292,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="ＭＳ ゴシック"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1220,49 +1313,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="1" tint="0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1280,13 +1349,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1298,25 +1445,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1328,31 +1469,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1364,43 +1493,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1541,20 +1640,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1576,9 +1664,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1598,6 +1703,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1612,30 +1735,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1644,10 +1743,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1656,19 +1755,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1677,117 +1776,117 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1857,7 +1956,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1">
@@ -2902,6 +3022,137 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>151765</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114935</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1111250" y="2343150"/>
+          <a:ext cx="2012315" cy="1143635"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>370840</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>170815</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>338455</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1113790" y="3714115"/>
+          <a:ext cx="2196465" cy="1013460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>369570</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38735</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>149860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1112520" y="5600700"/>
+          <a:ext cx="2640965" cy="1864360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -3822,7 +4073,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3911,7 +4162,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4084,7 +4335,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6413,7 +6664,7 @@
       <c r="A25" s="16"/>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
-      <c r="E25" s="24" t="s">
+      <c r="E25" s="31" t="s">
         <v>119</v>
       </c>
       <c r="J25" s="16"/>
@@ -6850,7 +7101,7 @@
     </row>
     <row r="112" s="16" customFormat="1" spans="2:4">
       <c r="B112" s="17"/>
-      <c r="D112" s="25" t="s">
+      <c r="D112" s="32" t="s">
         <v>168</v>
       </c>
     </row>
@@ -6874,7 +7125,7 @@
     </row>
     <row r="116" s="16" customFormat="1" spans="2:4">
       <c r="B116" s="17"/>
-      <c r="D116" s="25" t="s">
+      <c r="D116" s="32" t="s">
         <v>172</v>
       </c>
     </row>
@@ -6908,7 +7159,7 @@
       </c>
     </row>
     <row r="122" spans="4:4">
-      <c r="D122" s="25" t="s">
+      <c r="D122" s="32" t="s">
         <v>168</v>
       </c>
     </row>
@@ -7564,7 +7815,6 @@
       <c r="C17" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="D17" s="15"/>
       <c r="J17" s="16"/>
     </row>
     <row r="18" s="15" customFormat="1" spans="1:10">
@@ -7678,7 +7928,6 @@
       <c r="C30" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="D30" s="15"/>
       <c r="J30" s="16"/>
     </row>
     <row r="31" s="15" customFormat="1" spans="3:10">
@@ -7694,7 +7943,6 @@
       <c r="C32" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="D32" s="15"/>
       <c r="J32" s="16"/>
     </row>
     <row r="33" s="15" customFormat="1" spans="1:10">
@@ -7726,7 +7974,6 @@
       <c r="C36" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="D36" s="15"/>
       <c r="J36" s="16"/>
     </row>
     <row r="37" s="15" customFormat="1" spans="4:10">
@@ -7739,7 +7986,6 @@
       <c r="C38" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="D38" s="15"/>
       <c r="J38" s="16"/>
     </row>
     <row r="39" s="15" customFormat="1" spans="1:10">
@@ -7755,7 +8001,7 @@
       <c r="A40" s="16"/>
       <c r="B40" s="16"/>
       <c r="C40" s="17"/>
-      <c r="D40" s="23" t="s">
+      <c r="D40" s="14" t="s">
         <v>297</v>
       </c>
       <c r="J40" s="16"/>
@@ -7992,550 +8238,612 @@
   <sheetPr/>
   <dimension ref="A1:AE123"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="4.875" style="16"/>
+    <col min="1" max="16384" width="4.875" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" s="15" customFormat="1" ht="22.5" spans="1:31">
-      <c r="A1" s="16"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="H1" s="16" t="s">
+    <row r="1" s="23" customFormat="1" ht="22.5" spans="1:31">
+      <c r="A1" s="24"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="H1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16" t="s">
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="T1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="16" t="s">
+      <c r="U1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="17" t="s">
+      <c r="V1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="W1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="17"/>
-    </row>
-    <row r="2" s="15" customFormat="1" spans="1:27">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16" t="s">
+      <c r="X1" s="25"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="24"/>
+      <c r="AE1" s="25"/>
+    </row>
+    <row r="2" s="23" customFormat="1" spans="1:27">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="16" t="s">
+      <c r="T2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="16" t="s">
+      <c r="U2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="V2" s="16" t="s">
+      <c r="V2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="16" t="s">
+      <c r="W2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="22"/>
-    </row>
-    <row r="3" s="15" customFormat="1" spans="1:10">
-      <c r="A3" s="16" t="s">
+      <c r="X2" s="25"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="30"/>
+    </row>
+    <row r="3" s="23" customFormat="1" spans="1:10">
+      <c r="A3" s="24" t="s">
         <v>300</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" s="15" customFormat="1" spans="1:10">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="J4" s="16"/>
-    </row>
-    <row r="5" s="15" customFormat="1" spans="1:10">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="16"/>
-      <c r="J5" s="16"/>
-    </row>
-    <row r="6" s="15" customFormat="1" spans="1:10">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="16"/>
-      <c r="J6" s="16"/>
-    </row>
-    <row r="7" s="15" customFormat="1" spans="1:10">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="16"/>
-      <c r="J7" s="16"/>
-    </row>
-    <row r="8" s="15" customFormat="1" spans="1:10">
-      <c r="A8" s="16"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="16"/>
-      <c r="J8" s="16"/>
-    </row>
-    <row r="9" s="15" customFormat="1" spans="1:10">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="16"/>
-      <c r="J9" s="16"/>
-    </row>
-    <row r="10" s="15" customFormat="1" spans="1:10">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="16"/>
-      <c r="J10" s="16"/>
-    </row>
-    <row r="11" s="15" customFormat="1" spans="1:10">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="15"/>
-      <c r="J11" s="16"/>
-    </row>
-    <row r="12" s="15" customFormat="1" spans="1:10">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="15"/>
-      <c r="J12" s="16"/>
-    </row>
-    <row r="13" s="15" customFormat="1" spans="1:10">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="15"/>
-      <c r="J13" s="16"/>
-    </row>
-    <row r="14" s="15" customFormat="1" spans="1:10">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="15"/>
-      <c r="J14" s="16"/>
-    </row>
-    <row r="15" s="15" customFormat="1" spans="1:10">
-      <c r="A15" s="16"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="16"/>
-      <c r="J15" s="16"/>
-    </row>
-    <row r="16" s="15" customFormat="1" spans="1:10">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="15"/>
-      <c r="J16" s="16"/>
-    </row>
-    <row r="17" s="15" customFormat="1" spans="1:10">
-      <c r="A17" s="16"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="16"/>
-      <c r="J17" s="16"/>
-    </row>
-    <row r="18" s="15" customFormat="1" spans="1:10">
-      <c r="A18" s="16"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="15"/>
-      <c r="J18" s="16"/>
-    </row>
-    <row r="19" s="15" customFormat="1" spans="1:10">
-      <c r="A19" s="16"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="15"/>
-      <c r="J19" s="16"/>
-    </row>
-    <row r="20" s="15" customFormat="1" spans="1:10">
-      <c r="A20" s="16"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="15"/>
-      <c r="J20" s="16"/>
-    </row>
-    <row r="21" s="15" customFormat="1" spans="1:10">
-      <c r="A21" s="16"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="15"/>
-      <c r="J21" s="16"/>
-    </row>
-    <row r="22" s="15" customFormat="1" spans="1:10">
-      <c r="A22" s="16"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="16"/>
-      <c r="J22" s="16"/>
-    </row>
-    <row r="23" s="15" customFormat="1" spans="1:10">
-      <c r="A23" s="16"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="16"/>
-      <c r="J23" s="16"/>
-    </row>
-    <row r="24" s="15" customFormat="1" spans="1:10">
-      <c r="A24" s="16"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="16"/>
-      <c r="J24" s="16"/>
-    </row>
-    <row r="25" s="15" customFormat="1" spans="1:10">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="15"/>
-      <c r="J25" s="16"/>
-    </row>
-    <row r="26" s="15" customFormat="1" spans="1:10">
-      <c r="A26" s="16"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="15"/>
-      <c r="J26" s="16"/>
-    </row>
-    <row r="27" s="15" customFormat="1" spans="1:10">
-      <c r="A27" s="16"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="15"/>
-      <c r="J27" s="16"/>
-    </row>
-    <row r="28" s="15" customFormat="1" spans="1:10">
-      <c r="A28" s="16"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="15"/>
-      <c r="J28" s="16"/>
-    </row>
-    <row r="29" s="15" customFormat="1" spans="1:10">
-      <c r="A29" s="16"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="15"/>
-      <c r="J29" s="16"/>
-    </row>
-    <row r="30" s="15" customFormat="1" spans="1:10">
-      <c r="A30" s="16"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="15"/>
-      <c r="J30" s="16"/>
-    </row>
-    <row r="31" s="15" customFormat="1" spans="3:10">
-      <c r="C31" s="17"/>
-      <c r="D31" s="15"/>
-      <c r="J31" s="16"/>
-    </row>
-    <row r="32" s="15" customFormat="1" spans="1:10">
-      <c r="A32" s="16"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="15"/>
-      <c r="J32" s="16"/>
-    </row>
-    <row r="33" s="15" customFormat="1" spans="1:10">
-      <c r="A33" s="16"/>
-      <c r="B33" s="18"/>
-      <c r="J33" s="16"/>
-    </row>
-    <row r="34" s="15" customFormat="1" spans="10:10">
-      <c r="J34" s="16"/>
-    </row>
-    <row r="35" s="15" customFormat="1" spans="1:10">
-      <c r="A35" s="16"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="15"/>
-      <c r="J35" s="16"/>
-    </row>
-    <row r="36" s="15" customFormat="1" spans="1:10">
-      <c r="A36" s="16"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="15"/>
-      <c r="J36" s="16"/>
-    </row>
-    <row r="37" s="15" customFormat="1" spans="10:10">
-      <c r="J37" s="16"/>
-    </row>
-    <row r="38" s="15" customFormat="1" spans="10:10">
-      <c r="J38" s="16"/>
-    </row>
-    <row r="39" s="15" customFormat="1" spans="1:10">
-      <c r="A39" s="16"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="15"/>
-      <c r="J39" s="16"/>
-    </row>
-    <row r="40" s="15" customFormat="1" spans="1:10">
-      <c r="A40" s="16"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="23"/>
-      <c r="J40" s="16"/>
-    </row>
-    <row r="41" s="15" customFormat="1" spans="1:10">
-      <c r="A41" s="16"/>
-      <c r="B41" s="18"/>
-      <c r="J41" s="16"/>
-    </row>
-    <row r="42" s="15" customFormat="1" spans="10:10">
-      <c r="J42" s="16"/>
-    </row>
-    <row r="43" s="15" customFormat="1" spans="10:10">
-      <c r="J43" s="16"/>
-    </row>
-    <row r="44" s="15" customFormat="1" spans="3:10">
-      <c r="C44" s="17"/>
-      <c r="J44" s="16"/>
-    </row>
-    <row r="45" s="15" customFormat="1" spans="1:10">
-      <c r="A45" s="16"/>
-      <c r="J45" s="16"/>
-    </row>
-    <row r="46" s="15" customFormat="1" spans="1:10">
-      <c r="A46" s="16"/>
-      <c r="B46" s="18"/>
-      <c r="J46" s="16"/>
-    </row>
-    <row r="47" s="15" customFormat="1" spans="10:10">
-      <c r="J47" s="16"/>
-    </row>
-    <row r="48" s="15" customFormat="1" spans="1:10">
-      <c r="A48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="J48" s="16"/>
-    </row>
-    <row r="49" s="15" customFormat="1" spans="1:10">
-      <c r="A49" s="16"/>
-      <c r="B49" s="16"/>
-      <c r="J49" s="16"/>
-    </row>
-    <row r="50" s="15" customFormat="1" spans="1:10">
-      <c r="A50" s="16"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="J50" s="16"/>
-    </row>
-    <row r="51" s="15" customFormat="1" spans="1:16">
-      <c r="A51" s="16"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="16"/>
-      <c r="L51" s="16"/>
-      <c r="M51" s="16"/>
-      <c r="N51" s="16"/>
-      <c r="O51" s="16"/>
-      <c r="P51" s="21"/>
-    </row>
-    <row r="52" s="15" customFormat="1" spans="1:10">
-      <c r="A52" s="16"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="J52" s="16"/>
-    </row>
-    <row r="53" s="15" customFormat="1" spans="1:10">
-      <c r="A53" s="16"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="J53" s="16"/>
-    </row>
-    <row r="54" s="15" customFormat="1" spans="1:10">
-      <c r="A54" s="16"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-      <c r="J54" s="16"/>
-    </row>
-    <row r="55" s="15" customFormat="1" spans="1:16">
-      <c r="A55" s="16"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="16"/>
-      <c r="L55" s="16"/>
-      <c r="M55" s="16"/>
-      <c r="N55" s="16"/>
-      <c r="O55" s="16"/>
-      <c r="P55" s="21"/>
-    </row>
-    <row r="56" s="15" customFormat="1" spans="1:10">
-      <c r="A56" s="16"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="17"/>
-      <c r="J56" s="16"/>
-    </row>
-    <row r="57" s="15" customFormat="1" spans="1:10">
-      <c r="A57" s="16"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="17"/>
-      <c r="J57" s="16"/>
-    </row>
-    <row r="58" s="15" customFormat="1" spans="1:10">
-      <c r="A58" s="16"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
-      <c r="J58" s="16"/>
-    </row>
-    <row r="59" s="15" customFormat="1" spans="1:10">
-      <c r="A59" s="16"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
-      <c r="J59" s="16"/>
-    </row>
-    <row r="60" s="15" customFormat="1" spans="1:10">
-      <c r="A60" s="16"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
-      <c r="J60" s="16"/>
-    </row>
-    <row r="61" s="15" customFormat="1" spans="1:10">
-      <c r="A61" s="16"/>
-      <c r="B61" s="16"/>
-      <c r="C61" s="16"/>
-      <c r="J61" s="16"/>
-    </row>
-    <row r="66" s="16" customFormat="1" spans="2:2">
-      <c r="B66" s="18"/>
-    </row>
-    <row r="72" s="16" customFormat="1" spans="3:3">
-      <c r="C72" s="18"/>
-    </row>
-    <row r="73" s="16" customFormat="1" spans="3:3">
-      <c r="C73" s="17"/>
-    </row>
-    <row r="75" s="16" customFormat="1" spans="3:3">
-      <c r="C75" s="21"/>
-    </row>
-    <row r="76" s="16" customFormat="1" spans="5:5">
-      <c r="E76" s="21"/>
-    </row>
-    <row r="77" s="16" customFormat="1" spans="4:4">
-      <c r="D77" s="21"/>
-    </row>
-    <row r="78" s="16" customFormat="1" spans="5:5">
-      <c r="E78" s="21"/>
-    </row>
-    <row r="79" s="16" customFormat="1" spans="4:4">
-      <c r="D79" s="21"/>
-    </row>
-    <row r="80" s="16" customFormat="1" spans="3:3">
-      <c r="C80" s="21"/>
-    </row>
-    <row r="81" s="16" customFormat="1" spans="3:3">
-      <c r="C81" s="21"/>
-    </row>
-    <row r="82" s="16" customFormat="1" spans="3:3">
-      <c r="C82" s="17"/>
-    </row>
-    <row r="83" s="16" customFormat="1" spans="3:3">
-      <c r="C83" s="21"/>
-    </row>
-    <row r="84" s="16" customFormat="1" spans="3:3">
-      <c r="C84" s="21"/>
-    </row>
-    <row r="85" s="16" customFormat="1" spans="3:3">
-      <c r="C85" s="17"/>
-    </row>
-    <row r="91" s="16" customFormat="1" spans="3:5">
-      <c r="C91" s="17"/>
-      <c r="E91" s="17"/>
-    </row>
-    <row r="92" s="16" customFormat="1" spans="3:3">
-      <c r="C92" s="18"/>
-    </row>
-    <row r="114" s="16" customFormat="1" spans="2:2">
-      <c r="B114" s="17"/>
-    </row>
-    <row r="115" s="16" customFormat="1" spans="2:2">
-      <c r="B115" s="17"/>
-    </row>
-    <row r="116" s="16" customFormat="1" spans="2:2">
-      <c r="B116" s="17"/>
-    </row>
-    <row r="117" s="16" customFormat="1" spans="2:2">
-      <c r="B117" s="17"/>
-    </row>
-    <row r="118" s="16" customFormat="1" spans="2:2">
-      <c r="B118" s="17"/>
-    </row>
-    <row r="119" s="16" customFormat="1" spans="2:2">
-      <c r="B119" s="17"/>
-    </row>
-    <row r="120" s="16" customFormat="1" spans="2:2">
-      <c r="B120" s="17"/>
-    </row>
-    <row r="121" s="16" customFormat="1" spans="2:2">
-      <c r="B121" s="17"/>
-    </row>
-    <row r="122" s="16" customFormat="1" spans="2:2">
-      <c r="B122" s="17"/>
-    </row>
-    <row r="123" s="16" customFormat="1" spans="2:2">
-      <c r="B123" s="17"/>
+      <c r="B3" s="24"/>
+      <c r="J3" s="24"/>
+    </row>
+    <row r="4" s="23" customFormat="1" spans="1:10">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="J4" s="24"/>
+    </row>
+    <row r="5" s="23" customFormat="1" spans="1:10">
+      <c r="A5" s="24"/>
+      <c r="B5" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="J5" s="24"/>
+    </row>
+    <row r="6" s="23" customFormat="1" spans="1:10">
+      <c r="A6" s="24"/>
+      <c r="B6" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="J6" s="24"/>
+    </row>
+    <row r="7" s="23" customFormat="1" spans="1:10">
+      <c r="A7" s="24"/>
+      <c r="B7" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="J7" s="24"/>
+    </row>
+    <row r="8" s="23" customFormat="1" spans="1:10">
+      <c r="A8" s="24"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="J8" s="24"/>
+    </row>
+    <row r="9" s="23" customFormat="1" spans="1:10">
+      <c r="A9" s="24"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="J9" s="24"/>
+    </row>
+    <row r="10" s="23" customFormat="1" spans="1:10">
+      <c r="A10" s="24"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="J10" s="24"/>
+    </row>
+    <row r="11" s="23" customFormat="1" spans="1:10">
+      <c r="A11" s="24"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="23" t="s">
+        <v>308</v>
+      </c>
+      <c r="J11" s="24"/>
+    </row>
+    <row r="12" s="23" customFormat="1" spans="1:10">
+      <c r="A12" s="24"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="J12" s="24"/>
+    </row>
+    <row r="13" s="23" customFormat="1" spans="1:10">
+      <c r="A13" s="24"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="23" t="s">
+        <v>310</v>
+      </c>
+      <c r="J13" s="24"/>
+    </row>
+    <row r="14" s="23" customFormat="1" spans="1:10">
+      <c r="A14" s="24"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="24"/>
+      <c r="J14" s="24"/>
+    </row>
+    <row r="15" s="23" customFormat="1" spans="1:10">
+      <c r="A15" s="24"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="24"/>
+      <c r="J15" s="24"/>
+    </row>
+    <row r="16" s="23" customFormat="1" spans="1:10">
+      <c r="A16" s="24"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="24"/>
+      <c r="J16" s="24"/>
+    </row>
+    <row r="17" s="23" customFormat="1" spans="1:10">
+      <c r="A17" s="24"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="24"/>
+      <c r="J17" s="24"/>
+    </row>
+    <row r="18" s="23" customFormat="1" spans="1:10">
+      <c r="A18" s="24"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="24"/>
+      <c r="J18" s="24"/>
+    </row>
+    <row r="19" s="23" customFormat="1" spans="1:10">
+      <c r="A19" s="24"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="24"/>
+      <c r="J19" s="24"/>
+    </row>
+    <row r="20" s="23" customFormat="1" spans="1:10">
+      <c r="A20" s="24"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="24"/>
+      <c r="J20" s="24"/>
+    </row>
+    <row r="21" s="23" customFormat="1" spans="1:10">
+      <c r="A21" s="24"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="J21" s="24"/>
+    </row>
+    <row r="22" s="23" customFormat="1" spans="1:10">
+      <c r="A22" s="24"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="24"/>
+      <c r="J22" s="24"/>
+    </row>
+    <row r="23" s="23" customFormat="1" spans="1:10">
+      <c r="A23" s="24"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="24"/>
+      <c r="J23" s="24"/>
+    </row>
+    <row r="24" s="23" customFormat="1" spans="1:10">
+      <c r="A24" s="24"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="24"/>
+      <c r="J24" s="24"/>
+    </row>
+    <row r="25" s="23" customFormat="1" spans="1:10">
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="25"/>
+      <c r="J25" s="24"/>
+    </row>
+    <row r="26" s="23" customFormat="1" spans="1:10">
+      <c r="A26" s="24"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="J26" s="24"/>
+    </row>
+    <row r="27" s="23" customFormat="1" spans="1:10">
+      <c r="A27" s="24"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="J27" s="24"/>
+    </row>
+    <row r="28" s="23" customFormat="1" spans="1:10">
+      <c r="A28" s="24"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="J28" s="24"/>
+    </row>
+    <row r="29" s="23" customFormat="1" spans="1:10">
+      <c r="A29" s="24"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="J29" s="24"/>
+    </row>
+    <row r="30" s="23" customFormat="1" spans="1:10">
+      <c r="A30" s="24"/>
+      <c r="B30" s="25"/>
+      <c r="D30" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="J30" s="24"/>
+    </row>
+    <row r="31" s="23" customFormat="1" spans="3:10">
+      <c r="C31" s="25"/>
+      <c r="D31" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="J31" s="24"/>
+    </row>
+    <row r="32" s="23" customFormat="1" spans="1:10">
+      <c r="A32" s="24"/>
+      <c r="B32" s="26"/>
+      <c r="D32" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="J32" s="24"/>
+    </row>
+    <row r="33" s="23" customFormat="1" spans="1:10">
+      <c r="A33" s="24"/>
+      <c r="B33" s="26"/>
+      <c r="J33" s="24"/>
+    </row>
+    <row r="34" s="23" customFormat="1" spans="10:10">
+      <c r="J34" s="24"/>
+    </row>
+    <row r="35" s="23" customFormat="1" spans="1:10">
+      <c r="A35" s="24"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="25"/>
+      <c r="J35" s="24"/>
+    </row>
+    <row r="36" s="23" customFormat="1" spans="1:10">
+      <c r="A36" s="24"/>
+      <c r="B36" s="26"/>
+      <c r="J36" s="24"/>
+    </row>
+    <row r="37" s="23" customFormat="1" spans="10:10">
+      <c r="J37" s="24"/>
+    </row>
+    <row r="38" s="23" customFormat="1" spans="10:10">
+      <c r="J38" s="24"/>
+    </row>
+    <row r="39" s="23" customFormat="1" spans="1:10">
+      <c r="A39" s="24"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="25"/>
+      <c r="J39" s="24"/>
+    </row>
+    <row r="40" s="23" customFormat="1" spans="1:10">
+      <c r="A40" s="24"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="28"/>
+      <c r="J40" s="24"/>
+    </row>
+    <row r="41" s="23" customFormat="1" spans="1:10">
+      <c r="A41" s="24"/>
+      <c r="B41" s="26"/>
+      <c r="J41" s="24"/>
+    </row>
+    <row r="42" s="23" customFormat="1" spans="10:10">
+      <c r="J42" s="24"/>
+    </row>
+    <row r="43" s="23" customFormat="1" spans="10:10">
+      <c r="J43" s="24"/>
+    </row>
+    <row r="44" s="23" customFormat="1" spans="2:10">
+      <c r="B44" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="C44" s="25"/>
+      <c r="J44" s="24"/>
+    </row>
+    <row r="45" s="23" customFormat="1" spans="1:10">
+      <c r="A45" s="24"/>
+      <c r="C45" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="J45" s="24"/>
+    </row>
+    <row r="46" s="23" customFormat="1" spans="1:10">
+      <c r="A46" s="24"/>
+      <c r="B46" s="26"/>
+      <c r="D46" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="J46" s="24"/>
+    </row>
+    <row r="47" s="23" customFormat="1" spans="3:10">
+      <c r="C47" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="J47" s="24"/>
+    </row>
+    <row r="48" s="23" customFormat="1" spans="1:10">
+      <c r="A48" s="24"/>
+      <c r="D48" s="24" t="s">
+        <v>321</v>
+      </c>
+      <c r="J48" s="24"/>
+    </row>
+    <row r="49" s="23" customFormat="1" spans="1:10">
+      <c r="A49" s="24"/>
+      <c r="B49" s="24"/>
+      <c r="D49" s="23" t="s">
+        <v>322</v>
+      </c>
+      <c r="J49" s="24"/>
+    </row>
+    <row r="50" s="23" customFormat="1" spans="1:10">
+      <c r="A50" s="24"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="23" t="s">
+        <v>323</v>
+      </c>
+      <c r="J50" s="24"/>
+    </row>
+    <row r="51" s="23" customFormat="1" spans="1:16">
+      <c r="A51" s="24"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="24" t="s">
+        <v>324</v>
+      </c>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="24"/>
+      <c r="M51" s="24"/>
+      <c r="N51" s="24"/>
+      <c r="O51" s="24"/>
+      <c r="P51" s="28"/>
+    </row>
+    <row r="52" s="23" customFormat="1" spans="1:10">
+      <c r="A52" s="24"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="J52" s="24"/>
+    </row>
+    <row r="53" s="23" customFormat="1" spans="1:10">
+      <c r="A53" s="24"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="J53" s="24"/>
+    </row>
+    <row r="54" s="23" customFormat="1" spans="1:10">
+      <c r="A54" s="24"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="J54" s="24"/>
+    </row>
+    <row r="55" s="23" customFormat="1" spans="1:16">
+      <c r="A55" s="24"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="24" t="s">
+        <v>328</v>
+      </c>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="24"/>
+      <c r="J55" s="24"/>
+      <c r="K55" s="24"/>
+      <c r="L55" s="24"/>
+      <c r="M55" s="24"/>
+      <c r="N55" s="24"/>
+      <c r="O55" s="24"/>
+      <c r="P55" s="28"/>
+    </row>
+    <row r="56" s="23" customFormat="1" spans="1:10">
+      <c r="A56" s="24"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="J56" s="24"/>
+    </row>
+    <row r="57" s="23" customFormat="1" spans="1:10">
+      <c r="A57" s="24"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="D57" s="25"/>
+      <c r="J57" s="24"/>
+    </row>
+    <row r="58" s="23" customFormat="1" spans="1:10">
+      <c r="A58" s="24"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="23" t="s">
+        <v>331</v>
+      </c>
+      <c r="J58" s="24"/>
+    </row>
+    <row r="59" s="23" customFormat="1" spans="1:10">
+      <c r="A59" s="24"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="24"/>
+      <c r="J59" s="24"/>
+    </row>
+    <row r="60" s="23" customFormat="1" spans="1:10">
+      <c r="A60" s="24"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="24"/>
+      <c r="J60" s="24"/>
+    </row>
+    <row r="61" s="23" customFormat="1" spans="1:10">
+      <c r="A61" s="24"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="24"/>
+      <c r="J61" s="24"/>
+    </row>
+    <row r="66" s="24" customFormat="1" spans="2:2">
+      <c r="B66" s="26"/>
+    </row>
+    <row r="72" s="24" customFormat="1" spans="3:3">
+      <c r="C72" s="26"/>
+    </row>
+    <row r="73" s="24" customFormat="1" spans="3:3">
+      <c r="C73" s="25"/>
+    </row>
+    <row r="75" s="24" customFormat="1" spans="3:3">
+      <c r="C75" s="28"/>
+    </row>
+    <row r="76" s="24" customFormat="1" spans="5:5">
+      <c r="E76" s="28"/>
+    </row>
+    <row r="77" s="24" customFormat="1" spans="4:4">
+      <c r="D77" s="28"/>
+    </row>
+    <row r="78" s="24" customFormat="1" spans="5:5">
+      <c r="E78" s="28"/>
+    </row>
+    <row r="79" s="24" customFormat="1" spans="4:4">
+      <c r="D79" s="28"/>
+    </row>
+    <row r="80" s="24" customFormat="1" spans="3:3">
+      <c r="C80" s="28"/>
+    </row>
+    <row r="81" s="24" customFormat="1" spans="3:3">
+      <c r="C81" s="28"/>
+    </row>
+    <row r="82" s="24" customFormat="1" spans="3:3">
+      <c r="C82" s="25"/>
+    </row>
+    <row r="83" s="24" customFormat="1" spans="3:3">
+      <c r="C83" s="28"/>
+    </row>
+    <row r="84" s="24" customFormat="1" spans="3:3">
+      <c r="C84" s="28"/>
+    </row>
+    <row r="85" s="24" customFormat="1" spans="3:3">
+      <c r="C85" s="25"/>
+    </row>
+    <row r="91" s="24" customFormat="1" spans="3:5">
+      <c r="C91" s="25"/>
+      <c r="E91" s="25"/>
+    </row>
+    <row r="92" s="24" customFormat="1" spans="3:3">
+      <c r="C92" s="26"/>
+    </row>
+    <row r="114" s="24" customFormat="1" spans="2:2">
+      <c r="B114" s="25"/>
+    </row>
+    <row r="115" s="24" customFormat="1" spans="2:2">
+      <c r="B115" s="25"/>
+    </row>
+    <row r="116" s="24" customFormat="1" spans="2:2">
+      <c r="B116" s="25"/>
+    </row>
+    <row r="117" s="24" customFormat="1" spans="2:2">
+      <c r="B117" s="25"/>
+    </row>
+    <row r="118" s="24" customFormat="1" spans="2:2">
+      <c r="B118" s="25"/>
+    </row>
+    <row r="119" s="24" customFormat="1" spans="2:2">
+      <c r="B119" s="25"/>
+    </row>
+    <row r="120" s="24" customFormat="1" spans="2:2">
+      <c r="B120" s="25"/>
+    </row>
+    <row r="121" s="24" customFormat="1" spans="2:2">
+      <c r="B121" s="25"/>
+    </row>
+    <row r="122" s="24" customFormat="1" spans="2:2">
+      <c r="B122" s="25"/>
+    </row>
+    <row r="123" s="24" customFormat="1" spans="2:2">
+      <c r="B123" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9060,12 +9368,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -9091,7 +9399,7 @@
   <sheetData>
     <row r="35" customFormat="1" spans="1:1">
       <c r="A35" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
     </row>
     <row r="36" customFormat="1"/>
@@ -9116,7 +9424,7 @@
     <row r="55" customFormat="1"/>
     <row r="56" customFormat="1" spans="1:1">
       <c r="A56" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
     </row>
     <row r="57" customFormat="1"/>
@@ -9133,12 +9441,12 @@
     <row r="68" customFormat="1"/>
     <row r="69" customFormat="1" spans="1:1">
       <c r="A69" s="14" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
     </row>
     <row r="70" customFormat="1" spans="1:1">
       <c r="A70" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
     </row>
     <row r="71" customFormat="1"/>
@@ -9153,12 +9461,12 @@
     <row r="80" customFormat="1"/>
     <row r="134" spans="1:1">
       <c r="A134" s="14" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="14" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
     </row>
     <row r="136" spans="1:1">
@@ -9184,20 +9492,20 @@
   <sheetData>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="H4" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" t="s">
-        <v>312</v>
+        <v>343</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -9208,7 +9516,7 @@
       <c r="C6" s="4"/>
       <c r="H6" s="5"/>
       <c r="J6" t="s">
-        <v>313</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -9217,10 +9525,10 @@
       </c>
       <c r="C7" s="4"/>
       <c r="H7" s="5" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="K7" s="8"/>
     </row>
@@ -9248,7 +9556,7 @@
       </c>
       <c r="C10" s="4"/>
       <c r="H10" s="6" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="10"/>
@@ -9259,11 +9567,11 @@
       </c>
       <c r="C11" s="4"/>
       <c r="J11" s="11" t="s">
-        <v>317</v>
+        <v>348</v>
       </c>
       <c r="K11" s="4"/>
       <c r="M11" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
     </row>
     <row r="12" spans="2:13">
@@ -9272,16 +9580,16 @@
       </c>
       <c r="C12" s="4"/>
       <c r="J12" s="11" t="s">
-        <v>319</v>
+        <v>350</v>
       </c>
       <c r="K12" s="4"/>
       <c r="M12" t="s">
-        <v>320</v>
+        <v>351</v>
       </c>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="3" t="s">
-        <v>321</v>
+        <v>352</v>
       </c>
       <c r="C13" s="4"/>
       <c r="J13" s="9"/>
@@ -9289,7 +9597,7 @@
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="3" t="s">
-        <v>322</v>
+        <v>353</v>
       </c>
       <c r="C14" s="4"/>
       <c r="J14" s="9"/>
@@ -9297,7 +9605,7 @@
     </row>
     <row r="15" spans="8:11">
       <c r="H15" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="J15" s="9"/>
       <c r="K15" s="10"/>
@@ -9309,22 +9617,22 @@
     </row>
     <row r="17" spans="2:10">
       <c r="B17" t="s">
-        <v>323</v>
+        <v>354</v>
       </c>
       <c r="H17" s="5"/>
       <c r="J17" t="s">
-        <v>324</v>
+        <v>355</v>
       </c>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" t="s">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="K18" s="8"/>
     </row>
@@ -9340,20 +9648,20 @@
     </row>
     <row r="21" spans="8:11">
       <c r="H21" s="6" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="J21" s="9"/>
       <c r="K21" s="10"/>
     </row>
     <row r="22" spans="10:11">
       <c r="J22" s="11" t="s">
-        <v>317</v>
+        <v>348</v>
       </c>
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="10:11">
       <c r="J23" s="11" t="s">
-        <v>319</v>
+        <v>350</v>
       </c>
       <c r="K23" s="4"/>
     </row>
@@ -9367,7 +9675,7 @@
     </row>
     <row r="26" spans="8:11">
       <c r="H26" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="J26" s="9"/>
       <c r="K26" s="10"/>
@@ -9380,15 +9688,15 @@
     <row r="28" spans="8:10">
       <c r="H28" s="5"/>
       <c r="J28" t="s">
-        <v>326</v>
+        <v>357</v>
       </c>
     </row>
     <row r="29" spans="8:11">
       <c r="H29" s="5" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="K29" s="8"/>
     </row>
@@ -9404,20 +9712,20 @@
     </row>
     <row r="32" spans="8:11">
       <c r="H32" s="6" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="J32" s="9"/>
       <c r="K32" s="10"/>
     </row>
     <row r="33" spans="10:11">
       <c r="J33" s="11" t="s">
-        <v>317</v>
+        <v>348</v>
       </c>
       <c r="K33" s="4"/>
     </row>
     <row r="34" spans="10:11">
       <c r="J34" s="11" t="s">
-        <v>319</v>
+        <v>350</v>
       </c>
       <c r="K34" s="4"/>
     </row>
@@ -9431,7 +9739,7 @@
     </row>
     <row r="37" spans="8:11">
       <c r="H37" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="J37" s="9"/>
       <c r="K37" s="10"/>
@@ -9444,15 +9752,15 @@
     <row r="39" spans="8:10">
       <c r="H39" s="5"/>
       <c r="J39" t="s">
-        <v>327</v>
+        <v>358</v>
       </c>
     </row>
     <row r="40" spans="8:11">
       <c r="H40" s="5" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="K40" s="8"/>
     </row>
@@ -9468,20 +9776,20 @@
     </row>
     <row r="43" spans="8:11">
       <c r="H43" s="6" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="J43" s="9"/>
       <c r="K43" s="10"/>
     </row>
     <row r="44" spans="10:11">
       <c r="J44" s="11" t="s">
-        <v>317</v>
+        <v>348</v>
       </c>
       <c r="K44" s="4"/>
     </row>
     <row r="45" spans="10:11">
       <c r="J45" s="11" t="s">
-        <v>319</v>
+        <v>350</v>
       </c>
       <c r="K45" s="4"/>
     </row>
@@ -9503,7 +9811,7 @@
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>328</v>
+        <v>359</v>
       </c>
     </row>
     <row r="53" s="1" customFormat="1"/>

--- a/操作系统笔记.xlsx
+++ b/操作系统笔记.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="373">
   <si>
     <t>操作系统</t>
   </si>
@@ -1017,6 +1017,45 @@
   </si>
   <si>
     <t>任务因为等待事件而在ECB中等级自己的等待，当事件发生时，如果该任务时事件等待表中优先级最高的任务，就把任务变成就绪态。</t>
+  </si>
+  <si>
+    <t>4.3信号量管理</t>
+  </si>
+  <si>
+    <t>信号量在资源，任务同步，通信等方面都有广泛的应用，ucos专门为信号量管理编写了C语言源文件OS_SEM.C。</t>
+  </si>
+  <si>
+    <t>信号量核心管理的函数笔记在源码中</t>
+  </si>
+  <si>
+    <t>4.3.1信号量的建立OSSemCreate</t>
+  </si>
+  <si>
+    <t>信号量在操作系统初始化的时候不存在，这是ECB是空的，所有的ECB都在空闲链表中。当调用OSSemCreate的时候，使用一个并配置ECB，源码老地方：</t>
+  </si>
+  <si>
+    <t>4.3.2删除信号量OSSemDel</t>
+  </si>
+  <si>
+    <t>删除信号量不简单，这函数的参数是ECB的指针，整形的删除选项，返回结果的指针</t>
+  </si>
+  <si>
+    <t>4.3.3请求信号量</t>
+  </si>
+  <si>
+    <t>4.3.4提交信号量</t>
+  </si>
+  <si>
+    <t>4.3.5无等待请求信号量</t>
+  </si>
+  <si>
+    <t>4.3.6放弃等待信号量</t>
+  </si>
+  <si>
+    <t>4.3.7信号量值设置</t>
+  </si>
+  <si>
+    <t>4.3.8查询信号量状态</t>
   </si>
   <si>
     <t>源码</t>
@@ -1108,8 +1147,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1157,24 +1196,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1186,7 +1235,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1202,15 +1266,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1221,34 +1298,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1261,16 +1315,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1284,17 +1330,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1319,7 +1358,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1331,7 +1412,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1343,19 +1484,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1373,91 +1526,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1469,37 +1538,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1638,11 +1677,46 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1664,26 +1738,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1703,34 +1760,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1743,10 +1782,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1755,19 +1794,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1776,113 +1815,113 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8238,8 +8277,8 @@
   <sheetPr/>
   <dimension ref="A1:AE123"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="K49" sqref="K49"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="K59" sqref="K59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
@@ -8391,7 +8430,6 @@
       <c r="C10" s="24" t="s">
         <v>307</v>
       </c>
-      <c r="D10" s="23"/>
       <c r="J10" s="24"/>
     </row>
     <row r="11" s="23" customFormat="1" spans="1:10">
@@ -8745,24 +8783,78 @@
     </row>
     <row r="59" s="23" customFormat="1" spans="1:10">
       <c r="A59" s="24"/>
-      <c r="B59" s="24"/>
+      <c r="B59" s="24" t="s">
+        <v>332</v>
+      </c>
       <c r="C59" s="24"/>
       <c r="J59" s="24"/>
     </row>
     <row r="60" s="23" customFormat="1" spans="1:10">
       <c r="A60" s="24"/>
       <c r="B60" s="24"/>
-      <c r="C60" s="24"/>
+      <c r="C60" s="24" t="s">
+        <v>333</v>
+      </c>
       <c r="J60" s="24"/>
     </row>
     <row r="61" s="23" customFormat="1" spans="1:10">
       <c r="A61" s="24"/>
       <c r="B61" s="24"/>
-      <c r="C61" s="24"/>
+      <c r="C61" s="24" t="s">
+        <v>334</v>
+      </c>
       <c r="J61" s="24"/>
     </row>
-    <row r="66" s="24" customFormat="1" spans="2:2">
+    <row r="62" spans="3:3">
+      <c r="C62" s="24" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="63" spans="4:4">
+      <c r="D63" s="24" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="64" spans="3:3">
+      <c r="C64" s="24" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4">
+      <c r="D65" s="24" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="66" s="24" customFormat="1" spans="2:3">
       <c r="B66" s="26"/>
+      <c r="C66" s="24" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3">
+      <c r="C67" s="24" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3">
+      <c r="C68" s="24" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3">
+      <c r="C69" s="24" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3">
+      <c r="C70" s="24" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3">
+      <c r="C71" s="24" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="72" s="24" customFormat="1" spans="3:3">
       <c r="C72" s="26"/>
@@ -9368,12 +9460,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -9399,7 +9491,7 @@
   <sheetData>
     <row r="35" customFormat="1" spans="1:1">
       <c r="A35" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
     </row>
     <row r="36" customFormat="1"/>
@@ -9424,7 +9516,7 @@
     <row r="55" customFormat="1"/>
     <row r="56" customFormat="1" spans="1:1">
       <c r="A56" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
     </row>
     <row r="57" customFormat="1"/>
@@ -9441,12 +9533,12 @@
     <row r="68" customFormat="1"/>
     <row r="69" customFormat="1" spans="1:1">
       <c r="A69" s="14" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
     </row>
     <row r="70" customFormat="1" spans="1:1">
       <c r="A70" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
     </row>
     <row r="71" customFormat="1"/>
@@ -9461,12 +9553,12 @@
     <row r="80" customFormat="1"/>
     <row r="134" spans="1:1">
       <c r="A134" s="14" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="14" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
     </row>
     <row r="136" spans="1:1">
@@ -9492,20 +9584,20 @@
   <sheetData>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="H4" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -9516,7 +9608,7 @@
       <c r="C6" s="4"/>
       <c r="H6" s="5"/>
       <c r="J6" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -9525,10 +9617,10 @@
       </c>
       <c r="C7" s="4"/>
       <c r="H7" s="5" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="K7" s="8"/>
     </row>
@@ -9556,7 +9648,7 @@
       </c>
       <c r="C10" s="4"/>
       <c r="H10" s="6" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="10"/>
@@ -9567,11 +9659,11 @@
       </c>
       <c r="C11" s="4"/>
       <c r="J11" s="11" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="K11" s="4"/>
       <c r="M11" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12" spans="2:13">
@@ -9580,16 +9672,16 @@
       </c>
       <c r="C12" s="4"/>
       <c r="J12" s="11" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="K12" s="4"/>
       <c r="M12" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="3" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="C13" s="4"/>
       <c r="J13" s="9"/>
@@ -9597,7 +9689,7 @@
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="3" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="C14" s="4"/>
       <c r="J14" s="9"/>
@@ -9605,7 +9697,7 @@
     </row>
     <row r="15" spans="8:11">
       <c r="H15" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="J15" s="9"/>
       <c r="K15" s="10"/>
@@ -9617,22 +9709,22 @@
     </row>
     <row r="17" spans="2:10">
       <c r="B17" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="H17" s="5"/>
       <c r="J17" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="K18" s="8"/>
     </row>
@@ -9648,20 +9740,20 @@
     </row>
     <row r="21" spans="8:11">
       <c r="H21" s="6" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="J21" s="9"/>
       <c r="K21" s="10"/>
     </row>
     <row r="22" spans="10:11">
       <c r="J22" s="11" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="10:11">
       <c r="J23" s="11" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="K23" s="4"/>
     </row>
@@ -9675,7 +9767,7 @@
     </row>
     <row r="26" spans="8:11">
       <c r="H26" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="J26" s="9"/>
       <c r="K26" s="10"/>
@@ -9688,15 +9780,15 @@
     <row r="28" spans="8:10">
       <c r="H28" s="5"/>
       <c r="J28" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
     </row>
     <row r="29" spans="8:11">
       <c r="H29" s="5" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="K29" s="8"/>
     </row>
@@ -9712,20 +9804,20 @@
     </row>
     <row r="32" spans="8:11">
       <c r="H32" s="6" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="J32" s="9"/>
       <c r="K32" s="10"/>
     </row>
     <row r="33" spans="10:11">
       <c r="J33" s="11" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="K33" s="4"/>
     </row>
     <row r="34" spans="10:11">
       <c r="J34" s="11" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="K34" s="4"/>
     </row>
@@ -9739,7 +9831,7 @@
     </row>
     <row r="37" spans="8:11">
       <c r="H37" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="J37" s="9"/>
       <c r="K37" s="10"/>
@@ -9752,15 +9844,15 @@
     <row r="39" spans="8:10">
       <c r="H39" s="5"/>
       <c r="J39" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
     </row>
     <row r="40" spans="8:11">
       <c r="H40" s="5" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="K40" s="8"/>
     </row>
@@ -9776,20 +9868,20 @@
     </row>
     <row r="43" spans="8:11">
       <c r="H43" s="6" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="J43" s="9"/>
       <c r="K43" s="10"/>
     </row>
     <row r="44" spans="10:11">
       <c r="J44" s="11" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="K44" s="4"/>
     </row>
     <row r="45" spans="10:11">
       <c r="J45" s="11" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="K45" s="4"/>
     </row>
@@ -9811,7 +9903,7 @@
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
     </row>
     <row r="53" s="1" customFormat="1"/>

--- a/操作系统笔记.xlsx
+++ b/操作系统笔记.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="377">
   <si>
     <t>操作系统</t>
   </si>
@@ -1056,6 +1056,18 @@
   </si>
   <si>
     <t>4.3.8查询信号量状态</t>
+  </si>
+  <si>
+    <t>4.3.9信号量应用举例</t>
+  </si>
+  <si>
+    <t>这的例子不仅仅是关于信号量的实现方法，也涉及到其他内容，比如事件延时，</t>
+  </si>
+  <si>
+    <t>首先提出问题，然后给出代码，分析，看结果</t>
+  </si>
+  <si>
+    <t>假设有共享资源R，允许两个任务分时访问，那么信号量设置为2，系统中仨个任务访问R，分别是A，B，C优先级是7，6，5。三个任务在操作系统初始化和启动多任务</t>
   </si>
   <si>
     <t>源码</t>
@@ -1147,8 +1159,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1196,34 +1208,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1243,6 +1245,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1250,15 +1268,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1272,22 +1305,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1298,42 +1334,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1358,13 +1370,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1376,37 +1424,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1418,7 +1436,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1436,31 +1466,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1472,13 +1478,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1496,13 +1514,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1514,31 +1544,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1678,50 +1690,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1739,8 +1707,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1760,16 +1743,45 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1782,10 +1794,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1794,19 +1806,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1815,113 +1827,113 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8277,8 +8289,8 @@
   <sheetPr/>
   <dimension ref="A1:AE123"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="K59" sqref="K59"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="J72" sqref="J72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
@@ -8857,28 +8869,24 @@
       </c>
     </row>
     <row r="72" s="24" customFormat="1" spans="3:3">
-      <c r="C72" s="26"/>
-    </row>
-    <row r="73" s="24" customFormat="1" spans="3:3">
-      <c r="C73" s="25"/>
-    </row>
-    <row r="75" s="24" customFormat="1" spans="3:3">
-      <c r="C75" s="28"/>
-    </row>
-    <row r="76" s="24" customFormat="1" spans="5:5">
-      <c r="E76" s="28"/>
-    </row>
-    <row r="77" s="24" customFormat="1" spans="4:4">
-      <c r="D77" s="28"/>
-    </row>
-    <row r="78" s="24" customFormat="1" spans="5:5">
-      <c r="E78" s="28"/>
-    </row>
-    <row r="79" s="24" customFormat="1" spans="4:4">
-      <c r="D79" s="28"/>
-    </row>
-    <row r="80" s="24" customFormat="1" spans="3:3">
-      <c r="C80" s="28"/>
+      <c r="C72" s="24" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="73" s="24" customFormat="1" spans="4:4">
+      <c r="D73" s="24" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="74" spans="4:4">
+      <c r="D74" s="24" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="75" s="24" customFormat="1" spans="4:4">
+      <c r="D75" s="24" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="81" s="24" customFormat="1" spans="3:3">
       <c r="C81" s="28"/>
@@ -9460,12 +9468,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -9491,7 +9499,7 @@
   <sheetData>
     <row r="35" customFormat="1" spans="1:1">
       <c r="A35" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="36" customFormat="1"/>
@@ -9516,7 +9524,7 @@
     <row r="55" customFormat="1"/>
     <row r="56" customFormat="1" spans="1:1">
       <c r="A56" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="57" customFormat="1"/>
@@ -9533,12 +9541,12 @@
     <row r="68" customFormat="1"/>
     <row r="69" customFormat="1" spans="1:1">
       <c r="A69" s="14" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="70" customFormat="1" spans="1:1">
       <c r="A70" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="71" customFormat="1"/>
@@ -9553,12 +9561,12 @@
     <row r="80" customFormat="1"/>
     <row r="134" spans="1:1">
       <c r="A134" s="14" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="14" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="136" spans="1:1">
@@ -9584,20 +9592,20 @@
   <sheetData>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="H4" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -9608,7 +9616,7 @@
       <c r="C6" s="4"/>
       <c r="H6" s="5"/>
       <c r="J6" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -9617,10 +9625,10 @@
       </c>
       <c r="C7" s="4"/>
       <c r="H7" s="5" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="K7" s="8"/>
     </row>
@@ -9648,7 +9656,7 @@
       </c>
       <c r="C10" s="4"/>
       <c r="H10" s="6" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="10"/>
@@ -9659,11 +9667,11 @@
       </c>
       <c r="C11" s="4"/>
       <c r="J11" s="11" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="K11" s="4"/>
       <c r="M11" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="12" spans="2:13">
@@ -9672,16 +9680,16 @@
       </c>
       <c r="C12" s="4"/>
       <c r="J12" s="11" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="K12" s="4"/>
       <c r="M12" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="3" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C13" s="4"/>
       <c r="J13" s="9"/>
@@ -9689,7 +9697,7 @@
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="3" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C14" s="4"/>
       <c r="J14" s="9"/>
@@ -9697,7 +9705,7 @@
     </row>
     <row r="15" spans="8:11">
       <c r="H15" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="J15" s="9"/>
       <c r="K15" s="10"/>
@@ -9709,22 +9717,22 @@
     </row>
     <row r="17" spans="2:10">
       <c r="B17" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="H17" s="5"/>
       <c r="J17" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="K18" s="8"/>
     </row>
@@ -9740,20 +9748,20 @@
     </row>
     <row r="21" spans="8:11">
       <c r="H21" s="6" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="J21" s="9"/>
       <c r="K21" s="10"/>
     </row>
     <row r="22" spans="10:11">
       <c r="J22" s="11" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="10:11">
       <c r="J23" s="11" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="K23" s="4"/>
     </row>
@@ -9767,7 +9775,7 @@
     </row>
     <row r="26" spans="8:11">
       <c r="H26" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="J26" s="9"/>
       <c r="K26" s="10"/>
@@ -9780,15 +9788,15 @@
     <row r="28" spans="8:10">
       <c r="H28" s="5"/>
       <c r="J28" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="29" spans="8:11">
       <c r="H29" s="5" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="K29" s="8"/>
     </row>
@@ -9804,20 +9812,20 @@
     </row>
     <row r="32" spans="8:11">
       <c r="H32" s="6" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="J32" s="9"/>
       <c r="K32" s="10"/>
     </row>
     <row r="33" spans="10:11">
       <c r="J33" s="11" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="K33" s="4"/>
     </row>
     <row r="34" spans="10:11">
       <c r="J34" s="11" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="K34" s="4"/>
     </row>
@@ -9831,7 +9839,7 @@
     </row>
     <row r="37" spans="8:11">
       <c r="H37" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="J37" s="9"/>
       <c r="K37" s="10"/>
@@ -9844,15 +9852,15 @@
     <row r="39" spans="8:10">
       <c r="H39" s="5"/>
       <c r="J39" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="40" spans="8:11">
       <c r="H40" s="5" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="K40" s="8"/>
     </row>
@@ -9868,20 +9876,20 @@
     </row>
     <row r="43" spans="8:11">
       <c r="H43" s="6" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="J43" s="9"/>
       <c r="K43" s="10"/>
     </row>
     <row r="44" spans="10:11">
       <c r="J44" s="11" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="K44" s="4"/>
     </row>
     <row r="45" spans="10:11">
       <c r="J45" s="11" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="K45" s="4"/>
     </row>
@@ -9903,7 +9911,7 @@
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="53" s="1" customFormat="1"/>

--- a/操作系统笔记.xlsx
+++ b/操作系统笔记.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="812" activeTab="3"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="812" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="第一章" sheetId="2" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="任务控制块Init源码" sheetId="9" r:id="rId6"/>
     <sheet name="OS_Init源码" sheetId="10" r:id="rId7"/>
     <sheet name="内存中数据结构" sheetId="11" r:id="rId8"/>
+    <sheet name="书签" sheetId="14" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="400">
   <si>
     <t>操作系统</t>
   </si>
@@ -1094,27 +1095,81 @@
     <t>如果系统配置有定时器模块，执行OSTmr_Init初始化定时器，后面的空函数可以自己编写一些东西，</t>
   </si>
   <si>
+    <t>内存中的定义：</t>
+  </si>
+  <si>
+    <t>OSEventTbl[10]</t>
+  </si>
+  <si>
+    <t>事件控制块的数组</t>
+  </si>
+  <si>
+    <t>事件控制块ECB（一）</t>
+  </si>
+  <si>
     <t>OSTCBPrioTbl</t>
   </si>
   <si>
+    <t>OSEventType</t>
+  </si>
+  <si>
+    <t>事件控制块的类型</t>
+  </si>
+  <si>
     <t>任务优先级指针表</t>
   </si>
   <si>
     <t>任务堆栈</t>
   </si>
   <si>
+    <t>*OSEventPtr</t>
+  </si>
+  <si>
+    <t>指向下一个ECB</t>
+  </si>
+  <si>
     <t>指向各个控制块</t>
   </si>
   <si>
+    <t>OSEventCnt</t>
+  </si>
+  <si>
+    <t>信号量计数值</t>
+  </si>
+  <si>
     <t>任务控制块（一）TCB</t>
   </si>
   <si>
+    <t>OSEventGrp</t>
+  </si>
+  <si>
+    <t>等待事件的任务表</t>
+  </si>
+  <si>
     <t>栈顶</t>
   </si>
   <si>
     <t>*OSTCBStkPtr</t>
   </si>
   <si>
+    <t>事件空闲链表指针OSEventFreeList</t>
+  </si>
+  <si>
+    <t>OSEventTbl[10]任务数/8 + 1</t>
+  </si>
+  <si>
+    <t>等待事件的任务组</t>
+  </si>
+  <si>
+    <t>*OSEventName</t>
+  </si>
+  <si>
+    <t>事件名称</t>
+  </si>
+  <si>
+    <t>事件控制块ECB（二）</t>
+  </si>
+  <si>
     <t>栈底</t>
   </si>
   <si>
@@ -1136,6 +1191,9 @@
     <t>n</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>任务就绪组OSRdyGrp</t>
   </si>
   <si>
@@ -1145,10 +1203,22 @@
     <t>任务就绪表OSRdyTbl[OS_RDY_TBL_SIZE]</t>
   </si>
   <si>
+    <t>事件控制块ECB（十）</t>
+  </si>
+  <si>
+    <t>OSTCBTbl[21]</t>
+  </si>
+  <si>
+    <t>任务控制块的数组</t>
+  </si>
+  <si>
     <t>任务控制块（n-1）TCB，空闲任务</t>
   </si>
   <si>
     <t>任务控制块（n）TCB，统计任务</t>
+  </si>
+  <si>
+    <t>任务控制块（三）TCB</t>
   </si>
   <si>
     <t>0地址</t>
@@ -1159,10 +1229,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1209,43 +1279,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1261,6 +1295,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1268,21 +1326,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1297,7 +1370,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1313,25 +1392,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="ＭＳ ゴシック"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1343,13 +1408,18 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ ゴシック"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1364,7 +1434,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="1" tint="0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1376,7 +1518,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1388,13 +1530,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1406,19 +1590,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1430,43 +1632,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1478,101 +1644,16 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1609,14 +1690,25 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color auto="1"/>
-      </left>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -1624,37 +1716,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1678,13 +1739,105 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1700,30 +1853,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1747,18 +1876,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1766,8 +1884,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1794,10 +1912,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1806,19 +1924,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1827,145 +1945,175 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
@@ -1980,10 +2128,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2007,28 +2182,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1">
@@ -4390,13 +4565,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>322580</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>88265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>592455</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>88265</xdr:rowOff>
@@ -4408,7 +4583,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5123180" y="1116965"/>
+          <a:off x="9237980" y="1116965"/>
           <a:ext cx="955675" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4437,13 +4612,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>183515</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>103505</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>8255</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>103505</xdr:rowOff>
@@ -4455,7 +4630,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7041515" y="1818005"/>
+          <a:off x="11156315" y="1818005"/>
           <a:ext cx="1196340" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4484,13 +4659,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>344805</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>80645</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>614680</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>80645</xdr:rowOff>
@@ -4502,7 +4677,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5145405" y="2995295"/>
+          <a:off x="9260205" y="2995295"/>
           <a:ext cx="955675" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4531,13 +4706,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>344805</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>80645</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>614680</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>80645</xdr:rowOff>
@@ -4549,7 +4724,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5145405" y="4881245"/>
+          <a:off x="9260205" y="4881245"/>
           <a:ext cx="955675" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4578,13 +4753,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>344805</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>80645</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>614680</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>80645</xdr:rowOff>
@@ -4596,7 +4771,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5145405" y="6767195"/>
+          <a:off x="9260205" y="6767195"/>
           <a:ext cx="955675" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4625,13 +4800,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>624205</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>84455</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>76835</xdr:rowOff>
@@ -4646,7 +4821,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipH="1" flipV="1">
-          <a:off x="6110605" y="1798955"/>
+          <a:off x="10225405" y="1798955"/>
           <a:ext cx="74295" cy="1878330"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -4677,13 +4852,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>8890</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>109855</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>26035</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>102235</xdr:rowOff>
@@ -4695,7 +4870,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipH="1" flipV="1">
-          <a:off x="6181090" y="3710305"/>
+          <a:off x="10295890" y="3710305"/>
           <a:ext cx="17145" cy="1878330"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -4726,13 +4901,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>606425</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>154940</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>623570</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>147320</xdr:rowOff>
@@ -4744,7 +4919,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipH="1" flipV="1">
-          <a:off x="6092825" y="5641340"/>
+          <a:off x="10207625" y="5641340"/>
           <a:ext cx="17145" cy="1878330"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -4775,13 +4950,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>621030</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>149225</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>17780</xdr:rowOff>
@@ -4796,7 +4971,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7479030" y="7477125"/>
+          <a:off x="11593830" y="7477125"/>
           <a:ext cx="213995" cy="1456055"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
@@ -4825,13 +5000,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>388620</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>168910</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>59690</xdr:colOff>
       <xdr:row>59</xdr:row>
       <xdr:rowOff>116840</xdr:rowOff>
@@ -4843,7 +5018,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11361420" y="9598660"/>
+          <a:off x="15476220" y="9598660"/>
           <a:ext cx="1042670" cy="633730"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4977,13 +5152,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>164465</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>20955</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>463550</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>146685</xdr:rowOff>
@@ -4995,7 +5170,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8394065" y="9793605"/>
+          <a:off x="12508865" y="9793605"/>
           <a:ext cx="984885" cy="640080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5129,13 +5304,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>627697</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>167957</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>223837</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>145732</xdr:rowOff>
@@ -5150,7 +5325,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="9951720" y="8502015"/>
+          <a:off x="14066520" y="8502015"/>
           <a:ext cx="835025" cy="3025140"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector5">
@@ -5183,13 +5358,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>288925</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>77470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>288925</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
@@ -5204,7 +5379,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="6406515" y="5446395"/>
+          <a:off x="10521315" y="5446395"/>
           <a:ext cx="6967220" cy="635"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -5235,13 +5410,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>210185</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>35560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>230505</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>165735</xdr:rowOff>
@@ -5261,7 +5436,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="210185" y="3121660"/>
+          <a:off x="4324985" y="3121660"/>
           <a:ext cx="2763520" cy="1330325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5277,13 +5452,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>6985</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>64135</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>111760</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>121285</xdr:rowOff>
@@ -5298,7 +5473,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2064385" y="921385"/>
+          <a:off x="6179185" y="921385"/>
           <a:ext cx="4219575" cy="57150"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector4">
@@ -5326,6 +5501,256 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>173355</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>653415</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>48895</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="肘形连接符 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14575155" y="1136650"/>
+          <a:ext cx="1851660" cy="112395"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50017"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>685165</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>132080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>51435</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="肘形连接符 4"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="1"/>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="16458565" y="1332230"/>
+          <a:ext cx="635" cy="1290955"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 37600000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>138430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>43815</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="肘形连接符 7"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="1"/>
+          <a:endCxn id="9" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="16465550" y="2710180"/>
+          <a:ext cx="8890" cy="1619885"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 3850000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>429260</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>131445</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>672465</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="肘形连接符 11"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="1"/>
+          <a:endCxn id="13" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="16202660" y="4417695"/>
+          <a:ext cx="243205" cy="4490085"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="14525625" cy="9039225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5626,799 +6051,799 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="4.875" style="16"/>
+    <col min="1" max="16384" width="4.875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" s="15" customFormat="1" ht="22.5" spans="1:31">
-      <c r="A1" s="16"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="H1" s="16" t="s">
+    <row r="1" s="28" customFormat="1" ht="22.5" spans="1:31">
+      <c r="A1" s="35"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="H1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16" t="s">
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="T1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="16" t="s">
+      <c r="U1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="17" t="s">
+      <c r="V1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="W1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="17"/>
-    </row>
-    <row r="2" s="15" customFormat="1" spans="1:27">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16" t="s">
+      <c r="X1" s="36"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="36"/>
+    </row>
+    <row r="2" s="28" customFormat="1" spans="1:27">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="16" t="s">
+      <c r="T2" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="16" t="s">
+      <c r="U2" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="V2" s="16" t="s">
+      <c r="V2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="16" t="s">
+      <c r="W2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="22"/>
-    </row>
-    <row r="3" s="15" customFormat="1" spans="1:10">
-      <c r="A3" s="16" t="s">
+      <c r="X2" s="36"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="41"/>
+    </row>
+    <row r="3" s="28" customFormat="1" spans="1:10">
+      <c r="A3" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" s="15" customFormat="1" spans="1:10">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16" t="s">
+      <c r="B3" s="35"/>
+      <c r="J3" s="35"/>
+    </row>
+    <row r="4" s="28" customFormat="1" spans="1:10">
+      <c r="A4" s="35"/>
+      <c r="B4" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="J4" s="16"/>
-    </row>
-    <row r="5" s="15" customFormat="1" spans="1:10">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17">
+      <c r="C4" s="35"/>
+      <c r="J4" s="35"/>
+    </row>
+    <row r="5" s="28" customFormat="1" spans="1:10">
+      <c r="A5" s="35"/>
+      <c r="B5" s="36">
         <v>1.2</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="J5" s="16"/>
-    </row>
-    <row r="6" s="15" customFormat="1" spans="1:10">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17">
+      <c r="C5" s="35"/>
+      <c r="J5" s="35"/>
+    </row>
+    <row r="6" s="28" customFormat="1" spans="1:10">
+      <c r="A6" s="35"/>
+      <c r="B6" s="36">
         <v>1.3</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="J6" s="16"/>
-    </row>
-    <row r="7" s="15" customFormat="1" spans="1:10">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="16"/>
-      <c r="J7" s="16"/>
-    </row>
-    <row r="8" s="15" customFormat="1" spans="1:10">
-      <c r="A8" s="16"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="16"/>
-      <c r="J8" s="16"/>
-    </row>
-    <row r="9" s="15" customFormat="1" spans="1:10">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="16"/>
-      <c r="J9" s="16"/>
-    </row>
-    <row r="10" s="15" customFormat="1" spans="1:10">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="16"/>
-      <c r="J10" s="16"/>
-    </row>
-    <row r="11" s="15" customFormat="1" spans="1:10">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="16"/>
-      <c r="J11" s="16"/>
-    </row>
-    <row r="12" s="15" customFormat="1" spans="1:10">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="16"/>
-      <c r="J12" s="16"/>
-    </row>
-    <row r="13" s="15" customFormat="1" spans="1:10">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="16"/>
-      <c r="J13" s="16"/>
-    </row>
-    <row r="14" s="15" customFormat="1" spans="1:10">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="16"/>
-      <c r="J14" s="16"/>
-    </row>
-    <row r="15" s="15" customFormat="1" spans="1:10">
-      <c r="A15" s="16"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="16"/>
-      <c r="J15" s="16"/>
-    </row>
-    <row r="16" s="15" customFormat="1" spans="1:10">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="16"/>
-      <c r="J16" s="16"/>
-    </row>
-    <row r="17" s="15" customFormat="1" spans="1:10">
-      <c r="A17" s="16"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="16"/>
-      <c r="J17" s="16"/>
-    </row>
-    <row r="18" s="15" customFormat="1" spans="1:10">
-      <c r="A18" s="16"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="16"/>
-      <c r="J18" s="16"/>
-    </row>
-    <row r="19" s="15" customFormat="1" spans="1:10">
-      <c r="A19" s="16"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="16"/>
-      <c r="J19" s="16"/>
-    </row>
-    <row r="20" s="15" customFormat="1" spans="1:10">
-      <c r="A20" s="16"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="16"/>
-      <c r="J20" s="16"/>
-    </row>
-    <row r="21" s="15" customFormat="1" spans="1:10">
-      <c r="A21" s="16"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="16"/>
-      <c r="J21" s="16"/>
-    </row>
-    <row r="22" s="15" customFormat="1" spans="1:10">
-      <c r="A22" s="16"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="16"/>
-      <c r="J22" s="16"/>
-    </row>
-    <row r="23" s="15" customFormat="1" spans="1:10">
-      <c r="A23" s="16"/>
-      <c r="B23" s="17">
+      <c r="C6" s="35"/>
+      <c r="J6" s="35"/>
+    </row>
+    <row r="7" s="28" customFormat="1" spans="1:10">
+      <c r="A7" s="35"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="35"/>
+      <c r="J7" s="35"/>
+    </row>
+    <row r="8" s="28" customFormat="1" spans="1:10">
+      <c r="A8" s="35"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="35"/>
+      <c r="J8" s="35"/>
+    </row>
+    <row r="9" s="28" customFormat="1" spans="1:10">
+      <c r="A9" s="35"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="35"/>
+      <c r="J9" s="35"/>
+    </row>
+    <row r="10" s="28" customFormat="1" spans="1:10">
+      <c r="A10" s="35"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="35"/>
+      <c r="J10" s="35"/>
+    </row>
+    <row r="11" s="28" customFormat="1" spans="1:10">
+      <c r="A11" s="35"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="35"/>
+      <c r="J11" s="35"/>
+    </row>
+    <row r="12" s="28" customFormat="1" spans="1:10">
+      <c r="A12" s="35"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="35"/>
+      <c r="J12" s="35"/>
+    </row>
+    <row r="13" s="28" customFormat="1" spans="1:10">
+      <c r="A13" s="35"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="35"/>
+      <c r="J13" s="35"/>
+    </row>
+    <row r="14" s="28" customFormat="1" spans="1:10">
+      <c r="A14" s="35"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="35"/>
+      <c r="J14" s="35"/>
+    </row>
+    <row r="15" s="28" customFormat="1" spans="1:10">
+      <c r="A15" s="35"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="35"/>
+      <c r="J15" s="35"/>
+    </row>
+    <row r="16" s="28" customFormat="1" spans="1:10">
+      <c r="A16" s="35"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="35"/>
+      <c r="J16" s="35"/>
+    </row>
+    <row r="17" s="28" customFormat="1" spans="1:10">
+      <c r="A17" s="35"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="35"/>
+      <c r="J17" s="35"/>
+    </row>
+    <row r="18" s="28" customFormat="1" spans="1:10">
+      <c r="A18" s="35"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="35"/>
+      <c r="J18" s="35"/>
+    </row>
+    <row r="19" s="28" customFormat="1" spans="1:10">
+      <c r="A19" s="35"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="35"/>
+      <c r="J19" s="35"/>
+    </row>
+    <row r="20" s="28" customFormat="1" spans="1:10">
+      <c r="A20" s="35"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="35"/>
+      <c r="J20" s="35"/>
+    </row>
+    <row r="21" s="28" customFormat="1" spans="1:10">
+      <c r="A21" s="35"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="35"/>
+      <c r="J21" s="35"/>
+    </row>
+    <row r="22" s="28" customFormat="1" spans="1:10">
+      <c r="A22" s="35"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="35"/>
+      <c r="J22" s="35"/>
+    </row>
+    <row r="23" s="28" customFormat="1" spans="1:10">
+      <c r="A23" s="35"/>
+      <c r="B23" s="36">
         <v>1.4</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="J23" s="16"/>
-    </row>
-    <row r="24" s="15" customFormat="1" spans="1:10">
-      <c r="A24" s="16"/>
-      <c r="B24" s="17" t="s">
+      <c r="C23" s="35"/>
+      <c r="J23" s="35"/>
+    </row>
+    <row r="24" s="28" customFormat="1" spans="1:10">
+      <c r="A24" s="35"/>
+      <c r="B24" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="J24" s="16"/>
-    </row>
-    <row r="25" s="15" customFormat="1" spans="1:10">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="17" t="s">
+      <c r="C24" s="35"/>
+      <c r="J24" s="35"/>
+    </row>
+    <row r="25" s="28" customFormat="1" spans="1:10">
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="J25" s="16"/>
-    </row>
-    <row r="26" s="15" customFormat="1" spans="1:10">
-      <c r="A26" s="16"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="15" t="s">
+      <c r="J25" s="35"/>
+    </row>
+    <row r="26" s="28" customFormat="1" spans="1:10">
+      <c r="A26" s="35"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="J26" s="16"/>
-    </row>
-    <row r="27" s="15" customFormat="1" spans="1:10">
-      <c r="A27" s="16"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="15" t="s">
+      <c r="J26" s="35"/>
+    </row>
+    <row r="27" s="28" customFormat="1" spans="1:10">
+      <c r="A27" s="35"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="J27" s="16"/>
-    </row>
-    <row r="28" s="15" customFormat="1" spans="1:10">
-      <c r="A28" s="16"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="15" t="s">
+      <c r="J27" s="35"/>
+    </row>
+    <row r="28" s="28" customFormat="1" spans="1:10">
+      <c r="A28" s="35"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="J28" s="16"/>
-    </row>
-    <row r="29" s="15" customFormat="1" spans="1:10">
-      <c r="A29" s="16"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="15" t="s">
+      <c r="J28" s="35"/>
+    </row>
+    <row r="29" s="28" customFormat="1" spans="1:10">
+      <c r="A29" s="35"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="J29" s="16"/>
-    </row>
-    <row r="30" s="15" customFormat="1" spans="1:10">
-      <c r="A30" s="16"/>
-      <c r="B30" s="17"/>
-      <c r="D30" s="15" t="s">
+      <c r="J29" s="35"/>
+    </row>
+    <row r="30" s="28" customFormat="1" spans="1:10">
+      <c r="A30" s="35"/>
+      <c r="B30" s="36"/>
+      <c r="D30" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="J30" s="16"/>
-    </row>
-    <row r="31" s="15" customFormat="1" spans="3:10">
-      <c r="C31" s="17" t="s">
+      <c r="J30" s="35"/>
+    </row>
+    <row r="31" s="28" customFormat="1" spans="3:10">
+      <c r="C31" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="16"/>
-    </row>
-    <row r="32" s="15" customFormat="1" spans="1:10">
-      <c r="A32" s="16"/>
-      <c r="B32" s="18"/>
-      <c r="D32" s="15" t="s">
+      <c r="J31" s="35"/>
+    </row>
+    <row r="32" s="28" customFormat="1" spans="1:10">
+      <c r="A32" s="35"/>
+      <c r="B32" s="37"/>
+      <c r="D32" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="J32" s="16"/>
-    </row>
-    <row r="33" s="15" customFormat="1" spans="1:10">
-      <c r="A33" s="16"/>
-      <c r="B33" s="18"/>
-      <c r="D33" s="15" t="s">
+      <c r="J32" s="35"/>
+    </row>
+    <row r="33" s="28" customFormat="1" spans="1:10">
+      <c r="A33" s="35"/>
+      <c r="B33" s="37"/>
+      <c r="D33" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="J33" s="16"/>
-    </row>
-    <row r="34" s="15" customFormat="1" spans="4:10">
-      <c r="D34" s="15" t="s">
+      <c r="J33" s="35"/>
+    </row>
+    <row r="34" s="28" customFormat="1" spans="4:10">
+      <c r="D34" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="J34" s="16"/>
-    </row>
-    <row r="35" s="15" customFormat="1" spans="1:10">
-      <c r="A35" s="16"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="17" t="s">
+      <c r="J34" s="35"/>
+    </row>
+    <row r="35" s="28" customFormat="1" spans="1:10">
+      <c r="A35" s="35"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="J35" s="16"/>
-    </row>
-    <row r="36" s="15" customFormat="1" spans="1:10">
-      <c r="A36" s="16"/>
-      <c r="B36" s="18"/>
-      <c r="D36" s="15" t="s">
+      <c r="J35" s="35"/>
+    </row>
+    <row r="36" s="28" customFormat="1" spans="1:10">
+      <c r="A36" s="35"/>
+      <c r="B36" s="37"/>
+      <c r="D36" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="J36" s="16"/>
-    </row>
-    <row r="37" s="15" customFormat="1" spans="4:10">
-      <c r="D37" s="15" t="s">
+      <c r="J36" s="35"/>
+    </row>
+    <row r="37" s="28" customFormat="1" spans="4:10">
+      <c r="D37" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="J37" s="16"/>
-    </row>
-    <row r="38" s="15" customFormat="1" spans="4:10">
-      <c r="D38" s="15" t="s">
+      <c r="J37" s="35"/>
+    </row>
+    <row r="38" s="28" customFormat="1" spans="4:10">
+      <c r="D38" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="J38" s="16"/>
-    </row>
-    <row r="39" s="15" customFormat="1" spans="1:10">
-      <c r="A39" s="16"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="15" t="s">
+      <c r="J38" s="35"/>
+    </row>
+    <row r="39" s="28" customFormat="1" spans="1:10">
+      <c r="A39" s="35"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J39" s="16"/>
-    </row>
-    <row r="40" s="15" customFormat="1" spans="1:10">
-      <c r="A40" s="16"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="17" t="s">
+      <c r="J39" s="35"/>
+    </row>
+    <row r="40" s="28" customFormat="1" spans="1:10">
+      <c r="A40" s="35"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="J40" s="16"/>
-    </row>
-    <row r="41" s="15" customFormat="1" spans="1:10">
-      <c r="A41" s="16"/>
-      <c r="B41" s="18"/>
-      <c r="D41" s="15" t="s">
+      <c r="J40" s="35"/>
+    </row>
+    <row r="41" s="28" customFormat="1" spans="1:10">
+      <c r="A41" s="35"/>
+      <c r="B41" s="37"/>
+      <c r="D41" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="J41" s="16"/>
-    </row>
-    <row r="42" s="15" customFormat="1" spans="4:10">
-      <c r="D42" s="15" t="s">
+      <c r="J41" s="35"/>
+    </row>
+    <row r="42" s="28" customFormat="1" spans="4:10">
+      <c r="D42" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="J42" s="16"/>
-    </row>
-    <row r="43" s="15" customFormat="1" spans="4:10">
-      <c r="D43" s="15" t="s">
+      <c r="J42" s="35"/>
+    </row>
+    <row r="43" s="28" customFormat="1" spans="4:10">
+      <c r="D43" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="J43" s="16"/>
-    </row>
-    <row r="44" s="15" customFormat="1" spans="3:10">
-      <c r="C44" s="17" t="s">
+      <c r="J43" s="35"/>
+    </row>
+    <row r="44" s="28" customFormat="1" spans="3:10">
+      <c r="C44" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="J44" s="16"/>
-    </row>
-    <row r="45" s="15" customFormat="1" spans="1:10">
-      <c r="A45" s="16"/>
-      <c r="D45" s="15" t="s">
+      <c r="J44" s="35"/>
+    </row>
+    <row r="45" s="28" customFormat="1" spans="1:10">
+      <c r="A45" s="35"/>
+      <c r="D45" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="J45" s="16"/>
-    </row>
-    <row r="46" s="15" customFormat="1" spans="1:10">
-      <c r="A46" s="16"/>
-      <c r="B46" s="18"/>
-      <c r="D46" s="15" t="s">
+      <c r="J45" s="35"/>
+    </row>
+    <row r="46" s="28" customFormat="1" spans="1:10">
+      <c r="A46" s="35"/>
+      <c r="B46" s="37"/>
+      <c r="D46" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="J46" s="16"/>
-    </row>
-    <row r="47" s="15" customFormat="1" spans="4:10">
-      <c r="D47" s="15" t="s">
+      <c r="J46" s="35"/>
+    </row>
+    <row r="47" s="28" customFormat="1" spans="4:10">
+      <c r="D47" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="J47" s="16"/>
-    </row>
-    <row r="48" s="15" customFormat="1" spans="1:10">
-      <c r="A48" s="16"/>
-      <c r="D48" s="16" t="s">
+      <c r="J47" s="35"/>
+    </row>
+    <row r="48" s="28" customFormat="1" spans="1:10">
+      <c r="A48" s="35"/>
+      <c r="D48" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="J48" s="16"/>
-    </row>
-    <row r="49" s="15" customFormat="1" spans="1:10">
-      <c r="A49" s="16"/>
-      <c r="B49" s="16"/>
-      <c r="E49" s="15" t="s">
+      <c r="J48" s="35"/>
+    </row>
+    <row r="49" s="28" customFormat="1" spans="1:10">
+      <c r="A49" s="35"/>
+      <c r="B49" s="35"/>
+      <c r="E49" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="J49" s="16"/>
-    </row>
-    <row r="50" s="15" customFormat="1" spans="1:10">
-      <c r="A50" s="16"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="E50" s="15" t="s">
+      <c r="J49" s="35"/>
+    </row>
+    <row r="50" s="28" customFormat="1" spans="1:10">
+      <c r="A50" s="35"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="E50" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="J50" s="16"/>
-    </row>
-    <row r="51" s="15" customFormat="1" spans="1:16">
-      <c r="A51" s="16"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16" t="s">
+      <c r="J50" s="35"/>
+    </row>
+    <row r="51" s="28" customFormat="1" spans="1:16">
+      <c r="A51" s="35"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="16"/>
-      <c r="L51" s="16"/>
-      <c r="M51" s="16"/>
-      <c r="N51" s="16"/>
-      <c r="O51" s="16"/>
-      <c r="P51" s="21"/>
-    </row>
-    <row r="52" s="15" customFormat="1" spans="1:10">
-      <c r="A52" s="16"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="E52" s="15" t="s">
+      <c r="E51" s="35"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="35"/>
+      <c r="K51" s="35"/>
+      <c r="L51" s="35"/>
+      <c r="M51" s="35"/>
+      <c r="N51" s="35"/>
+      <c r="O51" s="35"/>
+      <c r="P51" s="40"/>
+    </row>
+    <row r="52" s="28" customFormat="1" spans="1:10">
+      <c r="A52" s="35"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="E52" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="J52" s="16"/>
-    </row>
-    <row r="53" s="15" customFormat="1" spans="1:10">
-      <c r="A53" s="16"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16" t="s">
+      <c r="J52" s="35"/>
+    </row>
+    <row r="53" s="28" customFormat="1" spans="1:10">
+      <c r="A53" s="35"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="J53" s="16"/>
-    </row>
-    <row r="54" s="15" customFormat="1" spans="1:10">
-      <c r="A54" s="16"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-      <c r="E54" s="15" t="s">
+      <c r="J53" s="35"/>
+    </row>
+    <row r="54" s="28" customFormat="1" spans="1:10">
+      <c r="A54" s="35"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
+      <c r="E54" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="J54" s="16"/>
-    </row>
-    <row r="55" s="15" customFormat="1" spans="1:16">
-      <c r="A55" s="16"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16" t="s">
+      <c r="J54" s="35"/>
+    </row>
+    <row r="55" s="28" customFormat="1" spans="1:16">
+      <c r="A55" s="35"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="16"/>
-      <c r="L55" s="16"/>
-      <c r="M55" s="16"/>
-      <c r="N55" s="16"/>
-      <c r="O55" s="16"/>
-      <c r="P55" s="21"/>
-    </row>
-    <row r="56" s="15" customFormat="1" spans="1:10">
-      <c r="A56" s="16"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="17"/>
-      <c r="J56" s="16"/>
-    </row>
-    <row r="57" s="15" customFormat="1" spans="1:10">
-      <c r="A57" s="16"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="17"/>
-      <c r="J57" s="16"/>
-    </row>
-    <row r="58" s="15" customFormat="1" spans="1:10">
-      <c r="A58" s="16"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
-      <c r="J58" s="16"/>
-    </row>
-    <row r="59" s="15" customFormat="1" spans="1:10">
-      <c r="A59" s="16"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
-      <c r="J59" s="16"/>
-    </row>
-    <row r="60" s="15" customFormat="1" spans="1:10">
-      <c r="A60" s="16"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
-      <c r="J60" s="16"/>
-    </row>
-    <row r="61" s="15" customFormat="1" spans="1:10">
-      <c r="A61" s="16"/>
-      <c r="B61" s="16"/>
-      <c r="C61" s="16"/>
-      <c r="J61" s="16"/>
-    </row>
-    <row r="66" s="16" customFormat="1" spans="2:2">
-      <c r="B66" s="18"/>
-    </row>
-    <row r="69" s="16" customFormat="1" spans="5:5">
-      <c r="E69" s="16" t="s">
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="35"/>
+      <c r="J55" s="35"/>
+      <c r="K55" s="35"/>
+      <c r="L55" s="35"/>
+      <c r="M55" s="35"/>
+      <c r="N55" s="35"/>
+      <c r="O55" s="35"/>
+      <c r="P55" s="40"/>
+    </row>
+    <row r="56" s="28" customFormat="1" spans="1:10">
+      <c r="A56" s="35"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="36"/>
+      <c r="J56" s="35"/>
+    </row>
+    <row r="57" s="28" customFormat="1" spans="1:10">
+      <c r="A57" s="35"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="36"/>
+      <c r="J57" s="35"/>
+    </row>
+    <row r="58" s="28" customFormat="1" spans="1:10">
+      <c r="A58" s="35"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="35"/>
+      <c r="J58" s="35"/>
+    </row>
+    <row r="59" s="28" customFormat="1" spans="1:10">
+      <c r="A59" s="35"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="35"/>
+      <c r="J59" s="35"/>
+    </row>
+    <row r="60" s="28" customFormat="1" spans="1:10">
+      <c r="A60" s="35"/>
+      <c r="B60" s="35"/>
+      <c r="C60" s="35"/>
+      <c r="J60" s="35"/>
+    </row>
+    <row r="61" s="28" customFormat="1" spans="1:10">
+      <c r="A61" s="35"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="35"/>
+      <c r="J61" s="35"/>
+    </row>
+    <row r="66" s="35" customFormat="1" spans="2:2">
+      <c r="B66" s="37"/>
+    </row>
+    <row r="69" s="35" customFormat="1" spans="5:5">
+      <c r="E69" s="35" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="70" s="16" customFormat="1" spans="5:5">
-      <c r="E70" s="16" t="s">
+    <row r="70" s="35" customFormat="1" spans="5:5">
+      <c r="E70" s="35" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="71" s="16" customFormat="1" spans="5:5">
-      <c r="E71" s="16" t="s">
+    <row r="71" s="35" customFormat="1" spans="5:5">
+      <c r="E71" s="35" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="72" s="16" customFormat="1" spans="3:5">
-      <c r="C72" s="18"/>
-      <c r="E72" s="16" t="s">
+    <row r="72" s="35" customFormat="1" spans="3:5">
+      <c r="C72" s="37"/>
+      <c r="E72" s="35" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="73" s="16" customFormat="1" spans="3:3">
-      <c r="C73" s="17" t="s">
+    <row r="73" s="35" customFormat="1" spans="3:3">
+      <c r="C73" s="36" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="74" s="16" customFormat="1" spans="4:4">
-      <c r="D74" s="16" t="s">
+    <row r="74" s="35" customFormat="1" spans="4:4">
+      <c r="D74" s="35" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="75" s="16" customFormat="1" spans="3:4">
-      <c r="C75" s="21"/>
-      <c r="D75" s="16" t="s">
+    <row r="75" s="35" customFormat="1" spans="3:4">
+      <c r="C75" s="40"/>
+      <c r="D75" s="35" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="76" s="16" customFormat="1" spans="4:5">
-      <c r="D76" s="16" t="s">
+    <row r="76" s="35" customFormat="1" spans="4:5">
+      <c r="D76" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="E76" s="21"/>
-    </row>
-    <row r="77" s="16" customFormat="1" spans="4:4">
-      <c r="D77" s="21" t="s">
+      <c r="E76" s="40"/>
+    </row>
+    <row r="77" s="35" customFormat="1" spans="4:4">
+      <c r="D77" s="40" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="78" s="16" customFormat="1" spans="4:5">
-      <c r="D78" s="16" t="s">
+    <row r="78" s="35" customFormat="1" spans="4:5">
+      <c r="D78" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="E78" s="21"/>
-    </row>
-    <row r="79" s="16" customFormat="1" spans="4:4">
-      <c r="D79" s="21" t="s">
+      <c r="E78" s="40"/>
+    </row>
+    <row r="79" s="35" customFormat="1" spans="4:4">
+      <c r="D79" s="40" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="80" s="16" customFormat="1" spans="3:4">
-      <c r="C80" s="21"/>
-      <c r="D80" s="16" t="s">
+    <row r="80" s="35" customFormat="1" spans="3:4">
+      <c r="C80" s="40"/>
+      <c r="D80" s="35" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="81" s="16" customFormat="1" spans="3:4">
-      <c r="C81" s="21"/>
-      <c r="D81" s="16" t="s">
+    <row r="81" s="35" customFormat="1" spans="3:4">
+      <c r="C81" s="40"/>
+      <c r="D81" s="35" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="82" s="16" customFormat="1" spans="3:3">
-      <c r="C82" s="17" t="s">
+    <row r="82" s="35" customFormat="1" spans="3:3">
+      <c r="C82" s="36" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="83" s="16" customFormat="1" spans="3:4">
-      <c r="C83" s="21"/>
-      <c r="D83" s="16" t="s">
+    <row r="83" s="35" customFormat="1" spans="3:4">
+      <c r="C83" s="40"/>
+      <c r="D83" s="35" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="84" s="16" customFormat="1" spans="3:4">
-      <c r="C84" s="21"/>
-      <c r="D84" s="16" t="s">
+    <row r="84" s="35" customFormat="1" spans="3:4">
+      <c r="C84" s="40"/>
+      <c r="D84" s="35" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="85" s="16" customFormat="1" spans="3:3">
-      <c r="C85" s="17" t="s">
+    <row r="85" s="35" customFormat="1" spans="3:3">
+      <c r="C85" s="36" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="86" s="16" customFormat="1" spans="4:4">
-      <c r="D86" s="16" t="s">
+    <row r="86" s="35" customFormat="1" spans="4:4">
+      <c r="D86" s="35" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="87" s="16" customFormat="1" spans="5:5">
-      <c r="E87" s="16" t="s">
+    <row r="87" s="35" customFormat="1" spans="5:5">
+      <c r="E87" s="35" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="88" s="16" customFormat="1" spans="5:5">
-      <c r="E88" s="16" t="s">
+    <row r="88" s="35" customFormat="1" spans="5:5">
+      <c r="E88" s="35" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="89" s="16" customFormat="1" spans="5:5">
-      <c r="E89" s="16" t="s">
+    <row r="89" s="35" customFormat="1" spans="5:5">
+      <c r="E89" s="35" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="90" s="16" customFormat="1" spans="5:5">
-      <c r="E90" s="16" t="s">
+    <row r="90" s="35" customFormat="1" spans="5:5">
+      <c r="E90" s="35" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="91" s="16" customFormat="1" spans="3:5">
-      <c r="C91" s="17"/>
-      <c r="E91" s="17" t="s">
+    <row r="91" s="35" customFormat="1" spans="3:5">
+      <c r="C91" s="36"/>
+      <c r="E91" s="36" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="92" s="16" customFormat="1" spans="3:5">
-      <c r="C92" s="18"/>
-      <c r="E92" s="16" t="s">
+    <row r="92" s="35" customFormat="1" spans="3:5">
+      <c r="C92" s="37"/>
+      <c r="E92" s="35" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="93" spans="5:5">
-      <c r="E93" s="16" t="s">
+      <c r="E93" s="35" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="105" spans="5:5">
-      <c r="E105" s="16" t="s">
+      <c r="E105" s="35" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="106" spans="6:6">
-      <c r="F106" s="16" t="s">
+      <c r="F106" s="35" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="107" spans="6:6">
-      <c r="F107" s="16" t="s">
+      <c r="F107" s="35" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="108" spans="6:6">
-      <c r="F108" s="16" t="s">
+      <c r="F108" s="35" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="109" spans="4:4">
-      <c r="D109" s="16" t="s">
+      <c r="D109" s="35" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="110" spans="5:5">
-      <c r="E110" s="16" t="s">
+      <c r="E110" s="35" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="111" spans="5:5">
-      <c r="E111" s="16" t="s">
+      <c r="E111" s="35" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="112" spans="5:5">
-      <c r="E112" s="16" t="s">
+      <c r="E112" s="35" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="113" spans="5:5">
-      <c r="E113" s="16" t="s">
+      <c r="E113" s="35" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="114" spans="2:2">
-      <c r="B114" s="17" t="s">
+      <c r="B114" s="36" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="115" spans="2:3">
-      <c r="B115" s="17"/>
-      <c r="C115" s="16" t="s">
+      <c r="B115" s="36"/>
+      <c r="C115" s="35" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="116" spans="2:4">
-      <c r="B116" s="17"/>
-      <c r="D116" s="16" t="s">
+      <c r="B116" s="36"/>
+      <c r="D116" s="35" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="117" spans="2:4">
-      <c r="B117" s="17"/>
-      <c r="D117" s="16" t="s">
+      <c r="B117" s="36"/>
+      <c r="D117" s="35" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="118" spans="2:3">
-      <c r="B118" s="17"/>
-      <c r="C118" s="16" t="s">
+      <c r="B118" s="36"/>
+      <c r="C118" s="35" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="119" spans="2:4">
-      <c r="B119" s="17"/>
-      <c r="D119" s="16" t="s">
+      <c r="B119" s="36"/>
+      <c r="D119" s="35" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="120" spans="2:4">
-      <c r="B120" s="17"/>
-      <c r="D120" s="16" t="s">
+      <c r="B120" s="36"/>
+      <c r="D120" s="35" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="121" spans="2:4">
-      <c r="B121" s="17"/>
-      <c r="D121" s="16" t="s">
+      <c r="B121" s="36"/>
+      <c r="D121" s="35" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="122" spans="2:4">
-      <c r="B122" s="17"/>
-      <c r="D122" s="16" t="s">
+      <c r="B122" s="36"/>
+      <c r="D122" s="35" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="123" spans="2:4">
-      <c r="B123" s="17"/>
-      <c r="D123" s="16" t="s">
+      <c r="B123" s="36"/>
+      <c r="D123" s="35" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="124" spans="2:2">
-      <c r="B124" s="16" t="s">
+      <c r="B124" s="35" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="125" spans="3:3">
-      <c r="C125" s="16" t="s">
+      <c r="C125" s="35" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="126" spans="3:3">
-      <c r="C126" s="16" t="s">
+      <c r="C126" s="35" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="127" spans="3:3">
-      <c r="C127" s="16" t="s">
+      <c r="C127" s="35" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="128" spans="3:3">
-      <c r="C128" s="16" t="s">
+      <c r="C128" s="35" t="s">
         <v>93</v>
       </c>
     </row>
@@ -6440,1198 +6865,1198 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="4.875" style="16"/>
+    <col min="1" max="16384" width="4.875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" s="15" customFormat="1" ht="22.5" spans="1:31">
-      <c r="A1" s="16"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="H1" s="16" t="s">
+    <row r="1" s="28" customFormat="1" ht="22.5" spans="1:31">
+      <c r="A1" s="35"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="H1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16" t="s">
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="S1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="T1" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="U1" s="16" t="s">
+      <c r="U1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="17" t="s">
+      <c r="V1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="W1" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="17"/>
-    </row>
-    <row r="2" s="15" customFormat="1" spans="1:27">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16" t="s">
+      <c r="X1" s="36"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="36"/>
+    </row>
+    <row r="2" s="28" customFormat="1" spans="1:27">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="16" t="s">
+      <c r="S2" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="T2" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="U2" s="16" t="s">
+      <c r="U2" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="V2" s="16" t="s">
+      <c r="V2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="16" t="s">
+      <c r="W2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="22"/>
-    </row>
-    <row r="3" s="15" customFormat="1" spans="1:10">
-      <c r="A3" s="16" t="s">
+      <c r="X2" s="36"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="41"/>
+    </row>
+    <row r="3" s="28" customFormat="1" spans="1:10">
+      <c r="A3" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" s="15" customFormat="1" spans="1:10">
-      <c r="A4" s="16"/>
-      <c r="B4" s="17" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="J3" s="35"/>
+    </row>
+    <row r="4" s="28" customFormat="1" spans="1:10">
+      <c r="A4" s="35"/>
+      <c r="B4" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="J4" s="16"/>
-    </row>
-    <row r="5" s="15" customFormat="1" spans="1:10">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="16" t="s">
+      <c r="C4" s="35"/>
+      <c r="J4" s="35"/>
+    </row>
+    <row r="5" s="28" customFormat="1" spans="1:10">
+      <c r="A5" s="35"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="J5" s="16"/>
-    </row>
-    <row r="6" s="15" customFormat="1" spans="1:10">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="16" t="s">
+      <c r="J5" s="35"/>
+    </row>
+    <row r="6" s="28" customFormat="1" spans="1:10">
+      <c r="A6" s="35"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="J6" s="16"/>
-    </row>
-    <row r="7" s="15" customFormat="1" spans="1:10">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="16" t="s">
+      <c r="J6" s="35"/>
+    </row>
+    <row r="7" s="28" customFormat="1" spans="1:10">
+      <c r="A7" s="35"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="J7" s="16"/>
-    </row>
-    <row r="8" s="15" customFormat="1" spans="1:10">
-      <c r="A8" s="16"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="16" t="s">
+      <c r="J7" s="35"/>
+    </row>
+    <row r="8" s="28" customFormat="1" spans="1:10">
+      <c r="A8" s="35"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="J8" s="16"/>
-    </row>
-    <row r="9" s="15" customFormat="1" spans="1:10">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="16" t="s">
+      <c r="J8" s="35"/>
+    </row>
+    <row r="9" s="28" customFormat="1" spans="1:10">
+      <c r="A9" s="35"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="J9" s="16"/>
-    </row>
-    <row r="10" s="15" customFormat="1" spans="1:10">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="16" t="s">
+      <c r="J9" s="35"/>
+    </row>
+    <row r="10" s="28" customFormat="1" spans="1:10">
+      <c r="A10" s="35"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="J10" s="16"/>
-    </row>
-    <row r="11" s="15" customFormat="1" spans="1:10">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="16" t="s">
+      <c r="J10" s="35"/>
+    </row>
+    <row r="11" s="28" customFormat="1" spans="1:10">
+      <c r="A11" s="35"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="J11" s="16"/>
-    </row>
-    <row r="12" s="15" customFormat="1" spans="1:10">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="16" t="s">
+      <c r="J11" s="35"/>
+    </row>
+    <row r="12" s="28" customFormat="1" spans="1:10">
+      <c r="A12" s="35"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="J12" s="16"/>
-    </row>
-    <row r="13" s="15" customFormat="1" spans="1:10">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="16" t="s">
+      <c r="J12" s="35"/>
+    </row>
+    <row r="13" s="28" customFormat="1" spans="1:10">
+      <c r="A13" s="35"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="J13" s="16"/>
-    </row>
-    <row r="14" s="15" customFormat="1" spans="1:10">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="16" t="s">
+      <c r="J13" s="35"/>
+    </row>
+    <row r="14" s="28" customFormat="1" spans="1:10">
+      <c r="A14" s="35"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="J14" s="16"/>
-    </row>
-    <row r="15" s="15" customFormat="1" spans="1:10">
-      <c r="A15" s="16"/>
-      <c r="B15" s="17" t="s">
+      <c r="J14" s="35"/>
+    </row>
+    <row r="15" s="28" customFormat="1" spans="1:10">
+      <c r="A15" s="35"/>
+      <c r="B15" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="J15" s="16"/>
-    </row>
-    <row r="16" s="15" customFormat="1" spans="1:10">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="16" t="s">
+      <c r="C15" s="35"/>
+      <c r="J15" s="35"/>
+    </row>
+    <row r="16" s="28" customFormat="1" spans="1:10">
+      <c r="A16" s="35"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="J16" s="16"/>
-    </row>
-    <row r="17" s="15" customFormat="1" spans="1:10">
-      <c r="A17" s="16"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="16" t="s">
+      <c r="J16" s="35"/>
+    </row>
+    <row r="17" s="28" customFormat="1" spans="1:10">
+      <c r="A17" s="35"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="J17" s="16"/>
-    </row>
-    <row r="18" s="15" customFormat="1" spans="1:10">
-      <c r="A18" s="16"/>
-      <c r="B18" s="17"/>
-      <c r="D18" s="15" t="s">
+      <c r="J17" s="35"/>
+    </row>
+    <row r="18" s="28" customFormat="1" spans="1:10">
+      <c r="A18" s="35"/>
+      <c r="B18" s="36"/>
+      <c r="D18" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="J18" s="16"/>
-    </row>
-    <row r="19" s="15" customFormat="1" spans="1:10">
-      <c r="A19" s="16"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="16"/>
-      <c r="E19" s="15" t="s">
+      <c r="J18" s="35"/>
+    </row>
+    <row r="19" s="28" customFormat="1" spans="1:10">
+      <c r="A19" s="35"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="35"/>
+      <c r="E19" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="J19" s="16"/>
-    </row>
-    <row r="20" s="15" customFormat="1" spans="1:10">
-      <c r="A20" s="16"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="16"/>
-      <c r="E20" s="15" t="s">
+      <c r="J19" s="35"/>
+    </row>
+    <row r="20" s="28" customFormat="1" spans="1:10">
+      <c r="A20" s="35"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="35"/>
+      <c r="E20" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="J20" s="16"/>
-    </row>
-    <row r="21" s="15" customFormat="1" spans="1:10">
-      <c r="A21" s="16"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="16"/>
-      <c r="E21" s="15" t="s">
+      <c r="J20" s="35"/>
+    </row>
+    <row r="21" s="28" customFormat="1" spans="1:10">
+      <c r="A21" s="35"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="35"/>
+      <c r="E21" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="J21" s="16"/>
-    </row>
-    <row r="22" s="15" customFormat="1" spans="1:10">
-      <c r="A22" s="16"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="16"/>
-      <c r="E22" s="15" t="s">
+      <c r="J21" s="35"/>
+    </row>
+    <row r="22" s="28" customFormat="1" spans="1:10">
+      <c r="A22" s="35"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="35"/>
+      <c r="E22" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="J22" s="16"/>
-    </row>
-    <row r="23" s="15" customFormat="1" spans="1:10">
-      <c r="A23" s="16"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="16"/>
-      <c r="E23" s="15" t="s">
+      <c r="J22" s="35"/>
+    </row>
+    <row r="23" s="28" customFormat="1" spans="1:10">
+      <c r="A23" s="35"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="35"/>
+      <c r="E23" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="J23" s="16"/>
-    </row>
-    <row r="24" s="15" customFormat="1" spans="1:10">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="15" t="s">
+      <c r="J23" s="35"/>
+    </row>
+    <row r="24" s="28" customFormat="1" spans="1:10">
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="J24" s="16"/>
-    </row>
-    <row r="25" s="15" customFormat="1" spans="1:10">
-      <c r="A25" s="16"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="E25" s="31" t="s">
+      <c r="J24" s="35"/>
+    </row>
+    <row r="25" s="28" customFormat="1" spans="1:10">
+      <c r="A25" s="35"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="E25" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="J25" s="16"/>
-    </row>
-    <row r="26" s="15" customFormat="1" spans="1:10">
-      <c r="A26" s="16"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="15" t="s">
+      <c r="J25" s="35"/>
+    </row>
+    <row r="26" s="28" customFormat="1" spans="1:10">
+      <c r="A26" s="35"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="J26" s="16"/>
-    </row>
-    <row r="27" s="15" customFormat="1" spans="1:10">
-      <c r="A27" s="16"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="E27" s="15" t="s">
+      <c r="J26" s="35"/>
+    </row>
+    <row r="27" s="28" customFormat="1" spans="1:10">
+      <c r="A27" s="35"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="E27" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="J27" s="16"/>
-    </row>
-    <row r="28" s="15" customFormat="1" spans="1:10">
-      <c r="A28" s="16"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="E28" s="15" t="s">
+      <c r="J27" s="35"/>
+    </row>
+    <row r="28" s="28" customFormat="1" spans="1:10">
+      <c r="A28" s="35"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="E28" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="J28" s="16"/>
-    </row>
-    <row r="29" s="15" customFormat="1" spans="1:10">
-      <c r="A29" s="16"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="16" t="s">
+      <c r="J28" s="35"/>
+    </row>
+    <row r="29" s="28" customFormat="1" spans="1:10">
+      <c r="A29" s="35"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="J29" s="16"/>
-    </row>
-    <row r="30" s="15" customFormat="1" spans="3:10">
-      <c r="C30" s="17"/>
-      <c r="D30" s="15" t="s">
+      <c r="J29" s="35"/>
+    </row>
+    <row r="30" s="28" customFormat="1" spans="3:10">
+      <c r="C30" s="36"/>
+      <c r="D30" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="J30" s="16"/>
-    </row>
-    <row r="31" s="15" customFormat="1" spans="1:10">
-      <c r="A31" s="16"/>
-      <c r="B31" s="18"/>
-      <c r="D31" s="15" t="s">
+      <c r="J30" s="35"/>
+    </row>
+    <row r="31" s="28" customFormat="1" spans="1:10">
+      <c r="A31" s="35"/>
+      <c r="B31" s="37"/>
+      <c r="D31" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="J31" s="16"/>
-    </row>
-    <row r="32" s="15" customFormat="1" spans="1:10">
-      <c r="A32" s="16"/>
-      <c r="B32" s="18"/>
-      <c r="D32" s="15" t="s">
+      <c r="J31" s="35"/>
+    </row>
+    <row r="32" s="28" customFormat="1" spans="1:10">
+      <c r="A32" s="35"/>
+      <c r="B32" s="37"/>
+      <c r="D32" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="J32" s="16"/>
-    </row>
-    <row r="33" s="15" customFormat="1" spans="4:10">
-      <c r="D33" s="15" t="s">
+      <c r="J32" s="35"/>
+    </row>
+    <row r="33" s="28" customFormat="1" spans="4:10">
+      <c r="D33" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="J33" s="16"/>
-    </row>
-    <row r="34" s="15" customFormat="1" spans="1:10">
-      <c r="A34" s="16"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="15" t="s">
+      <c r="J33" s="35"/>
+    </row>
+    <row r="34" s="28" customFormat="1" spans="1:10">
+      <c r="A34" s="35"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="J34" s="16"/>
-    </row>
-    <row r="35" s="15" customFormat="1" spans="1:10">
-      <c r="A35" s="16"/>
-      <c r="B35" s="18"/>
-      <c r="J35" s="16"/>
-    </row>
-    <row r="36" s="15" customFormat="1" spans="10:10">
-      <c r="J36" s="16"/>
-    </row>
-    <row r="37" s="15" customFormat="1" spans="10:10">
-      <c r="J37" s="16"/>
-    </row>
-    <row r="38" s="15" customFormat="1" spans="1:10">
-      <c r="A38" s="16"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="17"/>
-      <c r="J38" s="16"/>
-    </row>
-    <row r="39" s="15" customFormat="1" spans="1:10">
-      <c r="A39" s="16"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="17"/>
-      <c r="J39" s="16"/>
-    </row>
-    <row r="40" s="15" customFormat="1" spans="1:10">
-      <c r="A40" s="16"/>
-      <c r="B40" s="18"/>
-      <c r="J40" s="16"/>
-    </row>
-    <row r="41" s="15" customFormat="1" spans="10:10">
-      <c r="J41" s="16"/>
-    </row>
-    <row r="42" s="15" customFormat="1" spans="10:10">
-      <c r="J42" s="16"/>
-    </row>
-    <row r="43" s="15" customFormat="1" spans="3:10">
-      <c r="C43" s="17"/>
-      <c r="J43" s="16"/>
-    </row>
-    <row r="44" s="15" customFormat="1" spans="1:10">
-      <c r="A44" s="16"/>
-      <c r="J44" s="16"/>
-    </row>
-    <row r="45" s="15" customFormat="1" spans="1:10">
-      <c r="A45" s="16"/>
-      <c r="B45" s="18"/>
-      <c r="J45" s="16"/>
-    </row>
-    <row r="46" s="15" customFormat="1" spans="10:10">
-      <c r="J46" s="16"/>
-    </row>
-    <row r="47" s="15" customFormat="1" spans="1:10">
-      <c r="A47" s="16"/>
-      <c r="D47" s="16" t="s">
+      <c r="J34" s="35"/>
+    </row>
+    <row r="35" s="28" customFormat="1" spans="1:10">
+      <c r="A35" s="35"/>
+      <c r="B35" s="37"/>
+      <c r="J35" s="35"/>
+    </row>
+    <row r="36" s="28" customFormat="1" spans="10:10">
+      <c r="J36" s="35"/>
+    </row>
+    <row r="37" s="28" customFormat="1" spans="10:10">
+      <c r="J37" s="35"/>
+    </row>
+    <row r="38" s="28" customFormat="1" spans="1:10">
+      <c r="A38" s="35"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="36"/>
+      <c r="J38" s="35"/>
+    </row>
+    <row r="39" s="28" customFormat="1" spans="1:10">
+      <c r="A39" s="35"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="36"/>
+      <c r="J39" s="35"/>
+    </row>
+    <row r="40" s="28" customFormat="1" spans="1:10">
+      <c r="A40" s="35"/>
+      <c r="B40" s="37"/>
+      <c r="J40" s="35"/>
+    </row>
+    <row r="41" s="28" customFormat="1" spans="10:10">
+      <c r="J41" s="35"/>
+    </row>
+    <row r="42" s="28" customFormat="1" spans="10:10">
+      <c r="J42" s="35"/>
+    </row>
+    <row r="43" s="28" customFormat="1" spans="3:10">
+      <c r="C43" s="36"/>
+      <c r="J43" s="35"/>
+    </row>
+    <row r="44" s="28" customFormat="1" spans="1:10">
+      <c r="A44" s="35"/>
+      <c r="J44" s="35"/>
+    </row>
+    <row r="45" s="28" customFormat="1" spans="1:10">
+      <c r="A45" s="35"/>
+      <c r="B45" s="37"/>
+      <c r="J45" s="35"/>
+    </row>
+    <row r="46" s="28" customFormat="1" spans="10:10">
+      <c r="J46" s="35"/>
+    </row>
+    <row r="47" s="28" customFormat="1" spans="1:10">
+      <c r="A47" s="35"/>
+      <c r="D47" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="J47" s="16"/>
-    </row>
-    <row r="48" s="15" customFormat="1" spans="1:10">
-      <c r="A48" s="16"/>
-      <c r="B48" s="16"/>
-      <c r="D48" s="15" t="s">
+      <c r="J47" s="35"/>
+    </row>
+    <row r="48" s="28" customFormat="1" spans="1:10">
+      <c r="A48" s="35"/>
+      <c r="B48" s="35"/>
+      <c r="D48" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="J48" s="16"/>
-    </row>
-    <row r="49" s="15" customFormat="1" spans="1:10">
-      <c r="A49" s="16"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="15" t="s">
+      <c r="J48" s="35"/>
+    </row>
+    <row r="49" s="28" customFormat="1" spans="1:10">
+      <c r="A49" s="35"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="J49" s="16"/>
-    </row>
-    <row r="50" s="15" customFormat="1" spans="1:16">
-      <c r="A50" s="16"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16" t="s">
+      <c r="J49" s="35"/>
+    </row>
+    <row r="50" s="28" customFormat="1" spans="1:16">
+      <c r="A50" s="35"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="16"/>
-      <c r="L50" s="16"/>
-      <c r="M50" s="16"/>
-      <c r="N50" s="16"/>
-      <c r="O50" s="16"/>
-      <c r="P50" s="21"/>
-    </row>
-    <row r="51" s="15" customFormat="1" spans="1:10">
-      <c r="A51" s="16"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16" t="s">
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="35"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="35"/>
+      <c r="M50" s="35"/>
+      <c r="N50" s="35"/>
+      <c r="O50" s="35"/>
+      <c r="P50" s="40"/>
+    </row>
+    <row r="51" s="28" customFormat="1" spans="1:10">
+      <c r="A51" s="35"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="J51" s="16"/>
-    </row>
-    <row r="52" s="15" customFormat="1" spans="1:10">
-      <c r="A52" s="16"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16" t="s">
+      <c r="J51" s="35"/>
+    </row>
+    <row r="52" s="28" customFormat="1" spans="1:10">
+      <c r="A52" s="35"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="J52" s="16"/>
-    </row>
-    <row r="53" s="15" customFormat="1" spans="1:10">
-      <c r="A53" s="16"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="15" t="s">
+      <c r="J52" s="35"/>
+    </row>
+    <row r="53" s="28" customFormat="1" spans="1:10">
+      <c r="A53" s="35"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="J53" s="16"/>
-    </row>
-    <row r="54" s="15" customFormat="1" spans="1:16">
-      <c r="A54" s="16"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16" t="s">
+      <c r="J53" s="35"/>
+    </row>
+    <row r="54" s="28" customFormat="1" spans="1:16">
+      <c r="A54" s="35"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="16"/>
-      <c r="L54" s="16"/>
-      <c r="M54" s="16"/>
-      <c r="N54" s="16"/>
-      <c r="O54" s="16"/>
-      <c r="P54" s="21"/>
-    </row>
-    <row r="55" s="15" customFormat="1" spans="1:10">
-      <c r="A55" s="16"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="17" t="s">
+      <c r="E54" s="35"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="35"/>
+      <c r="J54" s="35"/>
+      <c r="K54" s="35"/>
+      <c r="L54" s="35"/>
+      <c r="M54" s="35"/>
+      <c r="N54" s="35"/>
+      <c r="O54" s="35"/>
+      <c r="P54" s="40"/>
+    </row>
+    <row r="55" s="28" customFormat="1" spans="1:10">
+      <c r="A55" s="35"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="J55" s="16"/>
-    </row>
-    <row r="56" s="15" customFormat="1" spans="1:10">
-      <c r="A56" s="16"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16" t="s">
+      <c r="J55" s="35"/>
+    </row>
+    <row r="56" s="28" customFormat="1" spans="1:10">
+      <c r="A56" s="35"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="D56" s="17"/>
-      <c r="J56" s="16"/>
-    </row>
-    <row r="57" s="15" customFormat="1" spans="1:10">
-      <c r="A57" s="16"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="15" t="s">
+      <c r="D56" s="36"/>
+      <c r="J56" s="35"/>
+    </row>
+    <row r="57" s="28" customFormat="1" spans="1:10">
+      <c r="A57" s="35"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="J57" s="16"/>
-    </row>
-    <row r="58" s="15" customFormat="1" spans="1:10">
-      <c r="A58" s="16"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="15" t="s">
+      <c r="J57" s="35"/>
+    </row>
+    <row r="58" s="28" customFormat="1" spans="1:10">
+      <c r="A58" s="35"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="J58" s="16"/>
-    </row>
-    <row r="59" s="15" customFormat="1" spans="1:10">
-      <c r="A59" s="16"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="15" t="s">
+      <c r="J58" s="35"/>
+    </row>
+    <row r="59" s="28" customFormat="1" spans="1:10">
+      <c r="A59" s="35"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="J59" s="16"/>
-    </row>
-    <row r="60" s="15" customFormat="1" spans="1:10">
-      <c r="A60" s="16"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
-      <c r="J60" s="16"/>
+      <c r="J59" s="35"/>
+    </row>
+    <row r="60" s="28" customFormat="1" spans="1:10">
+      <c r="A60" s="35"/>
+      <c r="B60" s="35"/>
+      <c r="C60" s="35"/>
+      <c r="J60" s="35"/>
     </row>
     <row r="62" spans="4:4">
-      <c r="D62" s="16" t="s">
+      <c r="D62" s="35" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="63" spans="4:4">
-      <c r="D63" s="16" t="s">
+      <c r="D63" s="35" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="64" spans="4:4">
-      <c r="D64" s="16" t="s">
+      <c r="D64" s="35" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="65" s="16" customFormat="1" spans="2:4">
-      <c r="B65" s="18"/>
-      <c r="D65" s="16" t="s">
+    <row r="65" s="35" customFormat="1" spans="2:4">
+      <c r="B65" s="37"/>
+      <c r="D65" s="35" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="66" spans="3:3">
-      <c r="C66" s="16" t="s">
+      <c r="C66" s="35" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="67" spans="4:4">
-      <c r="D67" s="16" t="s">
+      <c r="D67" s="35" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="68" spans="4:4">
-      <c r="D68" s="16" t="s">
+      <c r="D68" s="35" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="69" s="16" customFormat="1" spans="3:4">
-      <c r="C69" s="18"/>
-      <c r="D69" s="16" t="s">
+    <row r="69" s="35" customFormat="1" spans="3:4">
+      <c r="C69" s="37"/>
+      <c r="D69" s="35" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="70" s="16" customFormat="1" spans="3:4">
-      <c r="C70" s="17"/>
-      <c r="D70" s="16" t="s">
+    <row r="70" s="35" customFormat="1" spans="3:4">
+      <c r="C70" s="36"/>
+      <c r="D70" s="35" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="72" s="16" customFormat="1" spans="3:3">
-      <c r="C72" s="21"/>
-    </row>
-    <row r="73" s="16" customFormat="1" spans="5:5">
-      <c r="E73" s="21"/>
-    </row>
-    <row r="74" s="16" customFormat="1" spans="4:4">
-      <c r="D74" s="21"/>
-    </row>
-    <row r="76" s="16" customFormat="1" spans="4:4">
-      <c r="D76" s="21"/>
-    </row>
-    <row r="77" s="16" customFormat="1" spans="3:3">
-      <c r="C77" s="21"/>
-    </row>
-    <row r="78" s="16" customFormat="1" spans="3:3">
-      <c r="C78" s="21"/>
-    </row>
-    <row r="79" s="16" customFormat="1" spans="3:3">
-      <c r="C79" s="17"/>
-    </row>
-    <row r="80" s="16" customFormat="1" spans="3:3">
-      <c r="C80" s="21"/>
-    </row>
-    <row r="81" s="16" customFormat="1" spans="3:3">
-      <c r="C81" s="21"/>
-    </row>
-    <row r="82" s="16" customFormat="1" spans="3:3">
-      <c r="C82" s="17"/>
+    <row r="72" s="35" customFormat="1" spans="3:3">
+      <c r="C72" s="40"/>
+    </row>
+    <row r="73" s="35" customFormat="1" spans="5:5">
+      <c r="E73" s="40"/>
+    </row>
+    <row r="74" s="35" customFormat="1" spans="4:4">
+      <c r="D74" s="40"/>
+    </row>
+    <row r="76" s="35" customFormat="1" spans="4:4">
+      <c r="D76" s="40"/>
+    </row>
+    <row r="77" s="35" customFormat="1" spans="3:3">
+      <c r="C77" s="40"/>
+    </row>
+    <row r="78" s="35" customFormat="1" spans="3:3">
+      <c r="C78" s="40"/>
+    </row>
+    <row r="79" s="35" customFormat="1" spans="3:3">
+      <c r="C79" s="36"/>
+    </row>
+    <row r="80" s="35" customFormat="1" spans="3:3">
+      <c r="C80" s="40"/>
+    </row>
+    <row r="81" s="35" customFormat="1" spans="3:3">
+      <c r="C81" s="40"/>
+    </row>
+    <row r="82" s="35" customFormat="1" spans="3:3">
+      <c r="C82" s="36"/>
     </row>
     <row r="85" spans="5:5">
-      <c r="E85" s="21" t="s">
+      <c r="E85" s="40" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="86" spans="5:5">
-      <c r="E86" s="16" t="s">
+      <c r="E86" s="35" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="87" spans="5:5">
-      <c r="E87" s="16" t="s">
+      <c r="E87" s="35" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="88" s="16" customFormat="1" spans="3:5">
-      <c r="C88" s="17"/>
-      <c r="E88" s="16" t="s">
+    <row r="88" s="35" customFormat="1" spans="3:5">
+      <c r="C88" s="36"/>
+      <c r="E88" s="35" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="89" s="16" customFormat="1" spans="3:5">
-      <c r="C89" s="18"/>
-      <c r="E89" s="16" t="s">
+    <row r="89" s="35" customFormat="1" spans="3:5">
+      <c r="C89" s="37"/>
+      <c r="E89" s="35" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="90" spans="5:5">
-      <c r="E90" s="16" t="s">
+      <c r="E90" s="35" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="91" spans="5:5">
-      <c r="E91" s="16" t="s">
+      <c r="E91" s="35" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="92" spans="5:5">
-      <c r="E92" s="16" t="s">
+      <c r="E92" s="35" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="93" spans="5:5">
-      <c r="E93" s="16" t="s">
+      <c r="E93" s="35" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="96" spans="5:5">
-      <c r="E96" s="16" t="s">
+      <c r="E96" s="35" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="97" spans="5:5">
-      <c r="E97" s="16" t="s">
+      <c r="E97" s="35" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="98" spans="5:5">
-      <c r="E98" s="16" t="s">
+      <c r="E98" s="35" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="99" spans="2:2">
-      <c r="B99" s="16" t="s">
+      <c r="B99" s="35" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="100" spans="3:3">
-      <c r="C100" s="16" t="s">
+      <c r="C100" s="35" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="101" spans="4:4">
-      <c r="D101" s="16" t="s">
+      <c r="D101" s="35" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="102" spans="4:4">
-      <c r="D102" s="16" t="s">
+      <c r="D102" s="35" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="111" s="16" customFormat="1" spans="2:4">
-      <c r="B111" s="17"/>
-      <c r="D111" s="16" t="s">
+    <row r="111" s="35" customFormat="1" spans="2:4">
+      <c r="B111" s="36"/>
+      <c r="D111" s="35" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="112" s="16" customFormat="1" spans="2:4">
-      <c r="B112" s="17"/>
-      <c r="D112" s="32" t="s">
+    <row r="112" s="35" customFormat="1" spans="2:4">
+      <c r="B112" s="36"/>
+      <c r="D112" s="51" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="113" s="16" customFormat="1" spans="2:3">
-      <c r="B113" s="17"/>
-      <c r="C113" s="16" t="s">
+    <row r="113" s="35" customFormat="1" spans="2:3">
+      <c r="B113" s="36"/>
+      <c r="C113" s="35" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="114" s="16" customFormat="1" spans="2:4">
-      <c r="B114" s="17"/>
-      <c r="D114" s="16" t="s">
+    <row r="114" s="35" customFormat="1" spans="2:4">
+      <c r="B114" s="36"/>
+      <c r="D114" s="35" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="115" s="16" customFormat="1" spans="2:4">
-      <c r="B115" s="17"/>
-      <c r="D115" s="16" t="s">
+    <row r="115" s="35" customFormat="1" spans="2:4">
+      <c r="B115" s="36"/>
+      <c r="D115" s="35" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="116" s="16" customFormat="1" spans="2:4">
-      <c r="B116" s="17"/>
-      <c r="D116" s="32" t="s">
+    <row r="116" s="35" customFormat="1" spans="2:4">
+      <c r="B116" s="36"/>
+      <c r="D116" s="51" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="117" s="16" customFormat="1" spans="2:2">
-      <c r="B117" s="17" t="s">
+    <row r="117" s="35" customFormat="1" spans="2:2">
+      <c r="B117" s="36" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="118" s="16" customFormat="1" spans="2:3">
-      <c r="B118" s="17"/>
-      <c r="C118" s="16" t="s">
+    <row r="118" s="35" customFormat="1" spans="2:3">
+      <c r="B118" s="36"/>
+      <c r="C118" s="35" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="119" s="16" customFormat="1" spans="2:3">
-      <c r="B119" s="17"/>
-      <c r="C119" s="16" t="s">
+    <row r="119" s="35" customFormat="1" spans="2:3">
+      <c r="B119" s="36"/>
+      <c r="C119" s="35" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="120" s="16" customFormat="1" spans="2:3">
-      <c r="B120" s="17"/>
-      <c r="C120" s="16" t="s">
+    <row r="120" s="35" customFormat="1" spans="2:3">
+      <c r="B120" s="36"/>
+      <c r="C120" s="35" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="121" s="16" customFormat="1" spans="2:4">
-      <c r="B121" s="17"/>
-      <c r="D121" s="16" t="s">
+    <row r="121" s="35" customFormat="1" spans="2:4">
+      <c r="B121" s="36"/>
+      <c r="D121" s="35" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="122" spans="4:4">
-      <c r="D122" s="32" t="s">
+      <c r="D122" s="51" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="123" spans="3:3">
-      <c r="C123" s="16" t="s">
+      <c r="C123" s="35" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="124" spans="4:4">
-      <c r="D124" s="16" t="s">
+      <c r="D124" s="35" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="125" spans="4:4">
-      <c r="D125" s="16" t="s">
+      <c r="D125" s="35" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="137" spans="2:2">
-      <c r="B137" s="16" t="s">
+      <c r="B137" s="35" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="138" spans="3:3">
-      <c r="C138" s="16" t="s">
+      <c r="C138" s="35" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="139" spans="3:3">
-      <c r="C139" s="16" t="s">
+      <c r="C139" s="35" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="140" spans="3:3">
-      <c r="C140" s="16" t="s">
+      <c r="C140" s="35" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="141" spans="4:4">
-      <c r="D141" s="18" t="s">
+      <c r="D141" s="37" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="142" spans="4:4">
-      <c r="D142" s="16" t="s">
+      <c r="D142" s="35" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="143" spans="4:4">
-      <c r="D143" s="16" t="s">
+      <c r="D143" s="35" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="163" spans="4:4">
-      <c r="D163" s="16" t="s">
+      <c r="D163" s="35" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="164" spans="4:4">
-      <c r="D164" s="16" t="s">
+      <c r="D164" s="35" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="165" spans="4:4">
-      <c r="D165" s="16" t="s">
+      <c r="D165" s="35" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="166" spans="4:4">
-      <c r="D166" s="16" t="s">
+      <c r="D166" s="35" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="167" spans="4:4">
-      <c r="D167" s="16" t="s">
+      <c r="D167" s="35" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="168" spans="3:3">
-      <c r="C168" s="16" t="s">
+      <c r="C168" s="35" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="169" spans="4:4">
-      <c r="D169" s="16" t="s">
+      <c r="D169" s="35" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="170" spans="4:4">
-      <c r="D170" s="16" t="s">
+      <c r="D170" s="35" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="180" spans="3:3">
-      <c r="C180" s="16" t="s">
+      <c r="C180" s="35" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="181" spans="4:4">
-      <c r="D181" s="16" t="s">
+      <c r="D181" s="35" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="186" spans="2:2">
-      <c r="B186" s="16" t="s">
+      <c r="B186" s="35" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="187" spans="3:3">
-      <c r="C187" s="16" t="s">
+      <c r="C187" s="35" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="188" spans="3:3">
-      <c r="C188" s="16" t="s">
+      <c r="C188" s="35" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="189" spans="3:3">
-      <c r="C189" s="16" t="s">
+      <c r="C189" s="35" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="190" spans="3:3">
-      <c r="C190" s="16" t="s">
+      <c r="C190" s="35" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="191" spans="3:3">
-      <c r="C191" s="16" t="s">
+      <c r="C191" s="35" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="192" spans="4:4">
-      <c r="D192" s="16" t="s">
+      <c r="D192" s="35" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="193" spans="4:4">
-      <c r="D193" s="16" t="s">
+      <c r="D193" s="35" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="194" spans="4:4">
-      <c r="D194" s="16" t="s">
+      <c r="D194" s="35" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="195" spans="5:5">
-      <c r="E195" s="18" t="s">
+      <c r="E195" s="37" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="196" spans="4:4">
-      <c r="D196" s="16" t="s">
+      <c r="D196" s="35" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="197" spans="4:4">
-      <c r="D197" s="16" t="s">
+      <c r="D197" s="35" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="198" spans="4:4">
-      <c r="D198" s="16" t="s">
+      <c r="D198" s="35" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="199" spans="4:4">
-      <c r="D199" s="16" t="s">
+      <c r="D199" s="35" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="200" spans="4:5">
-      <c r="D200" s="16" t="s">
+      <c r="D200" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="E200" s="15"/>
+      <c r="E200" s="28"/>
     </row>
     <row r="201" spans="4:4">
-      <c r="D201" s="15" t="s">
+      <c r="D201" s="28" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="202" spans="3:3">
-      <c r="C202" s="16" t="s">
+      <c r="C202" s="35" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="203" spans="4:4">
-      <c r="D203" s="16" t="s">
+      <c r="D203" s="35" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="204" spans="4:4">
-      <c r="D204" s="16" t="s">
+      <c r="D204" s="35" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="205" spans="4:4">
-      <c r="D205" s="16" t="s">
+      <c r="D205" s="35" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="206" spans="4:4">
-      <c r="D206" s="16" t="s">
+      <c r="D206" s="35" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="207" spans="3:3">
-      <c r="C207" s="16" t="s">
+      <c r="C207" s="35" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="208" spans="4:4">
-      <c r="D208" s="16" t="s">
+      <c r="D208" s="35" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="209" spans="4:4">
-      <c r="D209" s="16" t="s">
+      <c r="D209" s="35" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="210" spans="4:4">
-      <c r="D210" s="16" t="s">
+      <c r="D210" s="35" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="211" spans="4:4">
-      <c r="D211" s="16" t="s">
+      <c r="D211" s="35" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="212" spans="5:5">
-      <c r="E212" s="16" t="s">
+      <c r="E212" s="35" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="213" spans="5:5">
-      <c r="E213" s="16" t="s">
+      <c r="E213" s="35" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="214" spans="5:5">
-      <c r="E214" s="16" t="s">
+      <c r="E214" s="35" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="215" spans="4:4">
-      <c r="D215" s="16" t="s">
+      <c r="D215" s="35" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="216" spans="2:2">
-      <c r="B216" s="16" t="s">
+      <c r="B216" s="35" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="217" spans="3:3">
-      <c r="C217" s="16" t="s">
+      <c r="C217" s="35" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="218" spans="3:3">
-      <c r="C218" s="16" t="s">
+      <c r="C218" s="35" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="219" spans="3:3">
-      <c r="C219" s="16" t="s">
+      <c r="C219" s="35" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="220" spans="3:3">
-      <c r="C220" s="16" t="s">
+      <c r="C220" s="35" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="221" spans="3:3">
-      <c r="C221" s="16" t="s">
+      <c r="C221" s="35" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="222" spans="3:3">
-      <c r="C222" s="16" t="s">
+      <c r="C222" s="35" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="223" spans="3:3">
-      <c r="C223" s="16" t="s">
+      <c r="C223" s="35" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="224" spans="3:3">
-      <c r="C224" s="16" t="s">
+      <c r="C224" s="35" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="225" spans="2:2">
-      <c r="B225" s="16" t="s">
+      <c r="B225" s="35" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="226" spans="3:3">
-      <c r="C226" s="16" t="s">
+      <c r="C226" s="35" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="227" spans="4:4">
-      <c r="D227" s="16" t="s">
+      <c r="D227" s="35" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="228" spans="4:4">
-      <c r="D228" s="16" t="s">
+      <c r="D228" s="35" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="229" spans="4:4">
-      <c r="D229" s="16" t="s">
+      <c r="D229" s="35" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="230" spans="4:4">
-      <c r="D230" s="16" t="s">
+      <c r="D230" s="35" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="231" spans="4:4">
-      <c r="D231" s="16" t="s">
+      <c r="D231" s="35" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="232" spans="4:4">
-      <c r="D232" s="16" t="s">
+      <c r="D232" s="35" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="233" spans="3:3">
-      <c r="C233" s="16" t="s">
+      <c r="C233" s="35" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="234" spans="4:4">
-      <c r="D234" s="16" t="s">
+      <c r="D234" s="35" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="235" spans="4:4">
-      <c r="D235" s="16" t="s">
+      <c r="D235" s="35" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="236" spans="4:4">
-      <c r="D236" s="16" t="s">
+      <c r="D236" s="35" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="237" spans="4:4">
-      <c r="D237" s="16" t="s">
+      <c r="D237" s="35" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="238" spans="4:4">
-      <c r="D238" s="16" t="s">
+      <c r="D238" s="35" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="239" spans="4:4">
-      <c r="D239" s="16" t="s">
+      <c r="D239" s="35" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="240" spans="3:3">
-      <c r="C240" s="16" t="s">
+      <c r="C240" s="35" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="241" spans="4:4">
-      <c r="D241" s="16" t="s">
+      <c r="D241" s="35" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="242" spans="3:3">
-      <c r="C242" s="16" t="s">
+      <c r="C242" s="35" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="243" spans="4:4">
-      <c r="D243" s="16" t="s">
+      <c r="D243" s="35" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="244" spans="4:4">
-      <c r="D244" s="16" t="s">
+      <c r="D244" s="35" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="245" spans="2:2">
-      <c r="B245" s="16" t="s">
+      <c r="B245" s="35" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="246" spans="3:3">
-      <c r="C246" s="16" t="s">
+      <c r="C246" s="35" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="247" spans="3:3">
-      <c r="C247" s="16" t="s">
+      <c r="C247" s="35" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="248" spans="3:3">
-      <c r="C248" s="16" t="s">
+      <c r="C248" s="35" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="249" spans="3:3">
-      <c r="C249" s="16" t="s">
+      <c r="C249" s="35" t="s">
         <v>259</v>
       </c>
     </row>
@@ -7659,624 +8084,624 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="4.875" style="16"/>
+    <col min="1" max="16384" width="4.875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" s="15" customFormat="1" ht="22.5" spans="1:31">
-      <c r="A1" s="16"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="H1" s="16" t="s">
+    <row r="1" s="28" customFormat="1" ht="22.5" spans="1:31">
+      <c r="A1" s="35"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="H1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16" t="s">
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="T1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="16" t="s">
+      <c r="U1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="17" t="s">
+      <c r="V1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="W1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="17"/>
-    </row>
-    <row r="2" s="15" customFormat="1" spans="1:27">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16" t="s">
+      <c r="X1" s="36"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="36"/>
+    </row>
+    <row r="2" s="28" customFormat="1" spans="1:27">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="16" t="s">
+      <c r="T2" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="16" t="s">
+      <c r="U2" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="V2" s="16" t="s">
+      <c r="V2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="16" t="s">
+      <c r="W2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="22"/>
-    </row>
-    <row r="3" s="15" customFormat="1" spans="1:10">
-      <c r="A3" s="16" t="s">
+      <c r="X2" s="36"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="41"/>
+    </row>
+    <row r="3" s="28" customFormat="1" spans="1:10">
+      <c r="A3" s="35" t="s">
         <v>260</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" s="15" customFormat="1" spans="1:10">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16" t="s">
+      <c r="B3" s="35"/>
+      <c r="J3" s="35"/>
+    </row>
+    <row r="4" s="28" customFormat="1" spans="1:10">
+      <c r="A4" s="35"/>
+      <c r="B4" s="35" t="s">
         <v>261</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="J4" s="16"/>
-    </row>
-    <row r="5" s="15" customFormat="1" spans="1:10">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="16" t="s">
+      <c r="C4" s="35"/>
+      <c r="J4" s="35"/>
+    </row>
+    <row r="5" s="28" customFormat="1" spans="1:10">
+      <c r="A5" s="35"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="35" t="s">
         <v>262</v>
       </c>
-      <c r="J5" s="16"/>
-    </row>
-    <row r="6" s="15" customFormat="1" spans="1:10">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="16" t="s">
+      <c r="J5" s="35"/>
+    </row>
+    <row r="6" s="28" customFormat="1" spans="1:10">
+      <c r="A6" s="35"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="35" t="s">
         <v>263</v>
       </c>
-      <c r="J6" s="16"/>
-    </row>
-    <row r="7" s="15" customFormat="1" spans="1:10">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="16" t="s">
+      <c r="J6" s="35"/>
+    </row>
+    <row r="7" s="28" customFormat="1" spans="1:10">
+      <c r="A7" s="35"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="35" t="s">
         <v>264</v>
       </c>
-      <c r="J7" s="16"/>
-    </row>
-    <row r="8" s="15" customFormat="1" spans="1:10">
-      <c r="A8" s="16"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="16" t="s">
+      <c r="J7" s="35"/>
+    </row>
+    <row r="8" s="28" customFormat="1" spans="1:10">
+      <c r="A8" s="35"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="J8" s="16"/>
-    </row>
-    <row r="9" s="15" customFormat="1" spans="1:10">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="16" t="s">
+      <c r="J8" s="35"/>
+    </row>
+    <row r="9" s="28" customFormat="1" spans="1:10">
+      <c r="A9" s="35"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="35" t="s">
         <v>266</v>
       </c>
-      <c r="J9" s="16"/>
-    </row>
-    <row r="10" s="15" customFormat="1" spans="1:10">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="16" t="s">
+      <c r="J9" s="35"/>
+    </row>
+    <row r="10" s="28" customFormat="1" spans="1:10">
+      <c r="A10" s="35"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="35" t="s">
         <v>267</v>
       </c>
-      <c r="J10" s="16"/>
-    </row>
-    <row r="11" s="15" customFormat="1" spans="1:10">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="15" t="s">
+      <c r="J10" s="35"/>
+    </row>
+    <row r="11" s="28" customFormat="1" spans="1:10">
+      <c r="A11" s="35"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="28" t="s">
         <v>268</v>
       </c>
-      <c r="J11" s="16"/>
-    </row>
-    <row r="12" s="15" customFormat="1" spans="1:10">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="15" t="s">
+      <c r="J11" s="35"/>
+    </row>
+    <row r="12" s="28" customFormat="1" spans="1:10">
+      <c r="A12" s="35"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="28" t="s">
         <v>269</v>
       </c>
-      <c r="J12" s="16"/>
-    </row>
-    <row r="13" s="15" customFormat="1" spans="1:10">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="15" t="s">
+      <c r="J12" s="35"/>
+    </row>
+    <row r="13" s="28" customFormat="1" spans="1:10">
+      <c r="A13" s="35"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="28" t="s">
         <v>270</v>
       </c>
-      <c r="J13" s="16"/>
-    </row>
-    <row r="14" s="15" customFormat="1" spans="1:10">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="15" t="s">
+      <c r="J13" s="35"/>
+    </row>
+    <row r="14" s="28" customFormat="1" spans="1:10">
+      <c r="A14" s="35"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="28" t="s">
         <v>271</v>
       </c>
-      <c r="J14" s="16"/>
-    </row>
-    <row r="15" s="15" customFormat="1" spans="1:10">
-      <c r="A15" s="16"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="16" t="s">
+      <c r="J14" s="35"/>
+    </row>
+    <row r="15" s="28" customFormat="1" spans="1:10">
+      <c r="A15" s="35"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="35" t="s">
         <v>272</v>
       </c>
-      <c r="J15" s="16"/>
-    </row>
-    <row r="16" s="15" customFormat="1" spans="1:10">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="15" t="s">
+      <c r="J15" s="35"/>
+    </row>
+    <row r="16" s="28" customFormat="1" spans="1:10">
+      <c r="A16" s="35"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="28" t="s">
         <v>273</v>
       </c>
-      <c r="J16" s="16"/>
-    </row>
-    <row r="17" s="15" customFormat="1" spans="1:10">
-      <c r="A17" s="16"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="16" t="s">
+      <c r="J16" s="35"/>
+    </row>
+    <row r="17" s="28" customFormat="1" spans="1:10">
+      <c r="A17" s="35"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="35" t="s">
         <v>274</v>
       </c>
-      <c r="J17" s="16"/>
-    </row>
-    <row r="18" s="15" customFormat="1" spans="1:10">
-      <c r="A18" s="16"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="15" t="s">
+      <c r="J17" s="35"/>
+    </row>
+    <row r="18" s="28" customFormat="1" spans="1:10">
+      <c r="A18" s="35"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="28" t="s">
         <v>275</v>
       </c>
-      <c r="J18" s="16"/>
-    </row>
-    <row r="19" s="15" customFormat="1" spans="1:10">
-      <c r="A19" s="16"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="15" t="s">
+      <c r="J18" s="35"/>
+    </row>
+    <row r="19" s="28" customFormat="1" spans="1:10">
+      <c r="A19" s="35"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="28" t="s">
         <v>276</v>
       </c>
-      <c r="J19" s="16"/>
-    </row>
-    <row r="20" s="15" customFormat="1" spans="1:10">
-      <c r="A20" s="16"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="15" t="s">
+      <c r="J19" s="35"/>
+    </row>
+    <row r="20" s="28" customFormat="1" spans="1:10">
+      <c r="A20" s="35"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="J20" s="16"/>
-    </row>
-    <row r="21" s="15" customFormat="1" spans="1:10">
-      <c r="A21" s="16"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="15" t="s">
+      <c r="J20" s="35"/>
+    </row>
+    <row r="21" s="28" customFormat="1" spans="1:10">
+      <c r="A21" s="35"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="28" t="s">
         <v>278</v>
       </c>
-      <c r="J21" s="16"/>
-    </row>
-    <row r="22" s="15" customFormat="1" spans="1:10">
-      <c r="A22" s="16"/>
-      <c r="B22" s="17" t="s">
+      <c r="J21" s="35"/>
+    </row>
+    <row r="22" s="28" customFormat="1" spans="1:10">
+      <c r="A22" s="35"/>
+      <c r="B22" s="36" t="s">
         <v>279</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="J22" s="16"/>
-    </row>
-    <row r="23" s="15" customFormat="1" spans="1:10">
-      <c r="A23" s="16"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="16" t="s">
+      <c r="C22" s="35"/>
+      <c r="J22" s="35"/>
+    </row>
+    <row r="23" s="28" customFormat="1" spans="1:10">
+      <c r="A23" s="35"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="35" t="s">
         <v>280</v>
       </c>
-      <c r="J23" s="16"/>
-    </row>
-    <row r="24" s="15" customFormat="1" spans="1:10">
-      <c r="A24" s="16"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="16" t="s">
+      <c r="J23" s="35"/>
+    </row>
+    <row r="24" s="28" customFormat="1" spans="1:10">
+      <c r="A24" s="35"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="35" t="s">
         <v>281</v>
       </c>
-      <c r="J24" s="16"/>
-    </row>
-    <row r="25" s="15" customFormat="1" spans="1:10">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="15" t="s">
+      <c r="J24" s="35"/>
+    </row>
+    <row r="25" s="28" customFormat="1" spans="1:10">
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="J25" s="16"/>
-    </row>
-    <row r="26" s="15" customFormat="1" spans="1:10">
-      <c r="A26" s="16"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="15" t="s">
+      <c r="J25" s="35"/>
+    </row>
+    <row r="26" s="28" customFormat="1" spans="1:10">
+      <c r="A26" s="35"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="28" t="s">
         <v>283</v>
       </c>
-      <c r="J26" s="16"/>
-    </row>
-    <row r="27" s="15" customFormat="1" spans="1:10">
-      <c r="A27" s="16"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="15" t="s">
+      <c r="J26" s="35"/>
+    </row>
+    <row r="27" s="28" customFormat="1" spans="1:10">
+      <c r="A27" s="35"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="28" t="s">
         <v>284</v>
       </c>
-      <c r="J27" s="16"/>
-    </row>
-    <row r="28" s="15" customFormat="1" spans="1:10">
-      <c r="A28" s="16"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="15" t="s">
+      <c r="J27" s="35"/>
+    </row>
+    <row r="28" s="28" customFormat="1" spans="1:10">
+      <c r="A28" s="35"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="28" t="s">
         <v>285</v>
       </c>
-      <c r="J28" s="16"/>
-    </row>
-    <row r="29" s="15" customFormat="1" spans="1:10">
-      <c r="A29" s="16"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="15" t="s">
+      <c r="J28" s="35"/>
+    </row>
+    <row r="29" s="28" customFormat="1" spans="1:10">
+      <c r="A29" s="35"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="28" t="s">
         <v>286</v>
       </c>
-      <c r="J29" s="16"/>
-    </row>
-    <row r="30" s="15" customFormat="1" spans="1:10">
-      <c r="A30" s="16"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="15" t="s">
+      <c r="J29" s="35"/>
+    </row>
+    <row r="30" s="28" customFormat="1" spans="1:10">
+      <c r="A30" s="35"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="28" t="s">
         <v>287</v>
       </c>
-      <c r="J30" s="16"/>
-    </row>
-    <row r="31" s="15" customFormat="1" spans="3:10">
-      <c r="C31" s="17"/>
-      <c r="D31" s="15" t="s">
+      <c r="J30" s="35"/>
+    </row>
+    <row r="31" s="28" customFormat="1" spans="3:10">
+      <c r="C31" s="36"/>
+      <c r="D31" s="28" t="s">
         <v>288</v>
       </c>
-      <c r="J31" s="16"/>
-    </row>
-    <row r="32" s="15" customFormat="1" spans="1:10">
-      <c r="A32" s="16"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="15" t="s">
+      <c r="J31" s="35"/>
+    </row>
+    <row r="32" s="28" customFormat="1" spans="1:10">
+      <c r="A32" s="35"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="28" t="s">
         <v>289</v>
       </c>
-      <c r="J32" s="16"/>
-    </row>
-    <row r="33" s="15" customFormat="1" spans="1:10">
-      <c r="A33" s="16"/>
-      <c r="B33" s="18"/>
-      <c r="D33" s="15" t="s">
+      <c r="J32" s="35"/>
+    </row>
+    <row r="33" s="28" customFormat="1" spans="1:10">
+      <c r="A33" s="35"/>
+      <c r="B33" s="37"/>
+      <c r="D33" s="28" t="s">
         <v>290</v>
       </c>
-      <c r="J33" s="16"/>
-    </row>
-    <row r="34" s="15" customFormat="1" spans="4:10">
-      <c r="D34" s="15" t="s">
+      <c r="J33" s="35"/>
+    </row>
+    <row r="34" s="28" customFormat="1" spans="4:10">
+      <c r="D34" s="28" t="s">
         <v>291</v>
       </c>
-      <c r="J34" s="16"/>
-    </row>
-    <row r="35" s="15" customFormat="1" spans="1:10">
-      <c r="A35" s="16"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="15" t="s">
+      <c r="J34" s="35"/>
+    </row>
+    <row r="35" s="28" customFormat="1" spans="1:10">
+      <c r="A35" s="35"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="28" t="s">
         <v>292</v>
       </c>
-      <c r="J35" s="16"/>
-    </row>
-    <row r="36" s="15" customFormat="1" spans="1:10">
-      <c r="A36" s="16"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="15" t="s">
+      <c r="J35" s="35"/>
+    </row>
+    <row r="36" s="28" customFormat="1" spans="1:10">
+      <c r="A36" s="35"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="28" t="s">
         <v>293</v>
       </c>
-      <c r="J36" s="16"/>
-    </row>
-    <row r="37" s="15" customFormat="1" spans="4:10">
-      <c r="D37" s="15" t="s">
+      <c r="J36" s="35"/>
+    </row>
+    <row r="37" s="28" customFormat="1" spans="4:10">
+      <c r="D37" s="28" t="s">
         <v>294</v>
       </c>
-      <c r="J37" s="16"/>
-    </row>
-    <row r="38" s="15" customFormat="1" spans="3:10">
-      <c r="C38" s="15" t="s">
+      <c r="J37" s="35"/>
+    </row>
+    <row r="38" s="28" customFormat="1" spans="3:10">
+      <c r="C38" s="28" t="s">
         <v>295</v>
       </c>
-      <c r="J38" s="16"/>
-    </row>
-    <row r="39" s="15" customFormat="1" spans="1:10">
-      <c r="A39" s="16"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="15" t="s">
+      <c r="J38" s="35"/>
+    </row>
+    <row r="39" s="28" customFormat="1" spans="1:10">
+      <c r="A39" s="35"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="28" t="s">
         <v>296</v>
       </c>
-      <c r="J39" s="16"/>
-    </row>
-    <row r="40" s="15" customFormat="1" spans="1:10">
-      <c r="A40" s="16"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="14" t="s">
+      <c r="J39" s="35"/>
+    </row>
+    <row r="40" s="28" customFormat="1" spans="1:10">
+      <c r="A40" s="35"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="34" t="s">
         <v>297</v>
       </c>
-      <c r="J40" s="16"/>
-    </row>
-    <row r="41" s="15" customFormat="1" spans="1:10">
-      <c r="A41" s="16"/>
-      <c r="B41" s="18"/>
-      <c r="D41" s="15" t="s">
+      <c r="J40" s="35"/>
+    </row>
+    <row r="41" s="28" customFormat="1" spans="1:10">
+      <c r="A41" s="35"/>
+      <c r="B41" s="37"/>
+      <c r="D41" s="28" t="s">
         <v>298</v>
       </c>
-      <c r="J41" s="16"/>
-    </row>
-    <row r="42" s="15" customFormat="1" spans="4:10">
-      <c r="D42" s="15" t="s">
+      <c r="J41" s="35"/>
+    </row>
+    <row r="42" s="28" customFormat="1" spans="4:10">
+      <c r="D42" s="28" t="s">
         <v>299</v>
       </c>
-      <c r="J42" s="16"/>
-    </row>
-    <row r="43" s="15" customFormat="1" spans="10:10">
-      <c r="J43" s="16"/>
-    </row>
-    <row r="44" s="15" customFormat="1" spans="3:10">
-      <c r="C44" s="17"/>
-      <c r="J44" s="16"/>
-    </row>
-    <row r="45" s="15" customFormat="1" spans="1:10">
-      <c r="A45" s="16"/>
-      <c r="J45" s="16"/>
-    </row>
-    <row r="46" s="15" customFormat="1" spans="1:10">
-      <c r="A46" s="16"/>
-      <c r="B46" s="18"/>
-      <c r="J46" s="16"/>
-    </row>
-    <row r="47" s="15" customFormat="1" spans="10:10">
-      <c r="J47" s="16"/>
-    </row>
-    <row r="48" s="15" customFormat="1" spans="1:10">
-      <c r="A48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="J48" s="16"/>
-    </row>
-    <row r="49" s="15" customFormat="1" spans="1:10">
-      <c r="A49" s="16"/>
-      <c r="B49" s="16"/>
-      <c r="J49" s="16"/>
-    </row>
-    <row r="50" s="15" customFormat="1" spans="1:10">
-      <c r="A50" s="16"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="J50" s="16"/>
-    </row>
-    <row r="51" s="15" customFormat="1" spans="1:16">
-      <c r="A51" s="16"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="16"/>
-      <c r="L51" s="16"/>
-      <c r="M51" s="16"/>
-      <c r="N51" s="16"/>
-      <c r="O51" s="16"/>
-      <c r="P51" s="21"/>
-    </row>
-    <row r="52" s="15" customFormat="1" spans="1:10">
-      <c r="A52" s="16"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="J52" s="16"/>
-    </row>
-    <row r="53" s="15" customFormat="1" spans="1:10">
-      <c r="A53" s="16"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="J53" s="16"/>
-    </row>
-    <row r="54" s="15" customFormat="1" spans="1:10">
-      <c r="A54" s="16"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-      <c r="J54" s="16"/>
-    </row>
-    <row r="55" s="15" customFormat="1" spans="1:16">
-      <c r="A55" s="16"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="16"/>
-      <c r="L55" s="16"/>
-      <c r="M55" s="16"/>
-      <c r="N55" s="16"/>
-      <c r="O55" s="16"/>
-      <c r="P55" s="21"/>
-    </row>
-    <row r="56" s="15" customFormat="1" spans="1:10">
-      <c r="A56" s="16"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="17"/>
-      <c r="J56" s="16"/>
-    </row>
-    <row r="57" s="15" customFormat="1" spans="1:10">
-      <c r="A57" s="16"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="17"/>
-      <c r="J57" s="16"/>
-    </row>
-    <row r="58" s="15" customFormat="1" spans="1:10">
-      <c r="A58" s="16"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
-      <c r="J58" s="16"/>
-    </row>
-    <row r="59" s="15" customFormat="1" spans="1:10">
-      <c r="A59" s="16"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
-      <c r="J59" s="16"/>
-    </row>
-    <row r="60" s="15" customFormat="1" spans="1:10">
-      <c r="A60" s="16"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
-      <c r="J60" s="16"/>
-    </row>
-    <row r="61" s="15" customFormat="1" spans="1:10">
-      <c r="A61" s="16"/>
-      <c r="B61" s="16"/>
-      <c r="C61" s="16"/>
-      <c r="J61" s="16"/>
-    </row>
-    <row r="66" s="16" customFormat="1" spans="2:2">
-      <c r="B66" s="18"/>
-    </row>
-    <row r="72" s="16" customFormat="1" spans="3:3">
-      <c r="C72" s="18"/>
-    </row>
-    <row r="73" s="16" customFormat="1" spans="3:3">
-      <c r="C73" s="17"/>
-    </row>
-    <row r="75" s="16" customFormat="1" spans="3:3">
-      <c r="C75" s="21"/>
-    </row>
-    <row r="76" s="16" customFormat="1" spans="5:5">
-      <c r="E76" s="21"/>
-    </row>
-    <row r="77" s="16" customFormat="1" spans="4:4">
-      <c r="D77" s="21"/>
-    </row>
-    <row r="78" s="16" customFormat="1" spans="5:5">
-      <c r="E78" s="21"/>
-    </row>
-    <row r="79" s="16" customFormat="1" spans="4:4">
-      <c r="D79" s="21"/>
-    </row>
-    <row r="80" s="16" customFormat="1" spans="3:3">
-      <c r="C80" s="21"/>
-    </row>
-    <row r="81" s="16" customFormat="1" spans="3:3">
-      <c r="C81" s="21"/>
-    </row>
-    <row r="82" s="16" customFormat="1" spans="3:3">
-      <c r="C82" s="17"/>
-    </row>
-    <row r="83" s="16" customFormat="1" spans="3:3">
-      <c r="C83" s="21"/>
-    </row>
-    <row r="84" s="16" customFormat="1" spans="3:3">
-      <c r="C84" s="21"/>
-    </row>
-    <row r="85" s="16" customFormat="1" spans="3:3">
-      <c r="C85" s="17"/>
-    </row>
-    <row r="91" s="16" customFormat="1" spans="3:5">
-      <c r="C91" s="17"/>
-      <c r="E91" s="17"/>
-    </row>
-    <row r="92" s="16" customFormat="1" spans="3:3">
-      <c r="C92" s="18"/>
-    </row>
-    <row r="114" s="16" customFormat="1" spans="2:2">
-      <c r="B114" s="17"/>
-    </row>
-    <row r="115" s="16" customFormat="1" spans="2:2">
-      <c r="B115" s="17"/>
-    </row>
-    <row r="116" s="16" customFormat="1" spans="2:2">
-      <c r="B116" s="17"/>
-    </row>
-    <row r="117" s="16" customFormat="1" spans="2:2">
-      <c r="B117" s="17"/>
-    </row>
-    <row r="118" s="16" customFormat="1" spans="2:2">
-      <c r="B118" s="17"/>
-    </row>
-    <row r="119" s="16" customFormat="1" spans="2:2">
-      <c r="B119" s="17"/>
-    </row>
-    <row r="120" s="16" customFormat="1" spans="2:2">
-      <c r="B120" s="17"/>
-    </row>
-    <row r="121" s="16" customFormat="1" spans="2:2">
-      <c r="B121" s="17"/>
-    </row>
-    <row r="122" s="16" customFormat="1" spans="2:2">
-      <c r="B122" s="17"/>
-    </row>
-    <row r="123" s="16" customFormat="1" spans="2:2">
-      <c r="B123" s="17"/>
+      <c r="J42" s="35"/>
+    </row>
+    <row r="43" s="28" customFormat="1" spans="10:10">
+      <c r="J43" s="35"/>
+    </row>
+    <row r="44" s="28" customFormat="1" spans="3:10">
+      <c r="C44" s="36"/>
+      <c r="J44" s="35"/>
+    </row>
+    <row r="45" s="28" customFormat="1" spans="1:10">
+      <c r="A45" s="35"/>
+      <c r="J45" s="35"/>
+    </row>
+    <row r="46" s="28" customFormat="1" spans="1:10">
+      <c r="A46" s="35"/>
+      <c r="B46" s="37"/>
+      <c r="J46" s="35"/>
+    </row>
+    <row r="47" s="28" customFormat="1" spans="10:10">
+      <c r="J47" s="35"/>
+    </row>
+    <row r="48" s="28" customFormat="1" spans="1:10">
+      <c r="A48" s="35"/>
+      <c r="D48" s="35"/>
+      <c r="J48" s="35"/>
+    </row>
+    <row r="49" s="28" customFormat="1" spans="1:10">
+      <c r="A49" s="35"/>
+      <c r="B49" s="35"/>
+      <c r="J49" s="35"/>
+    </row>
+    <row r="50" s="28" customFormat="1" spans="1:10">
+      <c r="A50" s="35"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="J50" s="35"/>
+    </row>
+    <row r="51" s="28" customFormat="1" spans="1:16">
+      <c r="A51" s="35"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="35"/>
+      <c r="K51" s="35"/>
+      <c r="L51" s="35"/>
+      <c r="M51" s="35"/>
+      <c r="N51" s="35"/>
+      <c r="O51" s="35"/>
+      <c r="P51" s="40"/>
+    </row>
+    <row r="52" s="28" customFormat="1" spans="1:10">
+      <c r="A52" s="35"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="J52" s="35"/>
+    </row>
+    <row r="53" s="28" customFormat="1" spans="1:10">
+      <c r="A53" s="35"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+      <c r="J53" s="35"/>
+    </row>
+    <row r="54" s="28" customFormat="1" spans="1:10">
+      <c r="A54" s="35"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
+      <c r="J54" s="35"/>
+    </row>
+    <row r="55" s="28" customFormat="1" spans="1:16">
+      <c r="A55" s="35"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="35"/>
+      <c r="J55" s="35"/>
+      <c r="K55" s="35"/>
+      <c r="L55" s="35"/>
+      <c r="M55" s="35"/>
+      <c r="N55" s="35"/>
+      <c r="O55" s="35"/>
+      <c r="P55" s="40"/>
+    </row>
+    <row r="56" s="28" customFormat="1" spans="1:10">
+      <c r="A56" s="35"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="36"/>
+      <c r="J56" s="35"/>
+    </row>
+    <row r="57" s="28" customFormat="1" spans="1:10">
+      <c r="A57" s="35"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="36"/>
+      <c r="J57" s="35"/>
+    </row>
+    <row r="58" s="28" customFormat="1" spans="1:10">
+      <c r="A58" s="35"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="35"/>
+      <c r="J58" s="35"/>
+    </row>
+    <row r="59" s="28" customFormat="1" spans="1:10">
+      <c r="A59" s="35"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="35"/>
+      <c r="J59" s="35"/>
+    </row>
+    <row r="60" s="28" customFormat="1" spans="1:10">
+      <c r="A60" s="35"/>
+      <c r="B60" s="35"/>
+      <c r="C60" s="35"/>
+      <c r="J60" s="35"/>
+    </row>
+    <row r="61" s="28" customFormat="1" spans="1:10">
+      <c r="A61" s="35"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="35"/>
+      <c r="J61" s="35"/>
+    </row>
+    <row r="66" s="35" customFormat="1" spans="2:2">
+      <c r="B66" s="37"/>
+    </row>
+    <row r="72" s="35" customFormat="1" spans="3:3">
+      <c r="C72" s="37"/>
+    </row>
+    <row r="73" s="35" customFormat="1" spans="3:3">
+      <c r="C73" s="36"/>
+    </row>
+    <row r="75" s="35" customFormat="1" spans="3:3">
+      <c r="C75" s="40"/>
+    </row>
+    <row r="76" s="35" customFormat="1" spans="5:5">
+      <c r="E76" s="40"/>
+    </row>
+    <row r="77" s="35" customFormat="1" spans="4:4">
+      <c r="D77" s="40"/>
+    </row>
+    <row r="78" s="35" customFormat="1" spans="5:5">
+      <c r="E78" s="40"/>
+    </row>
+    <row r="79" s="35" customFormat="1" spans="4:4">
+      <c r="D79" s="40"/>
+    </row>
+    <row r="80" s="35" customFormat="1" spans="3:3">
+      <c r="C80" s="40"/>
+    </row>
+    <row r="81" s="35" customFormat="1" spans="3:3">
+      <c r="C81" s="40"/>
+    </row>
+    <row r="82" s="35" customFormat="1" spans="3:3">
+      <c r="C82" s="36"/>
+    </row>
+    <row r="83" s="35" customFormat="1" spans="3:3">
+      <c r="C83" s="40"/>
+    </row>
+    <row r="84" s="35" customFormat="1" spans="3:3">
+      <c r="C84" s="40"/>
+    </row>
+    <row r="85" s="35" customFormat="1" spans="3:3">
+      <c r="C85" s="36"/>
+    </row>
+    <row r="91" s="35" customFormat="1" spans="3:5">
+      <c r="C91" s="36"/>
+      <c r="E91" s="36"/>
+    </row>
+    <row r="92" s="35" customFormat="1" spans="3:3">
+      <c r="C92" s="37"/>
+    </row>
+    <row r="114" s="35" customFormat="1" spans="2:2">
+      <c r="B114" s="36"/>
+    </row>
+    <row r="115" s="35" customFormat="1" spans="2:2">
+      <c r="B115" s="36"/>
+    </row>
+    <row r="116" s="35" customFormat="1" spans="2:2">
+      <c r="B116" s="36"/>
+    </row>
+    <row r="117" s="35" customFormat="1" spans="2:2">
+      <c r="B117" s="36"/>
+    </row>
+    <row r="118" s="35" customFormat="1" spans="2:2">
+      <c r="B118" s="36"/>
+    </row>
+    <row r="119" s="35" customFormat="1" spans="2:2">
+      <c r="B119" s="36"/>
+    </row>
+    <row r="120" s="35" customFormat="1" spans="2:2">
+      <c r="B120" s="36"/>
+    </row>
+    <row r="121" s="35" customFormat="1" spans="2:2">
+      <c r="B121" s="36"/>
+    </row>
+    <row r="122" s="35" customFormat="1" spans="2:2">
+      <c r="B122" s="36"/>
+    </row>
+    <row r="123" s="35" customFormat="1" spans="2:2">
+      <c r="B123" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8289,656 +8714,656 @@
   <sheetPr/>
   <dimension ref="A1:AE123"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A58" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="190" zoomScaleNormal="190" topLeftCell="A58" workbookViewId="0">
       <selection activeCell="J72" sqref="J72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="4.875" style="24"/>
+    <col min="1" max="16384" width="4.875" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" s="23" customFormat="1" ht="22.5" spans="1:31">
-      <c r="A1" s="24"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="H1" s="24" t="s">
+    <row r="1" s="42" customFormat="1" ht="22.5" spans="1:31">
+      <c r="A1" s="43"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="H1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24" t="s">
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="T1" s="24" t="s">
+      <c r="T1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="24" t="s">
+      <c r="U1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="25" t="s">
+      <c r="V1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="24" t="s">
+      <c r="W1" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="25"/>
-    </row>
-    <row r="2" s="23" customFormat="1" spans="1:27">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24" t="s">
+      <c r="X1" s="44"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="44"/>
+    </row>
+    <row r="2" s="42" customFormat="1" spans="1:27">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="24" t="s">
+      <c r="T2" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="24" t="s">
+      <c r="U2" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="V2" s="24" t="s">
+      <c r="V2" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="24" t="s">
+      <c r="W2" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="30"/>
-    </row>
-    <row r="3" s="23" customFormat="1" spans="1:10">
-      <c r="A3" s="24" t="s">
+      <c r="X2" s="44"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="43"/>
+      <c r="AA2" s="49"/>
+    </row>
+    <row r="3" s="42" customFormat="1" spans="1:10">
+      <c r="A3" s="43" t="s">
         <v>300</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="J3" s="24"/>
-    </row>
-    <row r="4" s="23" customFormat="1" spans="1:10">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24" t="s">
+      <c r="B3" s="43"/>
+      <c r="J3" s="43"/>
+    </row>
+    <row r="4" s="42" customFormat="1" spans="1:10">
+      <c r="A4" s="43"/>
+      <c r="B4" s="43" t="s">
         <v>301</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="J4" s="24"/>
-    </row>
-    <row r="5" s="23" customFormat="1" spans="1:10">
-      <c r="A5" s="24"/>
-      <c r="B5" s="25" t="s">
+      <c r="C4" s="43"/>
+      <c r="J4" s="43"/>
+    </row>
+    <row r="5" s="42" customFormat="1" spans="1:10">
+      <c r="A5" s="43"/>
+      <c r="B5" s="44" t="s">
         <v>302</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="J5" s="24"/>
-    </row>
-    <row r="6" s="23" customFormat="1" spans="1:10">
-      <c r="A6" s="24"/>
-      <c r="B6" s="25" t="s">
+      <c r="C5" s="43"/>
+      <c r="J5" s="43"/>
+    </row>
+    <row r="6" s="42" customFormat="1" spans="1:10">
+      <c r="A6" s="43"/>
+      <c r="B6" s="44" t="s">
         <v>303</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="J6" s="24"/>
-    </row>
-    <row r="7" s="23" customFormat="1" spans="1:10">
-      <c r="A7" s="24"/>
-      <c r="B7" s="25" t="s">
+      <c r="C6" s="43"/>
+      <c r="J6" s="43"/>
+    </row>
+    <row r="7" s="42" customFormat="1" spans="1:10">
+      <c r="A7" s="43"/>
+      <c r="B7" s="44" t="s">
         <v>304</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="J7" s="24"/>
-    </row>
-    <row r="8" s="23" customFormat="1" spans="1:10">
-      <c r="A8" s="24"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="24" t="s">
+      <c r="C7" s="43"/>
+      <c r="J7" s="43"/>
+    </row>
+    <row r="8" s="42" customFormat="1" spans="1:10">
+      <c r="A8" s="43"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="43" t="s">
         <v>305</v>
       </c>
-      <c r="J8" s="24"/>
-    </row>
-    <row r="9" s="23" customFormat="1" spans="1:10">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="23" t="s">
+      <c r="J8" s="43"/>
+    </row>
+    <row r="9" s="42" customFormat="1" spans="1:10">
+      <c r="A9" s="43"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="42" t="s">
         <v>306</v>
       </c>
-      <c r="J9" s="24"/>
-    </row>
-    <row r="10" s="23" customFormat="1" spans="1:10">
-      <c r="A10" s="24"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="24" t="s">
+      <c r="J9" s="43"/>
+    </row>
+    <row r="10" s="42" customFormat="1" spans="1:10">
+      <c r="A10" s="43"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="43" t="s">
         <v>307</v>
       </c>
-      <c r="J10" s="24"/>
-    </row>
-    <row r="11" s="23" customFormat="1" spans="1:10">
-      <c r="A11" s="24"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="23" t="s">
+      <c r="J10" s="43"/>
+    </row>
+    <row r="11" s="42" customFormat="1" spans="1:10">
+      <c r="A11" s="43"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="42" t="s">
         <v>308</v>
       </c>
-      <c r="J11" s="24"/>
-    </row>
-    <row r="12" s="23" customFormat="1" spans="1:10">
-      <c r="A12" s="24"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="23" t="s">
+      <c r="J11" s="43"/>
+    </row>
+    <row r="12" s="42" customFormat="1" spans="1:10">
+      <c r="A12" s="43"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="42" t="s">
         <v>309</v>
       </c>
-      <c r="J12" s="24"/>
-    </row>
-    <row r="13" s="23" customFormat="1" spans="1:10">
-      <c r="A13" s="24"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="23" t="s">
+      <c r="J12" s="43"/>
+    </row>
+    <row r="13" s="42" customFormat="1" spans="1:10">
+      <c r="A13" s="43"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="42" t="s">
         <v>310</v>
       </c>
-      <c r="J13" s="24"/>
-    </row>
-    <row r="14" s="23" customFormat="1" spans="1:10">
-      <c r="A14" s="24"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="24"/>
-      <c r="J14" s="24"/>
-    </row>
-    <row r="15" s="23" customFormat="1" spans="1:10">
-      <c r="A15" s="24"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="24"/>
-      <c r="J15" s="24"/>
-    </row>
-    <row r="16" s="23" customFormat="1" spans="1:10">
-      <c r="A16" s="24"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="24"/>
-      <c r="J16" s="24"/>
-    </row>
-    <row r="17" s="23" customFormat="1" spans="1:10">
-      <c r="A17" s="24"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="24"/>
-      <c r="J17" s="24"/>
-    </row>
-    <row r="18" s="23" customFormat="1" spans="1:10">
-      <c r="A18" s="24"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="24"/>
-      <c r="J18" s="24"/>
-    </row>
-    <row r="19" s="23" customFormat="1" spans="1:10">
-      <c r="A19" s="24"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="24"/>
-      <c r="J19" s="24"/>
-    </row>
-    <row r="20" s="23" customFormat="1" spans="1:10">
-      <c r="A20" s="24"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="24"/>
-      <c r="J20" s="24"/>
-    </row>
-    <row r="21" s="23" customFormat="1" spans="1:10">
-      <c r="A21" s="24"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="23" t="s">
+      <c r="J13" s="43"/>
+    </row>
+    <row r="14" s="42" customFormat="1" spans="1:10">
+      <c r="A14" s="43"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="43"/>
+      <c r="J14" s="43"/>
+    </row>
+    <row r="15" s="42" customFormat="1" spans="1:10">
+      <c r="A15" s="43"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="43"/>
+      <c r="J15" s="43"/>
+    </row>
+    <row r="16" s="42" customFormat="1" spans="1:10">
+      <c r="A16" s="43"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="43"/>
+      <c r="J16" s="43"/>
+    </row>
+    <row r="17" s="42" customFormat="1" spans="1:10">
+      <c r="A17" s="43"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="43"/>
+      <c r="J17" s="43"/>
+    </row>
+    <row r="18" s="42" customFormat="1" spans="1:10">
+      <c r="A18" s="43"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="43"/>
+      <c r="J18" s="43"/>
+    </row>
+    <row r="19" s="42" customFormat="1" spans="1:10">
+      <c r="A19" s="43"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="43"/>
+      <c r="J19" s="43"/>
+    </row>
+    <row r="20" s="42" customFormat="1" spans="1:10">
+      <c r="A20" s="43"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="43"/>
+      <c r="J20" s="43"/>
+    </row>
+    <row r="21" s="42" customFormat="1" spans="1:10">
+      <c r="A21" s="43"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="42" t="s">
         <v>311</v>
       </c>
-      <c r="J21" s="24"/>
-    </row>
-    <row r="22" s="23" customFormat="1" spans="1:10">
-      <c r="A22" s="24"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="24"/>
-      <c r="J22" s="24"/>
-    </row>
-    <row r="23" s="23" customFormat="1" spans="1:10">
-      <c r="A23" s="24"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="24"/>
-      <c r="J23" s="24"/>
-    </row>
-    <row r="24" s="23" customFormat="1" spans="1:10">
-      <c r="A24" s="24"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="24"/>
-      <c r="J24" s="24"/>
-    </row>
-    <row r="25" s="23" customFormat="1" spans="1:10">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="25"/>
-      <c r="J25" s="24"/>
-    </row>
-    <row r="26" s="23" customFormat="1" spans="1:10">
-      <c r="A26" s="24"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="J26" s="24"/>
-    </row>
-    <row r="27" s="23" customFormat="1" spans="1:10">
-      <c r="A27" s="24"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="J27" s="24"/>
-    </row>
-    <row r="28" s="23" customFormat="1" spans="1:10">
-      <c r="A28" s="24"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="23" t="s">
+      <c r="J21" s="43"/>
+    </row>
+    <row r="22" s="42" customFormat="1" spans="1:10">
+      <c r="A22" s="43"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="43"/>
+      <c r="J22" s="43"/>
+    </row>
+    <row r="23" s="42" customFormat="1" spans="1:10">
+      <c r="A23" s="43"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="43"/>
+      <c r="J23" s="43"/>
+    </row>
+    <row r="24" s="42" customFormat="1" spans="1:10">
+      <c r="A24" s="43"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="43"/>
+      <c r="J24" s="43"/>
+    </row>
+    <row r="25" s="42" customFormat="1" spans="1:10">
+      <c r="A25" s="43"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="44"/>
+      <c r="J25" s="43"/>
+    </row>
+    <row r="26" s="42" customFormat="1" spans="1:10">
+      <c r="A26" s="43"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="J26" s="43"/>
+    </row>
+    <row r="27" s="42" customFormat="1" spans="1:10">
+      <c r="A27" s="43"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="J27" s="43"/>
+    </row>
+    <row r="28" s="42" customFormat="1" spans="1:10">
+      <c r="A28" s="43"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="42" t="s">
         <v>312</v>
       </c>
-      <c r="J28" s="24"/>
-    </row>
-    <row r="29" s="23" customFormat="1" spans="1:10">
-      <c r="A29" s="24"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25" t="s">
+      <c r="J28" s="43"/>
+    </row>
+    <row r="29" s="42" customFormat="1" spans="1:10">
+      <c r="A29" s="43"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44" t="s">
         <v>313</v>
       </c>
-      <c r="J29" s="24"/>
-    </row>
-    <row r="30" s="23" customFormat="1" spans="1:10">
-      <c r="A30" s="24"/>
-      <c r="B30" s="25"/>
-      <c r="D30" s="23" t="s">
+      <c r="J29" s="43"/>
+    </row>
+    <row r="30" s="42" customFormat="1" spans="1:10">
+      <c r="A30" s="43"/>
+      <c r="B30" s="44"/>
+      <c r="D30" s="42" t="s">
         <v>314</v>
       </c>
-      <c r="J30" s="24"/>
-    </row>
-    <row r="31" s="23" customFormat="1" spans="3:10">
-      <c r="C31" s="25"/>
-      <c r="D31" s="23" t="s">
+      <c r="J30" s="43"/>
+    </row>
+    <row r="31" s="42" customFormat="1" spans="3:10">
+      <c r="C31" s="44"/>
+      <c r="D31" s="42" t="s">
         <v>315</v>
       </c>
-      <c r="J31" s="24"/>
-    </row>
-    <row r="32" s="23" customFormat="1" spans="1:10">
-      <c r="A32" s="24"/>
-      <c r="B32" s="26"/>
-      <c r="D32" s="23" t="s">
+      <c r="J31" s="43"/>
+    </row>
+    <row r="32" s="42" customFormat="1" spans="1:10">
+      <c r="A32" s="43"/>
+      <c r="B32" s="45"/>
+      <c r="D32" s="42" t="s">
         <v>316</v>
       </c>
-      <c r="J32" s="24"/>
-    </row>
-    <row r="33" s="23" customFormat="1" spans="1:10">
-      <c r="A33" s="24"/>
-      <c r="B33" s="26"/>
-      <c r="J33" s="24"/>
-    </row>
-    <row r="34" s="23" customFormat="1" spans="10:10">
-      <c r="J34" s="24"/>
-    </row>
-    <row r="35" s="23" customFormat="1" spans="1:10">
-      <c r="A35" s="24"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="25"/>
-      <c r="J35" s="24"/>
-    </row>
-    <row r="36" s="23" customFormat="1" spans="1:10">
-      <c r="A36" s="24"/>
-      <c r="B36" s="26"/>
-      <c r="J36" s="24"/>
-    </row>
-    <row r="37" s="23" customFormat="1" spans="10:10">
-      <c r="J37" s="24"/>
-    </row>
-    <row r="38" s="23" customFormat="1" spans="10:10">
-      <c r="J38" s="24"/>
-    </row>
-    <row r="39" s="23" customFormat="1" spans="1:10">
-      <c r="A39" s="24"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="25"/>
-      <c r="J39" s="24"/>
-    </row>
-    <row r="40" s="23" customFormat="1" spans="1:10">
-      <c r="A40" s="24"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="28"/>
-      <c r="J40" s="24"/>
-    </row>
-    <row r="41" s="23" customFormat="1" spans="1:10">
-      <c r="A41" s="24"/>
-      <c r="B41" s="26"/>
-      <c r="J41" s="24"/>
-    </row>
-    <row r="42" s="23" customFormat="1" spans="10:10">
-      <c r="J42" s="24"/>
-    </row>
-    <row r="43" s="23" customFormat="1" spans="10:10">
-      <c r="J43" s="24"/>
-    </row>
-    <row r="44" s="23" customFormat="1" spans="2:10">
-      <c r="B44" s="23" t="s">
+      <c r="J32" s="43"/>
+    </row>
+    <row r="33" s="42" customFormat="1" spans="1:10">
+      <c r="A33" s="43"/>
+      <c r="B33" s="45"/>
+      <c r="J33" s="43"/>
+    </row>
+    <row r="34" s="42" customFormat="1" spans="10:10">
+      <c r="J34" s="43"/>
+    </row>
+    <row r="35" s="42" customFormat="1" spans="1:10">
+      <c r="A35" s="43"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="44"/>
+      <c r="J35" s="43"/>
+    </row>
+    <row r="36" s="42" customFormat="1" spans="1:10">
+      <c r="A36" s="43"/>
+      <c r="B36" s="45"/>
+      <c r="J36" s="43"/>
+    </row>
+    <row r="37" s="42" customFormat="1" spans="10:10">
+      <c r="J37" s="43"/>
+    </row>
+    <row r="38" s="42" customFormat="1" spans="10:10">
+      <c r="J38" s="43"/>
+    </row>
+    <row r="39" s="42" customFormat="1" spans="1:10">
+      <c r="A39" s="43"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="44"/>
+      <c r="J39" s="43"/>
+    </row>
+    <row r="40" s="42" customFormat="1" spans="1:10">
+      <c r="A40" s="43"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="47"/>
+      <c r="J40" s="43"/>
+    </row>
+    <row r="41" s="42" customFormat="1" spans="1:10">
+      <c r="A41" s="43"/>
+      <c r="B41" s="45"/>
+      <c r="J41" s="43"/>
+    </row>
+    <row r="42" s="42" customFormat="1" spans="10:10">
+      <c r="J42" s="43"/>
+    </row>
+    <row r="43" s="42" customFormat="1" spans="10:10">
+      <c r="J43" s="43"/>
+    </row>
+    <row r="44" s="42" customFormat="1" spans="2:10">
+      <c r="B44" s="42" t="s">
         <v>317</v>
       </c>
-      <c r="C44" s="25"/>
-      <c r="J44" s="24"/>
-    </row>
-    <row r="45" s="23" customFormat="1" spans="1:10">
-      <c r="A45" s="24"/>
-      <c r="C45" s="23" t="s">
+      <c r="C44" s="44"/>
+      <c r="J44" s="43"/>
+    </row>
+    <row r="45" s="42" customFormat="1" spans="1:10">
+      <c r="A45" s="43"/>
+      <c r="C45" s="42" t="s">
         <v>318</v>
       </c>
-      <c r="J45" s="24"/>
-    </row>
-    <row r="46" s="23" customFormat="1" spans="1:10">
-      <c r="A46" s="24"/>
-      <c r="B46" s="26"/>
-      <c r="D46" s="23" t="s">
+      <c r="J45" s="43"/>
+    </row>
+    <row r="46" s="42" customFormat="1" spans="1:10">
+      <c r="A46" s="43"/>
+      <c r="B46" s="45"/>
+      <c r="D46" s="42" t="s">
         <v>319</v>
       </c>
-      <c r="J46" s="24"/>
-    </row>
-    <row r="47" s="23" customFormat="1" spans="3:10">
-      <c r="C47" s="23" t="s">
+      <c r="J46" s="43"/>
+    </row>
+    <row r="47" s="42" customFormat="1" spans="3:10">
+      <c r="C47" s="42" t="s">
         <v>320</v>
       </c>
-      <c r="J47" s="24"/>
-    </row>
-    <row r="48" s="23" customFormat="1" spans="1:10">
-      <c r="A48" s="24"/>
-      <c r="D48" s="24" t="s">
+      <c r="J47" s="43"/>
+    </row>
+    <row r="48" s="42" customFormat="1" spans="1:10">
+      <c r="A48" s="43"/>
+      <c r="D48" s="43" t="s">
         <v>321</v>
       </c>
-      <c r="J48" s="24"/>
-    </row>
-    <row r="49" s="23" customFormat="1" spans="1:10">
-      <c r="A49" s="24"/>
-      <c r="B49" s="24"/>
-      <c r="D49" s="23" t="s">
+      <c r="J48" s="43"/>
+    </row>
+    <row r="49" s="42" customFormat="1" spans="1:10">
+      <c r="A49" s="43"/>
+      <c r="B49" s="43"/>
+      <c r="D49" s="42" t="s">
         <v>322</v>
       </c>
-      <c r="J49" s="24"/>
-    </row>
-    <row r="50" s="23" customFormat="1" spans="1:10">
-      <c r="A50" s="24"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="23" t="s">
+      <c r="J49" s="43"/>
+    </row>
+    <row r="50" s="42" customFormat="1" spans="1:10">
+      <c r="A50" s="43"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="42" t="s">
         <v>323</v>
       </c>
-      <c r="J50" s="24"/>
-    </row>
-    <row r="51" s="23" customFormat="1" spans="1:16">
-      <c r="A51" s="24"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="24" t="s">
+      <c r="J50" s="43"/>
+    </row>
+    <row r="51" s="42" customFormat="1" spans="1:16">
+      <c r="A51" s="43"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="43" t="s">
         <v>324</v>
       </c>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="24"/>
-      <c r="K51" s="24"/>
-      <c r="L51" s="24"/>
-      <c r="M51" s="24"/>
-      <c r="N51" s="24"/>
-      <c r="O51" s="24"/>
-      <c r="P51" s="28"/>
-    </row>
-    <row r="52" s="23" customFormat="1" spans="1:10">
-      <c r="A52" s="24"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="23" t="s">
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="43"/>
+      <c r="J51" s="43"/>
+      <c r="K51" s="43"/>
+      <c r="L51" s="43"/>
+      <c r="M51" s="43"/>
+      <c r="N51" s="43"/>
+      <c r="O51" s="43"/>
+      <c r="P51" s="47"/>
+    </row>
+    <row r="52" s="42" customFormat="1" spans="1:10">
+      <c r="A52" s="43"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="42" t="s">
         <v>325</v>
       </c>
-      <c r="J52" s="24"/>
-    </row>
-    <row r="53" s="23" customFormat="1" spans="1:10">
-      <c r="A53" s="24"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24" t="s">
+      <c r="J52" s="43"/>
+    </row>
+    <row r="53" s="42" customFormat="1" spans="1:10">
+      <c r="A53" s="43"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43" t="s">
         <v>326</v>
       </c>
-      <c r="J53" s="24"/>
-    </row>
-    <row r="54" s="23" customFormat="1" spans="1:10">
-      <c r="A54" s="24"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="23" t="s">
+      <c r="J53" s="43"/>
+    </row>
+    <row r="54" s="42" customFormat="1" spans="1:10">
+      <c r="A54" s="43"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="42" t="s">
         <v>327</v>
       </c>
-      <c r="J54" s="24"/>
-    </row>
-    <row r="55" s="23" customFormat="1" spans="1:16">
-      <c r="A55" s="24"/>
-      <c r="B55" s="24"/>
-      <c r="C55" s="24" t="s">
+      <c r="J54" s="43"/>
+    </row>
+    <row r="55" s="42" customFormat="1" spans="1:16">
+      <c r="A55" s="43"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="43" t="s">
         <v>328</v>
       </c>
-      <c r="D55" s="24"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="24"/>
-      <c r="I55" s="24"/>
-      <c r="J55" s="24"/>
-      <c r="K55" s="24"/>
-      <c r="L55" s="24"/>
-      <c r="M55" s="24"/>
-      <c r="N55" s="24"/>
-      <c r="O55" s="24"/>
-      <c r="P55" s="28"/>
-    </row>
-    <row r="56" s="23" customFormat="1" spans="1:10">
-      <c r="A56" s="24"/>
-      <c r="B56" s="24"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="25" t="s">
+      <c r="D55" s="43"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="43"/>
+      <c r="H55" s="43"/>
+      <c r="I55" s="43"/>
+      <c r="J55" s="43"/>
+      <c r="K55" s="43"/>
+      <c r="L55" s="43"/>
+      <c r="M55" s="43"/>
+      <c r="N55" s="43"/>
+      <c r="O55" s="43"/>
+      <c r="P55" s="47"/>
+    </row>
+    <row r="56" s="42" customFormat="1" spans="1:10">
+      <c r="A56" s="43"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="J56" s="24"/>
-    </row>
-    <row r="57" s="23" customFormat="1" spans="1:10">
-      <c r="A57" s="24"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="24" t="s">
+      <c r="J56" s="43"/>
+    </row>
+    <row r="57" s="42" customFormat="1" spans="1:10">
+      <c r="A57" s="43"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="43" t="s">
         <v>330</v>
       </c>
-      <c r="D57" s="25"/>
-      <c r="J57" s="24"/>
-    </row>
-    <row r="58" s="23" customFormat="1" spans="1:10">
-      <c r="A58" s="24"/>
-      <c r="B58" s="24"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="23" t="s">
+      <c r="D57" s="44"/>
+      <c r="J57" s="43"/>
+    </row>
+    <row r="58" s="42" customFormat="1" spans="1:10">
+      <c r="A58" s="43"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="42" t="s">
         <v>331</v>
       </c>
-      <c r="J58" s="24"/>
-    </row>
-    <row r="59" s="23" customFormat="1" spans="1:10">
-      <c r="A59" s="24"/>
-      <c r="B59" s="24" t="s">
+      <c r="J58" s="43"/>
+    </row>
+    <row r="59" s="42" customFormat="1" spans="1:10">
+      <c r="A59" s="43"/>
+      <c r="B59" s="43" t="s">
         <v>332</v>
       </c>
-      <c r="C59" s="24"/>
-      <c r="J59" s="24"/>
-    </row>
-    <row r="60" s="23" customFormat="1" spans="1:10">
-      <c r="A60" s="24"/>
-      <c r="B60" s="24"/>
-      <c r="C60" s="24" t="s">
+      <c r="C59" s="43"/>
+      <c r="J59" s="43"/>
+    </row>
+    <row r="60" s="42" customFormat="1" spans="1:10">
+      <c r="A60" s="43"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="43" t="s">
         <v>333</v>
       </c>
-      <c r="J60" s="24"/>
-    </row>
-    <row r="61" s="23" customFormat="1" spans="1:10">
-      <c r="A61" s="24"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="24" t="s">
+      <c r="J60" s="43"/>
+    </row>
+    <row r="61" s="42" customFormat="1" spans="1:10">
+      <c r="A61" s="43"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="43" t="s">
         <v>334</v>
       </c>
-      <c r="J61" s="24"/>
+      <c r="J61" s="43"/>
     </row>
     <row r="62" spans="3:3">
-      <c r="C62" s="24" t="s">
+      <c r="C62" s="43" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="63" spans="4:4">
-      <c r="D63" s="24" t="s">
+      <c r="D63" s="43" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="64" spans="3:3">
-      <c r="C64" s="24" t="s">
+      <c r="C64" s="43" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="65" spans="4:4">
-      <c r="D65" s="24" t="s">
+      <c r="D65" s="43" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="66" s="24" customFormat="1" spans="2:3">
-      <c r="B66" s="26"/>
-      <c r="C66" s="24" t="s">
+    <row r="66" s="43" customFormat="1" spans="2:3">
+      <c r="B66" s="45"/>
+      <c r="C66" s="43" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="67" spans="3:3">
-      <c r="C67" s="24" t="s">
+      <c r="C67" s="43" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="68" spans="3:3">
-      <c r="C68" s="24" t="s">
+      <c r="C68" s="43" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="69" spans="3:3">
-      <c r="C69" s="24" t="s">
+      <c r="C69" s="43" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="70" spans="3:3">
-      <c r="C70" s="24" t="s">
+      <c r="C70" s="43" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="71" spans="3:3">
-      <c r="C71" s="24" t="s">
+      <c r="C71" s="43" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="72" s="24" customFormat="1" spans="3:3">
-      <c r="C72" s="24" t="s">
+    <row r="72" s="43" customFormat="1" spans="3:3">
+      <c r="C72" s="43" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="73" s="24" customFormat="1" spans="4:4">
-      <c r="D73" s="24" t="s">
+    <row r="73" s="43" customFormat="1" spans="4:4">
+      <c r="D73" s="43" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="74" spans="4:4">
-      <c r="D74" s="24" t="s">
+      <c r="D74" s="43" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="75" s="24" customFormat="1" spans="4:4">
-      <c r="D75" s="24" t="s">
+    <row r="75" s="43" customFormat="1" spans="4:4">
+      <c r="D75" s="43" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="81" s="24" customFormat="1" spans="3:3">
-      <c r="C81" s="28"/>
-    </row>
-    <row r="82" s="24" customFormat="1" spans="3:3">
-      <c r="C82" s="25"/>
-    </row>
-    <row r="83" s="24" customFormat="1" spans="3:3">
-      <c r="C83" s="28"/>
-    </row>
-    <row r="84" s="24" customFormat="1" spans="3:3">
-      <c r="C84" s="28"/>
-    </row>
-    <row r="85" s="24" customFormat="1" spans="3:3">
-      <c r="C85" s="25"/>
-    </row>
-    <row r="91" s="24" customFormat="1" spans="3:5">
-      <c r="C91" s="25"/>
-      <c r="E91" s="25"/>
-    </row>
-    <row r="92" s="24" customFormat="1" spans="3:3">
-      <c r="C92" s="26"/>
-    </row>
-    <row r="114" s="24" customFormat="1" spans="2:2">
-      <c r="B114" s="25"/>
-    </row>
-    <row r="115" s="24" customFormat="1" spans="2:2">
-      <c r="B115" s="25"/>
-    </row>
-    <row r="116" s="24" customFormat="1" spans="2:2">
-      <c r="B116" s="25"/>
-    </row>
-    <row r="117" s="24" customFormat="1" spans="2:2">
-      <c r="B117" s="25"/>
-    </row>
-    <row r="118" s="24" customFormat="1" spans="2:2">
-      <c r="B118" s="25"/>
-    </row>
-    <row r="119" s="24" customFormat="1" spans="2:2">
-      <c r="B119" s="25"/>
-    </row>
-    <row r="120" s="24" customFormat="1" spans="2:2">
-      <c r="B120" s="25"/>
-    </row>
-    <row r="121" s="24" customFormat="1" spans="2:2">
-      <c r="B121" s="25"/>
-    </row>
-    <row r="122" s="24" customFormat="1" spans="2:2">
-      <c r="B122" s="25"/>
-    </row>
-    <row r="123" s="24" customFormat="1" spans="2:2">
-      <c r="B123" s="25"/>
+    <row r="81" s="43" customFormat="1" spans="3:3">
+      <c r="C81" s="47"/>
+    </row>
+    <row r="82" s="43" customFormat="1" spans="3:3">
+      <c r="C82" s="44"/>
+    </row>
+    <row r="83" s="43" customFormat="1" spans="3:3">
+      <c r="C83" s="47"/>
+    </row>
+    <row r="84" s="43" customFormat="1" spans="3:3">
+      <c r="C84" s="47"/>
+    </row>
+    <row r="85" s="43" customFormat="1" spans="3:3">
+      <c r="C85" s="44"/>
+    </row>
+    <row r="91" s="43" customFormat="1" spans="3:5">
+      <c r="C91" s="44"/>
+      <c r="E91" s="44"/>
+    </row>
+    <row r="92" s="43" customFormat="1" spans="3:3">
+      <c r="C92" s="45"/>
+    </row>
+    <row r="114" s="43" customFormat="1" spans="2:2">
+      <c r="B114" s="44"/>
+    </row>
+    <row r="115" s="43" customFormat="1" spans="2:2">
+      <c r="B115" s="44"/>
+    </row>
+    <row r="116" s="43" customFormat="1" spans="2:2">
+      <c r="B116" s="44"/>
+    </row>
+    <row r="117" s="43" customFormat="1" spans="2:2">
+      <c r="B117" s="44"/>
+    </row>
+    <row r="118" s="43" customFormat="1" spans="2:2">
+      <c r="B118" s="44"/>
+    </row>
+    <row r="119" s="43" customFormat="1" spans="2:2">
+      <c r="B119" s="44"/>
+    </row>
+    <row r="120" s="43" customFormat="1" spans="2:2">
+      <c r="B120" s="44"/>
+    </row>
+    <row r="121" s="43" customFormat="1" spans="2:2">
+      <c r="B121" s="44"/>
+    </row>
+    <row r="122" s="43" customFormat="1" spans="2:2">
+      <c r="B122" s="44"/>
+    </row>
+    <row r="123" s="43" customFormat="1" spans="2:2">
+      <c r="B123" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8958,492 +9383,492 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="4.875" style="16"/>
+    <col min="1" max="16384" width="4.875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" s="15" customFormat="1" ht="22.5" spans="1:31">
-      <c r="A1" s="16"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="17"/>
-    </row>
-    <row r="2" s="15" customFormat="1" spans="1:27">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="22"/>
-    </row>
-    <row r="3" s="15" customFormat="1" spans="1:10">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" s="15" customFormat="1" spans="1:10">
-      <c r="A4" s="16"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="16"/>
-      <c r="J4" s="16"/>
-    </row>
-    <row r="5" s="15" customFormat="1" spans="1:10">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="16"/>
-      <c r="J5" s="16"/>
-    </row>
-    <row r="6" s="15" customFormat="1" spans="1:10">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="16"/>
-      <c r="J6" s="16"/>
-    </row>
-    <row r="7" s="15" customFormat="1" spans="1:10">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="16"/>
-      <c r="J7" s="16"/>
-    </row>
-    <row r="8" s="15" customFormat="1" spans="1:10">
-      <c r="A8" s="16"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="16"/>
-      <c r="J8" s="16"/>
-    </row>
-    <row r="9" s="15" customFormat="1" spans="1:10">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="16"/>
-      <c r="J9" s="16"/>
-    </row>
-    <row r="10" s="15" customFormat="1" spans="1:10">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="16"/>
-      <c r="J10" s="16"/>
-    </row>
-    <row r="11" s="15" customFormat="1" spans="1:10">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="16"/>
-      <c r="J11" s="16"/>
-    </row>
-    <row r="12" s="15" customFormat="1" spans="1:18">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="R12" s="16"/>
-    </row>
-    <row r="13" s="15" customFormat="1" spans="1:18">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="R13" s="16"/>
-    </row>
-    <row r="14" s="15" customFormat="1" spans="1:10">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="16"/>
-      <c r="J14" s="16"/>
-    </row>
-    <row r="15" s="15" customFormat="1" spans="1:10">
-      <c r="A15" s="16"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="16"/>
-      <c r="J15" s="16"/>
-    </row>
-    <row r="16" s="15" customFormat="1" spans="1:10">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="16"/>
-      <c r="J16" s="16"/>
-    </row>
-    <row r="17" s="15" customFormat="1" spans="1:10">
-      <c r="A17" s="16"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="16"/>
-      <c r="J17" s="16"/>
-    </row>
-    <row r="18" s="15" customFormat="1" spans="1:18">
-      <c r="A18" s="16"/>
-      <c r="B18" s="17"/>
-      <c r="J18" s="16"/>
-      <c r="R18" s="16"/>
-    </row>
-    <row r="19" s="15" customFormat="1" spans="1:10">
-      <c r="A19" s="16"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="16"/>
-      <c r="J19" s="16"/>
-    </row>
-    <row r="20" s="15" customFormat="1" spans="1:10">
-      <c r="A20" s="16"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="16"/>
-      <c r="J20" s="16"/>
-    </row>
-    <row r="21" s="15" customFormat="1" spans="1:10">
-      <c r="A21" s="16"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="16"/>
-      <c r="J21" s="16"/>
-    </row>
-    <row r="22" s="15" customFormat="1" spans="1:10">
-      <c r="A22" s="16"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="16"/>
-      <c r="J22" s="16"/>
-    </row>
-    <row r="23" s="15" customFormat="1" spans="1:10">
-      <c r="A23" s="16"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="16"/>
-      <c r="J23" s="16"/>
-    </row>
-    <row r="24" s="15" customFormat="1" spans="1:10">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="17"/>
-      <c r="J24" s="16"/>
-    </row>
-    <row r="25" s="15" customFormat="1" spans="1:10">
-      <c r="A25" s="16"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="J25" s="16"/>
-    </row>
-    <row r="26" s="15" customFormat="1" spans="1:10">
-      <c r="A26" s="16"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="J26" s="16"/>
-    </row>
-    <row r="27" s="15" customFormat="1" spans="1:10">
-      <c r="A27" s="16"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="J27" s="16"/>
-    </row>
-    <row r="28" s="15" customFormat="1" spans="1:10">
-      <c r="A28" s="16"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="J28" s="16"/>
-    </row>
-    <row r="29" s="15" customFormat="1" spans="1:10">
-      <c r="A29" s="16"/>
-      <c r="B29" s="17"/>
-      <c r="J29" s="16"/>
-    </row>
-    <row r="30" s="15" customFormat="1" spans="3:10">
-      <c r="C30" s="17"/>
-      <c r="J30" s="16"/>
-    </row>
-    <row r="31" s="15" customFormat="1" spans="1:10">
-      <c r="A31" s="16"/>
-      <c r="B31" s="18"/>
-      <c r="J31" s="16"/>
-    </row>
-    <row r="32" s="15" customFormat="1" spans="1:10">
-      <c r="A32" s="16"/>
-      <c r="B32" s="18"/>
-      <c r="J32" s="16"/>
-    </row>
-    <row r="33" s="15" customFormat="1" spans="10:10">
-      <c r="J33" s="16"/>
-    </row>
-    <row r="34" s="15" customFormat="1" spans="1:10">
-      <c r="A34" s="16"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="17"/>
-      <c r="J34" s="16"/>
-    </row>
-    <row r="35" s="15" customFormat="1" spans="1:10">
-      <c r="A35" s="16"/>
-      <c r="B35" s="18"/>
-      <c r="J35" s="16"/>
-    </row>
-    <row r="36" s="15" customFormat="1" spans="10:10">
-      <c r="J36" s="16"/>
-    </row>
-    <row r="37" s="15" customFormat="1" spans="10:10">
-      <c r="J37" s="16"/>
-    </row>
-    <row r="38" s="15" customFormat="1" spans="1:10">
-      <c r="A38" s="16"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="17"/>
-      <c r="J38" s="16"/>
-    </row>
-    <row r="39" s="15" customFormat="1" spans="1:10">
-      <c r="A39" s="16"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="17"/>
-      <c r="J39" s="16"/>
-    </row>
-    <row r="40" s="15" customFormat="1" spans="1:10">
-      <c r="A40" s="16"/>
-      <c r="B40" s="18"/>
-      <c r="J40" s="16"/>
-    </row>
-    <row r="41" s="15" customFormat="1" spans="10:10">
-      <c r="J41" s="16"/>
-    </row>
-    <row r="42" s="15" customFormat="1" spans="10:10">
-      <c r="J42" s="16"/>
-    </row>
-    <row r="43" s="15" customFormat="1" spans="3:10">
-      <c r="C43" s="17"/>
-      <c r="J43" s="16"/>
-    </row>
-    <row r="44" s="15" customFormat="1" spans="1:10">
-      <c r="A44" s="16"/>
-      <c r="J44" s="16"/>
-    </row>
-    <row r="45" s="15" customFormat="1" spans="1:10">
-      <c r="A45" s="16"/>
-      <c r="B45" s="18"/>
-      <c r="J45" s="16"/>
-    </row>
-    <row r="46" s="15" customFormat="1" spans="10:10">
-      <c r="J46" s="16"/>
-    </row>
-    <row r="47" s="15" customFormat="1" spans="1:10">
-      <c r="A47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="J47" s="16"/>
-    </row>
-    <row r="48" s="15" customFormat="1" spans="1:10">
-      <c r="A48" s="16"/>
-      <c r="B48" s="16"/>
-      <c r="J48" s="16"/>
-    </row>
-    <row r="49" s="15" customFormat="1" spans="1:10">
-      <c r="A49" s="16"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
-      <c r="J49" s="16"/>
-    </row>
-    <row r="50" s="15" customFormat="1" spans="1:16">
-      <c r="A50" s="16"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="16"/>
-      <c r="L50" s="16"/>
-      <c r="M50" s="16"/>
-      <c r="N50" s="16"/>
-      <c r="O50" s="16"/>
-      <c r="P50" s="21"/>
-    </row>
-    <row r="51" s="15" customFormat="1" spans="1:10">
-      <c r="A51" s="16"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-      <c r="J51" s="16"/>
-    </row>
-    <row r="52" s="15" customFormat="1" spans="1:10">
-      <c r="A52" s="16"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="J52" s="16"/>
-    </row>
-    <row r="53" s="15" customFormat="1" spans="1:10">
-      <c r="A53" s="16"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
-      <c r="J53" s="16"/>
-    </row>
-    <row r="54" s="15" customFormat="1" spans="1:16">
-      <c r="A54" s="16"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="16"/>
-      <c r="L54" s="16"/>
-      <c r="M54" s="16"/>
-      <c r="N54" s="16"/>
-      <c r="O54" s="16"/>
-      <c r="P54" s="21"/>
-    </row>
-    <row r="55" s="15" customFormat="1" spans="1:10">
-      <c r="A55" s="16"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="17"/>
-      <c r="J55" s="16"/>
-    </row>
-    <row r="56" s="15" customFormat="1" spans="1:10">
-      <c r="A56" s="16"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="17"/>
-      <c r="J56" s="16"/>
-    </row>
-    <row r="57" s="15" customFormat="1" spans="1:10">
-      <c r="A57" s="16"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
-      <c r="J57" s="16"/>
-    </row>
-    <row r="58" s="15" customFormat="1" spans="1:10">
-      <c r="A58" s="16"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
-      <c r="J58" s="16"/>
-    </row>
-    <row r="59" s="15" customFormat="1" spans="1:10">
-      <c r="A59" s="16"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
-      <c r="J59" s="16"/>
-    </row>
-    <row r="60" s="15" customFormat="1" spans="1:10">
-      <c r="A60" s="16"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
-      <c r="J60" s="16"/>
-    </row>
-    <row r="65" s="16" customFormat="1" spans="2:2">
-      <c r="B65" s="18"/>
-    </row>
-    <row r="71" s="16" customFormat="1" spans="3:3">
-      <c r="C71" s="18"/>
-    </row>
-    <row r="72" s="16" customFormat="1" spans="3:3">
-      <c r="C72" s="17"/>
-    </row>
-    <row r="74" s="16" customFormat="1" spans="3:3">
-      <c r="C74" s="21"/>
-    </row>
-    <row r="75" s="16" customFormat="1" spans="5:5">
-      <c r="E75" s="21"/>
-    </row>
-    <row r="76" s="16" customFormat="1" spans="4:4">
-      <c r="D76" s="21"/>
-    </row>
-    <row r="77" s="16" customFormat="1" spans="5:5">
-      <c r="E77" s="21"/>
-    </row>
-    <row r="78" s="16" customFormat="1" spans="4:4">
-      <c r="D78" s="21"/>
-    </row>
-    <row r="79" s="16" customFormat="1" spans="3:3">
-      <c r="C79" s="21"/>
-    </row>
-    <row r="80" s="16" customFormat="1" spans="3:3">
-      <c r="C80" s="21"/>
-    </row>
-    <row r="81" s="16" customFormat="1" spans="3:3">
-      <c r="C81" s="17"/>
-    </row>
-    <row r="82" s="16" customFormat="1" spans="3:3">
-      <c r="C82" s="21"/>
-    </row>
-    <row r="83" s="16" customFormat="1" spans="3:3">
-      <c r="C83" s="21"/>
-    </row>
-    <row r="84" s="16" customFormat="1" spans="3:3">
-      <c r="C84" s="17"/>
-    </row>
-    <row r="90" s="16" customFormat="1" spans="3:5">
-      <c r="C90" s="17"/>
-      <c r="E90" s="17"/>
-    </row>
-    <row r="91" s="16" customFormat="1" spans="3:3">
-      <c r="C91" s="18"/>
-    </row>
-    <row r="113" s="16" customFormat="1" spans="2:2">
-      <c r="B113" s="17"/>
-    </row>
-    <row r="114" s="16" customFormat="1" spans="2:2">
-      <c r="B114" s="17"/>
-    </row>
-    <row r="115" s="16" customFormat="1" spans="2:2">
-      <c r="B115" s="17"/>
-    </row>
-    <row r="116" s="16" customFormat="1" spans="2:2">
-      <c r="B116" s="17"/>
-    </row>
-    <row r="117" s="16" customFormat="1" spans="2:2">
-      <c r="B117" s="17"/>
-    </row>
-    <row r="118" s="16" customFormat="1" spans="2:2">
-      <c r="B118" s="17"/>
-    </row>
-    <row r="119" s="16" customFormat="1" spans="2:2">
-      <c r="B119" s="17"/>
-    </row>
-    <row r="120" s="16" customFormat="1" spans="2:2">
-      <c r="B120" s="17"/>
-    </row>
-    <row r="121" s="16" customFormat="1" spans="2:2">
-      <c r="B121" s="17"/>
-    </row>
-    <row r="122" s="16" customFormat="1" spans="2:2">
-      <c r="B122" s="17"/>
+    <row r="1" s="28" customFormat="1" ht="22.5" spans="1:31">
+      <c r="A1" s="35"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="36"/>
+    </row>
+    <row r="2" s="28" customFormat="1" spans="1:27">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="41"/>
+    </row>
+    <row r="3" s="28" customFormat="1" spans="1:10">
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="J3" s="35"/>
+    </row>
+    <row r="4" s="28" customFormat="1" spans="1:10">
+      <c r="A4" s="35"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="35"/>
+      <c r="J4" s="35"/>
+    </row>
+    <row r="5" s="28" customFormat="1" spans="1:10">
+      <c r="A5" s="35"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="35"/>
+      <c r="J5" s="35"/>
+    </row>
+    <row r="6" s="28" customFormat="1" spans="1:10">
+      <c r="A6" s="35"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="35"/>
+      <c r="J6" s="35"/>
+    </row>
+    <row r="7" s="28" customFormat="1" spans="1:10">
+      <c r="A7" s="35"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="35"/>
+      <c r="J7" s="35"/>
+    </row>
+    <row r="8" s="28" customFormat="1" spans="1:10">
+      <c r="A8" s="35"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="35"/>
+      <c r="J8" s="35"/>
+    </row>
+    <row r="9" s="28" customFormat="1" spans="1:10">
+      <c r="A9" s="35"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="35"/>
+      <c r="J9" s="35"/>
+    </row>
+    <row r="10" s="28" customFormat="1" spans="1:10">
+      <c r="A10" s="35"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="35"/>
+      <c r="J10" s="35"/>
+    </row>
+    <row r="11" s="28" customFormat="1" spans="1:10">
+      <c r="A11" s="35"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="35"/>
+      <c r="J11" s="35"/>
+    </row>
+    <row r="12" s="28" customFormat="1" spans="1:18">
+      <c r="A12" s="35"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="R12" s="35"/>
+    </row>
+    <row r="13" s="28" customFormat="1" spans="1:18">
+      <c r="A13" s="35"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="R13" s="35"/>
+    </row>
+    <row r="14" s="28" customFormat="1" spans="1:10">
+      <c r="A14" s="35"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="35"/>
+      <c r="J14" s="35"/>
+    </row>
+    <row r="15" s="28" customFormat="1" spans="1:10">
+      <c r="A15" s="35"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="35"/>
+      <c r="J15" s="35"/>
+    </row>
+    <row r="16" s="28" customFormat="1" spans="1:10">
+      <c r="A16" s="35"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="35"/>
+      <c r="J16" s="35"/>
+    </row>
+    <row r="17" s="28" customFormat="1" spans="1:10">
+      <c r="A17" s="35"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="35"/>
+      <c r="J17" s="35"/>
+    </row>
+    <row r="18" s="28" customFormat="1" spans="1:18">
+      <c r="A18" s="35"/>
+      <c r="B18" s="36"/>
+      <c r="J18" s="35"/>
+      <c r="R18" s="35"/>
+    </row>
+    <row r="19" s="28" customFormat="1" spans="1:10">
+      <c r="A19" s="35"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="35"/>
+      <c r="J19" s="35"/>
+    </row>
+    <row r="20" s="28" customFormat="1" spans="1:10">
+      <c r="A20" s="35"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="35"/>
+      <c r="J20" s="35"/>
+    </row>
+    <row r="21" s="28" customFormat="1" spans="1:10">
+      <c r="A21" s="35"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="35"/>
+      <c r="J21" s="35"/>
+    </row>
+    <row r="22" s="28" customFormat="1" spans="1:10">
+      <c r="A22" s="35"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="35"/>
+      <c r="J22" s="35"/>
+    </row>
+    <row r="23" s="28" customFormat="1" spans="1:10">
+      <c r="A23" s="35"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="35"/>
+      <c r="J23" s="35"/>
+    </row>
+    <row r="24" s="28" customFormat="1" spans="1:10">
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="36"/>
+      <c r="J24" s="35"/>
+    </row>
+    <row r="25" s="28" customFormat="1" spans="1:10">
+      <c r="A25" s="35"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="J25" s="35"/>
+    </row>
+    <row r="26" s="28" customFormat="1" spans="1:10">
+      <c r="A26" s="35"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="J26" s="35"/>
+    </row>
+    <row r="27" s="28" customFormat="1" spans="1:10">
+      <c r="A27" s="35"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="J27" s="35"/>
+    </row>
+    <row r="28" s="28" customFormat="1" spans="1:10">
+      <c r="A28" s="35"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="J28" s="35"/>
+    </row>
+    <row r="29" s="28" customFormat="1" spans="1:10">
+      <c r="A29" s="35"/>
+      <c r="B29" s="36"/>
+      <c r="J29" s="35"/>
+    </row>
+    <row r="30" s="28" customFormat="1" spans="3:10">
+      <c r="C30" s="36"/>
+      <c r="J30" s="35"/>
+    </row>
+    <row r="31" s="28" customFormat="1" spans="1:10">
+      <c r="A31" s="35"/>
+      <c r="B31" s="37"/>
+      <c r="J31" s="35"/>
+    </row>
+    <row r="32" s="28" customFormat="1" spans="1:10">
+      <c r="A32" s="35"/>
+      <c r="B32" s="37"/>
+      <c r="J32" s="35"/>
+    </row>
+    <row r="33" s="28" customFormat="1" spans="10:10">
+      <c r="J33" s="35"/>
+    </row>
+    <row r="34" s="28" customFormat="1" spans="1:10">
+      <c r="A34" s="35"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="36"/>
+      <c r="J34" s="35"/>
+    </row>
+    <row r="35" s="28" customFormat="1" spans="1:10">
+      <c r="A35" s="35"/>
+      <c r="B35" s="37"/>
+      <c r="J35" s="35"/>
+    </row>
+    <row r="36" s="28" customFormat="1" spans="10:10">
+      <c r="J36" s="35"/>
+    </row>
+    <row r="37" s="28" customFormat="1" spans="10:10">
+      <c r="J37" s="35"/>
+    </row>
+    <row r="38" s="28" customFormat="1" spans="1:10">
+      <c r="A38" s="35"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="36"/>
+      <c r="J38" s="35"/>
+    </row>
+    <row r="39" s="28" customFormat="1" spans="1:10">
+      <c r="A39" s="35"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="36"/>
+      <c r="J39" s="35"/>
+    </row>
+    <row r="40" s="28" customFormat="1" spans="1:10">
+      <c r="A40" s="35"/>
+      <c r="B40" s="37"/>
+      <c r="J40" s="35"/>
+    </row>
+    <row r="41" s="28" customFormat="1" spans="10:10">
+      <c r="J41" s="35"/>
+    </row>
+    <row r="42" s="28" customFormat="1" spans="10:10">
+      <c r="J42" s="35"/>
+    </row>
+    <row r="43" s="28" customFormat="1" spans="3:10">
+      <c r="C43" s="36"/>
+      <c r="J43" s="35"/>
+    </row>
+    <row r="44" s="28" customFormat="1" spans="1:10">
+      <c r="A44" s="35"/>
+      <c r="J44" s="35"/>
+    </row>
+    <row r="45" s="28" customFormat="1" spans="1:10">
+      <c r="A45" s="35"/>
+      <c r="B45" s="37"/>
+      <c r="J45" s="35"/>
+    </row>
+    <row r="46" s="28" customFormat="1" spans="10:10">
+      <c r="J46" s="35"/>
+    </row>
+    <row r="47" s="28" customFormat="1" spans="1:10">
+      <c r="A47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="J47" s="35"/>
+    </row>
+    <row r="48" s="28" customFormat="1" spans="1:10">
+      <c r="A48" s="35"/>
+      <c r="B48" s="35"/>
+      <c r="J48" s="35"/>
+    </row>
+    <row r="49" s="28" customFormat="1" spans="1:10">
+      <c r="A49" s="35"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="35"/>
+      <c r="J49" s="35"/>
+    </row>
+    <row r="50" s="28" customFormat="1" spans="1:16">
+      <c r="A50" s="35"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="35"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="35"/>
+      <c r="M50" s="35"/>
+      <c r="N50" s="35"/>
+      <c r="O50" s="35"/>
+      <c r="P50" s="40"/>
+    </row>
+    <row r="51" s="28" customFormat="1" spans="1:10">
+      <c r="A51" s="35"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="35"/>
+      <c r="J51" s="35"/>
+    </row>
+    <row r="52" s="28" customFormat="1" spans="1:10">
+      <c r="A52" s="35"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
+      <c r="J52" s="35"/>
+    </row>
+    <row r="53" s="28" customFormat="1" spans="1:10">
+      <c r="A53" s="35"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
+      <c r="J53" s="35"/>
+    </row>
+    <row r="54" s="28" customFormat="1" spans="1:16">
+      <c r="A54" s="35"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="35"/>
+      <c r="J54" s="35"/>
+      <c r="K54" s="35"/>
+      <c r="L54" s="35"/>
+      <c r="M54" s="35"/>
+      <c r="N54" s="35"/>
+      <c r="O54" s="35"/>
+      <c r="P54" s="40"/>
+    </row>
+    <row r="55" s="28" customFormat="1" spans="1:10">
+      <c r="A55" s="35"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="36"/>
+      <c r="J55" s="35"/>
+    </row>
+    <row r="56" s="28" customFormat="1" spans="1:10">
+      <c r="A56" s="35"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="36"/>
+      <c r="J56" s="35"/>
+    </row>
+    <row r="57" s="28" customFormat="1" spans="1:10">
+      <c r="A57" s="35"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="35"/>
+      <c r="J57" s="35"/>
+    </row>
+    <row r="58" s="28" customFormat="1" spans="1:10">
+      <c r="A58" s="35"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="35"/>
+      <c r="J58" s="35"/>
+    </row>
+    <row r="59" s="28" customFormat="1" spans="1:10">
+      <c r="A59" s="35"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="35"/>
+      <c r="J59" s="35"/>
+    </row>
+    <row r="60" s="28" customFormat="1" spans="1:10">
+      <c r="A60" s="35"/>
+      <c r="B60" s="35"/>
+      <c r="C60" s="35"/>
+      <c r="J60" s="35"/>
+    </row>
+    <row r="65" s="35" customFormat="1" spans="2:2">
+      <c r="B65" s="37"/>
+    </row>
+    <row r="71" s="35" customFormat="1" spans="3:3">
+      <c r="C71" s="37"/>
+    </row>
+    <row r="72" s="35" customFormat="1" spans="3:3">
+      <c r="C72" s="36"/>
+    </row>
+    <row r="74" s="35" customFormat="1" spans="3:3">
+      <c r="C74" s="40"/>
+    </row>
+    <row r="75" s="35" customFormat="1" spans="5:5">
+      <c r="E75" s="40"/>
+    </row>
+    <row r="76" s="35" customFormat="1" spans="4:4">
+      <c r="D76" s="40"/>
+    </row>
+    <row r="77" s="35" customFormat="1" spans="5:5">
+      <c r="E77" s="40"/>
+    </row>
+    <row r="78" s="35" customFormat="1" spans="4:4">
+      <c r="D78" s="40"/>
+    </row>
+    <row r="79" s="35" customFormat="1" spans="3:3">
+      <c r="C79" s="40"/>
+    </row>
+    <row r="80" s="35" customFormat="1" spans="3:3">
+      <c r="C80" s="40"/>
+    </row>
+    <row r="81" s="35" customFormat="1" spans="3:3">
+      <c r="C81" s="36"/>
+    </row>
+    <row r="82" s="35" customFormat="1" spans="3:3">
+      <c r="C82" s="40"/>
+    </row>
+    <row r="83" s="35" customFormat="1" spans="3:3">
+      <c r="C83" s="40"/>
+    </row>
+    <row r="84" s="35" customFormat="1" spans="3:3">
+      <c r="C84" s="36"/>
+    </row>
+    <row r="90" s="35" customFormat="1" spans="3:5">
+      <c r="C90" s="36"/>
+      <c r="E90" s="36"/>
+    </row>
+    <row r="91" s="35" customFormat="1" spans="3:3">
+      <c r="C91" s="37"/>
+    </row>
+    <row r="113" s="35" customFormat="1" spans="2:2">
+      <c r="B113" s="36"/>
+    </row>
+    <row r="114" s="35" customFormat="1" spans="2:2">
+      <c r="B114" s="36"/>
+    </row>
+    <row r="115" s="35" customFormat="1" spans="2:2">
+      <c r="B115" s="36"/>
+    </row>
+    <row r="116" s="35" customFormat="1" spans="2:2">
+      <c r="B116" s="36"/>
+    </row>
+    <row r="117" s="35" customFormat="1" spans="2:2">
+      <c r="B117" s="36"/>
+    </row>
+    <row r="118" s="35" customFormat="1" spans="2:2">
+      <c r="B118" s="36"/>
+    </row>
+    <row r="119" s="35" customFormat="1" spans="2:2">
+      <c r="B119" s="36"/>
+    </row>
+    <row r="120" s="35" customFormat="1" spans="2:2">
+      <c r="B120" s="36"/>
+    </row>
+    <row r="121" s="35" customFormat="1" spans="2:2">
+      <c r="B121" s="36"/>
+    </row>
+    <row r="122" s="35" customFormat="1" spans="2:2">
+      <c r="B122" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9540,7 +9965,7 @@
     <row r="67" customFormat="1"/>
     <row r="68" customFormat="1"/>
     <row r="69" customFormat="1" spans="1:1">
-      <c r="A69" s="14" t="s">
+      <c r="A69" s="34" t="s">
         <v>353</v>
       </c>
     </row>
@@ -9560,17 +9985,17 @@
     <row r="79" customFormat="1"/>
     <row r="80" customFormat="1"/>
     <row r="134" spans="1:1">
-      <c r="A134" s="14" t="s">
+      <c r="A134" s="34" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="135" spans="1:1">
-      <c r="A135" s="14" t="s">
+      <c r="A135" s="34" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="136" spans="1:1">
-      <c r="A136" s="14"/>
+      <c r="A136" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9582,342 +10007,961 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:M53"/>
+  <dimension ref="A1:AB53"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S48" sqref="S48"/>
+    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="Z46" sqref="Z46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="3" spans="2:2">
-      <c r="B3" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
-      <c r="B4" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>358</v>
       </c>
+      <c r="C2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="H3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D4" s="2"/>
       <c r="H4" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8">
-      <c r="B5" t="s">
+        <v>364</v>
+      </c>
+      <c r="N4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="H5" t="s">
+        <v>368</v>
+      </c>
+      <c r="N5" s="20"/>
+      <c r="X5" s="28"/>
+      <c r="Y5" s="28"/>
+      <c r="Z5" s="28"/>
+      <c r="AA5" s="28"/>
+      <c r="AB5" s="28"/>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="21"/>
+      <c r="N6" s="22"/>
+      <c r="P6" t="s">
+        <v>371</v>
+      </c>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="28" t="s">
         <v>360</v>
       </c>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="2:10">
-      <c r="B6" s="3">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="H6" s="5"/>
-      <c r="J6" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11">
-      <c r="B7" s="3">
+      <c r="Z6" s="28"/>
+      <c r="AA6" s="28"/>
+      <c r="AB6" s="28"/>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="A7" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="H7" s="5">
         <v>1</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="21"/>
+      <c r="N7" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="P7" s="23" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q7" s="29"/>
+      <c r="S7" t="s">
+        <v>376</v>
+      </c>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="32" t="s">
         <v>362</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="28" t="s">
         <v>363</v>
       </c>
-      <c r="K7" s="8"/>
-    </row>
-    <row r="8" spans="2:11">
-      <c r="B8" s="3">
+      <c r="AB7" s="28"/>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="A8" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="H8" s="5">
         <v>2</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="H8" s="5"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="10"/>
-    </row>
-    <row r="9" spans="2:11">
-      <c r="B9" s="3">
+      <c r="I8" s="21"/>
+      <c r="N8" s="22"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="30"/>
+      <c r="X8" s="28"/>
+      <c r="Y8" s="32" t="s">
+        <v>366</v>
+      </c>
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="28" t="s">
+        <v>367</v>
+      </c>
+      <c r="AB8" s="28"/>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="H9" s="5">
         <v>3</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="10"/>
-    </row>
-    <row r="10" spans="2:11">
-      <c r="B10" s="3">
+      <c r="I9" s="21"/>
+      <c r="N9" s="22"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="30"/>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="Z9" s="33"/>
+      <c r="AA9" s="28" t="s">
+        <v>370</v>
+      </c>
+      <c r="AB9" s="28"/>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="H10" s="5">
         <v>4</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="H10" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="10"/>
-    </row>
-    <row r="11" spans="2:13">
-      <c r="B11" s="3">
+      <c r="I10" s="21"/>
+      <c r="N10" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="30"/>
+      <c r="S10" t="s">
+        <v>376</v>
+      </c>
+      <c r="X10" s="28"/>
+      <c r="Y10" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="28" t="s">
+        <v>373</v>
+      </c>
+      <c r="AB10" s="28"/>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="H11" s="5">
         <v>5</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="J11" s="11" t="s">
+      <c r="I11" s="21"/>
+      <c r="P11" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q11" s="21"/>
+      <c r="S11" t="s">
+        <v>384</v>
+      </c>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="32" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z11" s="33"/>
+      <c r="AA11" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="AB11" s="28"/>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="A12" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="H12" s="5">
+        <v>6</v>
+      </c>
+      <c r="I12" s="21"/>
+      <c r="P12" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q12" s="21"/>
+      <c r="S12" t="s">
+        <v>386</v>
+      </c>
+      <c r="X12" s="28"/>
+      <c r="Y12" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="Z12" s="33"/>
+      <c r="AA12" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="AB12" s="28"/>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="H13" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="I13" s="21"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="30"/>
+      <c r="X13" s="28"/>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="A14" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="H14" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="I14" s="21"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="30"/>
+      <c r="X14" s="28"/>
+      <c r="Y14" s="28" t="s">
+        <v>381</v>
+      </c>
+      <c r="Z14" s="28"/>
+      <c r="AA14" s="28"/>
+      <c r="AB14" s="28"/>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="A15" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="N15" t="s">
         <v>365</v>
       </c>
-      <c r="K11" s="4"/>
-      <c r="M11" t="s">
+      <c r="P15" s="24"/>
+      <c r="Q15" s="30"/>
+      <c r="X15" s="28"/>
+      <c r="Y15" s="32" t="s">
+        <v>362</v>
+      </c>
+      <c r="Z15" s="33"/>
+      <c r="AA15" s="28" t="s">
+        <v>363</v>
+      </c>
+      <c r="AB15" s="28"/>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="A16" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="N16" s="20"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="31"/>
+      <c r="X16" s="28"/>
+      <c r="Y16" s="32" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="12" spans="2:13">
-      <c r="B12" s="3">
-        <v>6</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="J12" s="11" t="s">
+      <c r="Z16" s="33"/>
+      <c r="AA16" s="28" t="s">
         <v>367</v>
       </c>
-      <c r="K12" s="4"/>
-      <c r="M12" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11">
-      <c r="B13" s="3" t="s">
+      <c r="AB16" s="28"/>
+    </row>
+    <row r="17" spans="1:28">
+      <c r="A17" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="H17" t="s">
+        <v>390</v>
+      </c>
+      <c r="N17" s="22"/>
+      <c r="P17" t="s">
+        <v>391</v>
+      </c>
+      <c r="X17" s="28"/>
+      <c r="Y17" s="32" t="s">
         <v>369</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="10"/>
-    </row>
-    <row r="14" spans="2:11">
-      <c r="B14" s="3" t="s">
+      <c r="Z17" s="33"/>
+      <c r="AA17" s="28" t="s">
         <v>370</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="10"/>
-    </row>
-    <row r="15" spans="8:11">
-      <c r="H15" t="s">
-        <v>359</v>
-      </c>
-      <c r="J15" s="9"/>
-      <c r="K15" s="10"/>
-    </row>
-    <row r="16" spans="8:11">
-      <c r="H16" s="2"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="13"/>
-    </row>
-    <row r="17" spans="2:10">
-      <c r="B17" t="s">
+      <c r="AB17" s="28"/>
+    </row>
+    <row r="18" spans="1:28">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="H18" t="s">
+        <v>392</v>
+      </c>
+      <c r="N18" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="P18" s="23" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q18" s="29"/>
+      <c r="X18" s="28"/>
+      <c r="Y18" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="Z18" s="33"/>
+      <c r="AA18" s="28" t="s">
+        <v>373</v>
+      </c>
+      <c r="AB18" s="28"/>
+    </row>
+    <row r="19" spans="1:28">
+      <c r="A19" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="N19" s="22"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="30"/>
+      <c r="X19" s="28"/>
+      <c r="Y19" s="32" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z19" s="33"/>
+      <c r="AA19" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="AB19" s="28"/>
+    </row>
+    <row r="20" spans="1:28">
+      <c r="A20" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="N20" s="22"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="30"/>
+      <c r="X20" s="28"/>
+      <c r="Y20" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="Z20" s="33"/>
+      <c r="AA20" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="AB20" s="28"/>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="A21" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="N21" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="30"/>
+      <c r="X21" s="28"/>
+    </row>
+    <row r="22" spans="1:28">
+      <c r="A22" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="P22" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q22" s="21"/>
+      <c r="X22" s="28"/>
+      <c r="Y22" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="Z22" s="28"/>
+      <c r="AA22" s="28"/>
+      <c r="AB22" s="28"/>
+    </row>
+    <row r="23" spans="1:28">
+      <c r="A23" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="P23" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q23" s="21"/>
+      <c r="X23" s="28"/>
+      <c r="Y23" s="28"/>
+      <c r="Z23" s="28"/>
+      <c r="AA23" s="28"/>
+      <c r="AB23" s="28"/>
+    </row>
+    <row r="24" spans="1:28">
+      <c r="A24" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="30"/>
+      <c r="X24" s="28"/>
+      <c r="Y24" s="28" t="s">
+        <v>393</v>
+      </c>
+      <c r="Z24" s="28"/>
+      <c r="AA24" s="28"/>
+      <c r="AB24" s="28"/>
+    </row>
+    <row r="25" spans="1:28">
+      <c r="A25" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="30"/>
+      <c r="X25" s="28"/>
+      <c r="Y25" s="32" t="s">
+        <v>362</v>
+      </c>
+      <c r="Z25" s="33"/>
+      <c r="AA25" s="28" t="s">
+        <v>363</v>
+      </c>
+      <c r="AB25" s="28"/>
+    </row>
+    <row r="26" spans="1:28">
+      <c r="A26" t="s">
+        <v>394</v>
+      </c>
+      <c r="C26" t="s">
+        <v>395</v>
+      </c>
+      <c r="N26" t="s">
+        <v>365</v>
+      </c>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="30"/>
+      <c r="X26" s="28"/>
+      <c r="Y26" s="32" t="s">
+        <v>366</v>
+      </c>
+      <c r="Z26" s="33"/>
+      <c r="AA26" s="28" t="s">
+        <v>367</v>
+      </c>
+      <c r="AB26" s="28"/>
+    </row>
+    <row r="27" spans="1:28">
+      <c r="A27" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="H17" s="5"/>
-      <c r="J17" t="s">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="N27" s="20"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="31"/>
+      <c r="X27" s="28"/>
+      <c r="Y27" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="Z27" s="33"/>
+      <c r="AA27" s="28" t="s">
+        <v>370</v>
+      </c>
+      <c r="AB27" s="28"/>
+    </row>
+    <row r="28" spans="1:28">
+      <c r="A28" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="N28" s="22"/>
+      <c r="P28" t="s">
+        <v>396</v>
+      </c>
+      <c r="X28" s="28"/>
+      <c r="Y28" s="32" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="18" spans="2:11">
-      <c r="B18" t="s">
+      <c r="Z28" s="33"/>
+      <c r="AA28" s="28" t="s">
         <v>373</v>
       </c>
-      <c r="H18" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="K18" s="8"/>
-    </row>
-    <row r="19" spans="8:11">
-      <c r="H19" s="5"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="10"/>
-    </row>
-    <row r="20" spans="8:11">
-      <c r="H20" s="5"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="10"/>
-    </row>
-    <row r="21" spans="8:11">
-      <c r="H21" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="J21" s="9"/>
-      <c r="K21" s="10"/>
-    </row>
-    <row r="22" spans="10:11">
-      <c r="J22" s="11" t="s">
+      <c r="AB28" s="28"/>
+    </row>
+    <row r="29" spans="1:28">
+      <c r="A29" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="N29" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="P29" s="23" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q29" s="29"/>
+      <c r="Y29" s="32" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z29" s="33"/>
+      <c r="AA29" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="AB29" s="28"/>
+    </row>
+    <row r="30" spans="1:28">
+      <c r="A30" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="N30" s="22"/>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="30"/>
+      <c r="Y30" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="Z30" s="33"/>
+      <c r="AA30" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="AB30" s="28"/>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="N31" s="22"/>
+      <c r="P31" s="24"/>
+      <c r="Q31" s="30"/>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="N32" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="P32" s="24"/>
+      <c r="Q32" s="30"/>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="P33" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q33" s="21"/>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="P34" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q34" s="21"/>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="B35" s="13"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="30"/>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="30"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="N37" t="s">
         <v>365</v>
       </c>
-      <c r="K22" s="4"/>
-    </row>
-    <row r="23" spans="10:11">
-      <c r="J23" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="K23" s="4"/>
-    </row>
-    <row r="24" spans="10:11">
-      <c r="J24" s="9"/>
-      <c r="K24" s="10"/>
-    </row>
-    <row r="25" spans="10:11">
-      <c r="J25" s="9"/>
-      <c r="K25" s="10"/>
-    </row>
-    <row r="26" spans="8:11">
-      <c r="H26" t="s">
-        <v>359</v>
-      </c>
-      <c r="J26" s="9"/>
-      <c r="K26" s="10"/>
-    </row>
-    <row r="27" spans="8:11">
-      <c r="H27" s="2"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="13"/>
-    </row>
-    <row r="28" spans="8:10">
-      <c r="H28" s="5"/>
-      <c r="J28" t="s">
+      <c r="P37" s="24"/>
+      <c r="Q37" s="30"/>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="B38" s="13"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="N38" s="20"/>
+      <c r="P38" s="27"/>
+      <c r="Q38" s="31"/>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="N39" s="22"/>
+      <c r="P39" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="N40" s="22" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="29" spans="8:11">
-      <c r="H29" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="K29" s="8"/>
-    </row>
-    <row r="30" spans="8:11">
-      <c r="H30" s="5"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="10"/>
-    </row>
-    <row r="31" spans="8:11">
-      <c r="H31" s="5"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="10"/>
-    </row>
-    <row r="32" spans="8:11">
-      <c r="H32" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="J32" s="9"/>
-      <c r="K32" s="10"/>
-    </row>
-    <row r="33" spans="10:11">
-      <c r="J33" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="K33" s="4"/>
-    </row>
-    <row r="34" spans="10:11">
-      <c r="J34" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="K34" s="4"/>
-    </row>
-    <row r="35" spans="10:11">
-      <c r="J35" s="9"/>
-      <c r="K35" s="10"/>
-    </row>
-    <row r="36" spans="10:11">
-      <c r="J36" s="9"/>
-      <c r="K36" s="10"/>
-    </row>
-    <row r="37" spans="8:11">
-      <c r="H37" t="s">
-        <v>359</v>
-      </c>
-      <c r="J37" s="9"/>
-      <c r="K37" s="10"/>
-    </row>
-    <row r="38" spans="8:11">
-      <c r="H38" s="2"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="13"/>
-    </row>
-    <row r="39" spans="8:10">
-      <c r="H39" s="5"/>
-      <c r="J39" t="s">
+      <c r="P40" s="23" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="40" spans="8:11">
-      <c r="H40" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="J40" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="K40" s="8"/>
-    </row>
-    <row r="41" spans="8:11">
-      <c r="H41" s="5"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="10"/>
-    </row>
-    <row r="42" spans="8:11">
-      <c r="H42" s="5"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="10"/>
-    </row>
-    <row r="43" spans="8:11">
-      <c r="H43" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="J43" s="9"/>
-      <c r="K43" s="10"/>
-    </row>
-    <row r="44" spans="10:11">
-      <c r="J44" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="K44" s="4"/>
-    </row>
-    <row r="45" spans="10:11">
-      <c r="J45" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="K45" s="4"/>
-    </row>
-    <row r="46" spans="10:11">
-      <c r="J46" s="9"/>
-      <c r="K46" s="10"/>
-    </row>
-    <row r="47" spans="10:11">
-      <c r="J47" s="9"/>
-      <c r="K47" s="10"/>
-    </row>
-    <row r="48" spans="10:11">
-      <c r="J48" s="9"/>
-      <c r="K48" s="10"/>
-    </row>
-    <row r="49" spans="10:11">
-      <c r="J49" s="12"/>
-      <c r="K49" s="13"/>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="53" s="1" customFormat="1"/>
+      <c r="Q40" s="29"/>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="N41" s="22"/>
+      <c r="P41" s="24"/>
+      <c r="Q41" s="30"/>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="N42" s="22"/>
+      <c r="P42" s="24"/>
+      <c r="Q42" s="30"/>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="N43" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="P43" s="24"/>
+      <c r="Q43" s="30"/>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="P44" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q44" s="21"/>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="B45" s="16"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="P45" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q45" s="21"/>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="B46" s="17"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="P46" s="24"/>
+      <c r="Q46" s="30"/>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="B47" s="12"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="P47" s="24"/>
+      <c r="Q47" s="30"/>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="18" t="s">
+        <v>389</v>
+      </c>
+      <c r="B48" s="16"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="P48" s="24"/>
+      <c r="Q48" s="30"/>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="B49" s="15"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="10"/>
+      <c r="P49" s="27"/>
+      <c r="Q49" s="31"/>
+    </row>
+    <row r="53" s="1" customFormat="1" spans="1:25">
+      <c r="A53" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="S53" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="T53" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="U53" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="V53" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="W53" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="X53" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="Y53" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>